--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Bluemel.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Bluemel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480F468D-2925-4B67-9C18-00DB766952BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD22788D-A205-41C5-87F5-23EF9132E8B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-3495" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataExtraction" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Drop-down overview" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$49</definedName>
     <definedName name="Benthic_epifauna">Validation!$AI$32:$AI$35</definedName>
     <definedName name="Benthos">Validation!$AN$24:$AN$25</definedName>
     <definedName name="Catch_and_bycatch">Validation!$AM$15:$AM$17</definedName>
@@ -55,7 +55,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -99,8 +98,8 @@
     <author>tc={0DBA107E-6F54-47E4-99BD-BD727CABFC0F}</author>
     <author>tc={CC0A6BC4-04EF-4A83-B009-E37BE3CA69B7}</author>
     <author>tc={83BF076C-EF3A-4FF6-92DF-06C2F3DA57D1}</author>
+    <author>tc={1F73A643-4889-4B00-BF17-FD191EDC437F}</author>
     <author>tc={C13FAB98-20DA-4332-A868-0381F8EB51A5}</author>
-    <author>tc={7FA8D67E-6429-4D2A-8FA9-F67AE0841D7E}</author>
     <author>tc={8B01BB42-BD50-4A2B-91AE-BFF1AE1CC4A6}</author>
     <author>tc={11A0CED8-7C4E-4A10-B3D6-7390E2591B9D}</author>
     <author>tc={7C93FD45-F80E-4576-B1F4-320CE5D28934}</author>
@@ -109,13 +108,18 @@
     <author>tc={8E7B695D-F34B-40FE-813F-DC802677F34C}</author>
     <author>tc={DB75CAF6-E7A8-4AD0-BD5E-B650738D5CE8}</author>
     <author>tc={172069E3-CDA2-41BE-8240-6D3A9258F91B}</author>
-    <author>tc={643211F3-E151-46E5-A750-BD6BDC1FFAAF}</author>
-    <author>tc={D7E3BE57-B894-42F5-82B7-FC043B87FFAF}</author>
-    <author>tc={22B54945-1938-47E0-9381-6D5F19AFB03A}</author>
+    <author>tc={ABCFD0AF-BE84-4846-9C69-0442BE7E7030}</author>
+    <author>tc={2E2E41C1-2DBF-42F9-8384-EA0DBD36144F}</author>
+    <author>tc={1F4028D3-691D-45CB-A4DC-194315CA757A}</author>
+    <author>tc={6586F64A-DB48-4A9D-A4A3-A7DD60911E1C}</author>
+    <author>tc={F75443A0-3FE8-4BA1-93C4-5CB19F2E9DCC}</author>
+    <author>tc={8071F227-D101-4336-BD57-1F39C4B7162B}</author>
+    <author>tc={BB98232E-2577-4BAC-B9A0-60E7F593BE74}</author>
+    <author>tc={7AD91645-8D90-4760-9B65-974C35D6BB66}</author>
+    <author>tc={7D39EFC8-0081-450E-A4F5-FE481BD385AA}</author>
     <author>tc={C0A70C4B-9FF8-4338-B62A-E4A38C309496}</author>
     <author>tc={265960B0-98E3-428D-9648-DA395740091E}</author>
     <author>tc={BF36CD8D-F930-4DE8-A36A-E7811E80A5A0}</author>
-    <author>tc={C6E0F4D7-960B-4C5F-966C-22648C6D1F5A}</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{DA659EFB-5B1F-43DD-9A38-B812E57BCFB6}">
@@ -1473,7 +1477,7 @@
     scallops older in closed area</t>
       </text>
     </comment>
-    <comment ref="V31" authorId="29" shapeId="0" xr:uid="{8F605331-8FA3-4091-906F-6572B9E08CBE}">
+    <comment ref="V32" authorId="29" shapeId="0" xr:uid="{8F605331-8FA3-4091-906F-6572B9E08CBE}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1481,7 +1485,7 @@
     no indication of this</t>
       </text>
     </comment>
-    <comment ref="AR31" authorId="30" shapeId="0" xr:uid="{CD3A6164-943A-4E6E-9BF5-5FE09891CCB9}">
+    <comment ref="AR32" authorId="30" shapeId="0" xr:uid="{CD3A6164-943A-4E6E-9BF5-5FE09891CCB9}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1489,7 +1493,7 @@
     rapido similar to beamtrawl</t>
       </text>
     </comment>
-    <comment ref="V32" authorId="31" shapeId="0" xr:uid="{0DBA107E-6F54-47E4-99BD-BD727CABFC0F}">
+    <comment ref="V33" authorId="31" shapeId="0" xr:uid="{0DBA107E-6F54-47E4-99BD-BD727CABFC0F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1497,7 +1501,7 @@
     no indication of this</t>
       </text>
     </comment>
-    <comment ref="AS32" authorId="32" shapeId="0" xr:uid="{CC0A6BC4-04EF-4A83-B009-E37BE3CA69B7}">
+    <comment ref="AS33" authorId="32" shapeId="0" xr:uid="{CC0A6BC4-04EF-4A83-B009-E37BE3CA69B7}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1505,7 +1509,7 @@
     hydrolic dredge</t>
       </text>
     </comment>
-    <comment ref="AV33" authorId="33" shapeId="0" xr:uid="{83BF076C-EF3A-4FF6-92DF-06C2F3DA57D1}">
+    <comment ref="AV34" authorId="33" shapeId="0" xr:uid="{83BF076C-EF3A-4FF6-92DF-06C2F3DA57D1}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1513,7 +1517,7 @@
     Diet</t>
       </text>
     </comment>
-    <comment ref="AG34" authorId="34" shapeId="0" xr:uid="{C13FAB98-20DA-4332-A868-0381F8EB51A5}">
+    <comment ref="AG35" authorId="34" shapeId="0" xr:uid="{1F73A643-4889-4B00-BF17-FD191EDC437F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1521,15 +1525,15 @@
     both field and lab study</t>
       </text>
     </comment>
-    <comment ref="AV34" authorId="35" shapeId="0" xr:uid="{7FA8D67E-6429-4D2A-8FA9-F67AE0841D7E}">
+    <comment ref="AG36" authorId="35" shapeId="0" xr:uid="{C13FAB98-20DA-4332-A868-0381F8EB51A5}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    and behaviour</t>
+    both field and lab study</t>
       </text>
     </comment>
-    <comment ref="AR35" authorId="36" shapeId="0" xr:uid="{8B01BB42-BD50-4A2B-91AE-BFF1AE1CC4A6}">
+    <comment ref="AR37" authorId="36" shapeId="0" xr:uid="{8B01BB42-BD50-4A2B-91AE-BFF1AE1CC4A6}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1537,7 +1541,7 @@
     beam and otter</t>
       </text>
     </comment>
-    <comment ref="AW35" authorId="37" shapeId="0" xr:uid="{11A0CED8-7C4E-4A10-B3D6-7390E2591B9D}">
+    <comment ref="AW37" authorId="37" shapeId="0" xr:uid="{11A0CED8-7C4E-4A10-B3D6-7390E2591B9D}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1545,7 +1549,7 @@
     Did not test relationship but modelled mortality rates of bycatch for each species</t>
       </text>
     </comment>
-    <comment ref="AR36" authorId="38" shapeId="0" xr:uid="{7C93FD45-F80E-4576-B1F4-320CE5D28934}">
+    <comment ref="AR38" authorId="38" shapeId="0" xr:uid="{7C93FD45-F80E-4576-B1F4-320CE5D28934}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1553,7 +1557,7 @@
     beam and otter</t>
       </text>
     </comment>
-    <comment ref="AW36" authorId="39" shapeId="0" xr:uid="{84CBE241-7A40-4FBE-9038-FF85F7034818}">
+    <comment ref="AW38" authorId="39" shapeId="0" xr:uid="{84CBE241-7A40-4FBE-9038-FF85F7034818}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1561,7 +1565,7 @@
     Did not test relationship but modelled mortality rates of bycatch for each species</t>
       </text>
     </comment>
-    <comment ref="R39" authorId="40" shapeId="0" xr:uid="{29231E64-24AA-413F-9FA6-0B09201F7447}">
+    <comment ref="R41" authorId="40" shapeId="0" xr:uid="{29231E64-24AA-413F-9FA6-0B09201F7447}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1569,7 +1573,7 @@
     Paper describes the shrimp shoal structure but not assessment of fishing impacts on it</t>
       </text>
     </comment>
-    <comment ref="R40" authorId="41" shapeId="0" xr:uid="{8E7B695D-F34B-40FE-813F-DC802677F34C}">
+    <comment ref="R42" authorId="41" shapeId="0" xr:uid="{8E7B695D-F34B-40FE-813F-DC802677F34C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1577,7 +1581,7 @@
     this study identifies impacts of season and breeding of species, resource access (regulations and competition between fisheries) on LPUE, not impacts of fishing on ecosystem</t>
       </text>
     </comment>
-    <comment ref="R41" authorId="42" shapeId="0" xr:uid="{DB75CAF6-E7A8-4AD0-BD5E-B650738D5CE8}">
+    <comment ref="R43" authorId="42" shapeId="0" xr:uid="{DB75CAF6-E7A8-4AD0-BD5E-B650738D5CE8}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1585,7 +1589,7 @@
     a review of deepwater fisheries with no analysis of data</t>
       </text>
     </comment>
-    <comment ref="R42" authorId="43" shapeId="0" xr:uid="{172069E3-CDA2-41BE-8240-6D3A9258F91B}">
+    <comment ref="R44" authorId="43" shapeId="0" xr:uid="{172069E3-CDA2-41BE-8240-6D3A9258F91B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1593,7 +1597,7 @@
     I think this is purely a methodoligical paper - comparing hypotheses for natural mortality rates at age in stock assessment. This is not my area so would be good to have a second opinion!</t>
       </text>
     </comment>
-    <comment ref="T43" authorId="44" shapeId="0" xr:uid="{643211F3-E151-46E5-A750-BD6BDC1FFAAF}">
+    <comment ref="T45" authorId="44" shapeId="0" xr:uid="{ABCFD0AF-BE84-4846-9C69-0442BE7E7030}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1601,7 +1605,7 @@
     Ebro Delta Natural Park, 40o37'N, 00o35'E; see Oro and Martinez-Vilalata 1994 for details</t>
       </text>
     </comment>
-    <comment ref="V43" authorId="45" shapeId="0" xr:uid="{D7E3BE57-B894-42F5-82B7-FC043B87FFAF}">
+    <comment ref="V45" authorId="45" shapeId="0" xr:uid="{2E2E41C1-2DBF-42F9-8384-EA0DBD36144F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1609,7 +1613,7 @@
     no information provided for this</t>
       </text>
     </comment>
-    <comment ref="AR43" authorId="46" shapeId="0" xr:uid="{22B54945-1938-47E0-9381-6D5F19AFB03A}">
+    <comment ref="AR45" authorId="46" shapeId="0" xr:uid="{1F4028D3-691D-45CB-A4DC-194315CA757A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1617,7 +1621,55 @@
     just states trawling so could also include pelagic</t>
       </text>
     </comment>
-    <comment ref="AR44" authorId="47" shapeId="0" xr:uid="{C0A70C4B-9FF8-4338-B62A-E4A38C309496}">
+    <comment ref="T46" authorId="47" shapeId="0" xr:uid="{6586F64A-DB48-4A9D-A4A3-A7DD60911E1C}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Ebro Delta Natural Park, 40o37'N, 00o35'E; see Oro and Martinez-Vilalata 1994 for details</t>
+      </text>
+    </comment>
+    <comment ref="V46" authorId="48" shapeId="0" xr:uid="{F75443A0-3FE8-4BA1-93C4-5CB19F2E9DCC}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    no information provided for this</t>
+      </text>
+    </comment>
+    <comment ref="AR46" authorId="49" shapeId="0" xr:uid="{8071F227-D101-4336-BD57-1F39C4B7162B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    just states trawling so could also include pelagic</t>
+      </text>
+    </comment>
+    <comment ref="T47" authorId="50" shapeId="0" xr:uid="{BB98232E-2577-4BAC-B9A0-60E7F593BE74}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Ebro Delta Natural Park, 40o37'N, 00o35'E; see Oro and Martinez-Vilalata 1994 for details</t>
+      </text>
+    </comment>
+    <comment ref="V47" authorId="51" shapeId="0" xr:uid="{7AD91645-8D90-4760-9B65-974C35D6BB66}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    no information provided for this</t>
+      </text>
+    </comment>
+    <comment ref="AR47" authorId="52" shapeId="0" xr:uid="{7D39EFC8-0081-450E-A4F5-FE481BD385AA}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    just states trawling so could also include pelagic</t>
+      </text>
+    </comment>
+    <comment ref="AR48" authorId="53" shapeId="0" xr:uid="{C0A70C4B-9FF8-4338-B62A-E4A38C309496}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1625,7 +1677,7 @@
     Dutch trawlers fishing for mackerel, discuss additional purse-seine fishery in 1964 - so potentially multiple gears targeting mackerel</t>
       </text>
     </comment>
-    <comment ref="AV44" authorId="48" shapeId="0" xr:uid="{265960B0-98E3-428D-9648-DA395740091E}">
+    <comment ref="AV48" authorId="54" shapeId="0" xr:uid="{265960B0-98E3-428D-9648-DA395740091E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1633,20 +1685,12 @@
     and age structure and mortality</t>
       </text>
     </comment>
-    <comment ref="AG45" authorId="49" shapeId="0" xr:uid="{BF36CD8D-F930-4DE8-A36A-E7811E80A5A0}">
+    <comment ref="AG49" authorId="55" shapeId="0" xr:uid="{BF36CD8D-F930-4DE8-A36A-E7811E80A5A0}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     field and lab experiment</t>
-      </text>
-    </comment>
-    <comment ref="AR45" authorId="50" shapeId="0" xr:uid="{C6E0F4D7-960B-4C5F-966C-22648C6D1F5A}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    any discarding L. depurator</t>
       </text>
     </comment>
   </commentList>
@@ -2779,7 +2823,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2093" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2239" uniqueCount="632">
   <si>
     <t>SearchID</t>
   </si>
@@ -4570,25 +4614,13 @@
     <t>Our results suggest that as the tickler chains pass through surface layers of the sediment, they dig out of expose entire brittlestars increasing their susceptability to predation by dab. This would explain the large increases in oral discs in the diets of dab. we believe this is the first study to demonstrate that dab increase their intake of food by feeding in areas disturbed by fishing activities.</t>
   </si>
   <si>
-    <t>lesser black-backed gull (Larus fuscus)</t>
-  </si>
-  <si>
     <t>trawling activity at different breeding stages (overlapped with egg laying  in 1994, initiated during hatching in 1995)</t>
   </si>
   <si>
-    <t>4.2 _ 4.4</t>
-  </si>
-  <si>
-    <t>diet _ clutch size _ egg volume _ breeding success _ reproductive phenology</t>
-  </si>
-  <si>
     <t>contingency tables _ G-test statistic _ Mann-Whitney U-test _ ANOVA</t>
   </si>
   <si>
     <t>Colony nest monitoring</t>
-  </si>
-  <si>
-    <t>A highly significant difference in diet composition was reorded between the 2 years (G-test = 234.4, P &lt; 0.0001, n = 377). Median date of laying was very similar in both years (Mann-Whitney U-test, z = 0.8, not significant, n = 86). Modal clutch size was 3 eggs in both years. Although clutch size decreased in the year of the trawling moratorium, differences were not significant (G-test = 1.36, df = 2, p = 0.51, n = 77). A significant year effect was detected in realtion to the average volume of a clutch (ANOVA, F = 13.3, p &lt; 0.001, n = 77), while neither clutch size effect (ANOVA, F = 28.6, p = 0.25, n = 77) nor the interactions between year and clutch size (ANOVA, F = 38.2, p 0.19, n = 77) were detected. Breeding success was significantly lower in 1995 than in 1994 (chi-squared = 5, df = 1, p = 0.02).</t>
   </si>
   <si>
     <t xml:space="preserve"> When trawlers operated, diet was dominated by fish from discards, while during the trawling moratorium gulls fed from refuse tips, olive tree fields and especially nce flelds. Although neither breed~ng phenology was different nor was clutch size s~gnif~cantly lower in the year of the trawling moratorium, the volume of the eqgs decreased sig- nificantly, showing the ~mportance of trawler discard availabil~ty as a proximate determinant of egg production of scavenging seabirds.</t>
@@ -4679,13 +4711,43 @@
   </si>
   <si>
     <t>numerous sensitve fish species</t>
+  </si>
+  <si>
+    <t>Callionymus lyra _ flatfish</t>
+  </si>
+  <si>
+    <t>Chamelea gallina</t>
+  </si>
+  <si>
+    <t>Larus fuscus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percentage of clams reburrowing </t>
+  </si>
+  <si>
+    <t>diet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A highly significant difference in diet composition was reorded between the 2 years (G-test = 234.4, P &lt; 0.0001, n = 377). When trawlers operated, diet was dominated by fish from discards, while during the trawling moratorium gulls fed from refuse tips, olive tree fields and especially rice fields. </t>
+  </si>
+  <si>
+    <t>egg volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A significant year effect was detected in realtion to the average volume of a clutch (ANOVA, F = 13.3, p &lt; 0.001, n = 77). The volume of the eggs decreased significantly, showing the importance of trawler discard availability as a proximate determinant of egg production of scavenging seabirds. </t>
+  </si>
+  <si>
+    <t>clutch size _ breeding success _ reproductive phenology</t>
+  </si>
+  <si>
+    <t>Median date of laying was very similar in both years (Mann-Whitney U-test, z = 0.8, not significant, n = 86). Modal clutch size was 3 eggs in both years. Although clutch size decreased in the year of the trawling moratorium, differences were not significant (G-test = 1.36, df = 2, p = 0.51, n = 77). A significant year effect was detected in realtion to the average volume of a clutch (ANOVA, F = 13.3, p &lt; 0.001, n = 77), while neither clutch size effect (ANOVA, F = 28.6, p = 0.25, n = 77) nor the interactions between year and clutch size (ANOVA, F = 38.2, p 0.19, n = 77) were detected. Breeding success was significantly lower in 1995 than in 1994 (chi-squared = 5, df = 1, p = 0.02).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4734,6 +4796,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="10">
@@ -5222,111 +5290,126 @@
   <threadedComment ref="AW29" dT="2022-03-07T15:49:09.47" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{87EB4814-791C-4151-897C-220F10B66323}">
     <text>scallops older in closed area</text>
   </threadedComment>
-  <threadedComment ref="V31" dT="2022-03-09T17:27:01.81" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{8F605331-8FA3-4091-906F-6572B9E08CBE}">
+  <threadedComment ref="V32" dT="2022-03-09T17:27:01.81" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{8F605331-8FA3-4091-906F-6572B9E08CBE}">
     <text>no indication of this</text>
   </threadedComment>
-  <threadedComment ref="AR31" dT="2022-03-09T14:17:41.25" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{CD3A6164-943A-4E6E-9BF5-5FE09891CCB9}">
+  <threadedComment ref="AR32" dT="2022-03-09T14:17:41.25" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{CD3A6164-943A-4E6E-9BF5-5FE09891CCB9}">
     <text>rapido similar to beamtrawl</text>
   </threadedComment>
-  <threadedComment ref="V32" dT="2022-03-09T17:27:01.81" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{0DBA107E-6F54-47E4-99BD-BD727CABFC0F}">
+  <threadedComment ref="V33" dT="2022-03-09T17:27:01.81" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{0DBA107E-6F54-47E4-99BD-BD727CABFC0F}">
     <text>no indication of this</text>
   </threadedComment>
-  <threadedComment ref="AS32" dT="2022-03-09T14:13:10.19" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{CC0A6BC4-04EF-4A83-B009-E37BE3CA69B7}">
+  <threadedComment ref="AS33" dT="2022-03-09T14:13:10.19" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{CC0A6BC4-04EF-4A83-B009-E37BE3CA69B7}">
     <text>hydrolic dredge</text>
   </threadedComment>
-  <threadedComment ref="AV33" dT="2022-03-09T18:02:50.58" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{83BF076C-EF3A-4FF6-92DF-06C2F3DA57D1}">
+  <threadedComment ref="AV34" dT="2022-03-09T18:02:50.58" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{83BF076C-EF3A-4FF6-92DF-06C2F3DA57D1}">
     <text>Diet</text>
   </threadedComment>
-  <threadedComment ref="AG34" dT="2022-03-10T12:59:27.41" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{C13FAB98-20DA-4332-A868-0381F8EB51A5}">
+  <threadedComment ref="AG35" dT="2022-03-10T12:59:27.41" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{1F73A643-4889-4B00-BF17-FD191EDC437F}">
     <text>both field and lab study</text>
   </threadedComment>
-  <threadedComment ref="AV34" dT="2022-03-10T13:52:17.16" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{7FA8D67E-6429-4D2A-8FA9-F67AE0841D7E}">
-    <text>and behaviour</text>
+  <threadedComment ref="AG36" dT="2022-03-10T12:59:27.41" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{C13FAB98-20DA-4332-A868-0381F8EB51A5}">
+    <text>both field and lab study</text>
   </threadedComment>
-  <threadedComment ref="AR35" dT="2022-03-10T16:31:58.86" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{8B01BB42-BD50-4A2B-91AE-BFF1AE1CC4A6}">
+  <threadedComment ref="AR37" dT="2022-03-10T16:31:58.86" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{8B01BB42-BD50-4A2B-91AE-BFF1AE1CC4A6}">
     <text>beam and otter</text>
   </threadedComment>
-  <threadedComment ref="AW35" dT="2022-03-10T16:47:15.25" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{11A0CED8-7C4E-4A10-B3D6-7390E2591B9D}">
+  <threadedComment ref="AW37" dT="2022-03-10T16:47:15.25" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{11A0CED8-7C4E-4A10-B3D6-7390E2591B9D}">
     <text>Did not test relationship but modelled mortality rates of bycatch for each species</text>
   </threadedComment>
-  <threadedComment ref="AR36" dT="2022-03-10T16:31:58.86" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{7C93FD45-F80E-4576-B1F4-320CE5D28934}">
+  <threadedComment ref="AR38" dT="2022-03-10T16:31:58.86" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{7C93FD45-F80E-4576-B1F4-320CE5D28934}">
     <text>beam and otter</text>
   </threadedComment>
-  <threadedComment ref="AW36" dT="2022-03-10T16:47:15.25" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{84CBE241-7A40-4FBE-9038-FF85F7034818}">
+  <threadedComment ref="AW38" dT="2022-03-10T16:47:15.25" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{84CBE241-7A40-4FBE-9038-FF85F7034818}">
     <text>Did not test relationship but modelled mortality rates of bycatch for each species</text>
   </threadedComment>
-  <threadedComment ref="R39" dT="2022-03-10T16:04:10.48" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{29231E64-24AA-413F-9FA6-0B09201F7447}">
+  <threadedComment ref="R41" dT="2022-03-10T16:04:10.48" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{29231E64-24AA-413F-9FA6-0B09201F7447}">
     <text>Paper describes the shrimp shoal structure but not assessment of fishing impacts on it</text>
   </threadedComment>
-  <threadedComment ref="R40" dT="2022-03-10T15:27:24.78" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{8E7B695D-F34B-40FE-813F-DC802677F34C}">
+  <threadedComment ref="R42" dT="2022-03-10T15:27:24.78" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{8E7B695D-F34B-40FE-813F-DC802677F34C}">
     <text>this study identifies impacts of season and breeding of species, resource access (regulations and competition between fisheries) on LPUE, not impacts of fishing on ecosystem</text>
   </threadedComment>
-  <threadedComment ref="R41" dT="2022-03-07T16:15:16.37" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{DB75CAF6-E7A8-4AD0-BD5E-B650738D5CE8}">
+  <threadedComment ref="R43" dT="2022-03-07T16:15:16.37" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{DB75CAF6-E7A8-4AD0-BD5E-B650738D5CE8}">
     <text>a review of deepwater fisheries with no analysis of data</text>
   </threadedComment>
-  <threadedComment ref="R42" dT="2022-03-09T18:33:51.38" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{172069E3-CDA2-41BE-8240-6D3A9258F91B}">
+  <threadedComment ref="R44" dT="2022-03-09T18:33:51.38" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{172069E3-CDA2-41BE-8240-6D3A9258F91B}">
     <text>I think this is purely a methodoligical paper - comparing hypotheses for natural mortality rates at age in stock assessment. This is not my area so would be good to have a second opinion!</text>
   </threadedComment>
-  <threadedComment ref="T43" dT="2022-03-09T18:41:25.25" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{643211F3-E151-46E5-A750-BD6BDC1FFAAF}">
+  <threadedComment ref="T45" dT="2022-03-09T18:41:25.25" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{ABCFD0AF-BE84-4846-9C69-0442BE7E7030}">
     <text>Ebro Delta Natural Park, 40o37'N, 00o35'E; see Oro and Martinez-Vilalata 1994 for details</text>
   </threadedComment>
-  <threadedComment ref="V43" dT="2022-03-10T11:42:04.93" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{D7E3BE57-B894-42F5-82B7-FC043B87FFAF}">
+  <threadedComment ref="V45" dT="2022-03-10T11:42:04.93" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{2E2E41C1-2DBF-42F9-8384-EA0DBD36144F}">
     <text>no information provided for this</text>
   </threadedComment>
-  <threadedComment ref="AR43" dT="2022-03-09T18:48:09.42" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{22B54945-1938-47E0-9381-6D5F19AFB03A}">
+  <threadedComment ref="AR45" dT="2022-03-09T18:48:09.42" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{1F4028D3-691D-45CB-A4DC-194315CA757A}">
     <text>just states trawling so could also include pelagic</text>
   </threadedComment>
-  <threadedComment ref="AR44" dT="2022-03-09T19:15:49.80" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{C0A70C4B-9FF8-4338-B62A-E4A38C309496}">
+  <threadedComment ref="T46" dT="2022-03-09T18:41:25.25" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{6586F64A-DB48-4A9D-A4A3-A7DD60911E1C}">
+    <text>Ebro Delta Natural Park, 40o37'N, 00o35'E; see Oro and Martinez-Vilalata 1994 for details</text>
+  </threadedComment>
+  <threadedComment ref="V46" dT="2022-03-10T11:42:04.93" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{F75443A0-3FE8-4BA1-93C4-5CB19F2E9DCC}">
+    <text>no information provided for this</text>
+  </threadedComment>
+  <threadedComment ref="AR46" dT="2022-03-09T18:48:09.42" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{8071F227-D101-4336-BD57-1F39C4B7162B}">
+    <text>just states trawling so could also include pelagic</text>
+  </threadedComment>
+  <threadedComment ref="T47" dT="2022-03-09T18:41:25.25" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{BB98232E-2577-4BAC-B9A0-60E7F593BE74}">
+    <text>Ebro Delta Natural Park, 40o37'N, 00o35'E; see Oro and Martinez-Vilalata 1994 for details</text>
+  </threadedComment>
+  <threadedComment ref="V47" dT="2022-03-10T11:42:04.93" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{7AD91645-8D90-4760-9B65-974C35D6BB66}">
+    <text>no information provided for this</text>
+  </threadedComment>
+  <threadedComment ref="AR47" dT="2022-03-09T18:48:09.42" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{7D39EFC8-0081-450E-A4F5-FE481BD385AA}">
+    <text>just states trawling so could also include pelagic</text>
+  </threadedComment>
+  <threadedComment ref="AR48" dT="2022-03-09T19:15:49.80" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{C0A70C4B-9FF8-4338-B62A-E4A38C309496}">
     <text>Dutch trawlers fishing for mackerel, discuss additional purse-seine fishery in 1964 - so potentially multiple gears targeting mackerel</text>
   </threadedComment>
-  <threadedComment ref="AV44" dT="2022-03-10T14:00:21.45" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{265960B0-98E3-428D-9648-DA395740091E}">
+  <threadedComment ref="AV48" dT="2022-03-10T14:00:21.45" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{265960B0-98E3-428D-9648-DA395740091E}">
     <text>and age structure and mortality</text>
   </threadedComment>
-  <threadedComment ref="AG45" dT="2022-03-10T11:45:14.77" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{BF36CD8D-F930-4DE8-A36A-E7811E80A5A0}">
+  <threadedComment ref="AG49" dT="2022-03-10T11:45:14.77" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{BF36CD8D-F930-4DE8-A36A-E7811E80A5A0}">
     <text>field and lab experiment</text>
-  </threadedComment>
-  <threadedComment ref="AR45" dT="2022-03-10T12:54:45.46" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{C6E0F4D7-960B-4C5F-966C-22648C6D1F5A}">
-    <text>any discarding L. depurator</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX45"/>
+  <dimension ref="A1:AX49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R52" sqref="R52"/>
+      <selection pane="bottomRight" activeCell="AT49" sqref="AT49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="28.42578125" customWidth="1"/>
-    <col min="4" max="4" width="120.5703125" customWidth="1"/>
-    <col min="11" max="11" width="26.28515625" customWidth="1"/>
-    <col min="15" max="15" width="17.7109375" customWidth="1"/>
-    <col min="19" max="19" width="18.140625" customWidth="1"/>
-    <col min="24" max="25" width="32.7109375" customWidth="1"/>
-    <col min="26" max="26" width="22.5703125" customWidth="1"/>
-    <col min="30" max="30" width="67.7109375" style="11" customWidth="1"/>
-    <col min="34" max="35" width="17.7109375" customWidth="1"/>
-    <col min="36" max="36" width="18.7109375" customWidth="1"/>
-    <col min="37" max="37" width="19.140625" customWidth="1"/>
-    <col min="38" max="38" width="17.7109375" customWidth="1"/>
-    <col min="39" max="39" width="14.28515625" customWidth="1"/>
-    <col min="40" max="40" width="15.85546875" customWidth="1"/>
-    <col min="41" max="41" width="35.28515625" customWidth="1"/>
-    <col min="42" max="42" width="15.42578125" customWidth="1"/>
-    <col min="46" max="46" width="15.140625" customWidth="1"/>
-    <col min="47" max="47" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="28.44140625" customWidth="1"/>
+    <col min="4" max="4" width="120.5546875" customWidth="1"/>
+    <col min="11" max="11" width="26.33203125" customWidth="1"/>
+    <col min="15" max="15" width="17.6640625" customWidth="1"/>
+    <col min="19" max="19" width="18.109375" customWidth="1"/>
+    <col min="24" max="25" width="32.6640625" customWidth="1"/>
+    <col min="26" max="26" width="22.5546875" customWidth="1"/>
+    <col min="30" max="30" width="67.6640625" style="11" customWidth="1"/>
+    <col min="34" max="35" width="17.6640625" customWidth="1"/>
+    <col min="36" max="36" width="18.6640625" customWidth="1"/>
+    <col min="37" max="37" width="19.109375" customWidth="1"/>
+    <col min="38" max="38" width="17.6640625" customWidth="1"/>
+    <col min="39" max="39" width="14.33203125" customWidth="1"/>
+    <col min="40" max="40" width="15.88671875" customWidth="1"/>
+    <col min="41" max="41" width="35.33203125" customWidth="1"/>
+    <col min="42" max="42" width="15.44140625" customWidth="1"/>
+    <col min="46" max="46" width="15.109375" customWidth="1"/>
+    <col min="47" max="47" width="18.6640625" customWidth="1"/>
     <col min="48" max="48" width="18" customWidth="1"/>
-    <col min="50" max="50" width="87.7109375" style="11" customWidth="1"/>
+    <col min="50" max="50" width="87.6640625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>11</v>
       </c>
@@ -5392,7 +5475,7 @@
       <c r="AW1" s="15"/>
       <c r="AX1" s="15"/>
     </row>
-    <row r="2" spans="1:50" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>68</v>
       </c>
@@ -5544,7 +5627,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>241</v>
       </c>
@@ -5602,7 +5685,7 @@
       <c r="AD3"/>
       <c r="AX3"/>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>256</v>
       </c>
@@ -5739,7 +5822,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>256</v>
       </c>
@@ -5876,7 +5959,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>256</v>
       </c>
@@ -6013,7 +6096,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>256</v>
       </c>
@@ -6150,7 +6233,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>256</v>
       </c>
@@ -6287,7 +6370,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="9" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>264</v>
       </c>
@@ -6415,7 +6498,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="10" spans="1:50" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:50" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>272</v>
       </c>
@@ -6546,7 +6629,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="11" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
         <v>278</v>
       </c>
@@ -6680,7 +6763,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="12" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>287</v>
       </c>
@@ -6738,7 +6821,7 @@
       <c r="AD12"/>
       <c r="AX12"/>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>296</v>
       </c>
@@ -6872,7 +6955,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="14" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>306</v>
       </c>
@@ -6930,7 +7013,7 @@
       <c r="AD14"/>
       <c r="AX14"/>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>316</v>
       </c>
@@ -7058,7 +7141,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>316</v>
       </c>
@@ -7189,7 +7272,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>316</v>
       </c>
@@ -7320,7 +7403,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>324</v>
       </c>
@@ -7454,7 +7537,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>324</v>
       </c>
@@ -7588,7 +7671,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>324</v>
       </c>
@@ -7722,7 +7805,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>324</v>
       </c>
@@ -7856,7 +7939,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>324</v>
       </c>
@@ -7990,7 +8073,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="23" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>335</v>
       </c>
@@ -8109,7 +8192,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="24" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>335</v>
       </c>
@@ -8228,7 +8311,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="25" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>335</v>
       </c>
@@ -8347,7 +8430,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="26" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>335</v>
       </c>
@@ -8469,7 +8552,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="27" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>344</v>
       </c>
@@ -8597,7 +8680,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="28" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>344</v>
       </c>
@@ -8725,7 +8808,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="29" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>344</v>
       </c>
@@ -8856,7 +8939,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="30" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
         <v>353</v>
       </c>
@@ -8978,84 +9061,84 @@
         <v>199</v>
       </c>
       <c r="AW30" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AX30" s="11" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="31" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="B31" t="s">
         <v>242</v>
       </c>
       <c r="C31" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="D31" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="E31">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="F31" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="G31" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="H31" t="s">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="I31" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="J31" t="s">
-        <v>368</v>
+        <v>349</v>
       </c>
       <c r="K31" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="L31" t="s">
         <v>251</v>
       </c>
       <c r="M31" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="N31" t="s">
         <v>253</v>
       </c>
       <c r="O31" t="s">
-        <v>362</v>
+        <v>254</v>
       </c>
       <c r="P31" t="s">
-        <v>371</v>
+        <v>251</v>
       </c>
       <c r="Q31" t="s">
         <v>21</v>
       </c>
       <c r="S31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="T31" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="U31" t="s">
-        <v>56</v>
+        <v>53</v>
+      </c>
+      <c r="V31" t="s">
+        <v>39</v>
       </c>
       <c r="W31" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="X31" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>576</v>
+        <v>71</v>
       </c>
       <c r="Z31" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="AA31">
         <v>2</v>
@@ -9066,50 +9149,53 @@
       <c r="AC31">
         <v>3</v>
       </c>
-      <c r="AD31" s="4" t="s">
-        <v>583</v>
-      </c>
-      <c r="AF31" t="s">
-        <v>578</v>
+      <c r="AD31" t="s">
+        <v>571</v>
+      </c>
+      <c r="AF31">
+        <v>4.4000000000000004</v>
       </c>
       <c r="AG31" t="s">
         <v>107</v>
       </c>
       <c r="AH31" t="s">
-        <v>120</v>
+        <v>117</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>144</v>
       </c>
       <c r="AL31" t="s">
-        <v>572</v>
+        <v>622</v>
       </c>
       <c r="AM31" t="s">
-        <v>233</v>
+        <v>159</v>
       </c>
       <c r="AO31" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="AQ31" t="s">
         <v>164</v>
       </c>
       <c r="AR31" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="AT31" t="s">
-        <v>574</v>
+        <v>549</v>
       </c>
       <c r="AU31" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="AV31" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="AW31" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX31" t="s">
-        <v>581</v>
+        <v>207</v>
+      </c>
+      <c r="AX31" s="11" t="s">
+        <v>569</v>
       </c>
     </row>
-    <row r="32" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
         <v>363</v>
       </c>
@@ -9177,7 +9263,7 @@
         <v>113</v>
       </c>
       <c r="Y32" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="Z32" t="s">
         <v>579</v>
@@ -9216,13 +9302,10 @@
         <v>164</v>
       </c>
       <c r="AR32" t="s">
-        <v>168</v>
-      </c>
-      <c r="AS32" t="s">
-        <v>179</v>
+        <v>239</v>
       </c>
       <c r="AT32" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AU32" t="s">
         <v>577</v>
@@ -9233,82 +9316,82 @@
       <c r="AW32" t="s">
         <v>209</v>
       </c>
-      <c r="AX32" s="4" t="s">
-        <v>582</v>
+      <c r="AX32" t="s">
+        <v>581</v>
       </c>
     </row>
-    <row r="33" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="B33" t="s">
         <v>242</v>
       </c>
       <c r="C33" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="D33" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="E33">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="F33" t="s">
-        <v>327</v>
+        <v>347</v>
       </c>
       <c r="G33" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="H33" t="s">
-        <v>376</v>
+        <v>251</v>
       </c>
       <c r="I33" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="J33" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="K33" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="L33" t="s">
         <v>251</v>
       </c>
       <c r="M33" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="N33" t="s">
         <v>253</v>
       </c>
       <c r="O33" t="s">
-        <v>254</v>
+        <v>362</v>
       </c>
       <c r="P33" t="s">
-        <v>315</v>
+        <v>371</v>
       </c>
       <c r="Q33" t="s">
         <v>21</v>
       </c>
       <c r="S33" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T33" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="U33" t="s">
-        <v>49</v>
-      </c>
-      <c r="V33" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="W33" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="X33" t="s">
-        <v>216</v>
+        <v>113</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>575</v>
       </c>
       <c r="Z33" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="AA33">
         <v>2</v>
@@ -9319,8 +9402,8 @@
       <c r="AC33">
         <v>3</v>
       </c>
-      <c r="AD33" t="s">
-        <v>589</v>
+      <c r="AD33" s="4" t="s">
+        <v>583</v>
       </c>
       <c r="AF33" t="s">
         <v>578</v>
@@ -9329,81 +9412,81 @@
         <v>107</v>
       </c>
       <c r="AH33" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI33" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AL33" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="AM33" t="s">
         <v>233</v>
       </c>
       <c r="AO33" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="AQ33" t="s">
         <v>164</v>
       </c>
       <c r="AR33" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="AS33" t="s">
-        <v>176</v>
+        <v>179</v>
+      </c>
+      <c r="AT33" t="s">
+        <v>573</v>
       </c>
       <c r="AU33" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="AV33" t="s">
-        <v>113</v>
+        <v>206</v>
       </c>
       <c r="AW33" t="s">
         <v>209</v>
       </c>
-      <c r="AX33" t="s">
-        <v>588</v>
+      <c r="AX33" s="4" t="s">
+        <v>582</v>
       </c>
     </row>
-    <row r="34" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="B34" t="s">
         <v>242</v>
       </c>
       <c r="C34" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="D34" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="E34">
-        <v>2003</v>
+        <v>1997</v>
       </c>
       <c r="F34" t="s">
-        <v>384</v>
+        <v>327</v>
       </c>
       <c r="G34" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="H34" t="s">
-        <v>301</v>
+        <v>376</v>
       </c>
       <c r="I34" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="J34" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="K34" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="L34" t="s">
         <v>251</v>
       </c>
       <c r="M34" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="N34" t="s">
         <v>253</v>
@@ -9411,32 +9494,32 @@
       <c r="O34" t="s">
         <v>254</v>
       </c>
+      <c r="P34" t="s">
+        <v>315</v>
+      </c>
       <c r="Q34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="T34" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="U34" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="V34" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W34" t="s">
         <v>48</v>
       </c>
       <c r="X34" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>607</v>
+        <v>216</v>
       </c>
       <c r="Z34" t="s">
-        <v>610</v>
+        <v>586</v>
       </c>
       <c r="AA34">
         <v>2</v>
@@ -9448,123 +9531,123 @@
         <v>3</v>
       </c>
       <c r="AD34" t="s">
-        <v>613</v>
+        <v>589</v>
       </c>
       <c r="AF34" t="s">
-        <v>334</v>
+        <v>578</v>
       </c>
       <c r="AG34" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="AH34" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AI34" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AL34" t="s">
-        <v>608</v>
+        <v>584</v>
       </c>
       <c r="AM34" t="s">
-        <v>159</v>
+        <v>233</v>
       </c>
       <c r="AO34" t="s">
-        <v>609</v>
+        <v>585</v>
       </c>
       <c r="AQ34" t="s">
         <v>164</v>
       </c>
       <c r="AR34" t="s">
-        <v>168</v>
-      </c>
-      <c r="AT34" t="s">
-        <v>608</v>
+        <v>239</v>
+      </c>
+      <c r="AS34" t="s">
+        <v>176</v>
       </c>
       <c r="AU34" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="AV34" t="s">
-        <v>213</v>
+        <v>113</v>
       </c>
       <c r="AW34" t="s">
         <v>209</v>
       </c>
-      <c r="AX34" s="11" t="s">
-        <v>612</v>
+      <c r="AX34" t="s">
+        <v>588</v>
       </c>
     </row>
-    <row r="35" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="B35" t="s">
         <v>242</v>
       </c>
       <c r="C35" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="D35" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="E35">
-        <v>2009</v>
+        <v>2003</v>
       </c>
       <c r="F35" t="s">
-        <v>309</v>
+        <v>384</v>
       </c>
       <c r="G35" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="H35" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="I35" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="J35" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="K35" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="L35" t="s">
         <v>251</v>
       </c>
       <c r="M35" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="N35" t="s">
         <v>253</v>
       </c>
       <c r="O35" t="s">
-        <v>362</v>
-      </c>
-      <c r="P35" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S35" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="T35" t="s">
         <v>46</v>
       </c>
       <c r="U35" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="V35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="X35" t="s">
-        <v>215</v>
+        <v>113</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>603</v>
       </c>
       <c r="Z35" t="s">
-        <v>623</v>
+        <v>606</v>
       </c>
       <c r="AA35">
         <v>2</v>
@@ -9576,120 +9659,126 @@
         <v>3</v>
       </c>
       <c r="AD35" t="s">
-        <v>624</v>
-      </c>
-      <c r="AF35">
-        <v>4.2</v>
+        <v>609</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>390</v>
       </c>
       <c r="AG35" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AH35" t="s">
-        <v>220</v>
+        <v>120</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>133</v>
       </c>
       <c r="AL35" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AM35" t="s">
         <v>232</v>
       </c>
       <c r="AN35" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AO35" t="s">
-        <v>619</v>
+        <v>605</v>
       </c>
       <c r="AQ35" t="s">
         <v>164</v>
       </c>
       <c r="AR35" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="AT35" t="s">
-        <v>618</v>
+        <v>604</v>
       </c>
       <c r="AU35" t="s">
-        <v>620</v>
+        <v>607</v>
       </c>
       <c r="AV35" t="s">
-        <v>238</v>
-      </c>
-      <c r="AX35" t="s">
-        <v>621</v>
+        <v>213</v>
+      </c>
+      <c r="AW35" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX35" s="11" t="s">
+        <v>608</v>
       </c>
     </row>
-    <row r="36" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="B36" t="s">
         <v>242</v>
       </c>
       <c r="C36" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="D36" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="E36">
-        <v>2009</v>
+        <v>2003</v>
       </c>
       <c r="F36" t="s">
-        <v>309</v>
+        <v>384</v>
       </c>
       <c r="G36" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="H36" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="I36" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="J36" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="K36" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="L36" t="s">
         <v>251</v>
       </c>
       <c r="M36" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="N36" t="s">
         <v>253</v>
       </c>
       <c r="O36" t="s">
-        <v>362</v>
-      </c>
-      <c r="P36" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S36" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="T36" t="s">
         <v>46</v>
       </c>
       <c r="U36" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="V36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="X36" t="s">
-        <v>215</v>
+        <v>113</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>603</v>
       </c>
       <c r="Z36" t="s">
-        <v>623</v>
+        <v>606</v>
       </c>
       <c r="AA36">
         <v>2</v>
@@ -9700,86 +9789,94 @@
       <c r="AC36">
         <v>3</v>
       </c>
-      <c r="AD36"/>
-      <c r="AF36">
-        <v>4.2</v>
+      <c r="AD36" t="s">
+        <v>609</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>390</v>
       </c>
       <c r="AG36" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AH36" t="s">
-        <v>117</v>
+        <v>120</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>133</v>
       </c>
       <c r="AL36" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AM36" t="s">
         <v>232</v>
       </c>
       <c r="AN36" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AO36" t="s">
-        <v>619</v>
+        <v>605</v>
       </c>
       <c r="AQ36" t="s">
         <v>164</v>
       </c>
       <c r="AR36" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="AT36" t="s">
-        <v>618</v>
+        <v>604</v>
       </c>
       <c r="AU36" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="AV36" t="s">
-        <v>238</v>
-      </c>
-      <c r="AX36" t="s">
-        <v>621</v>
+        <v>212</v>
+      </c>
+      <c r="AW36" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX36" s="11" t="s">
+        <v>608</v>
       </c>
     </row>
-    <row r="37" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="B37" t="s">
         <v>242</v>
       </c>
       <c r="C37" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="D37" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="E37">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="F37" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="G37" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="H37" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="I37" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="J37" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="K37" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="L37" t="s">
         <v>251</v>
       </c>
       <c r="M37" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="N37" t="s">
         <v>253</v>
@@ -9794,13 +9891,13 @@
         <v>21</v>
       </c>
       <c r="S37" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="T37" t="s">
         <v>46</v>
       </c>
       <c r="U37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V37" t="s">
         <v>43</v>
@@ -9812,7 +9909,7 @@
         <v>215</v>
       </c>
       <c r="Z37" t="s">
-        <v>532</v>
+        <v>619</v>
       </c>
       <c r="AA37">
         <v>2</v>
@@ -9823,29 +9920,29 @@
       <c r="AC37">
         <v>3</v>
       </c>
-      <c r="AD37" s="11" t="s">
-        <v>535</v>
-      </c>
-      <c r="AF37" t="s">
-        <v>390</v>
+      <c r="AD37" t="s">
+        <v>620</v>
+      </c>
+      <c r="AF37">
+        <v>4.2</v>
       </c>
       <c r="AG37" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AH37" t="s">
-        <v>118</v>
+        <v>220</v>
       </c>
       <c r="AL37" t="s">
-        <v>531</v>
+        <v>618</v>
       </c>
       <c r="AM37" t="s">
         <v>232</v>
       </c>
       <c r="AN37" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AO37" t="s">
-        <v>487</v>
+        <v>615</v>
       </c>
       <c r="AQ37" t="s">
         <v>164</v>
@@ -9853,58 +9950,58 @@
       <c r="AR37" t="s">
         <v>239</v>
       </c>
+      <c r="AT37" t="s">
+        <v>614</v>
+      </c>
       <c r="AU37" t="s">
-        <v>533</v>
+        <v>616</v>
       </c>
       <c r="AV37" t="s">
         <v>238</v>
       </c>
-      <c r="AW37" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX37" s="11" t="s">
-        <v>534</v>
+      <c r="AX37" t="s">
+        <v>617</v>
       </c>
     </row>
-    <row r="38" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="B38" t="s">
         <v>242</v>
       </c>
       <c r="C38" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="D38" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="E38">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="F38" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="G38" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="H38" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="I38" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="J38" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="K38" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="L38" t="s">
         <v>251</v>
       </c>
       <c r="M38" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="N38" t="s">
         <v>253</v>
@@ -9919,13 +10016,13 @@
         <v>21</v>
       </c>
       <c r="S38" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="T38" t="s">
         <v>46</v>
       </c>
       <c r="U38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V38" t="s">
         <v>43</v>
@@ -9937,7 +10034,7 @@
         <v>215</v>
       </c>
       <c r="Z38" t="s">
-        <v>501</v>
+        <v>619</v>
       </c>
       <c r="AA38">
         <v>2</v>
@@ -9948,29 +10045,27 @@
       <c r="AC38">
         <v>3</v>
       </c>
-      <c r="AD38" s="11" t="s">
-        <v>535</v>
-      </c>
-      <c r="AF38" t="s">
-        <v>390</v>
+      <c r="AD38"/>
+      <c r="AF38">
+        <v>4.2</v>
       </c>
       <c r="AG38" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AH38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AL38" t="s">
-        <v>531</v>
+        <v>621</v>
       </c>
       <c r="AM38" t="s">
         <v>232</v>
       </c>
       <c r="AN38" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AO38" t="s">
-        <v>487</v>
+        <v>615</v>
       </c>
       <c r="AQ38" t="s">
         <v>164</v>
@@ -9978,64 +10073,64 @@
       <c r="AR38" t="s">
         <v>239</v>
       </c>
+      <c r="AT38" t="s">
+        <v>614</v>
+      </c>
       <c r="AU38" t="s">
-        <v>533</v>
+        <v>616</v>
       </c>
       <c r="AV38" t="s">
-        <v>199</v>
-      </c>
-      <c r="AW38" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX38" s="11" t="s">
-        <v>536</v>
+        <v>238</v>
+      </c>
+      <c r="AX38" t="s">
+        <v>617</v>
       </c>
     </row>
-    <row r="39" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="B39" t="s">
         <v>242</v>
       </c>
       <c r="C39" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="D39" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="E39">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="F39" t="s">
-        <v>409</v>
+        <v>299</v>
       </c>
       <c r="G39" t="s">
-        <v>246</v>
+        <v>387</v>
       </c>
       <c r="H39" t="s">
-        <v>247</v>
+        <v>301</v>
       </c>
       <c r="I39" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="J39" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="K39" t="s">
-        <v>251</v>
+        <v>404</v>
       </c>
       <c r="L39" t="s">
         <v>251</v>
       </c>
       <c r="M39" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="N39" t="s">
         <v>253</v>
       </c>
       <c r="O39" t="s">
-        <v>254</v>
+        <v>362</v>
       </c>
       <c r="P39" t="s">
         <v>251</v>
@@ -10043,109 +10138,243 @@
       <c r="Q39" t="s">
         <v>21</v>
       </c>
-      <c r="R39" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD39"/>
-      <c r="AX39"/>
+      <c r="S39" t="s">
+        <v>33</v>
+      </c>
+      <c r="T39" t="s">
+        <v>46</v>
+      </c>
+      <c r="U39" t="s">
+        <v>58</v>
+      </c>
+      <c r="V39" t="s">
+        <v>43</v>
+      </c>
+      <c r="W39" t="s">
+        <v>47</v>
+      </c>
+      <c r="X39" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>532</v>
+      </c>
+      <c r="AA39">
+        <v>2</v>
+      </c>
+      <c r="AB39">
+        <v>2</v>
+      </c>
+      <c r="AC39">
+        <v>3</v>
+      </c>
+      <c r="AD39" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>390</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>118</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>531</v>
+      </c>
+      <c r="AM39" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN39" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO39" t="s">
+        <v>487</v>
+      </c>
+      <c r="AQ39" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR39" t="s">
+        <v>239</v>
+      </c>
+      <c r="AU39" t="s">
+        <v>533</v>
+      </c>
+      <c r="AV39" t="s">
+        <v>238</v>
+      </c>
+      <c r="AW39" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX39" s="11" t="s">
+        <v>534</v>
+      </c>
     </row>
-    <row r="40" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="B40" t="s">
         <v>242</v>
       </c>
       <c r="C40" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="D40" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="E40">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="F40" t="s">
-        <v>416</v>
+        <v>299</v>
       </c>
       <c r="G40" t="s">
-        <v>417</v>
+        <v>387</v>
       </c>
       <c r="H40" t="s">
-        <v>418</v>
+        <v>301</v>
       </c>
       <c r="I40" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="J40" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="K40" t="s">
-        <v>421</v>
+        <v>404</v>
       </c>
       <c r="L40" t="s">
         <v>251</v>
       </c>
       <c r="M40" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="N40" t="s">
         <v>253</v>
       </c>
       <c r="O40" t="s">
-        <v>254</v>
+        <v>362</v>
       </c>
       <c r="P40" t="s">
-        <v>371</v>
+        <v>251</v>
       </c>
       <c r="Q40" t="s">
         <v>21</v>
       </c>
-      <c r="R40" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD40"/>
-      <c r="AX40"/>
+      <c r="S40" t="s">
+        <v>33</v>
+      </c>
+      <c r="T40" t="s">
+        <v>46</v>
+      </c>
+      <c r="U40" t="s">
+        <v>58</v>
+      </c>
+      <c r="V40" t="s">
+        <v>43</v>
+      </c>
+      <c r="W40" t="s">
+        <v>47</v>
+      </c>
+      <c r="X40" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>501</v>
+      </c>
+      <c r="AA40">
+        <v>2</v>
+      </c>
+      <c r="AB40">
+        <v>2</v>
+      </c>
+      <c r="AC40">
+        <v>3</v>
+      </c>
+      <c r="AD40" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>390</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>118</v>
+      </c>
+      <c r="AL40" t="s">
+        <v>531</v>
+      </c>
+      <c r="AM40" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN40" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO40" t="s">
+        <v>487</v>
+      </c>
+      <c r="AQ40" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR40" t="s">
+        <v>239</v>
+      </c>
+      <c r="AU40" t="s">
+        <v>533</v>
+      </c>
+      <c r="AV40" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW40" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX40" s="11" t="s">
+        <v>536</v>
+      </c>
     </row>
-    <row r="41" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="B41" t="s">
         <v>242</v>
       </c>
       <c r="C41" t="s">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="D41" t="s">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="E41">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="F41" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="G41" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="H41" t="s">
-        <v>427</v>
+        <v>247</v>
       </c>
       <c r="I41" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="J41" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="K41" t="s">
-        <v>430</v>
+        <v>251</v>
       </c>
       <c r="L41" t="s">
         <v>251</v>
       </c>
       <c r="M41" t="s">
-        <v>431</v>
+        <v>412</v>
       </c>
       <c r="N41" t="s">
         <v>253</v>
@@ -10160,50 +10389,50 @@
         <v>21</v>
       </c>
       <c r="R41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AD41"/>
       <c r="AX41"/>
     </row>
-    <row r="42" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
-        <v>432</v>
+        <v>413</v>
       </c>
       <c r="B42" t="s">
         <v>242</v>
       </c>
       <c r="C42" t="s">
-        <v>433</v>
+        <v>414</v>
       </c>
       <c r="D42" t="s">
-        <v>434</v>
+        <v>415</v>
       </c>
       <c r="E42">
-        <v>1997</v>
+        <v>2002</v>
       </c>
       <c r="F42" t="s">
         <v>416</v>
       </c>
       <c r="G42" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="H42" t="s">
-        <v>361</v>
+        <v>418</v>
       </c>
       <c r="I42" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="J42" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="K42" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="L42" t="s">
         <v>251</v>
       </c>
       <c r="M42" t="s">
-        <v>439</v>
+        <v>422</v>
       </c>
       <c r="N42" t="s">
         <v>253</v>
@@ -10212,59 +10441,56 @@
         <v>254</v>
       </c>
       <c r="P42" t="s">
-        <v>251</v>
+        <v>371</v>
       </c>
       <c r="Q42" t="s">
         <v>21</v>
       </c>
       <c r="R42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AD42"/>
-      <c r="AF42" t="s">
-        <v>390</v>
-      </c>
       <c r="AX42"/>
     </row>
-    <row r="43" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B43" t="s">
         <v>242</v>
       </c>
       <c r="C43" t="s">
-        <v>441</v>
+        <v>424</v>
       </c>
       <c r="D43" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="E43">
-        <v>1996</v>
+        <v>2001</v>
       </c>
       <c r="F43" t="s">
-        <v>327</v>
+        <v>426</v>
       </c>
       <c r="G43" t="s">
-        <v>443</v>
+        <v>260</v>
       </c>
       <c r="H43" t="s">
-        <v>376</v>
+        <v>427</v>
       </c>
       <c r="I43" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="J43" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="K43" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="L43" t="s">
         <v>251</v>
       </c>
       <c r="M43" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="N43" t="s">
         <v>253</v>
@@ -10273,117 +10499,56 @@
         <v>254</v>
       </c>
       <c r="P43" t="s">
-        <v>315</v>
+        <v>251</v>
       </c>
       <c r="Q43" t="s">
         <v>21</v>
       </c>
-      <c r="S43" t="s">
-        <v>31</v>
-      </c>
-      <c r="U43" t="s">
-        <v>56</v>
-      </c>
-      <c r="W43" t="s">
-        <v>49</v>
-      </c>
-      <c r="X43" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>595</v>
-      </c>
-      <c r="Z43" t="s">
-        <v>594</v>
-      </c>
-      <c r="AA43">
-        <v>2</v>
-      </c>
-      <c r="AB43">
-        <v>2</v>
-      </c>
-      <c r="AC43">
-        <v>3</v>
-      </c>
-      <c r="AD43" t="s">
-        <v>597</v>
-      </c>
-      <c r="AF43" t="s">
-        <v>592</v>
-      </c>
-      <c r="AG43" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH43" t="s">
-        <v>116</v>
-      </c>
-      <c r="AL43" t="s">
-        <v>590</v>
-      </c>
-      <c r="AM43" t="s">
-        <v>159</v>
-      </c>
-      <c r="AO43" t="s">
-        <v>591</v>
-      </c>
-      <c r="AQ43" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR43" t="s">
-        <v>239</v>
-      </c>
-      <c r="AU43" t="s">
-        <v>593</v>
-      </c>
-      <c r="AV43" t="s">
-        <v>201</v>
-      </c>
-      <c r="AW43" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX43" t="s">
-        <v>596</v>
-      </c>
+      <c r="R43" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD43"/>
+      <c r="AX43"/>
     </row>
-    <row r="44" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="B44" t="s">
         <v>242</v>
       </c>
       <c r="C44" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="D44" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="E44">
-        <v>1972</v>
+        <v>1997</v>
       </c>
       <c r="F44" t="s">
-        <v>309</v>
+        <v>416</v>
       </c>
       <c r="G44" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="H44" t="s">
-        <v>292</v>
+        <v>361</v>
       </c>
       <c r="I44" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="J44" t="s">
-        <v>348</v>
+        <v>437</v>
       </c>
       <c r="K44" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="L44" t="s">
         <v>251</v>
       </c>
       <c r="M44" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="N44" t="s">
         <v>253</v>
@@ -10397,122 +10562,54 @@
       <c r="Q44" t="s">
         <v>21</v>
       </c>
-      <c r="S44" t="s">
-        <v>24</v>
-      </c>
-      <c r="T44" t="s">
-        <v>46</v>
-      </c>
-      <c r="U44" t="s">
-        <v>59</v>
-      </c>
-      <c r="V44" t="s">
-        <v>38</v>
-      </c>
-      <c r="W44" t="s">
-        <v>47</v>
-      </c>
-      <c r="X44" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z44" t="s">
-        <v>390</v>
-      </c>
-      <c r="AA44">
-        <v>2</v>
-      </c>
-      <c r="AB44">
-        <v>2</v>
-      </c>
-      <c r="AC44">
-        <v>1</v>
+      <c r="R44" t="s">
+        <v>85</v>
       </c>
       <c r="AD44"/>
-      <c r="AE44" t="s">
-        <v>616</v>
-      </c>
       <c r="AF44" t="s">
         <v>390</v>
       </c>
-      <c r="AG44" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH44" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI44" t="s">
-        <v>147</v>
-      </c>
-      <c r="AL44" t="s">
-        <v>598</v>
-      </c>
-      <c r="AM44" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN44" t="s">
-        <v>160</v>
-      </c>
-      <c r="AO44" t="s">
-        <v>615</v>
-      </c>
-      <c r="AQ44" t="s">
-        <v>164</v>
-      </c>
-      <c r="AT44" t="s">
-        <v>599</v>
-      </c>
-      <c r="AU44" t="s">
-        <v>614</v>
-      </c>
-      <c r="AV44" t="s">
-        <v>199</v>
-      </c>
-      <c r="AW44" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX44" t="s">
-        <v>617</v>
-      </c>
+      <c r="AX44"/>
     </row>
-    <row r="45" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="B45" t="s">
         <v>242</v>
       </c>
       <c r="C45" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="D45" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="E45">
-        <v>2011</v>
+        <v>1996</v>
       </c>
       <c r="F45" t="s">
-        <v>458</v>
+        <v>327</v>
       </c>
       <c r="G45" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="H45" t="s">
-        <v>301</v>
+        <v>376</v>
       </c>
       <c r="I45" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="J45" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="K45" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="L45" t="s">
         <v>251</v>
       </c>
       <c r="M45" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="N45" t="s">
         <v>253</v>
@@ -10521,34 +10618,28 @@
         <v>254</v>
       </c>
       <c r="P45" t="s">
-        <v>464</v>
+        <v>315</v>
       </c>
       <c r="Q45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S45" t="s">
-        <v>26</v>
-      </c>
-      <c r="T45" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="U45" t="s">
-        <v>55</v>
-      </c>
-      <c r="V45" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="W45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X45" t="s">
         <v>113</v>
       </c>
       <c r="Y45" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="Z45" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="AA45">
         <v>2</v>
@@ -10560,46 +10651,544 @@
         <v>3</v>
       </c>
       <c r="AD45" t="s">
-        <v>606</v>
-      </c>
-      <c r="AF45" t="s">
-        <v>390</v>
+        <v>593</v>
+      </c>
+      <c r="AF45">
+        <v>4.4000000000000004</v>
       </c>
       <c r="AG45" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="AH45" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI45" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ45" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AL45" t="s">
-        <v>602</v>
+        <v>624</v>
       </c>
       <c r="AM45" t="s">
         <v>159</v>
       </c>
       <c r="AO45" t="s">
-        <v>605</v>
+        <v>590</v>
       </c>
       <c r="AQ45" t="s">
         <v>164</v>
       </c>
+      <c r="AR45" t="s">
+        <v>239</v>
+      </c>
       <c r="AU45" t="s">
-        <v>603</v>
+        <v>626</v>
       </c>
       <c r="AV45" t="s">
+        <v>203</v>
+      </c>
+      <c r="AW45" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX45" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="46" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A46" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="B46" t="s">
+        <v>242</v>
+      </c>
+      <c r="C46" t="s">
+        <v>441</v>
+      </c>
+      <c r="D46" t="s">
+        <v>442</v>
+      </c>
+      <c r="E46">
+        <v>1996</v>
+      </c>
+      <c r="F46" t="s">
+        <v>327</v>
+      </c>
+      <c r="G46" t="s">
+        <v>443</v>
+      </c>
+      <c r="H46" t="s">
+        <v>376</v>
+      </c>
+      <c r="I46" t="s">
+        <v>444</v>
+      </c>
+      <c r="J46" t="s">
+        <v>445</v>
+      </c>
+      <c r="K46" t="s">
+        <v>446</v>
+      </c>
+      <c r="L46" t="s">
+        <v>251</v>
+      </c>
+      <c r="M46" t="s">
+        <v>447</v>
+      </c>
+      <c r="N46" t="s">
+        <v>253</v>
+      </c>
+      <c r="O46" t="s">
+        <v>254</v>
+      </c>
+      <c r="P46" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>21</v>
+      </c>
+      <c r="S46" t="s">
+        <v>31</v>
+      </c>
+      <c r="U46" t="s">
+        <v>56</v>
+      </c>
+      <c r="W46" t="s">
+        <v>49</v>
+      </c>
+      <c r="X46" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>592</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>591</v>
+      </c>
+      <c r="AA46">
+        <v>2</v>
+      </c>
+      <c r="AB46">
+        <v>2</v>
+      </c>
+      <c r="AC46">
+        <v>3</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>593</v>
+      </c>
+      <c r="AF46">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL46" t="s">
+        <v>624</v>
+      </c>
+      <c r="AM46" t="s">
+        <v>159</v>
+      </c>
+      <c r="AO46" t="s">
+        <v>590</v>
+      </c>
+      <c r="AQ46" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR46" t="s">
+        <v>239</v>
+      </c>
+      <c r="AU46" t="s">
+        <v>628</v>
+      </c>
+      <c r="AV46" t="s">
+        <v>201</v>
+      </c>
+      <c r="AW46" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX46" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="47" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A47" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="B47" t="s">
+        <v>242</v>
+      </c>
+      <c r="C47" t="s">
+        <v>441</v>
+      </c>
+      <c r="D47" t="s">
+        <v>442</v>
+      </c>
+      <c r="E47">
+        <v>1996</v>
+      </c>
+      <c r="F47" t="s">
+        <v>327</v>
+      </c>
+      <c r="G47" t="s">
+        <v>443</v>
+      </c>
+      <c r="H47" t="s">
+        <v>376</v>
+      </c>
+      <c r="I47" t="s">
+        <v>444</v>
+      </c>
+      <c r="J47" t="s">
+        <v>445</v>
+      </c>
+      <c r="K47" t="s">
+        <v>446</v>
+      </c>
+      <c r="L47" t="s">
+        <v>251</v>
+      </c>
+      <c r="M47" t="s">
+        <v>447</v>
+      </c>
+      <c r="N47" t="s">
+        <v>253</v>
+      </c>
+      <c r="O47" t="s">
+        <v>254</v>
+      </c>
+      <c r="P47" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>21</v>
+      </c>
+      <c r="S47" t="s">
+        <v>31</v>
+      </c>
+      <c r="U47" t="s">
+        <v>56</v>
+      </c>
+      <c r="W47" t="s">
+        <v>49</v>
+      </c>
+      <c r="X47" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>592</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>591</v>
+      </c>
+      <c r="AA47">
+        <v>2</v>
+      </c>
+      <c r="AB47">
+        <v>2</v>
+      </c>
+      <c r="AC47">
+        <v>3</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>593</v>
+      </c>
+      <c r="AF47">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL47" t="s">
+        <v>624</v>
+      </c>
+      <c r="AM47" t="s">
+        <v>159</v>
+      </c>
+      <c r="AO47" t="s">
+        <v>590</v>
+      </c>
+      <c r="AQ47" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR47" t="s">
+        <v>239</v>
+      </c>
+      <c r="AU47" t="s">
+        <v>630</v>
+      </c>
+      <c r="AV47" t="s">
+        <v>201</v>
+      </c>
+      <c r="AW47" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX47" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="48" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A48" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="B48" t="s">
+        <v>242</v>
+      </c>
+      <c r="C48" t="s">
+        <v>449</v>
+      </c>
+      <c r="D48" t="s">
+        <v>450</v>
+      </c>
+      <c r="E48">
+        <v>1972</v>
+      </c>
+      <c r="F48" t="s">
+        <v>309</v>
+      </c>
+      <c r="G48" t="s">
+        <v>451</v>
+      </c>
+      <c r="H48" t="s">
+        <v>292</v>
+      </c>
+      <c r="I48" t="s">
+        <v>452</v>
+      </c>
+      <c r="J48" t="s">
+        <v>348</v>
+      </c>
+      <c r="K48" t="s">
+        <v>453</v>
+      </c>
+      <c r="L48" t="s">
+        <v>251</v>
+      </c>
+      <c r="M48" t="s">
+        <v>454</v>
+      </c>
+      <c r="N48" t="s">
+        <v>253</v>
+      </c>
+      <c r="O48" t="s">
+        <v>254</v>
+      </c>
+      <c r="P48" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>21</v>
+      </c>
+      <c r="S48" t="s">
+        <v>24</v>
+      </c>
+      <c r="T48" t="s">
+        <v>46</v>
+      </c>
+      <c r="U48" t="s">
+        <v>59</v>
+      </c>
+      <c r="V48" t="s">
+        <v>38</v>
+      </c>
+      <c r="W48" t="s">
+        <v>47</v>
+      </c>
+      <c r="X48" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>390</v>
+      </c>
+      <c r="AA48">
+        <v>2</v>
+      </c>
+      <c r="AB48">
+        <v>2</v>
+      </c>
+      <c r="AC48">
+        <v>1</v>
+      </c>
+      <c r="AD48"/>
+      <c r="AE48" t="s">
+        <v>612</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>390</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI48" t="s">
+        <v>147</v>
+      </c>
+      <c r="AL48" t="s">
+        <v>594</v>
+      </c>
+      <c r="AM48" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN48" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO48" t="s">
+        <v>611</v>
+      </c>
+      <c r="AQ48" t="s">
+        <v>164</v>
+      </c>
+      <c r="AT48" t="s">
+        <v>595</v>
+      </c>
+      <c r="AU48" t="s">
+        <v>610</v>
+      </c>
+      <c r="AV48" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW48" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX48" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="49" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A49" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="B49" t="s">
+        <v>242</v>
+      </c>
+      <c r="C49" t="s">
+        <v>456</v>
+      </c>
+      <c r="D49" t="s">
+        <v>457</v>
+      </c>
+      <c r="E49">
+        <v>2011</v>
+      </c>
+      <c r="F49" t="s">
+        <v>458</v>
+      </c>
+      <c r="G49" t="s">
+        <v>459</v>
+      </c>
+      <c r="H49" t="s">
+        <v>301</v>
+      </c>
+      <c r="I49" t="s">
+        <v>460</v>
+      </c>
+      <c r="J49" t="s">
+        <v>461</v>
+      </c>
+      <c r="K49" t="s">
+        <v>462</v>
+      </c>
+      <c r="L49" t="s">
+        <v>251</v>
+      </c>
+      <c r="M49" t="s">
+        <v>463</v>
+      </c>
+      <c r="N49" t="s">
+        <v>253</v>
+      </c>
+      <c r="O49" t="s">
+        <v>254</v>
+      </c>
+      <c r="P49" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>22</v>
+      </c>
+      <c r="S49" t="s">
+        <v>26</v>
+      </c>
+      <c r="T49" t="s">
+        <v>44</v>
+      </c>
+      <c r="U49" t="s">
+        <v>55</v>
+      </c>
+      <c r="V49" t="s">
+        <v>44</v>
+      </c>
+      <c r="W49" t="s">
+        <v>48</v>
+      </c>
+      <c r="X49" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>596</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>597</v>
+      </c>
+      <c r="AA49">
+        <v>2</v>
+      </c>
+      <c r="AB49">
+        <v>2</v>
+      </c>
+      <c r="AC49">
+        <v>3</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>602</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>390</v>
+      </c>
+      <c r="AG49" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH49" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI49" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ49" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL49" t="s">
+        <v>598</v>
+      </c>
+      <c r="AM49" t="s">
+        <v>159</v>
+      </c>
+      <c r="AO49" t="s">
+        <v>601</v>
+      </c>
+      <c r="AQ49" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR49" t="s">
+        <v>239</v>
+      </c>
+      <c r="AS49" t="s">
+        <v>176</v>
+      </c>
+      <c r="AU49" t="s">
+        <v>599</v>
+      </c>
+      <c r="AV49" t="s">
         <v>213</v>
       </c>
-      <c r="AW45" t="s">
+      <c r="AW49" t="s">
         <v>209</v>
       </c>
-      <c r="AX45" s="11" t="s">
-        <v>604</v>
+      <c r="AX49" s="11" t="s">
+        <v>600</v>
       </c>
     </row>
   </sheetData>
@@ -10620,7 +11209,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ3:AQ1048576" xr:uid="{1D650BBF-FD60-42B1-B997-0927D010D36F}">
       <formula1>Fishery_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR3:AS1048576 AN3:AN1048576 AI3:AJ1048576" xr:uid="{17784AA4-6490-40EE-AF59-791F00291349}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI3:AJ1048576 AN3:AN1048576 AR3:AS1048576" xr:uid="{17784AA4-6490-40EE-AF59-791F00291349}">
       <formula1>INDIRECT(AH3)</formula1>
     </dataValidation>
   </dataValidations>
@@ -10634,7 +11223,7 @@
           <x14:formula1>
             <xm:f>Validation!$R$3:$R$9</xm:f>
           </x14:formula1>
-          <xm:sqref>R46:R1048576 R3:R9 R12 R14 R23:R26 R39:R43</xm:sqref>
+          <xm:sqref>R50:R1048576 R3:R9 R12 R14 R23:R26 R41:R47</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FB66A4B2-AC63-401A-912C-59AB3AFB17C3}">
           <x14:formula1>
@@ -10734,17 +11323,17 @@
       <selection activeCell="AP31" sqref="AP31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="19" max="19" width="32.140625" customWidth="1"/>
-    <col min="23" max="23" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32.109375" customWidth="1"/>
+    <col min="23" max="23" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="25" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="25" customWidth="1"/>
-    <col min="32" max="32" width="14.7109375" customWidth="1"/>
-    <col min="33" max="33" width="26.28515625" customWidth="1"/>
+    <col min="32" max="32" width="14.6640625" customWidth="1"/>
+    <col min="33" max="33" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>11</v>
       </c>
@@ -10809,7 +11398,7 @@
       <c r="AV1" s="9"/>
       <c r="AW1" s="9"/>
     </row>
-    <row r="2" spans="1:49" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:49" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>68</v>
       </c>
@@ -10958,7 +11547,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.3">
       <c r="Q3" t="s">
         <v>21</v>
       </c>
@@ -11015,7 +11604,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.3">
       <c r="Q4" t="s">
         <v>22</v>
       </c>
@@ -11072,7 +11661,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.3">
       <c r="R5" t="s">
         <v>83</v>
       </c>
@@ -11128,7 +11717,7 @@
       </c>
       <c r="AW5" s="8"/>
     </row>
-    <row r="6" spans="1:49" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.3">
       <c r="R6" t="s">
         <v>84</v>
       </c>
@@ -11173,7 +11762,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.3">
       <c r="R7" t="s">
         <v>85</v>
       </c>
@@ -11215,7 +11804,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.3">
       <c r="R8" t="s">
         <v>86</v>
       </c>
@@ -11253,7 +11842,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.3">
       <c r="R9" t="s">
         <v>87</v>
       </c>
@@ -11288,7 +11877,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.3">
       <c r="S10" t="s">
         <v>33</v>
       </c>
@@ -11320,7 +11909,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.3">
       <c r="S11" t="s">
         <v>32</v>
       </c>
@@ -11355,7 +11944,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.3">
       <c r="S12" t="s">
         <v>30</v>
       </c>
@@ -11387,7 +11976,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.3">
       <c r="S13" t="s">
         <v>79</v>
       </c>
@@ -11422,7 +12011,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.3">
       <c r="S14" t="s">
         <v>31</v>
       </c>
@@ -11451,7 +12040,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.3">
       <c r="S15" t="s">
         <v>35</v>
       </c>
@@ -11480,7 +12069,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.3">
       <c r="S16" t="s">
         <v>34</v>
       </c>
@@ -11500,7 +12089,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="34:47" x14ac:dyDescent="0.25">
+    <row r="17" spans="34:47" x14ac:dyDescent="0.3">
       <c r="AM17" t="s">
         <v>162</v>
       </c>
@@ -11508,22 +12097,22 @@
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="34:47" x14ac:dyDescent="0.25">
+    <row r="18" spans="34:47" x14ac:dyDescent="0.3">
       <c r="AP18" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="34:47" x14ac:dyDescent="0.25">
+    <row r="19" spans="34:47" x14ac:dyDescent="0.3">
       <c r="AP19" s="7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="34:47" x14ac:dyDescent="0.25">
+    <row r="22" spans="34:47" x14ac:dyDescent="0.3">
       <c r="AH22" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="34:47" x14ac:dyDescent="0.25">
+    <row r="23" spans="34:47" x14ac:dyDescent="0.3">
       <c r="AH23" s="6" t="s">
         <v>115</v>
       </c>
@@ -11558,7 +12147,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="34:47" x14ac:dyDescent="0.25">
+    <row r="24" spans="34:47" x14ac:dyDescent="0.3">
       <c r="AH24" t="s">
         <v>129</v>
       </c>
@@ -11584,7 +12173,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="34:47" x14ac:dyDescent="0.25">
+    <row r="25" spans="34:47" x14ac:dyDescent="0.3">
       <c r="AH25" t="s">
         <v>137</v>
       </c>
@@ -11607,7 +12196,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="26" spans="34:47" x14ac:dyDescent="0.25">
+    <row r="26" spans="34:47" x14ac:dyDescent="0.3">
       <c r="AJ26" t="s">
         <v>144</v>
       </c>
@@ -11618,7 +12207,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="27" spans="34:47" x14ac:dyDescent="0.25">
+    <row r="27" spans="34:47" x14ac:dyDescent="0.3">
       <c r="AJ27" t="s">
         <v>147</v>
       </c>
@@ -11629,7 +12218,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="28" spans="34:47" x14ac:dyDescent="0.25">
+    <row r="28" spans="34:47" x14ac:dyDescent="0.3">
       <c r="AJ28" t="s">
         <v>149</v>
       </c>
@@ -11637,12 +12226,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="34:47" x14ac:dyDescent="0.25">
+    <row r="29" spans="34:47" x14ac:dyDescent="0.3">
       <c r="AP29" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="30" spans="34:47" x14ac:dyDescent="0.25">
+    <row r="30" spans="34:47" x14ac:dyDescent="0.3">
       <c r="AH30" s="5" t="s">
         <v>151</v>
       </c>
@@ -11665,7 +12254,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="31" spans="34:47" x14ac:dyDescent="0.25">
+    <row r="31" spans="34:47" x14ac:dyDescent="0.3">
       <c r="AH31" s="6" t="s">
         <v>129</v>
       </c>
@@ -11691,7 +12280,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="32" spans="34:47" x14ac:dyDescent="0.25">
+    <row r="32" spans="34:47" x14ac:dyDescent="0.3">
       <c r="AH32" t="s">
         <v>153</v>
       </c>
@@ -11717,7 +12306,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="33" spans="34:50" x14ac:dyDescent="0.25">
+    <row r="33" spans="34:50" x14ac:dyDescent="0.3">
       <c r="AH33" t="s">
         <v>155</v>
       </c>
@@ -11737,7 +12326,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="34" spans="34:50" x14ac:dyDescent="0.25">
+    <row r="34" spans="34:50" x14ac:dyDescent="0.3">
       <c r="AI34" t="s">
         <v>157</v>
       </c>
@@ -11752,7 +12341,7 @@
       </c>
       <c r="AX34" s="7"/>
     </row>
-    <row r="35" spans="34:50" x14ac:dyDescent="0.25">
+    <row r="35" spans="34:50" x14ac:dyDescent="0.3">
       <c r="AI35" t="s">
         <v>113</v>
       </c>
@@ -11766,7 +12355,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="36" spans="34:50" x14ac:dyDescent="0.25">
+    <row r="36" spans="34:50" x14ac:dyDescent="0.3">
       <c r="AT36" t="s">
         <v>211</v>
       </c>
@@ -11774,10 +12363,10 @@
         <v>196</v>
       </c>
     </row>
-    <row r="37" spans="34:50" x14ac:dyDescent="0.25">
+    <row r="37" spans="34:50" x14ac:dyDescent="0.3">
       <c r="AL37" s="5"/>
     </row>
-    <row r="38" spans="34:50" x14ac:dyDescent="0.25">
+    <row r="38" spans="34:50" x14ac:dyDescent="0.3">
       <c r="AL38" s="6"/>
       <c r="AM38" s="6"/>
       <c r="AN38" s="6"/>
@@ -11805,38 +12394,38 @@
       <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" customWidth="1"/>
+    <col min="13" max="13" width="14.44140625" customWidth="1"/>
     <col min="15" max="15" width="25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.5703125" customWidth="1"/>
-    <col min="17" max="17" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.85546875" customWidth="1"/>
-    <col min="19" max="19" width="17.7109375" customWidth="1"/>
-    <col min="20" max="20" width="19.28515625" customWidth="1"/>
-    <col min="21" max="21" width="17.7109375" customWidth="1"/>
-    <col min="22" max="22" width="18.7109375" customWidth="1"/>
-    <col min="25" max="25" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.5546875" customWidth="1"/>
+    <col min="17" max="17" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.88671875" customWidth="1"/>
+    <col min="19" max="19" width="17.6640625" customWidth="1"/>
+    <col min="20" max="20" width="19.33203125" customWidth="1"/>
+    <col min="21" max="21" width="17.6640625" customWidth="1"/>
+    <col min="22" max="22" width="18.6640625" customWidth="1"/>
+    <col min="25" max="25" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="15" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" customWidth="1"/>
-    <col min="29" max="29" width="15.28515625" customWidth="1"/>
-    <col min="30" max="30" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.7109375" customWidth="1"/>
-    <col min="32" max="32" width="12.5703125" customWidth="1"/>
+    <col min="27" max="27" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.44140625" customWidth="1"/>
+    <col min="29" max="29" width="15.33203125" customWidth="1"/>
+    <col min="30" max="30" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.6640625" customWidth="1"/>
+    <col min="32" max="32" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>12</v>
       </c>
@@ -11882,7 +12471,7 @@
       <c r="AE1" s="15"/>
       <c r="AF1" s="15"/>
     </row>
-    <row r="2" spans="1:32" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>66</v>
       </c>
@@ -11980,7 +12569,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -12046,7 +12635,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -12097,7 +12686,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -12151,7 +12740,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>84</v>
       </c>
@@ -12193,7 +12782,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>85</v>
       </c>
@@ -12238,7 +12827,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -12276,7 +12865,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>87</v>
       </c>
@@ -12314,7 +12903,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>33</v>
       </c>
@@ -12349,7 +12938,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>32</v>
       </c>
@@ -12381,7 +12970,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>30</v>
       </c>
@@ -12413,7 +13002,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>79</v>
       </c>
@@ -12442,7 +13031,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>31</v>
       </c>
@@ -12465,7 +13054,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>35</v>
       </c>
@@ -12491,7 +13080,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>34</v>
       </c>
@@ -12508,7 +13097,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="17:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="17:27" x14ac:dyDescent="0.3">
       <c r="Q17" t="s">
         <v>119</v>
       </c>
@@ -12519,7 +13108,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="17:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="17:27" x14ac:dyDescent="0.3">
       <c r="Q18" t="s">
         <v>120</v>
       </c>
@@ -12533,7 +13122,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="19" spans="17:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="17:27" x14ac:dyDescent="0.3">
       <c r="R19" t="s">
         <v>152</v>
       </c>
@@ -12547,7 +13136,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="17:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="17:27" x14ac:dyDescent="0.3">
       <c r="S20" t="s">
         <v>156</v>
       </c>
@@ -12558,7 +13147,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="21" spans="17:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="17:27" x14ac:dyDescent="0.3">
       <c r="S21" t="s">
         <v>228</v>
       </c>
@@ -12572,7 +13161,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="22" spans="17:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="17:27" x14ac:dyDescent="0.3">
       <c r="S22" t="s">
         <v>113</v>
       </c>
@@ -12583,7 +13172,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="23" spans="17:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="17:27" x14ac:dyDescent="0.3">
       <c r="Q23" t="s">
         <v>127</v>
       </c>
@@ -12594,7 +13183,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="17:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="17:27" x14ac:dyDescent="0.3">
       <c r="R24" t="s">
         <v>141</v>
       </c>
@@ -12602,7 +13191,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="17:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="17:27" x14ac:dyDescent="0.3">
       <c r="R25" t="s">
         <v>146</v>
       </c>
@@ -12610,7 +13199,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="26" spans="17:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="17:27" x14ac:dyDescent="0.3">
       <c r="R26" t="s">
         <v>148</v>
       </c>
@@ -12618,7 +13207,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="17:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="17:27" x14ac:dyDescent="0.3">
       <c r="R27" t="s">
         <v>150</v>
       </c>
@@ -12632,7 +13221,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="28" spans="17:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="17:27" x14ac:dyDescent="0.3">
       <c r="Q28" t="s">
         <v>122</v>
       </c>
@@ -12643,7 +13232,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="29" spans="17:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="17:27" x14ac:dyDescent="0.3">
       <c r="R29" t="s">
         <v>142</v>
       </c>
@@ -12654,7 +13243,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="30" spans="17:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="17:27" x14ac:dyDescent="0.3">
       <c r="Q30" t="s">
         <v>123</v>
       </c>
@@ -12665,7 +13254,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="31" spans="17:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="17:27" x14ac:dyDescent="0.3">
       <c r="R31" t="s">
         <v>143</v>
       </c>
@@ -12673,7 +13262,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="32" spans="17:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="17:27" x14ac:dyDescent="0.3">
       <c r="Q32" t="s">
         <v>128</v>
       </c>
@@ -12681,12 +13270,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="33" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y33" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="34" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y34" t="s">
         <v>150</v>
       </c>
@@ -12706,18 +13295,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12835,24 +13424,24 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Bluemel.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Bluemel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD22788D-A205-41C5-87F5-23EF9132E8B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F521536C-6AB8-47C7-AC2B-709087206181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataExtraction" sheetId="1" r:id="rId1"/>
@@ -4747,7 +4747,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4796,12 +4796,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="10">
@@ -5379,37 +5373,37 @@
   <dimension ref="A1:AX49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="AN3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AT49" sqref="AT49"/>
+      <selection pane="bottomRight" activeCell="AX26" sqref="AX26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="28.44140625" customWidth="1"/>
-    <col min="4" max="4" width="120.5546875" customWidth="1"/>
-    <col min="11" max="11" width="26.33203125" customWidth="1"/>
-    <col min="15" max="15" width="17.6640625" customWidth="1"/>
-    <col min="19" max="19" width="18.109375" customWidth="1"/>
-    <col min="24" max="25" width="32.6640625" customWidth="1"/>
-    <col min="26" max="26" width="22.5546875" customWidth="1"/>
-    <col min="30" max="30" width="67.6640625" style="11" customWidth="1"/>
-    <col min="34" max="35" width="17.6640625" customWidth="1"/>
-    <col min="36" max="36" width="18.6640625" customWidth="1"/>
-    <col min="37" max="37" width="19.109375" customWidth="1"/>
-    <col min="38" max="38" width="17.6640625" customWidth="1"/>
-    <col min="39" max="39" width="14.33203125" customWidth="1"/>
-    <col min="40" max="40" width="15.88671875" customWidth="1"/>
-    <col min="41" max="41" width="35.33203125" customWidth="1"/>
-    <col min="42" max="42" width="15.44140625" customWidth="1"/>
-    <col min="46" max="46" width="15.109375" customWidth="1"/>
-    <col min="47" max="47" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="28.453125" customWidth="1"/>
+    <col min="4" max="4" width="120.54296875" customWidth="1"/>
+    <col min="11" max="11" width="26.36328125" customWidth="1"/>
+    <col min="15" max="15" width="17.6328125" customWidth="1"/>
+    <col min="19" max="19" width="18.08984375" customWidth="1"/>
+    <col min="24" max="25" width="32.6328125" customWidth="1"/>
+    <col min="26" max="26" width="22.54296875" customWidth="1"/>
+    <col min="30" max="30" width="67.6328125" style="11" customWidth="1"/>
+    <col min="34" max="35" width="17.6328125" customWidth="1"/>
+    <col min="36" max="36" width="18.6328125" customWidth="1"/>
+    <col min="37" max="37" width="19.08984375" customWidth="1"/>
+    <col min="38" max="38" width="17.6328125" customWidth="1"/>
+    <col min="39" max="39" width="14.36328125" customWidth="1"/>
+    <col min="40" max="40" width="15.90625" customWidth="1"/>
+    <col min="41" max="41" width="35.36328125" customWidth="1"/>
+    <col min="42" max="42" width="15.453125" customWidth="1"/>
+    <col min="46" max="46" width="15.08984375" customWidth="1"/>
+    <col min="47" max="47" width="18.6328125" customWidth="1"/>
     <col min="48" max="48" width="18" customWidth="1"/>
-    <col min="50" max="50" width="87.6640625" style="11" customWidth="1"/>
+    <col min="50" max="50" width="87.6328125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>11</v>
       </c>
@@ -5475,7 +5469,7 @@
       <c r="AW1" s="15"/>
       <c r="AX1" s="15"/>
     </row>
-    <row r="2" spans="1:50" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:50" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>68</v>
       </c>
@@ -5627,7 +5621,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>241</v>
       </c>
@@ -5685,7 +5679,7 @@
       <c r="AD3"/>
       <c r="AX3"/>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>256</v>
       </c>
@@ -5822,7 +5816,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>256</v>
       </c>
@@ -5959,7 +5953,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>256</v>
       </c>
@@ -6096,7 +6090,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>256</v>
       </c>
@@ -6233,7 +6227,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>256</v>
       </c>
@@ -6370,7 +6364,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="9" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
         <v>264</v>
       </c>
@@ -6498,7 +6492,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="10" spans="1:50" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:50" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>272</v>
       </c>
@@ -6629,7 +6623,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="11" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
         <v>278</v>
       </c>
@@ -6763,7 +6757,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="12" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
         <v>287</v>
       </c>
@@ -6821,7 +6815,7 @@
       <c r="AD12"/>
       <c r="AX12"/>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
         <v>296</v>
       </c>
@@ -6955,7 +6949,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="14" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>306</v>
       </c>
@@ -7013,7 +7007,7 @@
       <c r="AD14"/>
       <c r="AX14"/>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
         <v>316</v>
       </c>
@@ -7141,7 +7135,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
         <v>316</v>
       </c>
@@ -7272,7 +7266,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
         <v>316</v>
       </c>
@@ -7403,7 +7397,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
         <v>324</v>
       </c>
@@ -7537,7 +7531,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
         <v>324</v>
       </c>
@@ -7671,7 +7665,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
         <v>324</v>
       </c>
@@ -7805,7 +7799,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
         <v>324</v>
       </c>
@@ -7939,7 +7933,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
         <v>324</v>
       </c>
@@ -8073,7 +8067,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="23" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A23" s="10" t="s">
         <v>335</v>
       </c>
@@ -8192,7 +8186,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="24" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A24" s="10" t="s">
         <v>335</v>
       </c>
@@ -8302,7 +8296,7 @@
         <v>520</v>
       </c>
       <c r="AV24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AW24" t="s">
         <v>208</v>
@@ -8311,7 +8305,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="25" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
         <v>335</v>
       </c>
@@ -8430,7 +8424,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="26" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A26" s="10" t="s">
         <v>335</v>
       </c>
@@ -8552,7 +8546,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="27" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
         <v>344</v>
       </c>
@@ -8680,7 +8674,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="28" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
         <v>344</v>
       </c>
@@ -8808,7 +8802,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="29" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="10" t="s">
         <v>344</v>
       </c>
@@ -8939,7 +8933,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="30" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A30" s="10" t="s">
         <v>353</v>
       </c>
@@ -9067,7 +9061,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="31" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="s">
         <v>353</v>
       </c>
@@ -9195,7 +9189,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="32" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="10" t="s">
         <v>363</v>
       </c>
@@ -9320,7 +9314,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="33" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="10" t="s">
         <v>363</v>
       </c>
@@ -9448,7 +9442,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="34" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
         <v>372</v>
       </c>
@@ -9576,7 +9570,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="35" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="10" t="s">
         <v>381</v>
       </c>
@@ -9707,7 +9701,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="36" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="10" t="s">
         <v>381</v>
       </c>
@@ -9838,7 +9832,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="37" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="10" t="s">
         <v>391</v>
       </c>
@@ -9963,7 +9957,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="38" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="10" t="s">
         <v>391</v>
       </c>
@@ -10086,7 +10080,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="39" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
         <v>399</v>
       </c>
@@ -10211,7 +10205,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="40" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A40" s="10" t="s">
         <v>399</v>
       </c>
@@ -10336,7 +10330,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="41" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A41" s="10" t="s">
         <v>406</v>
       </c>
@@ -10394,7 +10388,7 @@
       <c r="AD41"/>
       <c r="AX41"/>
     </row>
-    <row r="42" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
         <v>413</v>
       </c>
@@ -10452,7 +10446,7 @@
       <c r="AD42"/>
       <c r="AX42"/>
     </row>
-    <row r="43" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A43" s="10" t="s">
         <v>423</v>
       </c>
@@ -10510,7 +10504,7 @@
       <c r="AD43"/>
       <c r="AX43"/>
     </row>
-    <row r="44" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A44" s="10" t="s">
         <v>432</v>
       </c>
@@ -10571,7 +10565,7 @@
       </c>
       <c r="AX44"/>
     </row>
-    <row r="45" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A45" s="10" t="s">
         <v>440</v>
       </c>
@@ -10690,7 +10684,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="46" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A46" s="10" t="s">
         <v>440</v>
       </c>
@@ -10809,7 +10803,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="47" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A47" s="10" t="s">
         <v>440</v>
       </c>
@@ -10928,7 +10922,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="48" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A48" s="10" t="s">
         <v>448</v>
       </c>
@@ -11057,7 +11051,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="49" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A49" s="10" t="s">
         <v>455</v>
       </c>
@@ -11323,17 +11317,17 @@
       <selection activeCell="AP31" sqref="AP31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="19" max="19" width="32.109375" customWidth="1"/>
-    <col min="23" max="23" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32.08984375" customWidth="1"/>
+    <col min="23" max="23" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="25" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="25" customWidth="1"/>
-    <col min="32" max="32" width="14.6640625" customWidth="1"/>
-    <col min="33" max="33" width="26.33203125" customWidth="1"/>
+    <col min="32" max="32" width="14.6328125" customWidth="1"/>
+    <col min="33" max="33" width="26.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>11</v>
       </c>
@@ -11398,7 +11392,7 @@
       <c r="AV1" s="9"/>
       <c r="AW1" s="9"/>
     </row>
-    <row r="2" spans="1:49" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:49" ht="87" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>68</v>
       </c>
@@ -11547,7 +11541,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.35">
       <c r="Q3" t="s">
         <v>21</v>
       </c>
@@ -11604,7 +11598,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.35">
       <c r="Q4" t="s">
         <v>22</v>
       </c>
@@ -11661,7 +11655,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.35">
       <c r="R5" t="s">
         <v>83</v>
       </c>
@@ -11717,7 +11711,7 @@
       </c>
       <c r="AW5" s="8"/>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.35">
       <c r="R6" t="s">
         <v>84</v>
       </c>
@@ -11762,7 +11756,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.35">
       <c r="R7" t="s">
         <v>85</v>
       </c>
@@ -11804,7 +11798,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.35">
       <c r="R8" t="s">
         <v>86</v>
       </c>
@@ -11842,7 +11836,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.35">
       <c r="R9" t="s">
         <v>87</v>
       </c>
@@ -11877,7 +11871,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.35">
       <c r="S10" t="s">
         <v>33</v>
       </c>
@@ -11909,7 +11903,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.35">
       <c r="S11" t="s">
         <v>32</v>
       </c>
@@ -11944,7 +11938,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.35">
       <c r="S12" t="s">
         <v>30</v>
       </c>
@@ -11976,7 +11970,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.35">
       <c r="S13" t="s">
         <v>79</v>
       </c>
@@ -12011,7 +12005,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.35">
       <c r="S14" t="s">
         <v>31</v>
       </c>
@@ -12040,7 +12034,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.35">
       <c r="S15" t="s">
         <v>35</v>
       </c>
@@ -12069,7 +12063,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.35">
       <c r="S16" t="s">
         <v>34</v>
       </c>
@@ -12089,7 +12083,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="34:47" x14ac:dyDescent="0.3">
+    <row r="17" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AM17" t="s">
         <v>162</v>
       </c>
@@ -12097,22 +12091,22 @@
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="34:47" x14ac:dyDescent="0.3">
+    <row r="18" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AP18" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="34:47" x14ac:dyDescent="0.3">
+    <row r="19" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AP19" s="7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="34:47" x14ac:dyDescent="0.3">
+    <row r="22" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AH22" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="34:47" x14ac:dyDescent="0.3">
+    <row r="23" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AH23" s="6" t="s">
         <v>115</v>
       </c>
@@ -12147,7 +12141,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="34:47" x14ac:dyDescent="0.3">
+    <row r="24" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AH24" t="s">
         <v>129</v>
       </c>
@@ -12173,7 +12167,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="34:47" x14ac:dyDescent="0.3">
+    <row r="25" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AH25" t="s">
         <v>137</v>
       </c>
@@ -12196,7 +12190,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="26" spans="34:47" x14ac:dyDescent="0.3">
+    <row r="26" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AJ26" t="s">
         <v>144</v>
       </c>
@@ -12207,7 +12201,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="27" spans="34:47" x14ac:dyDescent="0.3">
+    <row r="27" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AJ27" t="s">
         <v>147</v>
       </c>
@@ -12218,7 +12212,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="28" spans="34:47" x14ac:dyDescent="0.3">
+    <row r="28" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AJ28" t="s">
         <v>149</v>
       </c>
@@ -12226,12 +12220,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="34:47" x14ac:dyDescent="0.3">
+    <row r="29" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AP29" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="30" spans="34:47" x14ac:dyDescent="0.3">
+    <row r="30" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AH30" s="5" t="s">
         <v>151</v>
       </c>
@@ -12254,7 +12248,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="31" spans="34:47" x14ac:dyDescent="0.3">
+    <row r="31" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AH31" s="6" t="s">
         <v>129</v>
       </c>
@@ -12280,7 +12274,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="32" spans="34:47" x14ac:dyDescent="0.3">
+    <row r="32" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AH32" t="s">
         <v>153</v>
       </c>
@@ -12306,7 +12300,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="33" spans="34:50" x14ac:dyDescent="0.3">
+    <row r="33" spans="34:50" x14ac:dyDescent="0.35">
       <c r="AH33" t="s">
         <v>155</v>
       </c>
@@ -12326,7 +12320,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="34" spans="34:50" x14ac:dyDescent="0.3">
+    <row r="34" spans="34:50" x14ac:dyDescent="0.35">
       <c r="AI34" t="s">
         <v>157</v>
       </c>
@@ -12341,7 +12335,7 @@
       </c>
       <c r="AX34" s="7"/>
     </row>
-    <row r="35" spans="34:50" x14ac:dyDescent="0.3">
+    <row r="35" spans="34:50" x14ac:dyDescent="0.35">
       <c r="AI35" t="s">
         <v>113</v>
       </c>
@@ -12355,7 +12349,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="36" spans="34:50" x14ac:dyDescent="0.3">
+    <row r="36" spans="34:50" x14ac:dyDescent="0.35">
       <c r="AT36" t="s">
         <v>211</v>
       </c>
@@ -12363,10 +12357,10 @@
         <v>196</v>
       </c>
     </row>
-    <row r="37" spans="34:50" x14ac:dyDescent="0.3">
+    <row r="37" spans="34:50" x14ac:dyDescent="0.35">
       <c r="AL37" s="5"/>
     </row>
-    <row r="38" spans="34:50" x14ac:dyDescent="0.3">
+    <row r="38" spans="34:50" x14ac:dyDescent="0.35">
       <c r="AL38" s="6"/>
       <c r="AM38" s="6"/>
       <c r="AN38" s="6"/>
@@ -12394,38 +12388,38 @@
       <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" customWidth="1"/>
-    <col min="13" max="13" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.54296875" customWidth="1"/>
+    <col min="9" max="9" width="17.36328125" customWidth="1"/>
+    <col min="10" max="10" width="14.6328125" customWidth="1"/>
+    <col min="13" max="13" width="14.453125" customWidth="1"/>
     <col min="15" max="15" width="25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.5546875" customWidth="1"/>
-    <col min="17" max="17" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.88671875" customWidth="1"/>
-    <col min="19" max="19" width="17.6640625" customWidth="1"/>
-    <col min="20" max="20" width="19.33203125" customWidth="1"/>
-    <col min="21" max="21" width="17.6640625" customWidth="1"/>
-    <col min="22" max="22" width="18.6640625" customWidth="1"/>
-    <col min="25" max="25" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.54296875" customWidth="1"/>
+    <col min="17" max="17" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.90625" customWidth="1"/>
+    <col min="19" max="19" width="17.6328125" customWidth="1"/>
+    <col min="20" max="20" width="19.36328125" customWidth="1"/>
+    <col min="21" max="21" width="17.6328125" customWidth="1"/>
+    <col min="22" max="22" width="18.6328125" customWidth="1"/>
+    <col min="25" max="25" width="11.6328125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="15" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.44140625" customWidth="1"/>
-    <col min="29" max="29" width="15.33203125" customWidth="1"/>
-    <col min="30" max="30" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.6640625" customWidth="1"/>
-    <col min="32" max="32" width="12.5546875" customWidth="1"/>
+    <col min="27" max="27" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.453125" customWidth="1"/>
+    <col min="29" max="29" width="15.36328125" customWidth="1"/>
+    <col min="30" max="30" width="26.36328125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.6328125" customWidth="1"/>
+    <col min="32" max="32" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
         <v>12</v>
       </c>
@@ -12471,7 +12465,7 @@
       <c r="AE1" s="15"/>
       <c r="AF1" s="15"/>
     </row>
-    <row r="2" spans="1:32" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>66</v>
       </c>
@@ -12569,7 +12563,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -12635,7 +12629,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -12686,7 +12680,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -12740,7 +12734,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>84</v>
       </c>
@@ -12782,7 +12776,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>85</v>
       </c>
@@ -12827,7 +12821,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -12865,7 +12859,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>87</v>
       </c>
@@ -12903,7 +12897,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>33</v>
       </c>
@@ -12938,7 +12932,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>32</v>
       </c>
@@ -12970,7 +12964,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>30</v>
       </c>
@@ -13002,7 +12996,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>79</v>
       </c>
@@ -13031,7 +13025,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>31</v>
       </c>
@@ -13054,7 +13048,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>35</v>
       </c>
@@ -13080,7 +13074,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>34</v>
       </c>
@@ -13097,7 +13091,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="17:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="17:27" x14ac:dyDescent="0.35">
       <c r="Q17" t="s">
         <v>119</v>
       </c>
@@ -13108,7 +13102,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="17:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="17:27" x14ac:dyDescent="0.35">
       <c r="Q18" t="s">
         <v>120</v>
       </c>
@@ -13122,7 +13116,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="19" spans="17:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="17:27" x14ac:dyDescent="0.35">
       <c r="R19" t="s">
         <v>152</v>
       </c>
@@ -13136,7 +13130,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="17:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="17:27" x14ac:dyDescent="0.35">
       <c r="S20" t="s">
         <v>156</v>
       </c>
@@ -13147,7 +13141,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="21" spans="17:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="17:27" x14ac:dyDescent="0.35">
       <c r="S21" t="s">
         <v>228</v>
       </c>
@@ -13161,7 +13155,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="22" spans="17:27" x14ac:dyDescent="0.3">
+    <row r="22" spans="17:27" x14ac:dyDescent="0.35">
       <c r="S22" t="s">
         <v>113</v>
       </c>
@@ -13172,7 +13166,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="23" spans="17:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="17:27" x14ac:dyDescent="0.35">
       <c r="Q23" t="s">
         <v>127</v>
       </c>
@@ -13183,7 +13177,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="17:27" x14ac:dyDescent="0.3">
+    <row r="24" spans="17:27" x14ac:dyDescent="0.35">
       <c r="R24" t="s">
         <v>141</v>
       </c>
@@ -13191,7 +13185,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="17:27" x14ac:dyDescent="0.3">
+    <row r="25" spans="17:27" x14ac:dyDescent="0.35">
       <c r="R25" t="s">
         <v>146</v>
       </c>
@@ -13199,7 +13193,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="26" spans="17:27" x14ac:dyDescent="0.3">
+    <row r="26" spans="17:27" x14ac:dyDescent="0.35">
       <c r="R26" t="s">
         <v>148</v>
       </c>
@@ -13207,7 +13201,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="17:27" x14ac:dyDescent="0.3">
+    <row r="27" spans="17:27" x14ac:dyDescent="0.35">
       <c r="R27" t="s">
         <v>150</v>
       </c>
@@ -13221,7 +13215,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="28" spans="17:27" x14ac:dyDescent="0.3">
+    <row r="28" spans="17:27" x14ac:dyDescent="0.35">
       <c r="Q28" t="s">
         <v>122</v>
       </c>
@@ -13232,7 +13226,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="29" spans="17:27" x14ac:dyDescent="0.3">
+    <row r="29" spans="17:27" x14ac:dyDescent="0.35">
       <c r="R29" t="s">
         <v>142</v>
       </c>
@@ -13243,7 +13237,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="30" spans="17:27" x14ac:dyDescent="0.3">
+    <row r="30" spans="17:27" x14ac:dyDescent="0.35">
       <c r="Q30" t="s">
         <v>123</v>
       </c>
@@ -13254,7 +13248,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="31" spans="17:27" x14ac:dyDescent="0.3">
+    <row r="31" spans="17:27" x14ac:dyDescent="0.35">
       <c r="R31" t="s">
         <v>143</v>
       </c>
@@ -13262,7 +13256,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="32" spans="17:27" x14ac:dyDescent="0.3">
+    <row r="32" spans="17:27" x14ac:dyDescent="0.35">
       <c r="Q32" t="s">
         <v>128</v>
       </c>
@@ -13270,12 +13264,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="33" spans="25:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y33" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="34" spans="25:25" x14ac:dyDescent="0.3">
+    <row r="34" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y34" t="s">
         <v>150</v>
       </c>
@@ -13295,21 +13289,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="abe771af6212f3f785694fa6f4ad1686">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -13423,30 +13402,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{296C6747-B437-4BFD-90D3-AF1F913D3FA0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13460,4 +13431,27 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Bluemel.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Bluemel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F521536C-6AB8-47C7-AC2B-709087206181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478ED7BE-D851-48F1-84A7-C47D7CDE750F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Drop-down overview" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$51</definedName>
     <definedName name="Benthic_epifauna">Validation!$AI$32:$AI$35</definedName>
     <definedName name="Benthos">Validation!$AN$24:$AN$25</definedName>
     <definedName name="Catch_and_bycatch">Validation!$AM$15:$AM$17</definedName>
@@ -98,6 +98,8 @@
     <author>tc={0DBA107E-6F54-47E4-99BD-BD727CABFC0F}</author>
     <author>tc={CC0A6BC4-04EF-4A83-B009-E37BE3CA69B7}</author>
     <author>tc={83BF076C-EF3A-4FF6-92DF-06C2F3DA57D1}</author>
+    <author>tc={FDF1D696-0CED-4B50-9488-28F563E535BB}</author>
+    <author>tc={3E7E8A63-FE8F-485C-B7B0-D651CC82B2E5}</author>
     <author>tc={1F73A643-4889-4B00-BF17-FD191EDC437F}</author>
     <author>tc={C13FAB98-20DA-4332-A868-0381F8EB51A5}</author>
     <author>tc={8B01BB42-BD50-4A2B-91AE-BFF1AE1CC4A6}</author>
@@ -119,7 +121,7 @@
     <author>tc={7D39EFC8-0081-450E-A4F5-FE481BD385AA}</author>
     <author>tc={C0A70C4B-9FF8-4338-B62A-E4A38C309496}</author>
     <author>tc={265960B0-98E3-428D-9648-DA395740091E}</author>
-    <author>tc={BF36CD8D-F930-4DE8-A36A-E7811E80A5A0}</author>
+    <author>tc={04C9DBD1-83BA-48D5-BC64-8A80252FBDCE}</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{DA659EFB-5B1F-43DD-9A38-B812E57BCFB6}">
@@ -1517,7 +1519,7 @@
     Diet</t>
       </text>
     </comment>
-    <comment ref="AG35" authorId="34" shapeId="0" xr:uid="{1F73A643-4889-4B00-BF17-FD191EDC437F}">
+    <comment ref="AG35" authorId="34" shapeId="0" xr:uid="{FDF1D696-0CED-4B50-9488-28F563E535BB}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1525,7 +1527,7 @@
     both field and lab study</t>
       </text>
     </comment>
-    <comment ref="AG36" authorId="35" shapeId="0" xr:uid="{C13FAB98-20DA-4332-A868-0381F8EB51A5}">
+    <comment ref="AG36" authorId="35" shapeId="0" xr:uid="{3E7E8A63-FE8F-485C-B7B0-D651CC82B2E5}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1533,7 +1535,23 @@
     both field and lab study</t>
       </text>
     </comment>
-    <comment ref="AR37" authorId="36" shapeId="0" xr:uid="{8B01BB42-BD50-4A2B-91AE-BFF1AE1CC4A6}">
+    <comment ref="AG37" authorId="36" shapeId="0" xr:uid="{1F73A643-4889-4B00-BF17-FD191EDC437F}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    both field and lab study</t>
+      </text>
+    </comment>
+    <comment ref="AG38" authorId="37" shapeId="0" xr:uid="{C13FAB98-20DA-4332-A868-0381F8EB51A5}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    both field and lab study</t>
+      </text>
+    </comment>
+    <comment ref="AR39" authorId="38" shapeId="0" xr:uid="{8B01BB42-BD50-4A2B-91AE-BFF1AE1CC4A6}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1541,7 +1559,7 @@
     beam and otter</t>
       </text>
     </comment>
-    <comment ref="AW37" authorId="37" shapeId="0" xr:uid="{11A0CED8-7C4E-4A10-B3D6-7390E2591B9D}">
+    <comment ref="AW39" authorId="39" shapeId="0" xr:uid="{11A0CED8-7C4E-4A10-B3D6-7390E2591B9D}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1549,7 +1567,7 @@
     Did not test relationship but modelled mortality rates of bycatch for each species</t>
       </text>
     </comment>
-    <comment ref="AR38" authorId="38" shapeId="0" xr:uid="{7C93FD45-F80E-4576-B1F4-320CE5D28934}">
+    <comment ref="AR40" authorId="40" shapeId="0" xr:uid="{7C93FD45-F80E-4576-B1F4-320CE5D28934}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1557,7 +1575,7 @@
     beam and otter</t>
       </text>
     </comment>
-    <comment ref="AW38" authorId="39" shapeId="0" xr:uid="{84CBE241-7A40-4FBE-9038-FF85F7034818}">
+    <comment ref="AW40" authorId="41" shapeId="0" xr:uid="{84CBE241-7A40-4FBE-9038-FF85F7034818}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1565,7 +1583,7 @@
     Did not test relationship but modelled mortality rates of bycatch for each species</t>
       </text>
     </comment>
-    <comment ref="R41" authorId="40" shapeId="0" xr:uid="{29231E64-24AA-413F-9FA6-0B09201F7447}">
+    <comment ref="R43" authorId="42" shapeId="0" xr:uid="{29231E64-24AA-413F-9FA6-0B09201F7447}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1573,7 +1591,7 @@
     Paper describes the shrimp shoal structure but not assessment of fishing impacts on it</t>
       </text>
     </comment>
-    <comment ref="R42" authorId="41" shapeId="0" xr:uid="{8E7B695D-F34B-40FE-813F-DC802677F34C}">
+    <comment ref="R44" authorId="43" shapeId="0" xr:uid="{8E7B695D-F34B-40FE-813F-DC802677F34C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1581,7 +1599,7 @@
     this study identifies impacts of season and breeding of species, resource access (regulations and competition between fisheries) on LPUE, not impacts of fishing on ecosystem</t>
       </text>
     </comment>
-    <comment ref="R43" authorId="42" shapeId="0" xr:uid="{DB75CAF6-E7A8-4AD0-BD5E-B650738D5CE8}">
+    <comment ref="R45" authorId="44" shapeId="0" xr:uid="{DB75CAF6-E7A8-4AD0-BD5E-B650738D5CE8}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1589,7 +1607,7 @@
     a review of deepwater fisheries with no analysis of data</t>
       </text>
     </comment>
-    <comment ref="R44" authorId="43" shapeId="0" xr:uid="{172069E3-CDA2-41BE-8240-6D3A9258F91B}">
+    <comment ref="R46" authorId="45" shapeId="0" xr:uid="{172069E3-CDA2-41BE-8240-6D3A9258F91B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1597,7 +1615,7 @@
     I think this is purely a methodoligical paper - comparing hypotheses for natural mortality rates at age in stock assessment. This is not my area so would be good to have a second opinion!</t>
       </text>
     </comment>
-    <comment ref="T45" authorId="44" shapeId="0" xr:uid="{ABCFD0AF-BE84-4846-9C69-0442BE7E7030}">
+    <comment ref="T47" authorId="46" shapeId="0" xr:uid="{ABCFD0AF-BE84-4846-9C69-0442BE7E7030}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1605,7 +1623,7 @@
     Ebro Delta Natural Park, 40o37'N, 00o35'E; see Oro and Martinez-Vilalata 1994 for details</t>
       </text>
     </comment>
-    <comment ref="V45" authorId="45" shapeId="0" xr:uid="{2E2E41C1-2DBF-42F9-8384-EA0DBD36144F}">
+    <comment ref="V47" authorId="47" shapeId="0" xr:uid="{2E2E41C1-2DBF-42F9-8384-EA0DBD36144F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1613,7 +1631,7 @@
     no information provided for this</t>
       </text>
     </comment>
-    <comment ref="AR45" authorId="46" shapeId="0" xr:uid="{1F4028D3-691D-45CB-A4DC-194315CA757A}">
+    <comment ref="AR47" authorId="48" shapeId="0" xr:uid="{1F4028D3-691D-45CB-A4DC-194315CA757A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1621,7 +1639,7 @@
     just states trawling so could also include pelagic</t>
       </text>
     </comment>
-    <comment ref="T46" authorId="47" shapeId="0" xr:uid="{6586F64A-DB48-4A9D-A4A3-A7DD60911E1C}">
+    <comment ref="T48" authorId="49" shapeId="0" xr:uid="{6586F64A-DB48-4A9D-A4A3-A7DD60911E1C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1629,7 +1647,7 @@
     Ebro Delta Natural Park, 40o37'N, 00o35'E; see Oro and Martinez-Vilalata 1994 for details</t>
       </text>
     </comment>
-    <comment ref="V46" authorId="48" shapeId="0" xr:uid="{F75443A0-3FE8-4BA1-93C4-5CB19F2E9DCC}">
+    <comment ref="V48" authorId="50" shapeId="0" xr:uid="{F75443A0-3FE8-4BA1-93C4-5CB19F2E9DCC}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1637,7 +1655,7 @@
     no information provided for this</t>
       </text>
     </comment>
-    <comment ref="AR46" authorId="49" shapeId="0" xr:uid="{8071F227-D101-4336-BD57-1F39C4B7162B}">
+    <comment ref="AR48" authorId="51" shapeId="0" xr:uid="{8071F227-D101-4336-BD57-1F39C4B7162B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1645,7 +1663,7 @@
     just states trawling so could also include pelagic</t>
       </text>
     </comment>
-    <comment ref="T47" authorId="50" shapeId="0" xr:uid="{BB98232E-2577-4BAC-B9A0-60E7F593BE74}">
+    <comment ref="T49" authorId="52" shapeId="0" xr:uid="{BB98232E-2577-4BAC-B9A0-60E7F593BE74}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1653,7 +1671,7 @@
     Ebro Delta Natural Park, 40o37'N, 00o35'E; see Oro and Martinez-Vilalata 1994 for details</t>
       </text>
     </comment>
-    <comment ref="V47" authorId="51" shapeId="0" xr:uid="{7AD91645-8D90-4760-9B65-974C35D6BB66}">
+    <comment ref="V49" authorId="53" shapeId="0" xr:uid="{7AD91645-8D90-4760-9B65-974C35D6BB66}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1661,7 +1679,7 @@
     no information provided for this</t>
       </text>
     </comment>
-    <comment ref="AR47" authorId="52" shapeId="0" xr:uid="{7D39EFC8-0081-450E-A4F5-FE481BD385AA}">
+    <comment ref="AR49" authorId="54" shapeId="0" xr:uid="{7D39EFC8-0081-450E-A4F5-FE481BD385AA}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1669,7 +1687,7 @@
     just states trawling so could also include pelagic</t>
       </text>
     </comment>
-    <comment ref="AR48" authorId="53" shapeId="0" xr:uid="{C0A70C4B-9FF8-4338-B62A-E4A38C309496}">
+    <comment ref="AR50" authorId="55" shapeId="0" xr:uid="{C0A70C4B-9FF8-4338-B62A-E4A38C309496}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1677,7 +1695,7 @@
     Dutch trawlers fishing for mackerel, discuss additional purse-seine fishery in 1964 - so potentially multiple gears targeting mackerel</t>
       </text>
     </comment>
-    <comment ref="AV48" authorId="54" shapeId="0" xr:uid="{265960B0-98E3-428D-9648-DA395740091E}">
+    <comment ref="AV50" authorId="56" shapeId="0" xr:uid="{265960B0-98E3-428D-9648-DA395740091E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1685,12 +1703,14 @@
     and age structure and mortality</t>
       </text>
     </comment>
-    <comment ref="AG49" authorId="55" shapeId="0" xr:uid="{BF36CD8D-F930-4DE8-A36A-E7811E80A5A0}">
+    <comment ref="AG51" authorId="57" shapeId="0" xr:uid="{04C9DBD1-83BA-48D5-BC64-8A80252FBDCE}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    field and lab experiment</t>
+    field and lab experiment
+Reply:
+    Changed from 'Other'  to 'Field experiment' only</t>
       </text>
     </comment>
   </commentList>
@@ -2823,7 +2843,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2239" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2317" uniqueCount="633">
   <si>
     <t>SearchID</t>
   </si>
@@ -4644,110 +4664,112 @@
     <t>haemolymph concentrations of L-lactate _ D-glucose _ ammonia _ pH</t>
   </si>
   <si>
-    <t>Physiological stress onset: At the beginning of the exposure-to-air phase of experiments, immediately after being caught, higher haemolymph metabolite concentrations and lower pH values were recorded in both seasons compared to the respective control groups (Fig. 1). Particularly severe increases were recorded in the summer for glucose and in the winter for lactate, while in the other cases, differences compared to control values were less pronounced. It is worth noting that in the summer, there was higher variability in control samples. In the summer, significantly higher concentrations of glu- cose, lactate, and ammonia, and lower pH values were recorded compared to the winter (Mann–Whit- ney U test, P\0.01 in all comparisons). No significant regression with experimental time were detected for glucose; values ranged between 0 to 2 and 5 to 7 mmol l-1 in the winter and summer experiments, respectively (Fig. 1a). Lactate concen- tration increased significantly (P\0.001) as a func- tion of time in the summer, whereas the increase observed in the winter was not significant (Fig. 1b). In contrast, ammonia significantly increased with the time of the air exposure in winter (P\0.05), whereas in the summer no significant trend was recorded (Fig. 1c). Finally, pH was characterised by similar patterns of decreasing with time in both the winter and summer (Fig. 2d), but in the summer, data were more variable. Because of this, the trend in pH was only significant in the winter (P\0.01). Recovery from physiological impairment: Higher variability of data was observed in summer compared to the winter and in the early stages of the recovery process. However, in general terms, after air exposure the metabolite concentrations showed a decrease over time and pH increased, exhibiting a pattern that was compatible with recovery from acidosis (Fig. 2). The results of statistical analysis are summarised in Table 1. For glucose levels (Fig. 2a), a significant interac-tion between the season and the experimental time was seen in the early phase ofrecovery (EAE-2 h; two-way ANOVA; season 9 time: F3,47 = 24.5; P\0.001). In the winter, glucose showed an increasing trend with a peak at 2 h (2.5 mmol l-1), when a significantly higher value was recorded compared to EAE (Tukey’s HSD, P\0.001). Afterwards, the glucose level decreased, reaching a significantly lower value than at EAE at the end of the experiment (24 h) (Mann– Whitney U test, P\0.01). At this stage, the observed evels of glucose (about 0.5 mmol l-1) were similar to those recorded in control individuals. In contrast, in summer, the glucose concentration decreased from 0.5 h (when it was approximately 4.5 mmol l-1) onwards. At the end of the recovery process, a significantly lower concentration of glucose compared to the concentration at EAE was recorded (Mann– Whitney U test, P\0.01). This value was, however, significantly higher than that observed in the control group (Mann–Whitney U test, P\0.05). Overall, the time dependence of the lactate con-centration was similar in the two seasons (Fig. 2b), though concentrations were higher in the winter compared to the summer (two-way ANOVA; season: F1,47 = 76.2; P\0.001), and fluctuations over time were recorded in the early phase of the recovery period (two-way ANOVA; time; F3,47 = 6.5; P\ 0.01). In winter, at the end of the experiment, the recovery could be considered to be almost complete because lactate stabilised to significantly lower values compared to EAE (Mann–Whitney U test, P\0.01), reaching similar levels to those observed in controls (0.1–0.2 mmol l-1). In the summer, the decreasing trend in lactate levels was more evident from 3 h after EAE onwards. In addition, the lactate concentrations at the end of the recovery period were significantly lower than the levels at EAE and in the control group (Mann–Whitney U test, P\0.05 in both comparisons). In the case of ammonia (Fig. 2c), different trends
+    <t>exposure to air after trawling distrubance and re-immersion (discarding) in different seasons</t>
+  </si>
+  <si>
+    <t>From these results, we conclude that temperature shock, coupled with air exposure, influenced the ultimate stress level of this species to a greater extent than other effects of fishing.</t>
+  </si>
+  <si>
+    <t>adenylate energy charge of clam muscle samples collected after dredging in the field and after simulated stress in laboratory experiement _ reburrowing behaviour sampled with camera</t>
+  </si>
+  <si>
+    <t>striped venus clam Chamelea gallina</t>
+  </si>
+  <si>
+    <t>high and low pressure dredging _ daily mechanical shaking simulated distrurbance</t>
+  </si>
+  <si>
+    <t>Kruskal–Wallis test _ Gehan and Wilcoxon test _ G-test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adenylate energy charge (AEC) level _ RT50 (time required for reburrowing by 50% of the clams) _  percentage of clams reburrowing </t>
+  </si>
+  <si>
+    <t>Field results showed that HP-treated clams exhibited significantly lower levels of AEC compared with LP treatments. A similar trend was shown by reburrowing behaviour; HP-treated clams reburrowed less. Laboratory results were less clear: a very low level of AEC was measured in both control and treated clams. These poor conditions in foot muscle did not indicate worsening at organism level, as no dead or dying clams were recorded throughout the experiment. However, repeated mechanical stress reduced the percentage of reburrowing clams, which suggested that harvesting may affect reburrowing behaviour.</t>
+  </si>
+  <si>
+    <t>CPUE _ percentage at age _ mortality rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">catch _ fishing mortality </t>
+  </si>
+  <si>
+    <t>no stastical tests carried out</t>
+  </si>
+  <si>
+    <t>Abundance: It appears that the CPUE in the late fifties and the beginning of the sixties was higher than during the late sixties and does show a steady decrease over the whole period. Recruitment: the decline in CPUE in weight is certainly partly caused by the failure of recruitment. The 1955 and 1958 year classes recruiting in 1959 and 1962 respectively are the only good year-classes coming to the fishery in the period 1959-1969. No other strong year classes follower to reinforce the stock, except the year class of 1965 which appeared in 1967 as two year olds. this year class however did not reappear in quantity in 1968 and 1969. Mortality: For the period 1959-1969 in the area north-east and the areas north-east and north combined unsmoothed and smoothed mortality estimates are given in Table 6. The mortality rates in the two sets show large fluctuations between —0-31 and 1-32, which are presumably connected with variations in the availability of mackerel. This difficulty can be overcome by taking averages over longer periods. Average instantaneous mortality estimates have been computed for the whole period studied (1959-1969) and for periods before and after the impact of the purse-seine fishery, that is for 1959-1969 and for 1967-1969. The results are summarised in Table 7. Mortality rates in the mackerel stock prior to 1966 seem to have been very low (Z = 0-28) and the mackerel population had the appearance of an old accumulated stock as shown by the age compositions in Table 4. The sudden increase of the total catch in the years 1965-1969 from a level of 100000 tons to 900000 tons had a marked effect on the abundance and the mortality rates. In the last two seasons 1968 and 1969 very low abundances and high mortality rates were recorded. The age compositions have become markedly different from those in the years before 1966.</t>
+  </si>
+  <si>
+    <t>beam targeting flatfish in southern North Sea _ otter trawl targeting roundfish mainly in northwestern North Sea</t>
+  </si>
+  <si>
+    <t>trawl frequency per rectangle</t>
+  </si>
+  <si>
+    <t>mortality rate</t>
+  </si>
+  <si>
+    <t>Species-specific annual fishing mortality Table 4 lists 47 species which, from analysis of research-vessel survey data, are considered to contribute at least 0.1% of the total North Sea demersal fish biomass, together with predictions derived from our model of the percentage of each species standing-stock biomass removed each year through fishing activity distinguishing beam and otter trawling. This suggests that many of the non-target species are experiencing levels of fishing mortality that are at least as high, if not higher, than those inflicted on species that are the principal targets of fisheries</t>
+  </si>
+  <si>
+    <t>rays _ sharks</t>
+  </si>
+  <si>
+    <t>Spatially explicit model to determine bycatch mortality</t>
+  </si>
+  <si>
+    <t>Our predic- tions suggest that those elasmobranch species that remain suffi- ciently abundant to be included in our analyses are still subjected to levels of fishing mortality as high as many targeted species, a situation that may not bode well for their future.</t>
+  </si>
+  <si>
+    <t>numerous sensitve fish species</t>
+  </si>
+  <si>
+    <t>Callionymus lyra _ flatfish</t>
+  </si>
+  <si>
+    <t>Chamelea gallina</t>
+  </si>
+  <si>
+    <t>Larus fuscus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percentage of clams reburrowing </t>
+  </si>
+  <si>
+    <t>diet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A highly significant difference in diet composition was reorded between the 2 years (G-test = 234.4, P &lt; 0.0001, n = 377). When trawlers operated, diet was dominated by fish from discards, while during the trawling moratorium gulls fed from refuse tips, olive tree fields and especially rice fields. </t>
+  </si>
+  <si>
+    <t>egg volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A significant year effect was detected in realtion to the average volume of a clutch (ANOVA, F = 13.3, p &lt; 0.001, n = 77). The volume of the eggs decreased significantly, showing the importance of trawler discard availability as a proximate determinant of egg production of scavenging seabirds. </t>
+  </si>
+  <si>
+    <t>clutch size _ breeding success _ reproductive phenology</t>
+  </si>
+  <si>
+    <t>Median date of laying was very similar in both years (Mann-Whitney U-test, z = 0.8, not significant, n = 86). Modal clutch size was 3 eggs in both years. Although clutch size decreased in the year of the trawling moratorium, differences were not significant (G-test = 1.36, df = 2, p = 0.51, n = 77). A significant year effect was detected in realtion to the average volume of a clutch (ANOVA, F = 13.3, p &lt; 0.001, n = 77), while neither clutch size effect (ANOVA, F = 28.6, p = 0.25, n = 77) nor the interactions between year and clutch size (ANOVA, F = 38.2, p 0.19, n = 77) were detected. Breeding success was significantly lower in 1995 than in 1994 (chi-squared = 5, df = 1, p = 0.02).</t>
+  </si>
+  <si>
+    <t>Lab study: In both controls and treated specimens, the AEC values were low and within a very narrow range (0.17–0.45) (Table 3). There was no significant difference between treated and control samples, either at time 0 or after 48 h. Only after 24 h did controls show a significant higher value (P&lt; 0.01) compared with the treated specimens (0.42 and 0.17, respectively). Table 4 shows the percentage of clams reburrowing over a 10 h period. Values were very similar, and ranged from 70 to 90% of successfully burrowed clams. No significant differences were apparent between controls and treated samples at any time, although the general trend was towards a decrease in the burrowing rate of treated clams. This was particularly evident after the 48 h treatment. Considering the reburrowing curves (Fig. 3), no significant differences were observed between control and treated samples at any time.</t>
+  </si>
+  <si>
+    <t>Field study: Similar results were obtained for the AEC response in samples from both stations, Lido and Jesolo (Table 1). Significantly higher mean values were always shown by the LP samples compared with the HP ones (respectively, 0.83 vs. 0.73, P&lt; 0.05, at Jesolo; 0.79 vs. 0.74, P&lt; 0.001, at Lido). Reburrowing rates are shown in Table 2 and Fig. 2. The trends, expressed both as percentage of reburrowing clams and reburrowing curves, are similar in the two stations. At Lido, the LP clams reburrowed more quickly than the HP ones, although the difference was not significant (90 vs. 65%, respectively). At Jesolo, the LP sample had a significantly higher reburrowing rate (P&lt; 0.05) than the HP sample (70 vs. 45%, respectively). Both indices show relatively higher values in samples from Lido than Jesolo.</t>
+  </si>
+  <si>
+    <t>Physiological stress onset: At the beginning of the exposure-to-air phase of experiments, immediately after being caught, higher haemolymph metabolite concentrations and lower pH values were recorded in both seasons compared to the respective control groups (Fig. 1). Particularly severe increases were recorded in the summer for glucose and in the winter for lactate, while in the other cases, differences compared to control values were less pronounced. It is worth noting that in the summer, there was higher variability in control samples. In the summer, significantly higher concentrations of glucose, lactate, and ammonia, and lower pH values were recorded compared to the winter (Mann–Whitney U test, P\0.01 in all comparisons). No significant regression with experimental time were detected for glucose; values ranged between 0 to 2 and 5 to 7 mmol l-1 in the winter and summer experiments, respectively (Fig. 1a). Lactate concentration increased significantly (P\0.001) as a function of time in the summer, whereas the increase observed in the winter was not significant (Fig. 1b). In contrast, ammonia significantly increased with the time of the air exposure in winter (P\0.05), whereas in the summer no significant trend was recorded (Fig. 1c). Finally, pH was characterised by similar patterns of decreasing with time in both the winter and summer (Fig. 2d), but in the summer, data were more variable. Because of this, the trend in pH was only significant in the winter (P\0.01). Recovery from physiological impairment: Higher variability of data was observed in summer compared to the winter and in the early stages of the recovery process. However, in general terms, after air exposure the metabolite concentrations showed a decrease over time and pH increased, exhibiting a pattern that was compatible with recovery from acidosis (Fig. 2). The results of statistical analysis are summarised in Table 1. For glucose levels (Fig. 2a), a significant interac-tion between the season and the experimental time was seen in the early phase ofrecovery (EAE-2 h; two-way ANOVA; season 9 time: F3,47 = 24.5; P\0.001). In the winter, glucose showed an increasing trend with a peak at 2 h (2.5 mmol l-1), when a significantly higher value was recorded compared to EAE (Tukey’s HSD, P\0.001). Afterwards, the glucose level decreased, reaching a significantly lower value than at EAE at the end of the experiment (24 h) (Mann– Whitney U test, P\0.01). At this stage, the observed evels of glucose (about 0.5 mmol l-1) were similar to those recorded in control individuals. In contrast, in summer, the glucose concentration decreased from 0.5 h (when it was approximately 4.5 mmol l-1) onwards. At the end of the recovery process, a significantly lower concentration of glucose compared to the concentration at EAE was recorded (Mann– Whitney U test, P\0.01). This value was, however, significantly higher than that observed in the control group (Mann–Whitney U test, P\0.05). Overall, the time dependence of the lactate con-centration was similar in the two seasons (Fig. 2b), though concentrations were higher in the winter compared to the summer (two-way ANOVA; season: F1,47 = 76.2; P\0.001), and fluctuations over time were recorded in the early phase of the recovery period (two-way ANOVA; time; F3,47 = 6.5; P\ 0.01). In winter, at the end of the experiment, the recovery could be considered to be almost complete because lactate stabilised to significantly lower values compared to EAE (Mann–Whitney U test, P\0.01), reaching similar levels to those observed in controls (0.1–0.2 mmol l-1). In the summer, the decreasing trend in lactate levels was more evident from 3 h after EAE onwards. In addition, the lactate concentrations at the end of the recovery period were significantly lower than the levels at EAE and in the control group (Mann–Whitney U test, P\0.05 in both comparisons). In the case of ammonia (Fig. 2c), different trends
 were observed between the two seasons in the early phase of the recovery (two-way ANOVA; sea- son 9 time: F3,47 = 3.3; P\0.05). The winter val- ues remained almost constant up to 1 h after EAE (about 0.4 mmol l-1), while significantly lower values compared to EAE were observed after 2 h (Tukey’s HSD, P\0.001). At the end of the winter recovery experiment, the ammonia concentration reached a value of approximately 0.12 mmol l-1, which was significantly lower than at EAE (Mann–Whitney U test, P\0.05) and similar to the value recorded in controls (approximately 0.114 mmol l-1). However, the pairwise comparison revealed a significant differ- ence in ammonia levels over the course of the recovery period (Mann–Whitney U test, P\0.05). In contrast, during the summer, the largest decrease in ammonia concentration was observed after the maximum level was recorded at EAE (0.47 mmol l-1), but up to 2 h after re-immersion, no significant differences between seasons were recorded. At the end of the recovery period, ammonia concentration was significantly lower compared to at EAE (Mann–Whitney U test, P\0.05) with values similar to those of the control group (0.25 mmol l-1). The pH increased immediately after EAE and
-onwards in both seasons (Fig. 2d). In the first part of recovery, pH values were higher in winter compared to summer (two-way ANOVA; season: F1,47 = 372.3; P\0.001), though a similar increasing trend over time was observed in both seasons (two-way ANOVA; Time: F3,47 = 25.2; P\0.001; season 9 time: not significant). Significantly higher values compared to EAE were recorded from 0.5 and 1 h onwards after reimmersion in water in the winter and the summer, respectively (Tukey’s HSD, P\ 0.01 in all comparisons). In both seasons, at the end of the recovery period, the pH value was significantly higher than that observed in the respective control groups or in the EAE samples (Mann–Whitney U test, P\0.01 in all comparisons, with the excep- tion of the comparison between the control group and
-the he end of the recovery process in the summer experiment, where P\0.05).</t>
-  </si>
-  <si>
-    <t>exposure to air after trawling distrubance and re-immersion (discarding) in different seasons</t>
-  </si>
-  <si>
-    <t>From these results, we conclude that temperature shock, coupled with air exposure, influenced the ultimate stress level of this species to a greater extent than other effects of fishing.</t>
-  </si>
-  <si>
-    <t>adenylate energy charge of clam muscle samples collected after dredging in the field and after simulated stress in laboratory experiement _ reburrowing behaviour sampled with camera</t>
-  </si>
-  <si>
-    <t>striped venus clam Chamelea gallina</t>
-  </si>
-  <si>
-    <t>high and low pressure dredging _ daily mechanical shaking simulated distrurbance</t>
-  </si>
-  <si>
-    <t>Kruskal–Wallis test _ Gehan and Wilcoxon test _ G-test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adenylate energy charge (AEC) level _ RT50 (time required for reburrowing by 50% of the clams) _  percentage of clams reburrowing </t>
-  </si>
-  <si>
-    <t>Field study: Similar results were obtained for the AEC re-sponse in samples from both stations, Lido and Jesolo (Table 1). Significantly higher mean values were al- ways shown by the LP samples compared with the HP ones (respectively, 0.83 vs. 0.73, P&lt; 0.05, at Jesolo; 0.79 vs. 0.74, P&lt; 0.001, at Lido). Reburrowing rates are shown in Table 2 and Fig. 2. The trends, expressed both as percentage of reburrow- ing clams and reburrowing curves, are similar in the two stations. At Lido, the LP clams reburrowed more quickly than the HP ones, although the difference was not significant (90 vs. 65%, respectively). At Jesolo, the LP sample had a significantly higher reburrowing rate (P&lt; 0.05) than the HP sample (70 vs. 45%, re- spectively). Both indices show relatively higher values in samples from Lido than Jesolo. Lab study: In both controls and treated specimens, the AEC values were low and within a very narrow range (0.17–0.45) (Table 3). There was no significant dif- ference between treated and control samples, either at time 0 or after 48 h. Only after 24 h did controls show a significant higher value (P&lt; 0.01) compared with the treated specimens (0.42 and 0.17, respectively). Table 4 shows the percentage of clams reburrow-ing over a 10 h period. Values were very similar, and ranged from 70 to 90% of successfully burrowed clams. No significant differences were apparent be-tween controls and treated samples at any time, al- though the general trend was towards a decrease in the burrowing rate of treated clams. This was particu- larly evident after the 48 h treatment. Considering the reburrowing curves (Fig. 3), no significant differences were observed between control and treated samples at any time.</t>
-  </si>
-  <si>
-    <t>Field results showed that HP-treated clams exhibited significantly lower levels of AEC compared with LP treatments. A similar trend was shown by reburrowing behaviour; HP-treated clams reburrowed less. Laboratory results were less clear: a very low level of AEC was measured in both control and treated clams. These poor conditions in foot muscle did not indicate worsening at organism level, as no dead or dying clams were recorded throughout the experiment. However, repeated mechanical stress reduced the percentage of reburrowing clams, which suggested that harvesting may affect reburrowing behaviour.</t>
-  </si>
-  <si>
-    <t>CPUE _ percentage at age _ mortality rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">catch _ fishing mortality </t>
-  </si>
-  <si>
-    <t>no stastical tests carried out</t>
-  </si>
-  <si>
-    <t>Abundance: It appears that the CPUE in the late fifties and the beginning of the sixties was higher than during the late sixties and does show a steady decrease over the whole period. Recruitment: the decline in CPUE in weight is certainly partly caused by the failure of recruitment. The 1955 and 1958 year classes recruiting in 1959 and 1962 respectively are the only good year-classes coming to the fishery in the period 1959-1969. No other strong year classes follower to reinforce the stock, except the year class of 1965 which appeared in 1967 as two year olds. this year class however did not reappear in quantity in 1968 and 1969. Mortality: For the period 1959-1969 in the area north-east and the areas north-east and north combined unsmoothed and smoothed mortality estimates are given in Table 6. The mortality rates in the two sets show large fluctuations between —0-31 and 1-32, which are presumably connected with variations in the availability of mackerel. This difficulty can be overcome by taking averages over longer periods. Average instantaneous mortality estimates have been computed for the whole period studied (1959-1969) and for periods before and after the impact of the purse-seine fishery, that is for 1959-1969 and for 1967-1969. The results are summarised in Table 7. Mortality rates in the mackerel stock prior to 1966 seem to have been very low (Z = 0-28) and the mackerel population had the appearance of an old accumulated stock as shown by the age compositions in Table 4. The sudden increase of the total catch in the years 1965-1969 from a level of 100000 tons to 900000 tons had a marked effect on the abundance and the mortality rates. In the last two seasons 1968 and 1969 very low abundances and high mortality rates were recorded. The age compositions have become markedly different from those in the years before 1966.</t>
-  </si>
-  <si>
-    <t>beam targeting flatfish in southern North Sea _ otter trawl targeting roundfish mainly in northwestern North Sea</t>
-  </si>
-  <si>
-    <t>trawl frequency per rectangle</t>
-  </si>
-  <si>
-    <t>mortality rate</t>
-  </si>
-  <si>
-    <t>Species-specific annual fishing mortality Table 4 lists 47 species which, from analysis of research-vessel survey data, are considered to contribute at least 0.1% of the total North Sea demersal fish biomass, together with predictions derived from our model of the percentage of each species standing-stock biomass removed each year through fishing activity distinguishing beam and otter trawling. This suggests that many of the non-target species are experiencing levels of fishing mortality that are at least as high, if not higher, than those inflicted on species that are the principal targets of fisheries</t>
-  </si>
-  <si>
-    <t>rays _ sharks</t>
-  </si>
-  <si>
-    <t>Spatially explicit model to determine bycatch mortality</t>
-  </si>
-  <si>
-    <t>Our predic- tions suggest that those elasmobranch species that remain suffi- ciently abundant to be included in our analyses are still subjected to levels of fishing mortality as high as many targeted species, a situation that may not bode well for their future.</t>
-  </si>
-  <si>
-    <t>numerous sensitve fish species</t>
-  </si>
-  <si>
-    <t>Callionymus lyra _ flatfish</t>
-  </si>
-  <si>
-    <t>Chamelea gallina</t>
-  </si>
-  <si>
-    <t>Larus fuscus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percentage of clams reburrowing </t>
-  </si>
-  <si>
-    <t>diet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A highly significant difference in diet composition was reorded between the 2 years (G-test = 234.4, P &lt; 0.0001, n = 377). When trawlers operated, diet was dominated by fish from discards, while during the trawling moratorium gulls fed from refuse tips, olive tree fields and especially rice fields. </t>
-  </si>
-  <si>
-    <t>egg volume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A significant year effect was detected in realtion to the average volume of a clutch (ANOVA, F = 13.3, p &lt; 0.001, n = 77). The volume of the eggs decreased significantly, showing the importance of trawler discard availability as a proximate determinant of egg production of scavenging seabirds. </t>
-  </si>
-  <si>
-    <t>clutch size _ breeding success _ reproductive phenology</t>
-  </si>
-  <si>
-    <t>Median date of laying was very similar in both years (Mann-Whitney U-test, z = 0.8, not significant, n = 86). Modal clutch size was 3 eggs in both years. Although clutch size decreased in the year of the trawling moratorium, differences were not significant (G-test = 1.36, df = 2, p = 0.51, n = 77). A significant year effect was detected in realtion to the average volume of a clutch (ANOVA, F = 13.3, p &lt; 0.001, n = 77), while neither clutch size effect (ANOVA, F = 28.6, p = 0.25, n = 77) nor the interactions between year and clutch size (ANOVA, F = 38.2, p 0.19, n = 77) were detected. Breeding success was significantly lower in 1995 than in 1994 (chi-squared = 5, df = 1, p = 0.02).</t>
+onwards in both seasons (Fig. 2d). In the first part of recovery, pH values were higher in winter compared to summer (two-way ANOVA; season: F1,47 = 372.3; P\0.001), though a similar increasing trend over time was observed in both seasons (two-way ANOVA; Time: F3,47 = 25.2; P\0.001; season 9 time: not significant). Significantly higher values compared to EAE were recorded from 0.5 and 1 h onwards after reimmersion in water in the winter and the summer, respectively (Tukey’s HSD, P\ 0.01 in all comparisons). In both seasons, at the end of the recovery period, the pH value was significantly higher than that observed in the respective control groups or in the EAE samples (Mann–Whitney U test, P\0.01 in all comparisons, with the excep- tion of the comparison between the control group and the end of the recovery process in the summer experiment, where P\0.05).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4796,6 +4818,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="10">
@@ -4936,6 +4964,7 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Esther D. Beukhof" id="{9965CBB5-2279-48F3-8BB4-29047743A273}" userId="S::estb@dtu.dk::180e22e1-534e-4773-a835-d89f64043bf5" providerId="AD"/>
   <person displayName="Joanna Bluemel (Cefas)" id="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" userId="S::joanna.bluemel@cefas.co.uk::f147e059-bed2-4263-a1e2-f77324a4c88a" providerId="AD"/>
 </personList>
 </file>
@@ -5299,84 +5328,93 @@
   <threadedComment ref="AV34" dT="2022-03-09T18:02:50.58" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{83BF076C-EF3A-4FF6-92DF-06C2F3DA57D1}">
     <text>Diet</text>
   </threadedComment>
-  <threadedComment ref="AG35" dT="2022-03-10T12:59:27.41" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{1F73A643-4889-4B00-BF17-FD191EDC437F}">
+  <threadedComment ref="AG35" dT="2022-03-10T12:59:27.41" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{FDF1D696-0CED-4B50-9488-28F563E535BB}">
     <text>both field and lab study</text>
   </threadedComment>
-  <threadedComment ref="AG36" dT="2022-03-10T12:59:27.41" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{C13FAB98-20DA-4332-A868-0381F8EB51A5}">
+  <threadedComment ref="AG36" dT="2022-03-10T12:59:27.41" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{3E7E8A63-FE8F-485C-B7B0-D651CC82B2E5}">
     <text>both field and lab study</text>
   </threadedComment>
-  <threadedComment ref="AR37" dT="2022-03-10T16:31:58.86" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{8B01BB42-BD50-4A2B-91AE-BFF1AE1CC4A6}">
+  <threadedComment ref="AG37" dT="2022-03-10T12:59:27.41" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{1F73A643-4889-4B00-BF17-FD191EDC437F}">
+    <text>both field and lab study</text>
+  </threadedComment>
+  <threadedComment ref="AG38" dT="2022-03-10T12:59:27.41" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{C13FAB98-20DA-4332-A868-0381F8EB51A5}">
+    <text>both field and lab study</text>
+  </threadedComment>
+  <threadedComment ref="AR39" dT="2022-03-10T16:31:58.86" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{8B01BB42-BD50-4A2B-91AE-BFF1AE1CC4A6}">
     <text>beam and otter</text>
   </threadedComment>
-  <threadedComment ref="AW37" dT="2022-03-10T16:47:15.25" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{11A0CED8-7C4E-4A10-B3D6-7390E2591B9D}">
+  <threadedComment ref="AW39" dT="2022-03-10T16:47:15.25" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{11A0CED8-7C4E-4A10-B3D6-7390E2591B9D}">
     <text>Did not test relationship but modelled mortality rates of bycatch for each species</text>
   </threadedComment>
-  <threadedComment ref="AR38" dT="2022-03-10T16:31:58.86" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{7C93FD45-F80E-4576-B1F4-320CE5D28934}">
+  <threadedComment ref="AR40" dT="2022-03-10T16:31:58.86" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{7C93FD45-F80E-4576-B1F4-320CE5D28934}">
     <text>beam and otter</text>
   </threadedComment>
-  <threadedComment ref="AW38" dT="2022-03-10T16:47:15.25" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{84CBE241-7A40-4FBE-9038-FF85F7034818}">
+  <threadedComment ref="AW40" dT="2022-03-10T16:47:15.25" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{84CBE241-7A40-4FBE-9038-FF85F7034818}">
     <text>Did not test relationship but modelled mortality rates of bycatch for each species</text>
   </threadedComment>
-  <threadedComment ref="R41" dT="2022-03-10T16:04:10.48" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{29231E64-24AA-413F-9FA6-0B09201F7447}">
+  <threadedComment ref="R43" dT="2022-03-10T16:04:10.48" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{29231E64-24AA-413F-9FA6-0B09201F7447}">
     <text>Paper describes the shrimp shoal structure but not assessment of fishing impacts on it</text>
   </threadedComment>
-  <threadedComment ref="R42" dT="2022-03-10T15:27:24.78" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{8E7B695D-F34B-40FE-813F-DC802677F34C}">
+  <threadedComment ref="R44" dT="2022-03-10T15:27:24.78" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{8E7B695D-F34B-40FE-813F-DC802677F34C}">
     <text>this study identifies impacts of season and breeding of species, resource access (regulations and competition between fisheries) on LPUE, not impacts of fishing on ecosystem</text>
   </threadedComment>
-  <threadedComment ref="R43" dT="2022-03-07T16:15:16.37" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{DB75CAF6-E7A8-4AD0-BD5E-B650738D5CE8}">
+  <threadedComment ref="R45" dT="2022-03-07T16:15:16.37" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{DB75CAF6-E7A8-4AD0-BD5E-B650738D5CE8}">
     <text>a review of deepwater fisheries with no analysis of data</text>
   </threadedComment>
-  <threadedComment ref="R44" dT="2022-03-09T18:33:51.38" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{172069E3-CDA2-41BE-8240-6D3A9258F91B}">
+  <threadedComment ref="R46" dT="2022-03-09T18:33:51.38" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{172069E3-CDA2-41BE-8240-6D3A9258F91B}">
     <text>I think this is purely a methodoligical paper - comparing hypotheses for natural mortality rates at age in stock assessment. This is not my area so would be good to have a second opinion!</text>
   </threadedComment>
-  <threadedComment ref="T45" dT="2022-03-09T18:41:25.25" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{ABCFD0AF-BE84-4846-9C69-0442BE7E7030}">
+  <threadedComment ref="T47" dT="2022-03-09T18:41:25.25" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{ABCFD0AF-BE84-4846-9C69-0442BE7E7030}">
     <text>Ebro Delta Natural Park, 40o37'N, 00o35'E; see Oro and Martinez-Vilalata 1994 for details</text>
   </threadedComment>
-  <threadedComment ref="V45" dT="2022-03-10T11:42:04.93" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{2E2E41C1-2DBF-42F9-8384-EA0DBD36144F}">
+  <threadedComment ref="V47" dT="2022-03-10T11:42:04.93" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{2E2E41C1-2DBF-42F9-8384-EA0DBD36144F}">
     <text>no information provided for this</text>
   </threadedComment>
-  <threadedComment ref="AR45" dT="2022-03-09T18:48:09.42" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{1F4028D3-691D-45CB-A4DC-194315CA757A}">
+  <threadedComment ref="AR47" dT="2022-03-09T18:48:09.42" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{1F4028D3-691D-45CB-A4DC-194315CA757A}">
     <text>just states trawling so could also include pelagic</text>
   </threadedComment>
-  <threadedComment ref="T46" dT="2022-03-09T18:41:25.25" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{6586F64A-DB48-4A9D-A4A3-A7DD60911E1C}">
+  <threadedComment ref="T48" dT="2022-03-09T18:41:25.25" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{6586F64A-DB48-4A9D-A4A3-A7DD60911E1C}">
     <text>Ebro Delta Natural Park, 40o37'N, 00o35'E; see Oro and Martinez-Vilalata 1994 for details</text>
   </threadedComment>
-  <threadedComment ref="V46" dT="2022-03-10T11:42:04.93" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{F75443A0-3FE8-4BA1-93C4-5CB19F2E9DCC}">
+  <threadedComment ref="V48" dT="2022-03-10T11:42:04.93" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{F75443A0-3FE8-4BA1-93C4-5CB19F2E9DCC}">
     <text>no information provided for this</text>
   </threadedComment>
-  <threadedComment ref="AR46" dT="2022-03-09T18:48:09.42" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{8071F227-D101-4336-BD57-1F39C4B7162B}">
+  <threadedComment ref="AR48" dT="2022-03-09T18:48:09.42" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{8071F227-D101-4336-BD57-1F39C4B7162B}">
     <text>just states trawling so could also include pelagic</text>
   </threadedComment>
-  <threadedComment ref="T47" dT="2022-03-09T18:41:25.25" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{BB98232E-2577-4BAC-B9A0-60E7F593BE74}">
+  <threadedComment ref="T49" dT="2022-03-09T18:41:25.25" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{BB98232E-2577-4BAC-B9A0-60E7F593BE74}">
     <text>Ebro Delta Natural Park, 40o37'N, 00o35'E; see Oro and Martinez-Vilalata 1994 for details</text>
   </threadedComment>
-  <threadedComment ref="V47" dT="2022-03-10T11:42:04.93" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{7AD91645-8D90-4760-9B65-974C35D6BB66}">
+  <threadedComment ref="V49" dT="2022-03-10T11:42:04.93" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{7AD91645-8D90-4760-9B65-974C35D6BB66}">
     <text>no information provided for this</text>
   </threadedComment>
-  <threadedComment ref="AR47" dT="2022-03-09T18:48:09.42" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{7D39EFC8-0081-450E-A4F5-FE481BD385AA}">
+  <threadedComment ref="AR49" dT="2022-03-09T18:48:09.42" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{7D39EFC8-0081-450E-A4F5-FE481BD385AA}">
     <text>just states trawling so could also include pelagic</text>
   </threadedComment>
-  <threadedComment ref="AR48" dT="2022-03-09T19:15:49.80" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{C0A70C4B-9FF8-4338-B62A-E4A38C309496}">
+  <threadedComment ref="AR50" dT="2022-03-09T19:15:49.80" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{C0A70C4B-9FF8-4338-B62A-E4A38C309496}">
     <text>Dutch trawlers fishing for mackerel, discuss additional purse-seine fishery in 1964 - so potentially multiple gears targeting mackerel</text>
   </threadedComment>
-  <threadedComment ref="AV48" dT="2022-03-10T14:00:21.45" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{265960B0-98E3-428D-9648-DA395740091E}">
+  <threadedComment ref="AV50" dT="2022-03-10T14:00:21.45" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{265960B0-98E3-428D-9648-DA395740091E}">
     <text>and age structure and mortality</text>
   </threadedComment>
-  <threadedComment ref="AG49" dT="2022-03-10T11:45:14.77" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{BF36CD8D-F930-4DE8-A36A-E7811E80A5A0}">
+  <threadedComment ref="AG51" dT="2022-03-10T11:45:14.77" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{04C9DBD1-83BA-48D5-BC64-8A80252FBDCE}">
     <text>field and lab experiment</text>
+  </threadedComment>
+  <threadedComment ref="AG51" dT="2022-10-04T06:45:00.99" personId="{9965CBB5-2279-48F3-8BB4-29047743A273}" id="{BB8D6876-585D-4F3E-90F0-465E31031563}" parentId="{04C9DBD1-83BA-48D5-BC64-8A80252FBDCE}">
+    <text>Changed from 'Other'  to 'Field experiment' only</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX49"/>
+  <dimension ref="A1:AX51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="AN3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AX26" sqref="AX26"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9159,7 +9197,7 @@
         <v>144</v>
       </c>
       <c r="AL31" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="AM31" t="s">
         <v>159</v>
@@ -9638,10 +9676,10 @@
         <v>113</v>
       </c>
       <c r="Y35" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="Z35" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AA35">
         <v>2</v>
@@ -9653,13 +9691,13 @@
         <v>3</v>
       </c>
       <c r="AD35" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="AF35" t="s">
         <v>390</v>
       </c>
       <c r="AG35" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="AH35" t="s">
         <v>120</v>
@@ -9668,7 +9706,7 @@
         <v>133</v>
       </c>
       <c r="AL35" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="AM35" t="s">
         <v>232</v>
@@ -9677,7 +9715,7 @@
         <v>160</v>
       </c>
       <c r="AO35" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AQ35" t="s">
         <v>164</v>
@@ -9686,10 +9724,10 @@
         <v>168</v>
       </c>
       <c r="AT35" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AU35" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AV35" t="s">
         <v>213</v>
@@ -9698,7 +9736,7 @@
         <v>209</v>
       </c>
       <c r="AX35" s="11" t="s">
-        <v>608</v>
+        <v>631</v>
       </c>
     </row>
     <row r="36" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -9769,10 +9807,10 @@
         <v>113</v>
       </c>
       <c r="Y36" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="Z36" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AA36">
         <v>2</v>
@@ -9784,13 +9822,13 @@
         <v>3</v>
       </c>
       <c r="AD36" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="AF36" t="s">
         <v>390</v>
       </c>
       <c r="AG36" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="AH36" t="s">
         <v>120</v>
@@ -9799,7 +9837,7 @@
         <v>133</v>
       </c>
       <c r="AL36" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="AM36" t="s">
         <v>232</v>
@@ -9808,7 +9846,7 @@
         <v>160</v>
       </c>
       <c r="AO36" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AQ36" t="s">
         <v>164</v>
@@ -9817,10 +9855,10 @@
         <v>168</v>
       </c>
       <c r="AT36" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AU36" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AV36" t="s">
         <v>212</v>
@@ -9829,81 +9867,81 @@
         <v>209</v>
       </c>
       <c r="AX36" s="11" t="s">
-        <v>608</v>
+        <v>631</v>
       </c>
     </row>
     <row r="37" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="10" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="B37" t="s">
         <v>242</v>
       </c>
       <c r="C37" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="D37" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="E37">
-        <v>2009</v>
+        <v>2003</v>
       </c>
       <c r="F37" t="s">
-        <v>309</v>
+        <v>384</v>
       </c>
       <c r="G37" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="H37" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="I37" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="J37" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="K37" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="L37" t="s">
         <v>251</v>
       </c>
       <c r="M37" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="N37" t="s">
         <v>253</v>
       </c>
       <c r="O37" t="s">
-        <v>362</v>
-      </c>
-      <c r="P37" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q37" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S37" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="T37" t="s">
         <v>46</v>
       </c>
       <c r="U37" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="V37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="X37" t="s">
-        <v>215</v>
+        <v>113</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>602</v>
       </c>
       <c r="Z37" t="s">
-        <v>619</v>
+        <v>605</v>
       </c>
       <c r="AA37">
         <v>2</v>
@@ -9915,120 +9953,126 @@
         <v>3</v>
       </c>
       <c r="AD37" t="s">
-        <v>620</v>
-      </c>
-      <c r="AF37">
-        <v>4.2</v>
+        <v>607</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>390</v>
       </c>
       <c r="AG37" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AH37" t="s">
-        <v>220</v>
+        <v>120</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>133</v>
       </c>
       <c r="AL37" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="AM37" t="s">
         <v>232</v>
       </c>
       <c r="AN37" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AO37" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="AQ37" t="s">
         <v>164</v>
       </c>
       <c r="AR37" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="AT37" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="AU37" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="AV37" t="s">
-        <v>238</v>
-      </c>
-      <c r="AX37" t="s">
-        <v>617</v>
+        <v>213</v>
+      </c>
+      <c r="AW37" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX37" s="11" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="38" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="10" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="B38" t="s">
         <v>242</v>
       </c>
       <c r="C38" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="D38" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="E38">
-        <v>2009</v>
+        <v>2003</v>
       </c>
       <c r="F38" t="s">
-        <v>309</v>
+        <v>384</v>
       </c>
       <c r="G38" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="H38" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="I38" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="J38" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="K38" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="L38" t="s">
         <v>251</v>
       </c>
       <c r="M38" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="N38" t="s">
         <v>253</v>
       </c>
       <c r="O38" t="s">
-        <v>362</v>
-      </c>
-      <c r="P38" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q38" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S38" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="T38" t="s">
         <v>46</v>
       </c>
       <c r="U38" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="V38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="X38" t="s">
-        <v>215</v>
+        <v>113</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>602</v>
       </c>
       <c r="Z38" t="s">
-        <v>619</v>
+        <v>605</v>
       </c>
       <c r="AA38">
         <v>2</v>
@@ -10039,15 +10083,20 @@
       <c r="AC38">
         <v>3</v>
       </c>
-      <c r="AD38"/>
-      <c r="AF38">
-        <v>4.2</v>
+      <c r="AD38" t="s">
+        <v>607</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>390</v>
       </c>
       <c r="AG38" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AH38" t="s">
-        <v>117</v>
+        <v>120</v>
+      </c>
+      <c r="AI38" t="s">
+        <v>133</v>
       </c>
       <c r="AL38" t="s">
         <v>621</v>
@@ -10056,69 +10105,72 @@
         <v>232</v>
       </c>
       <c r="AN38" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AO38" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="AQ38" t="s">
         <v>164</v>
       </c>
       <c r="AR38" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="AT38" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="AU38" t="s">
-        <v>616</v>
+        <v>623</v>
       </c>
       <c r="AV38" t="s">
-        <v>238</v>
-      </c>
-      <c r="AX38" t="s">
-        <v>617</v>
+        <v>212</v>
+      </c>
+      <c r="AW38" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX38" s="11" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="39" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="B39" t="s">
         <v>242</v>
       </c>
       <c r="C39" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="D39" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="E39">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="F39" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="G39" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="H39" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="I39" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="J39" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="K39" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="L39" t="s">
         <v>251</v>
       </c>
       <c r="M39" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="N39" t="s">
         <v>253</v>
@@ -10133,13 +10185,13 @@
         <v>21</v>
       </c>
       <c r="S39" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="T39" t="s">
         <v>46</v>
       </c>
       <c r="U39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V39" t="s">
         <v>43</v>
@@ -10151,7 +10203,7 @@
         <v>215</v>
       </c>
       <c r="Z39" t="s">
-        <v>532</v>
+        <v>617</v>
       </c>
       <c r="AA39">
         <v>2</v>
@@ -10162,29 +10214,29 @@
       <c r="AC39">
         <v>3</v>
       </c>
-      <c r="AD39" s="11" t="s">
-        <v>535</v>
-      </c>
-      <c r="AF39" t="s">
-        <v>390</v>
+      <c r="AD39" t="s">
+        <v>618</v>
+      </c>
+      <c r="AF39">
+        <v>4.2</v>
       </c>
       <c r="AG39" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AH39" t="s">
-        <v>118</v>
+        <v>220</v>
       </c>
       <c r="AL39" t="s">
-        <v>531</v>
+        <v>616</v>
       </c>
       <c r="AM39" t="s">
         <v>232</v>
       </c>
       <c r="AN39" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AO39" t="s">
-        <v>487</v>
+        <v>613</v>
       </c>
       <c r="AQ39" t="s">
         <v>164</v>
@@ -10192,58 +10244,58 @@
       <c r="AR39" t="s">
         <v>239</v>
       </c>
+      <c r="AT39" t="s">
+        <v>612</v>
+      </c>
       <c r="AU39" t="s">
-        <v>533</v>
+        <v>614</v>
       </c>
       <c r="AV39" t="s">
         <v>238</v>
       </c>
-      <c r="AW39" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX39" s="11" t="s">
-        <v>534</v>
+      <c r="AX39" t="s">
+        <v>615</v>
       </c>
     </row>
-    <row r="40" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="10" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="B40" t="s">
         <v>242</v>
       </c>
       <c r="C40" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="D40" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="E40">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="F40" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="G40" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="H40" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="I40" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="J40" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="K40" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="L40" t="s">
         <v>251</v>
       </c>
       <c r="M40" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="N40" t="s">
         <v>253</v>
@@ -10258,13 +10310,13 @@
         <v>21</v>
       </c>
       <c r="S40" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="T40" t="s">
         <v>46</v>
       </c>
       <c r="U40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V40" t="s">
         <v>43</v>
@@ -10276,7 +10328,7 @@
         <v>215</v>
       </c>
       <c r="Z40" t="s">
-        <v>501</v>
+        <v>617</v>
       </c>
       <c r="AA40">
         <v>2</v>
@@ -10287,29 +10339,27 @@
       <c r="AC40">
         <v>3</v>
       </c>
-      <c r="AD40" s="11" t="s">
-        <v>535</v>
-      </c>
-      <c r="AF40" t="s">
-        <v>390</v>
+      <c r="AD40"/>
+      <c r="AF40">
+        <v>4.2</v>
       </c>
       <c r="AG40" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AH40" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AL40" t="s">
-        <v>531</v>
+        <v>619</v>
       </c>
       <c r="AM40" t="s">
         <v>232</v>
       </c>
       <c r="AN40" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AO40" t="s">
-        <v>487</v>
+        <v>613</v>
       </c>
       <c r="AQ40" t="s">
         <v>164</v>
@@ -10317,64 +10367,64 @@
       <c r="AR40" t="s">
         <v>239</v>
       </c>
+      <c r="AT40" t="s">
+        <v>612</v>
+      </c>
       <c r="AU40" t="s">
-        <v>533</v>
+        <v>614</v>
       </c>
       <c r="AV40" t="s">
-        <v>199</v>
-      </c>
-      <c r="AW40" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX40" s="11" t="s">
-        <v>536</v>
+        <v>238</v>
+      </c>
+      <c r="AX40" t="s">
+        <v>615</v>
       </c>
     </row>
-    <row r="41" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="10" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="B41" t="s">
         <v>242</v>
       </c>
       <c r="C41" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="D41" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="E41">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="F41" t="s">
-        <v>409</v>
+        <v>299</v>
       </c>
       <c r="G41" t="s">
-        <v>246</v>
+        <v>387</v>
       </c>
       <c r="H41" t="s">
-        <v>247</v>
+        <v>301</v>
       </c>
       <c r="I41" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="J41" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="K41" t="s">
-        <v>251</v>
+        <v>404</v>
       </c>
       <c r="L41" t="s">
         <v>251</v>
       </c>
       <c r="M41" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="N41" t="s">
         <v>253</v>
       </c>
       <c r="O41" t="s">
-        <v>254</v>
+        <v>362</v>
       </c>
       <c r="P41" t="s">
         <v>251</v>
@@ -10382,109 +10432,243 @@
       <c r="Q41" t="s">
         <v>21</v>
       </c>
-      <c r="R41" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD41"/>
-      <c r="AX41"/>
+      <c r="S41" t="s">
+        <v>33</v>
+      </c>
+      <c r="T41" t="s">
+        <v>46</v>
+      </c>
+      <c r="U41" t="s">
+        <v>58</v>
+      </c>
+      <c r="V41" t="s">
+        <v>43</v>
+      </c>
+      <c r="W41" t="s">
+        <v>47</v>
+      </c>
+      <c r="X41" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>532</v>
+      </c>
+      <c r="AA41">
+        <v>2</v>
+      </c>
+      <c r="AB41">
+        <v>2</v>
+      </c>
+      <c r="AC41">
+        <v>3</v>
+      </c>
+      <c r="AD41" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>390</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>118</v>
+      </c>
+      <c r="AL41" t="s">
+        <v>531</v>
+      </c>
+      <c r="AM41" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN41" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO41" t="s">
+        <v>487</v>
+      </c>
+      <c r="AQ41" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR41" t="s">
+        <v>239</v>
+      </c>
+      <c r="AU41" t="s">
+        <v>533</v>
+      </c>
+      <c r="AV41" t="s">
+        <v>238</v>
+      </c>
+      <c r="AW41" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX41" s="11" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="42" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="B42" t="s">
         <v>242</v>
       </c>
       <c r="C42" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="D42" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="E42">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="F42" t="s">
-        <v>416</v>
+        <v>299</v>
       </c>
       <c r="G42" t="s">
-        <v>417</v>
+        <v>387</v>
       </c>
       <c r="H42" t="s">
-        <v>418</v>
+        <v>301</v>
       </c>
       <c r="I42" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="J42" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="K42" t="s">
-        <v>421</v>
+        <v>404</v>
       </c>
       <c r="L42" t="s">
         <v>251</v>
       </c>
       <c r="M42" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="N42" t="s">
         <v>253</v>
       </c>
       <c r="O42" t="s">
-        <v>254</v>
+        <v>362</v>
       </c>
       <c r="P42" t="s">
-        <v>371</v>
+        <v>251</v>
       </c>
       <c r="Q42" t="s">
         <v>21</v>
       </c>
-      <c r="R42" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD42"/>
-      <c r="AX42"/>
+      <c r="S42" t="s">
+        <v>33</v>
+      </c>
+      <c r="T42" t="s">
+        <v>46</v>
+      </c>
+      <c r="U42" t="s">
+        <v>58</v>
+      </c>
+      <c r="V42" t="s">
+        <v>43</v>
+      </c>
+      <c r="W42" t="s">
+        <v>47</v>
+      </c>
+      <c r="X42" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>501</v>
+      </c>
+      <c r="AA42">
+        <v>2</v>
+      </c>
+      <c r="AB42">
+        <v>2</v>
+      </c>
+      <c r="AC42">
+        <v>3</v>
+      </c>
+      <c r="AD42" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>390</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>118</v>
+      </c>
+      <c r="AL42" t="s">
+        <v>531</v>
+      </c>
+      <c r="AM42" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN42" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO42" t="s">
+        <v>487</v>
+      </c>
+      <c r="AQ42" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR42" t="s">
+        <v>239</v>
+      </c>
+      <c r="AU42" t="s">
+        <v>533</v>
+      </c>
+      <c r="AV42" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW42" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX42" s="11" t="s">
+        <v>536</v>
+      </c>
     </row>
     <row r="43" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A43" s="10" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="B43" t="s">
         <v>242</v>
       </c>
       <c r="C43" t="s">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="D43" t="s">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="E43">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="F43" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="G43" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="H43" t="s">
-        <v>427</v>
+        <v>247</v>
       </c>
       <c r="I43" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="J43" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="K43" t="s">
-        <v>430</v>
+        <v>251</v>
       </c>
       <c r="L43" t="s">
         <v>251</v>
       </c>
       <c r="M43" t="s">
-        <v>431</v>
+        <v>412</v>
       </c>
       <c r="N43" t="s">
         <v>253</v>
@@ -10499,50 +10683,50 @@
         <v>21</v>
       </c>
       <c r="R43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AD43"/>
       <c r="AX43"/>
     </row>
     <row r="44" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A44" s="10" t="s">
-        <v>432</v>
+        <v>413</v>
       </c>
       <c r="B44" t="s">
         <v>242</v>
       </c>
       <c r="C44" t="s">
-        <v>433</v>
+        <v>414</v>
       </c>
       <c r="D44" t="s">
-        <v>434</v>
+        <v>415</v>
       </c>
       <c r="E44">
-        <v>1997</v>
+        <v>2002</v>
       </c>
       <c r="F44" t="s">
         <v>416</v>
       </c>
       <c r="G44" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="H44" t="s">
-        <v>361</v>
+        <v>418</v>
       </c>
       <c r="I44" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="J44" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="K44" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="L44" t="s">
         <v>251</v>
       </c>
       <c r="M44" t="s">
-        <v>439</v>
+        <v>422</v>
       </c>
       <c r="N44" t="s">
         <v>253</v>
@@ -10551,59 +10735,56 @@
         <v>254</v>
       </c>
       <c r="P44" t="s">
-        <v>251</v>
+        <v>371</v>
       </c>
       <c r="Q44" t="s">
         <v>21</v>
       </c>
       <c r="R44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AD44"/>
-      <c r="AF44" t="s">
-        <v>390</v>
-      </c>
       <c r="AX44"/>
     </row>
     <row r="45" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A45" s="10" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B45" t="s">
         <v>242</v>
       </c>
       <c r="C45" t="s">
-        <v>441</v>
+        <v>424</v>
       </c>
       <c r="D45" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="E45">
-        <v>1996</v>
+        <v>2001</v>
       </c>
       <c r="F45" t="s">
-        <v>327</v>
+        <v>426</v>
       </c>
       <c r="G45" t="s">
-        <v>443</v>
+        <v>260</v>
       </c>
       <c r="H45" t="s">
-        <v>376</v>
+        <v>427</v>
       </c>
       <c r="I45" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="J45" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="K45" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="L45" t="s">
         <v>251</v>
       </c>
       <c r="M45" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="N45" t="s">
         <v>253</v>
@@ -10612,117 +10793,56 @@
         <v>254</v>
       </c>
       <c r="P45" t="s">
-        <v>315</v>
+        <v>251</v>
       </c>
       <c r="Q45" t="s">
         <v>21</v>
       </c>
-      <c r="S45" t="s">
-        <v>31</v>
-      </c>
-      <c r="U45" t="s">
-        <v>56</v>
-      </c>
-      <c r="W45" t="s">
-        <v>49</v>
-      </c>
-      <c r="X45" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y45" t="s">
-        <v>592</v>
-      </c>
-      <c r="Z45" t="s">
-        <v>591</v>
-      </c>
-      <c r="AA45">
-        <v>2</v>
-      </c>
-      <c r="AB45">
-        <v>2</v>
-      </c>
-      <c r="AC45">
-        <v>3</v>
-      </c>
-      <c r="AD45" t="s">
-        <v>593</v>
-      </c>
-      <c r="AF45">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AG45" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH45" t="s">
-        <v>116</v>
-      </c>
-      <c r="AL45" t="s">
-        <v>624</v>
-      </c>
-      <c r="AM45" t="s">
-        <v>159</v>
-      </c>
-      <c r="AO45" t="s">
-        <v>590</v>
-      </c>
-      <c r="AQ45" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR45" t="s">
-        <v>239</v>
-      </c>
-      <c r="AU45" t="s">
-        <v>626</v>
-      </c>
-      <c r="AV45" t="s">
-        <v>203</v>
-      </c>
-      <c r="AW45" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX45" t="s">
-        <v>627</v>
-      </c>
+      <c r="R45" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD45"/>
+      <c r="AX45"/>
     </row>
     <row r="46" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A46" s="10" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="B46" t="s">
         <v>242</v>
       </c>
       <c r="C46" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="D46" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="E46">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="F46" t="s">
-        <v>327</v>
+        <v>416</v>
       </c>
       <c r="G46" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="H46" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="I46" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="J46" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="K46" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="L46" t="s">
         <v>251</v>
       </c>
       <c r="M46" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="N46" t="s">
         <v>253</v>
@@ -10731,77 +10851,19 @@
         <v>254</v>
       </c>
       <c r="P46" t="s">
-        <v>315</v>
+        <v>251</v>
       </c>
       <c r="Q46" t="s">
         <v>21</v>
       </c>
-      <c r="S46" t="s">
-        <v>31</v>
-      </c>
-      <c r="U46" t="s">
-        <v>56</v>
-      </c>
-      <c r="W46" t="s">
-        <v>49</v>
-      </c>
-      <c r="X46" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y46" t="s">
-        <v>592</v>
-      </c>
-      <c r="Z46" t="s">
-        <v>591</v>
-      </c>
-      <c r="AA46">
-        <v>2</v>
-      </c>
-      <c r="AB46">
-        <v>2</v>
-      </c>
-      <c r="AC46">
-        <v>3</v>
-      </c>
-      <c r="AD46" t="s">
-        <v>593</v>
-      </c>
-      <c r="AF46">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AG46" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH46" t="s">
-        <v>116</v>
-      </c>
-      <c r="AL46" t="s">
-        <v>624</v>
-      </c>
-      <c r="AM46" t="s">
-        <v>159</v>
-      </c>
-      <c r="AO46" t="s">
-        <v>590</v>
-      </c>
-      <c r="AQ46" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR46" t="s">
-        <v>239</v>
-      </c>
-      <c r="AU46" t="s">
-        <v>628</v>
-      </c>
-      <c r="AV46" t="s">
-        <v>201</v>
-      </c>
-      <c r="AW46" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX46" t="s">
-        <v>629</v>
-      </c>
+      <c r="R46" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD46"/>
+      <c r="AF46" t="s">
+        <v>390</v>
+      </c>
+      <c r="AX46"/>
     </row>
     <row r="47" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A47" s="10" t="s">
@@ -10895,7 +10957,7 @@
         <v>116</v>
       </c>
       <c r="AL47" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="AM47" t="s">
         <v>159</v>
@@ -10910,57 +10972,57 @@
         <v>239</v>
       </c>
       <c r="AU47" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="AV47" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AW47" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AX47" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
     </row>
     <row r="48" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A48" s="10" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="B48" t="s">
         <v>242</v>
       </c>
       <c r="C48" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="D48" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="E48">
-        <v>1972</v>
+        <v>1996</v>
       </c>
       <c r="F48" t="s">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="G48" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="H48" t="s">
-        <v>292</v>
+        <v>376</v>
       </c>
       <c r="I48" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="J48" t="s">
-        <v>348</v>
+        <v>445</v>
       </c>
       <c r="K48" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="L48" t="s">
         <v>251</v>
       </c>
       <c r="M48" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="N48" t="s">
         <v>253</v>
@@ -10969,31 +11031,28 @@
         <v>254</v>
       </c>
       <c r="P48" t="s">
-        <v>251</v>
+        <v>315</v>
       </c>
       <c r="Q48" t="s">
         <v>21</v>
       </c>
       <c r="S48" t="s">
-        <v>24</v>
-      </c>
-      <c r="T48" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="U48" t="s">
-        <v>59</v>
-      </c>
-      <c r="V48" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="W48" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="X48" t="s">
-        <v>69</v>
+        <v>113</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>592</v>
       </c>
       <c r="Z48" t="s">
-        <v>390</v>
+        <v>591</v>
       </c>
       <c r="AA48">
         <v>2</v>
@@ -11002,94 +11061,87 @@
         <v>2</v>
       </c>
       <c r="AC48">
-        <v>1</v>
-      </c>
-      <c r="AD48"/>
-      <c r="AE48" t="s">
-        <v>612</v>
-      </c>
-      <c r="AF48" t="s">
-        <v>390</v>
+        <v>3</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>593</v>
+      </c>
+      <c r="AF48">
+        <v>4.4000000000000004</v>
       </c>
       <c r="AG48" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AH48" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI48" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="AL48" t="s">
-        <v>594</v>
+        <v>622</v>
       </c>
       <c r="AM48" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN48" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AO48" t="s">
-        <v>611</v>
+        <v>590</v>
       </c>
       <c r="AQ48" t="s">
         <v>164</v>
       </c>
-      <c r="AT48" t="s">
-        <v>595</v>
+      <c r="AR48" t="s">
+        <v>239</v>
       </c>
       <c r="AU48" t="s">
-        <v>610</v>
+        <v>626</v>
       </c>
       <c r="AV48" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AW48" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AX48" t="s">
-        <v>613</v>
+        <v>627</v>
       </c>
     </row>
     <row r="49" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A49" s="10" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="B49" t="s">
         <v>242</v>
       </c>
       <c r="C49" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="D49" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="E49">
-        <v>2011</v>
+        <v>1996</v>
       </c>
       <c r="F49" t="s">
-        <v>458</v>
+        <v>327</v>
       </c>
       <c r="G49" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="H49" t="s">
-        <v>301</v>
+        <v>376</v>
       </c>
       <c r="I49" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="J49" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="K49" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="L49" t="s">
         <v>251</v>
       </c>
       <c r="M49" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="N49" t="s">
         <v>253</v>
@@ -11098,34 +11150,28 @@
         <v>254</v>
       </c>
       <c r="P49" t="s">
-        <v>464</v>
+        <v>315</v>
       </c>
       <c r="Q49" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S49" t="s">
-        <v>26</v>
-      </c>
-      <c r="T49" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="U49" t="s">
-        <v>55</v>
-      </c>
-      <c r="V49" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="W49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X49" t="s">
         <v>113</v>
       </c>
       <c r="Y49" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="Z49" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="AA49">
         <v>2</v>
@@ -11137,31 +11183,25 @@
         <v>3</v>
       </c>
       <c r="AD49" t="s">
-        <v>602</v>
-      </c>
-      <c r="AF49" t="s">
-        <v>390</v>
+        <v>593</v>
+      </c>
+      <c r="AF49">
+        <v>4.4000000000000004</v>
       </c>
       <c r="AG49" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="AH49" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI49" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ49" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AL49" t="s">
-        <v>598</v>
+        <v>622</v>
       </c>
       <c r="AM49" t="s">
         <v>159</v>
       </c>
       <c r="AO49" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="AQ49" t="s">
         <v>164</v>
@@ -11169,20 +11209,280 @@
       <c r="AR49" t="s">
         <v>239</v>
       </c>
-      <c r="AS49" t="s">
-        <v>176</v>
-      </c>
       <c r="AU49" t="s">
-        <v>599</v>
+        <v>628</v>
       </c>
       <c r="AV49" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="AW49" t="s">
         <v>209</v>
       </c>
-      <c r="AX49" s="11" t="s">
+      <c r="AX49" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="50" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A50" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="B50" t="s">
+        <v>242</v>
+      </c>
+      <c r="C50" t="s">
+        <v>449</v>
+      </c>
+      <c r="D50" t="s">
+        <v>450</v>
+      </c>
+      <c r="E50">
+        <v>1972</v>
+      </c>
+      <c r="F50" t="s">
+        <v>309</v>
+      </c>
+      <c r="G50" t="s">
+        <v>451</v>
+      </c>
+      <c r="H50" t="s">
+        <v>292</v>
+      </c>
+      <c r="I50" t="s">
+        <v>452</v>
+      </c>
+      <c r="J50" t="s">
+        <v>348</v>
+      </c>
+      <c r="K50" t="s">
+        <v>453</v>
+      </c>
+      <c r="L50" t="s">
+        <v>251</v>
+      </c>
+      <c r="M50" t="s">
+        <v>454</v>
+      </c>
+      <c r="N50" t="s">
+        <v>253</v>
+      </c>
+      <c r="O50" t="s">
+        <v>254</v>
+      </c>
+      <c r="P50" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>21</v>
+      </c>
+      <c r="S50" t="s">
+        <v>24</v>
+      </c>
+      <c r="T50" t="s">
+        <v>46</v>
+      </c>
+      <c r="U50" t="s">
+        <v>59</v>
+      </c>
+      <c r="V50" t="s">
+        <v>38</v>
+      </c>
+      <c r="W50" t="s">
+        <v>47</v>
+      </c>
+      <c r="X50" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>390</v>
+      </c>
+      <c r="AA50">
+        <v>2</v>
+      </c>
+      <c r="AB50">
+        <v>2</v>
+      </c>
+      <c r="AC50">
+        <v>1</v>
+      </c>
+      <c r="AD50"/>
+      <c r="AE50" t="s">
+        <v>610</v>
+      </c>
+      <c r="AF50" t="s">
+        <v>390</v>
+      </c>
+      <c r="AG50" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH50" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI50" t="s">
+        <v>147</v>
+      </c>
+      <c r="AL50" t="s">
+        <v>594</v>
+      </c>
+      <c r="AM50" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN50" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO50" t="s">
+        <v>609</v>
+      </c>
+      <c r="AQ50" t="s">
+        <v>164</v>
+      </c>
+      <c r="AT50" t="s">
+        <v>595</v>
+      </c>
+      <c r="AU50" t="s">
+        <v>608</v>
+      </c>
+      <c r="AV50" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW50" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX50" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="51" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A51" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="B51" t="s">
+        <v>242</v>
+      </c>
+      <c r="C51" t="s">
+        <v>456</v>
+      </c>
+      <c r="D51" t="s">
+        <v>457</v>
+      </c>
+      <c r="E51">
+        <v>2011</v>
+      </c>
+      <c r="F51" t="s">
+        <v>458</v>
+      </c>
+      <c r="G51" t="s">
+        <v>459</v>
+      </c>
+      <c r="H51" t="s">
+        <v>301</v>
+      </c>
+      <c r="I51" t="s">
+        <v>460</v>
+      </c>
+      <c r="J51" t="s">
+        <v>461</v>
+      </c>
+      <c r="K51" t="s">
+        <v>462</v>
+      </c>
+      <c r="L51" t="s">
+        <v>251</v>
+      </c>
+      <c r="M51" t="s">
+        <v>463</v>
+      </c>
+      <c r="N51" t="s">
+        <v>253</v>
+      </c>
+      <c r="O51" t="s">
+        <v>254</v>
+      </c>
+      <c r="P51" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>22</v>
+      </c>
+      <c r="S51" t="s">
+        <v>26</v>
+      </c>
+      <c r="T51" t="s">
+        <v>44</v>
+      </c>
+      <c r="U51" t="s">
+        <v>55</v>
+      </c>
+      <c r="V51" t="s">
+        <v>44</v>
+      </c>
+      <c r="W51" t="s">
+        <v>48</v>
+      </c>
+      <c r="X51" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>596</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>597</v>
+      </c>
+      <c r="AA51">
+        <v>2</v>
+      </c>
+      <c r="AB51">
+        <v>2</v>
+      </c>
+      <c r="AC51">
+        <v>3</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>601</v>
+      </c>
+      <c r="AF51" t="s">
+        <v>390</v>
+      </c>
+      <c r="AG51" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH51" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI51" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ51" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL51" t="s">
+        <v>598</v>
+      </c>
+      <c r="AM51" t="s">
+        <v>159</v>
+      </c>
+      <c r="AO51" t="s">
         <v>600</v>
+      </c>
+      <c r="AQ51" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR51" t="s">
+        <v>239</v>
+      </c>
+      <c r="AS51" t="s">
+        <v>176</v>
+      </c>
+      <c r="AU51" t="s">
+        <v>599</v>
+      </c>
+      <c r="AV51" t="s">
+        <v>213</v>
+      </c>
+      <c r="AW51" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX51" s="11" t="s">
+        <v>632</v>
       </c>
     </row>
   </sheetData>
@@ -11203,7 +11503,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ3:AQ1048576" xr:uid="{1D650BBF-FD60-42B1-B997-0927D010D36F}">
       <formula1>Fishery_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI3:AJ1048576 AN3:AN1048576 AR3:AS1048576" xr:uid="{17784AA4-6490-40EE-AF59-791F00291349}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR3:AS1048576 AN3:AN1048576 AI3:AJ1048576" xr:uid="{17784AA4-6490-40EE-AF59-791F00291349}">
       <formula1>INDIRECT(AH3)</formula1>
     </dataValidation>
   </dataValidations>
@@ -11217,7 +11517,7 @@
           <x14:formula1>
             <xm:f>Validation!$R$3:$R$9</xm:f>
           </x14:formula1>
-          <xm:sqref>R50:R1048576 R3:R9 R12 R14 R23:R26 R41:R47</xm:sqref>
+          <xm:sqref>R52:R1048576 R3:R9 R12 R14 R23:R26 R43:R49</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FB66A4B2-AC63-401A-912C-59AB3AFB17C3}">
           <x14:formula1>
@@ -13289,6 +13589,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="abe771af6212f3f785694fa6f4ad1686">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -13402,22 +13717,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{296C6747-B437-4BFD-90D3-AF1F913D3FA0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13431,27 +13754,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Bluemel.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Bluemel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478ED7BE-D851-48F1-84A7-C47D7CDE750F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224BCAA0-1CCC-4BDE-9F37-8428A73D816F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Drop-down overview" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$49</definedName>
     <definedName name="Benthic_epifauna">Validation!$AI$32:$AI$35</definedName>
     <definedName name="Benthos">Validation!$AN$24:$AN$25</definedName>
     <definedName name="Catch_and_bycatch">Validation!$AM$15:$AM$17</definedName>
@@ -1343,7 +1343,7 @@
     not sure how to answer this for SIMPER % dissimilarity analyses</t>
       </text>
     </comment>
-    <comment ref="U18" authorId="12" shapeId="0" xr:uid="{69572EBE-4693-4845-933B-DC6BECF12705}">
+    <comment ref="U16" authorId="12" shapeId="0" xr:uid="{69572EBE-4693-4845-933B-DC6BECF12705}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1351,7 +1351,7 @@
     conclusions drawn at multiple temporal scales - 11yrs is the longest</t>
       </text>
     </comment>
-    <comment ref="AV18" authorId="13" shapeId="0" xr:uid="{9D496DF3-D2B4-4A43-AC12-7E0B2D2CF8F0}">
+    <comment ref="AV16" authorId="13" shapeId="0" xr:uid="{9D496DF3-D2B4-4A43-AC12-7E0B2D2CF8F0}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1359,7 +1359,7 @@
     community</t>
       </text>
     </comment>
-    <comment ref="U19" authorId="14" shapeId="0" xr:uid="{17355E08-798F-4F45-858A-F25954AE3C84}">
+    <comment ref="U17" authorId="14" shapeId="0" xr:uid="{17355E08-798F-4F45-858A-F25954AE3C84}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1367,7 +1367,7 @@
     conclusions drawn at multiple temporal scales - 11yrs is the longest</t>
       </text>
     </comment>
-    <comment ref="AV19" authorId="15" shapeId="0" xr:uid="{6929C21F-094B-4808-8B4E-1B33E7A4701C}">
+    <comment ref="AV17" authorId="15" shapeId="0" xr:uid="{6929C21F-094B-4808-8B4E-1B33E7A4701C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1375,7 +1375,7 @@
     community</t>
       </text>
     </comment>
-    <comment ref="U20" authorId="16" shapeId="0" xr:uid="{E6A9A326-217C-4898-80F8-7CD55BB6DEEF}">
+    <comment ref="U18" authorId="16" shapeId="0" xr:uid="{E6A9A326-217C-4898-80F8-7CD55BB6DEEF}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1383,7 +1383,7 @@
     conclusions drawn at multiple temporal scales - 11yrs is the longest</t>
       </text>
     </comment>
-    <comment ref="AV20" authorId="17" shapeId="0" xr:uid="{88E79990-A62D-4722-ACFD-92973EBB279B}">
+    <comment ref="AV18" authorId="17" shapeId="0" xr:uid="{88E79990-A62D-4722-ACFD-92973EBB279B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1391,7 +1391,7 @@
     community</t>
       </text>
     </comment>
-    <comment ref="U21" authorId="18" shapeId="0" xr:uid="{410074BB-2A10-4A00-B590-372121EDB157}">
+    <comment ref="U19" authorId="18" shapeId="0" xr:uid="{410074BB-2A10-4A00-B590-372121EDB157}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1399,7 +1399,7 @@
     conclusions drawn at multiple temporal scales - 11yrs is the longest</t>
       </text>
     </comment>
-    <comment ref="AV21" authorId="19" shapeId="0" xr:uid="{677E21BE-76FB-4376-9080-9A6FB650A045}">
+    <comment ref="AV19" authorId="19" shapeId="0" xr:uid="{677E21BE-76FB-4376-9080-9A6FB650A045}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1407,7 +1407,7 @@
     community</t>
       </text>
     </comment>
-    <comment ref="U22" authorId="20" shapeId="0" xr:uid="{E6BD52E7-A7E1-4132-A2C0-978A9903971E}">
+    <comment ref="U20" authorId="20" shapeId="0" xr:uid="{E6BD52E7-A7E1-4132-A2C0-978A9903971E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1415,7 +1415,7 @@
     conclusions drawn at multiple temporal scales - 11yrs is the longest</t>
       </text>
     </comment>
-    <comment ref="AV22" authorId="21" shapeId="0" xr:uid="{3D685687-21C0-4EA4-B6AD-065DBB750A9C}">
+    <comment ref="AV20" authorId="21" shapeId="0" xr:uid="{3D685687-21C0-4EA4-B6AD-065DBB750A9C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1423,7 +1423,7 @@
     community</t>
       </text>
     </comment>
-    <comment ref="AS27" authorId="22" shapeId="0" xr:uid="{2C4E279E-5FF2-4AB6-B498-F4090DBBA0E8}">
+    <comment ref="AS25" authorId="22" shapeId="0" xr:uid="{2C4E279E-5FF2-4AB6-B498-F4090DBBA0E8}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1431,7 +1431,7 @@
     spring-toothed, Newhaven-type scallop dredges?</t>
       </text>
     </comment>
-    <comment ref="W28" authorId="23" shapeId="0" xr:uid="{2180B62C-9FF4-4D06-9655-E14C6EB79F6E}">
+    <comment ref="W26" authorId="23" shapeId="0" xr:uid="{2180B62C-9FF4-4D06-9655-E14C6EB79F6E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1439,7 +1439,7 @@
     does not state, only that between 4 and 20 transects carried out per year</t>
       </text>
     </comment>
-    <comment ref="AS28" authorId="24" shapeId="0" xr:uid="{B1643C2D-EFEA-48DA-BA3C-D8C9AC01BA07}">
+    <comment ref="AS26" authorId="24" shapeId="0" xr:uid="{B1643C2D-EFEA-48DA-BA3C-D8C9AC01BA07}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1447,7 +1447,7 @@
     spring-toothed, Newhaven-type scallop dredges?</t>
       </text>
     </comment>
-    <comment ref="AW28" authorId="25" shapeId="0" xr:uid="{213E6476-B61F-43C2-9A39-F100276A1870}">
+    <comment ref="AW26" authorId="25" shapeId="0" xr:uid="{213E6476-B61F-43C2-9A39-F100276A1870}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1455,7 +1455,7 @@
     higher density of scallops in closed area (not-significant</t>
       </text>
     </comment>
-    <comment ref="W29" authorId="26" shapeId="0" xr:uid="{265B2087-59BD-4F8A-ACE7-82F6B9EEB1B4}">
+    <comment ref="W27" authorId="26" shapeId="0" xr:uid="{265B2087-59BD-4F8A-ACE7-82F6B9EEB1B4}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1463,7 +1463,7 @@
     does not state, only that 3 tows of scallop dredge outside closed area were compared to data from illegal fishing event inside closed area in April 2000</t>
       </text>
     </comment>
-    <comment ref="AS29" authorId="27" shapeId="0" xr:uid="{80879F60-554F-4919-B3B4-51914927EA17}">
+    <comment ref="AS27" authorId="27" shapeId="0" xr:uid="{80879F60-554F-4919-B3B4-51914927EA17}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1471,7 +1471,7 @@
     spring-toothed, Newhaven-type scallop dredges?</t>
       </text>
     </comment>
-    <comment ref="AW29" authorId="28" shapeId="0" xr:uid="{87EB4814-791C-4151-897C-220F10B66323}">
+    <comment ref="AW27" authorId="28" shapeId="0" xr:uid="{87EB4814-791C-4151-897C-220F10B66323}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1479,7 +1479,7 @@
     scallops older in closed area</t>
       </text>
     </comment>
-    <comment ref="V32" authorId="29" shapeId="0" xr:uid="{8F605331-8FA3-4091-906F-6572B9E08CBE}">
+    <comment ref="V30" authorId="29" shapeId="0" xr:uid="{8F605331-8FA3-4091-906F-6572B9E08CBE}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1487,7 +1487,7 @@
     no indication of this</t>
       </text>
     </comment>
-    <comment ref="AR32" authorId="30" shapeId="0" xr:uid="{CD3A6164-943A-4E6E-9BF5-5FE09891CCB9}">
+    <comment ref="AR30" authorId="30" shapeId="0" xr:uid="{CD3A6164-943A-4E6E-9BF5-5FE09891CCB9}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1495,7 +1495,7 @@
     rapido similar to beamtrawl</t>
       </text>
     </comment>
-    <comment ref="V33" authorId="31" shapeId="0" xr:uid="{0DBA107E-6F54-47E4-99BD-BD727CABFC0F}">
+    <comment ref="V31" authorId="31" shapeId="0" xr:uid="{0DBA107E-6F54-47E4-99BD-BD727CABFC0F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1503,7 +1503,7 @@
     no indication of this</t>
       </text>
     </comment>
-    <comment ref="AS33" authorId="32" shapeId="0" xr:uid="{CC0A6BC4-04EF-4A83-B009-E37BE3CA69B7}">
+    <comment ref="AS31" authorId="32" shapeId="0" xr:uid="{CC0A6BC4-04EF-4A83-B009-E37BE3CA69B7}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1511,7 +1511,7 @@
     hydrolic dredge</t>
       </text>
     </comment>
-    <comment ref="AV34" authorId="33" shapeId="0" xr:uid="{83BF076C-EF3A-4FF6-92DF-06C2F3DA57D1}">
+    <comment ref="AV32" authorId="33" shapeId="0" xr:uid="{83BF076C-EF3A-4FF6-92DF-06C2F3DA57D1}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1519,7 +1519,7 @@
     Diet</t>
       </text>
     </comment>
-    <comment ref="AG35" authorId="34" shapeId="0" xr:uid="{FDF1D696-0CED-4B50-9488-28F563E535BB}">
+    <comment ref="AG33" authorId="34" shapeId="0" xr:uid="{FDF1D696-0CED-4B50-9488-28F563E535BB}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1527,7 +1527,7 @@
     both field and lab study</t>
       </text>
     </comment>
-    <comment ref="AG36" authorId="35" shapeId="0" xr:uid="{3E7E8A63-FE8F-485C-B7B0-D651CC82B2E5}">
+    <comment ref="AG34" authorId="35" shapeId="0" xr:uid="{3E7E8A63-FE8F-485C-B7B0-D651CC82B2E5}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1535,7 +1535,7 @@
     both field and lab study</t>
       </text>
     </comment>
-    <comment ref="AG37" authorId="36" shapeId="0" xr:uid="{1F73A643-4889-4B00-BF17-FD191EDC437F}">
+    <comment ref="AG35" authorId="36" shapeId="0" xr:uid="{1F73A643-4889-4B00-BF17-FD191EDC437F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1543,7 +1543,7 @@
     both field and lab study</t>
       </text>
     </comment>
-    <comment ref="AG38" authorId="37" shapeId="0" xr:uid="{C13FAB98-20DA-4332-A868-0381F8EB51A5}">
+    <comment ref="AG36" authorId="37" shapeId="0" xr:uid="{C13FAB98-20DA-4332-A868-0381F8EB51A5}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1551,7 +1551,7 @@
     both field and lab study</t>
       </text>
     </comment>
-    <comment ref="AR39" authorId="38" shapeId="0" xr:uid="{8B01BB42-BD50-4A2B-91AE-BFF1AE1CC4A6}">
+    <comment ref="AR37" authorId="38" shapeId="0" xr:uid="{8B01BB42-BD50-4A2B-91AE-BFF1AE1CC4A6}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1559,7 +1559,7 @@
     beam and otter</t>
       </text>
     </comment>
-    <comment ref="AW39" authorId="39" shapeId="0" xr:uid="{11A0CED8-7C4E-4A10-B3D6-7390E2591B9D}">
+    <comment ref="AW37" authorId="39" shapeId="0" xr:uid="{11A0CED8-7C4E-4A10-B3D6-7390E2591B9D}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1567,7 +1567,7 @@
     Did not test relationship but modelled mortality rates of bycatch for each species</t>
       </text>
     </comment>
-    <comment ref="AR40" authorId="40" shapeId="0" xr:uid="{7C93FD45-F80E-4576-B1F4-320CE5D28934}">
+    <comment ref="AR38" authorId="40" shapeId="0" xr:uid="{7C93FD45-F80E-4576-B1F4-320CE5D28934}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1575,7 +1575,7 @@
     beam and otter</t>
       </text>
     </comment>
-    <comment ref="AW40" authorId="41" shapeId="0" xr:uid="{84CBE241-7A40-4FBE-9038-FF85F7034818}">
+    <comment ref="AW38" authorId="41" shapeId="0" xr:uid="{84CBE241-7A40-4FBE-9038-FF85F7034818}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1583,7 +1583,7 @@
     Did not test relationship but modelled mortality rates of bycatch for each species</t>
       </text>
     </comment>
-    <comment ref="R43" authorId="42" shapeId="0" xr:uid="{29231E64-24AA-413F-9FA6-0B09201F7447}">
+    <comment ref="R41" authorId="42" shapeId="0" xr:uid="{29231E64-24AA-413F-9FA6-0B09201F7447}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1591,7 +1591,7 @@
     Paper describes the shrimp shoal structure but not assessment of fishing impacts on it</t>
       </text>
     </comment>
-    <comment ref="R44" authorId="43" shapeId="0" xr:uid="{8E7B695D-F34B-40FE-813F-DC802677F34C}">
+    <comment ref="R42" authorId="43" shapeId="0" xr:uid="{8E7B695D-F34B-40FE-813F-DC802677F34C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1599,7 +1599,7 @@
     this study identifies impacts of season and breeding of species, resource access (regulations and competition between fisheries) on LPUE, not impacts of fishing on ecosystem</t>
       </text>
     </comment>
-    <comment ref="R45" authorId="44" shapeId="0" xr:uid="{DB75CAF6-E7A8-4AD0-BD5E-B650738D5CE8}">
+    <comment ref="R43" authorId="44" shapeId="0" xr:uid="{DB75CAF6-E7A8-4AD0-BD5E-B650738D5CE8}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1607,7 +1607,7 @@
     a review of deepwater fisheries with no analysis of data</t>
       </text>
     </comment>
-    <comment ref="R46" authorId="45" shapeId="0" xr:uid="{172069E3-CDA2-41BE-8240-6D3A9258F91B}">
+    <comment ref="R44" authorId="45" shapeId="0" xr:uid="{172069E3-CDA2-41BE-8240-6D3A9258F91B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1615,7 +1615,7 @@
     I think this is purely a methodoligical paper - comparing hypotheses for natural mortality rates at age in stock assessment. This is not my area so would be good to have a second opinion!</t>
       </text>
     </comment>
-    <comment ref="T47" authorId="46" shapeId="0" xr:uid="{ABCFD0AF-BE84-4846-9C69-0442BE7E7030}">
+    <comment ref="T45" authorId="46" shapeId="0" xr:uid="{ABCFD0AF-BE84-4846-9C69-0442BE7E7030}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1623,7 +1623,7 @@
     Ebro Delta Natural Park, 40o37'N, 00o35'E; see Oro and Martinez-Vilalata 1994 for details</t>
       </text>
     </comment>
-    <comment ref="V47" authorId="47" shapeId="0" xr:uid="{2E2E41C1-2DBF-42F9-8384-EA0DBD36144F}">
+    <comment ref="V45" authorId="47" shapeId="0" xr:uid="{2E2E41C1-2DBF-42F9-8384-EA0DBD36144F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1631,7 +1631,7 @@
     no information provided for this</t>
       </text>
     </comment>
-    <comment ref="AR47" authorId="48" shapeId="0" xr:uid="{1F4028D3-691D-45CB-A4DC-194315CA757A}">
+    <comment ref="AR45" authorId="48" shapeId="0" xr:uid="{1F4028D3-691D-45CB-A4DC-194315CA757A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1639,7 +1639,7 @@
     just states trawling so could also include pelagic</t>
       </text>
     </comment>
-    <comment ref="T48" authorId="49" shapeId="0" xr:uid="{6586F64A-DB48-4A9D-A4A3-A7DD60911E1C}">
+    <comment ref="T46" authorId="49" shapeId="0" xr:uid="{6586F64A-DB48-4A9D-A4A3-A7DD60911E1C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1647,7 +1647,7 @@
     Ebro Delta Natural Park, 40o37'N, 00o35'E; see Oro and Martinez-Vilalata 1994 for details</t>
       </text>
     </comment>
-    <comment ref="V48" authorId="50" shapeId="0" xr:uid="{F75443A0-3FE8-4BA1-93C4-5CB19F2E9DCC}">
+    <comment ref="V46" authorId="50" shapeId="0" xr:uid="{F75443A0-3FE8-4BA1-93C4-5CB19F2E9DCC}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1655,7 +1655,7 @@
     no information provided for this</t>
       </text>
     </comment>
-    <comment ref="AR48" authorId="51" shapeId="0" xr:uid="{8071F227-D101-4336-BD57-1F39C4B7162B}">
+    <comment ref="AR46" authorId="51" shapeId="0" xr:uid="{8071F227-D101-4336-BD57-1F39C4B7162B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1663,7 +1663,7 @@
     just states trawling so could also include pelagic</t>
       </text>
     </comment>
-    <comment ref="T49" authorId="52" shapeId="0" xr:uid="{BB98232E-2577-4BAC-B9A0-60E7F593BE74}">
+    <comment ref="T47" authorId="52" shapeId="0" xr:uid="{BB98232E-2577-4BAC-B9A0-60E7F593BE74}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1671,7 +1671,7 @@
     Ebro Delta Natural Park, 40o37'N, 00o35'E; see Oro and Martinez-Vilalata 1994 for details</t>
       </text>
     </comment>
-    <comment ref="V49" authorId="53" shapeId="0" xr:uid="{7AD91645-8D90-4760-9B65-974C35D6BB66}">
+    <comment ref="V47" authorId="53" shapeId="0" xr:uid="{7AD91645-8D90-4760-9B65-974C35D6BB66}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1679,7 +1679,7 @@
     no information provided for this</t>
       </text>
     </comment>
-    <comment ref="AR49" authorId="54" shapeId="0" xr:uid="{7D39EFC8-0081-450E-A4F5-FE481BD385AA}">
+    <comment ref="AR47" authorId="54" shapeId="0" xr:uid="{7D39EFC8-0081-450E-A4F5-FE481BD385AA}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1687,7 +1687,7 @@
     just states trawling so could also include pelagic</t>
       </text>
     </comment>
-    <comment ref="AR50" authorId="55" shapeId="0" xr:uid="{C0A70C4B-9FF8-4338-B62A-E4A38C309496}">
+    <comment ref="AR48" authorId="55" shapeId="0" xr:uid="{C0A70C4B-9FF8-4338-B62A-E4A38C309496}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1695,7 +1695,7 @@
     Dutch trawlers fishing for mackerel, discuss additional purse-seine fishery in 1964 - so potentially multiple gears targeting mackerel</t>
       </text>
     </comment>
-    <comment ref="AV50" authorId="56" shapeId="0" xr:uid="{265960B0-98E3-428D-9648-DA395740091E}">
+    <comment ref="AV48" authorId="56" shapeId="0" xr:uid="{265960B0-98E3-428D-9648-DA395740091E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1703,7 +1703,7 @@
     and age structure and mortality</t>
       </text>
     </comment>
-    <comment ref="AG51" authorId="57" shapeId="0" xr:uid="{04C9DBD1-83BA-48D5-BC64-8A80252FBDCE}">
+    <comment ref="AG49" authorId="57" shapeId="0" xr:uid="{04C9DBD1-83BA-48D5-BC64-8A80252FBDCE}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -2843,7 +2843,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2317" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2221" uniqueCount="623">
   <si>
     <t>SearchID</t>
   </si>
@@ -4461,43 +4461,7 @@
 MEDITS and GRUND trawl surveys 1994–2003, respec- tively on shelf and slope fishing grounds (Tables 1–4), were analysed to verify if any definite trend was evident. Catches are very variable, especially on the shelf, and the abundance and biomass in the 10 years series showed large fluctuations. In spite ofsuch fluctuations, a significant negative trend could be found in GRUND indices, while in MEDITS data this is not the case (Fig. 9). </t>
   </si>
   <si>
-    <t>clam (Chamelea gallina)</t>
-  </si>
-  <si>
-    <t>benthic invertebrates</t>
-  </si>
-  <si>
-    <t>discard variabilitybetween Maritime Districts (management units) that vary in condition/previous resource depletion</t>
-  </si>
-  <si>
     <t>ANOVA</t>
-  </si>
-  <si>
-    <t>abundance _ biomass</t>
-  </si>
-  <si>
-    <t>SIMPER</t>
-  </si>
-  <si>
-    <t>Overall the landed fraction of the target species comprised just under 55% of the total catch, whilst discarded (i.e. undersized) C. gallina contributed approximately 30% to total catch and other discarded invertebrates just over 15% (Table 2). One-way ANOVA carried out to compare the total catch composition in the two Maritime Districts revealed that the overall proportion of landed C. gallina did not differ significantly between the two areas but the proportion of discarded C. gallina was significantly higher in Ancona (Table 3). By contrast the proportion of discarded invertebrates was significantly higher in S. Benedetto (Table 3). When considering the two depth strata separately
-(3–6 and 7–12 m) results were very different from those obtained upon comparison of the two fishing areas. Proportions of landed and discarded fractions were very similar with mean percentages of landed target species, discarded target species and discarded inverte- brates, fluctuating around 50, 30 and 20%, respectively in both depth intervals (Table 2). This was supported by ANOVA results (Table 3).</t>
-  </si>
-  <si>
-    <t>SIMPER analysis carried out on abundance data for the two Maritime Districts showed an average dissimilarity between areas of 40.82% and indicated that the species most likely to be good discrimi- nators of the Ancona benthic assemblage were the bivalves Corbula gibba, Acanthocardia tuberculata, Anadara demiri, Abra alba and the gastropod Nassar- ius mutabilis whilst for S. Benedetto they were the bivalves Donax semistriatus, Paphia aurea, Spisula subtruncata and the gastropods Nassarius reticula- tus, Neverita josephinia (Table 7). On the other hand the average dissimilarity between depth strata was 45.47% and the species responsible for such dis- similarity were Donax semistriatus, Mactra stulto- rum, Pharus legumen, Nassarius reticulatus, Nassarius mutabilis and Diogenes pugilator which were more abundant in the 3–6m stratum; and Corbula gibba, Nucula spp., Anadara demiri, Acanthocardia tubercu- lata, Abra alba, Anadara inaequivalvis, Natica stercus- muscarum,Neverita josephinia, Aporrhais pespelecani and Astropecten spp., all species more abundant in the 7–12m depth stratum (Table 8).</t>
-  </si>
-  <si>
-    <t>Overall discards comprised just under 50% oftotal catch in both Maritime Districts, approximately 30% ofwhich were under-
-sized target species (&lt;25 mm) and 20% other benthic invertebrates, whilst fish were poorly represented. Significant differences in the proportions of the different catch components were found between the two Maritime Districts considered. Similarly, the size-frequencies of landed catch were significantly different between Districts. Great variability in overall catch composition from one Zone to another within one District was detected, emphasising the importance of a Zone-based management, rather than a District-based management.</t>
-  </si>
-  <si>
-    <t>Analysis ofthe invertebrate component ofdiscards revealed a clear segregation ofthe benthic community according to depth.
-Future management plans should thus incorporate a bathymetric component and future research should focus on identifying species particularly sensitive to this kind of disturbance.</t>
-  </si>
-  <si>
-    <t>undersized target species (Chamelea gallina)</t>
-  </si>
-  <si>
-    <t>benthic invertebrate community</t>
   </si>
   <si>
     <t>scallop</t>
@@ -4664,9 +4628,6 @@
     <t>haemolymph concentrations of L-lactate _ D-glucose _ ammonia _ pH</t>
   </si>
   <si>
-    <t>exposure to air after trawling distrubance and re-immersion (discarding) in different seasons</t>
-  </si>
-  <si>
     <t>From these results, we conclude that temperature shock, coupled with air exposure, influenced the ultimate stress level of this species to a greater extent than other effects of fishing.</t>
   </si>
   <si>
@@ -4763,13 +4724,19 @@
     <t>Physiological stress onset: At the beginning of the exposure-to-air phase of experiments, immediately after being caught, higher haemolymph metabolite concentrations and lower pH values were recorded in both seasons compared to the respective control groups (Fig. 1). Particularly severe increases were recorded in the summer for glucose and in the winter for lactate, while in the other cases, differences compared to control values were less pronounced. It is worth noting that in the summer, there was higher variability in control samples. In the summer, significantly higher concentrations of glucose, lactate, and ammonia, and lower pH values were recorded compared to the winter (Mann–Whitney U test, P\0.01 in all comparisons). No significant regression with experimental time were detected for glucose; values ranged between 0 to 2 and 5 to 7 mmol l-1 in the winter and summer experiments, respectively (Fig. 1a). Lactate concentration increased significantly (P\0.001) as a function of time in the summer, whereas the increase observed in the winter was not significant (Fig. 1b). In contrast, ammonia significantly increased with the time of the air exposure in winter (P\0.05), whereas in the summer no significant trend was recorded (Fig. 1c). Finally, pH was characterised by similar patterns of decreasing with time in both the winter and summer (Fig. 2d), but in the summer, data were more variable. Because of this, the trend in pH was only significant in the winter (P\0.01). Recovery from physiological impairment: Higher variability of data was observed in summer compared to the winter and in the early stages of the recovery process. However, in general terms, after air exposure the metabolite concentrations showed a decrease over time and pH increased, exhibiting a pattern that was compatible with recovery from acidosis (Fig. 2). The results of statistical analysis are summarised in Table 1. For glucose levels (Fig. 2a), a significant interac-tion between the season and the experimental time was seen in the early phase ofrecovery (EAE-2 h; two-way ANOVA; season 9 time: F3,47 = 24.5; P\0.001). In the winter, glucose showed an increasing trend with a peak at 2 h (2.5 mmol l-1), when a significantly higher value was recorded compared to EAE (Tukey’s HSD, P\0.001). Afterwards, the glucose level decreased, reaching a significantly lower value than at EAE at the end of the experiment (24 h) (Mann– Whitney U test, P\0.01). At this stage, the observed evels of glucose (about 0.5 mmol l-1) were similar to those recorded in control individuals. In contrast, in summer, the glucose concentration decreased from 0.5 h (when it was approximately 4.5 mmol l-1) onwards. At the end of the recovery process, a significantly lower concentration of glucose compared to the concentration at EAE was recorded (Mann– Whitney U test, P\0.01). This value was, however, significantly higher than that observed in the control group (Mann–Whitney U test, P\0.05). Overall, the time dependence of the lactate con-centration was similar in the two seasons (Fig. 2b), though concentrations were higher in the winter compared to the summer (two-way ANOVA; season: F1,47 = 76.2; P\0.001), and fluctuations over time were recorded in the early phase of the recovery period (two-way ANOVA; time; F3,47 = 6.5; P\ 0.01). In winter, at the end of the experiment, the recovery could be considered to be almost complete because lactate stabilised to significantly lower values compared to EAE (Mann–Whitney U test, P\0.01), reaching similar levels to those observed in controls (0.1–0.2 mmol l-1). In the summer, the decreasing trend in lactate levels was more evident from 3 h after EAE onwards. In addition, the lactate concentrations at the end of the recovery period were significantly lower than the levels at EAE and in the control group (Mann–Whitney U test, P\0.05 in both comparisons). In the case of ammonia (Fig. 2c), different trends
 were observed between the two seasons in the early phase of the recovery (two-way ANOVA; sea- son 9 time: F3,47 = 3.3; P\0.05). The winter val- ues remained almost constant up to 1 h after EAE (about 0.4 mmol l-1), while significantly lower values compared to EAE were observed after 2 h (Tukey’s HSD, P\0.001). At the end of the winter recovery experiment, the ammonia concentration reached a value of approximately 0.12 mmol l-1, which was significantly lower than at EAE (Mann–Whitney U test, P\0.05) and similar to the value recorded in controls (approximately 0.114 mmol l-1). However, the pairwise comparison revealed a significant differ- ence in ammonia levels over the course of the recovery period (Mann–Whitney U test, P\0.05). In contrast, during the summer, the largest decrease in ammonia concentration was observed after the maximum level was recorded at EAE (0.47 mmol l-1), but up to 2 h after re-immersion, no significant differences between seasons were recorded. At the end of the recovery period, ammonia concentration was significantly lower compared to at EAE (Mann–Whitney U test, P\0.05) with values similar to those of the control group (0.25 mmol l-1). The pH increased immediately after EAE and
 onwards in both seasons (Fig. 2d). In the first part of recovery, pH values were higher in winter compared to summer (two-way ANOVA; season: F1,47 = 372.3; P\0.001), though a similar increasing trend over time was observed in both seasons (two-way ANOVA; Time: F3,47 = 25.2; P\0.001; season 9 time: not significant). Significantly higher values compared to EAE were recorded from 0.5 and 1 h onwards after reimmersion in water in the winter and the summer, respectively (Tukey’s HSD, P\ 0.01 in all comparisons). In both seasons, at the end of the recovery period, the pH value was significantly higher than that observed in the respective control groups or in the EAE samples (Mann–Whitney U test, P\0.01 in all comparisons, with the excep- tion of the comparison between the control group and the end of the recovery process in the summer experiment, where P\0.05).</t>
+  </si>
+  <si>
+    <t>Rapido trawl targetting flatfish and shellfish</t>
+  </si>
+  <si>
+    <t>exposure to air after trawling disturbance and re-immersion (discarding) in different seasons</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4818,12 +4785,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="10">
@@ -5262,145 +5223,145 @@
   <threadedComment ref="AW15" dT="2022-03-07T13:16:22.97" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{896A940F-A0F7-4FF3-AC4C-E43C1D2C49CE}">
     <text>not sure how to answer this for SIMPER % dissimilarity analyses</text>
   </threadedComment>
-  <threadedComment ref="U18" dT="2022-03-03T15:44:06.02" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{69572EBE-4693-4845-933B-DC6BECF12705}">
+  <threadedComment ref="U16" dT="2022-03-03T15:44:06.02" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{69572EBE-4693-4845-933B-DC6BECF12705}">
     <text>conclusions drawn at multiple temporal scales - 11yrs is the longest</text>
   </threadedComment>
-  <threadedComment ref="AV18" dT="2022-03-03T15:54:26.07" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{9D496DF3-D2B4-4A43-AC12-7E0B2D2CF8F0}">
+  <threadedComment ref="AV16" dT="2022-03-03T15:54:26.07" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{9D496DF3-D2B4-4A43-AC12-7E0B2D2CF8F0}">
     <text>community</text>
   </threadedComment>
-  <threadedComment ref="U19" dT="2022-03-03T15:44:06.02" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{17355E08-798F-4F45-858A-F25954AE3C84}">
+  <threadedComment ref="U17" dT="2022-03-03T15:44:06.02" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{17355E08-798F-4F45-858A-F25954AE3C84}">
     <text>conclusions drawn at multiple temporal scales - 11yrs is the longest</text>
   </threadedComment>
-  <threadedComment ref="AV19" dT="2022-03-03T15:54:34.88" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{6929C21F-094B-4808-8B4E-1B33E7A4701C}">
+  <threadedComment ref="AV17" dT="2022-03-03T15:54:34.88" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{6929C21F-094B-4808-8B4E-1B33E7A4701C}">
     <text>community</text>
   </threadedComment>
-  <threadedComment ref="U20" dT="2022-03-03T15:44:06.02" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{E6A9A326-217C-4898-80F8-7CD55BB6DEEF}">
+  <threadedComment ref="U18" dT="2022-03-03T15:44:06.02" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{E6A9A326-217C-4898-80F8-7CD55BB6DEEF}">
     <text>conclusions drawn at multiple temporal scales - 11yrs is the longest</text>
   </threadedComment>
-  <threadedComment ref="AV20" dT="2022-03-03T15:54:43.28" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{88E79990-A62D-4722-ACFD-92973EBB279B}">
+  <threadedComment ref="AV18" dT="2022-03-03T15:54:43.28" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{88E79990-A62D-4722-ACFD-92973EBB279B}">
     <text>community</text>
   </threadedComment>
-  <threadedComment ref="U21" dT="2022-03-03T15:44:06.02" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{410074BB-2A10-4A00-B590-372121EDB157}">
+  <threadedComment ref="U19" dT="2022-03-03T15:44:06.02" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{410074BB-2A10-4A00-B590-372121EDB157}">
     <text>conclusions drawn at multiple temporal scales - 11yrs is the longest</text>
   </threadedComment>
-  <threadedComment ref="AV21" dT="2022-03-03T15:54:53.01" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{677E21BE-76FB-4376-9080-9A6FB650A045}">
+  <threadedComment ref="AV19" dT="2022-03-03T15:54:53.01" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{677E21BE-76FB-4376-9080-9A6FB650A045}">
     <text>community</text>
   </threadedComment>
-  <threadedComment ref="U22" dT="2022-03-03T15:44:06.02" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{E6BD52E7-A7E1-4132-A2C0-978A9903971E}">
+  <threadedComment ref="U20" dT="2022-03-03T15:44:06.02" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{E6BD52E7-A7E1-4132-A2C0-978A9903971E}">
     <text>conclusions drawn at multiple temporal scales - 11yrs is the longest</text>
   </threadedComment>
-  <threadedComment ref="AV22" dT="2022-03-03T15:54:59.82" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{3D685687-21C0-4EA4-B6AD-065DBB750A9C}">
+  <threadedComment ref="AV20" dT="2022-03-03T15:54:59.82" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{3D685687-21C0-4EA4-B6AD-065DBB750A9C}">
     <text>community</text>
   </threadedComment>
-  <threadedComment ref="AS27" dT="2022-03-07T14:51:14.23" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{2C4E279E-5FF2-4AB6-B498-F4090DBBA0E8}">
+  <threadedComment ref="AS25" dT="2022-03-07T14:51:14.23" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{2C4E279E-5FF2-4AB6-B498-F4090DBBA0E8}">
     <text>spring-toothed, Newhaven-type scallop dredges?</text>
   </threadedComment>
-  <threadedComment ref="W28" dT="2022-03-07T15:45:06.58" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{2180B62C-9FF4-4D06-9655-E14C6EB79F6E}">
+  <threadedComment ref="W26" dT="2022-03-07T15:45:06.58" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{2180B62C-9FF4-4D06-9655-E14C6EB79F6E}">
     <text>does not state, only that between 4 and 20 transects carried out per year</text>
   </threadedComment>
-  <threadedComment ref="AS28" dT="2022-03-07T14:51:14.23" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{B1643C2D-EFEA-48DA-BA3C-D8C9AC01BA07}">
+  <threadedComment ref="AS26" dT="2022-03-07T14:51:14.23" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{B1643C2D-EFEA-48DA-BA3C-D8C9AC01BA07}">
     <text>spring-toothed, Newhaven-type scallop dredges?</text>
   </threadedComment>
-  <threadedComment ref="AW28" dT="2022-03-07T15:49:09.47" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{213E6476-B61F-43C2-9A39-F100276A1870}">
+  <threadedComment ref="AW26" dT="2022-03-07T15:49:09.47" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{213E6476-B61F-43C2-9A39-F100276A1870}">
     <text>higher density of scallops in closed area (not-significant</text>
   </threadedComment>
-  <threadedComment ref="W29" dT="2022-03-07T15:45:06.58" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{265B2087-59BD-4F8A-ACE7-82F6B9EEB1B4}">
+  <threadedComment ref="W27" dT="2022-03-07T15:45:06.58" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{265B2087-59BD-4F8A-ACE7-82F6B9EEB1B4}">
     <text>does not state, only that 3 tows of scallop dredge outside closed area were compared to data from illegal fishing event inside closed area in April 2000</text>
   </threadedComment>
-  <threadedComment ref="AS29" dT="2022-03-07T14:51:14.23" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{80879F60-554F-4919-B3B4-51914927EA17}">
+  <threadedComment ref="AS27" dT="2022-03-07T14:51:14.23" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{80879F60-554F-4919-B3B4-51914927EA17}">
     <text>spring-toothed, Newhaven-type scallop dredges?</text>
   </threadedComment>
-  <threadedComment ref="AW29" dT="2022-03-07T15:49:09.47" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{87EB4814-791C-4151-897C-220F10B66323}">
+  <threadedComment ref="AW27" dT="2022-03-07T15:49:09.47" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{87EB4814-791C-4151-897C-220F10B66323}">
     <text>scallops older in closed area</text>
   </threadedComment>
-  <threadedComment ref="V32" dT="2022-03-09T17:27:01.81" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{8F605331-8FA3-4091-906F-6572B9E08CBE}">
+  <threadedComment ref="V30" dT="2022-03-09T17:27:01.81" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{8F605331-8FA3-4091-906F-6572B9E08CBE}">
     <text>no indication of this</text>
   </threadedComment>
-  <threadedComment ref="AR32" dT="2022-03-09T14:17:41.25" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{CD3A6164-943A-4E6E-9BF5-5FE09891CCB9}">
+  <threadedComment ref="AR30" dT="2022-03-09T14:17:41.25" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{CD3A6164-943A-4E6E-9BF5-5FE09891CCB9}">
     <text>rapido similar to beamtrawl</text>
   </threadedComment>
-  <threadedComment ref="V33" dT="2022-03-09T17:27:01.81" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{0DBA107E-6F54-47E4-99BD-BD727CABFC0F}">
+  <threadedComment ref="V31" dT="2022-03-09T17:27:01.81" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{0DBA107E-6F54-47E4-99BD-BD727CABFC0F}">
     <text>no indication of this</text>
   </threadedComment>
-  <threadedComment ref="AS33" dT="2022-03-09T14:13:10.19" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{CC0A6BC4-04EF-4A83-B009-E37BE3CA69B7}">
+  <threadedComment ref="AS31" dT="2022-03-09T14:13:10.19" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{CC0A6BC4-04EF-4A83-B009-E37BE3CA69B7}">
     <text>hydrolic dredge</text>
   </threadedComment>
-  <threadedComment ref="AV34" dT="2022-03-09T18:02:50.58" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{83BF076C-EF3A-4FF6-92DF-06C2F3DA57D1}">
+  <threadedComment ref="AV32" dT="2022-03-09T18:02:50.58" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{83BF076C-EF3A-4FF6-92DF-06C2F3DA57D1}">
     <text>Diet</text>
   </threadedComment>
-  <threadedComment ref="AG35" dT="2022-03-10T12:59:27.41" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{FDF1D696-0CED-4B50-9488-28F563E535BB}">
+  <threadedComment ref="AG33" dT="2022-03-10T12:59:27.41" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{FDF1D696-0CED-4B50-9488-28F563E535BB}">
     <text>both field and lab study</text>
   </threadedComment>
-  <threadedComment ref="AG36" dT="2022-03-10T12:59:27.41" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{3E7E8A63-FE8F-485C-B7B0-D651CC82B2E5}">
+  <threadedComment ref="AG34" dT="2022-03-10T12:59:27.41" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{3E7E8A63-FE8F-485C-B7B0-D651CC82B2E5}">
     <text>both field and lab study</text>
   </threadedComment>
-  <threadedComment ref="AG37" dT="2022-03-10T12:59:27.41" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{1F73A643-4889-4B00-BF17-FD191EDC437F}">
+  <threadedComment ref="AG35" dT="2022-03-10T12:59:27.41" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{1F73A643-4889-4B00-BF17-FD191EDC437F}">
     <text>both field and lab study</text>
   </threadedComment>
-  <threadedComment ref="AG38" dT="2022-03-10T12:59:27.41" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{C13FAB98-20DA-4332-A868-0381F8EB51A5}">
+  <threadedComment ref="AG36" dT="2022-03-10T12:59:27.41" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{C13FAB98-20DA-4332-A868-0381F8EB51A5}">
     <text>both field and lab study</text>
   </threadedComment>
-  <threadedComment ref="AR39" dT="2022-03-10T16:31:58.86" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{8B01BB42-BD50-4A2B-91AE-BFF1AE1CC4A6}">
+  <threadedComment ref="AR37" dT="2022-03-10T16:31:58.86" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{8B01BB42-BD50-4A2B-91AE-BFF1AE1CC4A6}">
     <text>beam and otter</text>
   </threadedComment>
-  <threadedComment ref="AW39" dT="2022-03-10T16:47:15.25" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{11A0CED8-7C4E-4A10-B3D6-7390E2591B9D}">
+  <threadedComment ref="AW37" dT="2022-03-10T16:47:15.25" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{11A0CED8-7C4E-4A10-B3D6-7390E2591B9D}">
     <text>Did not test relationship but modelled mortality rates of bycatch for each species</text>
   </threadedComment>
-  <threadedComment ref="AR40" dT="2022-03-10T16:31:58.86" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{7C93FD45-F80E-4576-B1F4-320CE5D28934}">
+  <threadedComment ref="AR38" dT="2022-03-10T16:31:58.86" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{7C93FD45-F80E-4576-B1F4-320CE5D28934}">
     <text>beam and otter</text>
   </threadedComment>
-  <threadedComment ref="AW40" dT="2022-03-10T16:47:15.25" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{84CBE241-7A40-4FBE-9038-FF85F7034818}">
+  <threadedComment ref="AW38" dT="2022-03-10T16:47:15.25" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{84CBE241-7A40-4FBE-9038-FF85F7034818}">
     <text>Did not test relationship but modelled mortality rates of bycatch for each species</text>
   </threadedComment>
-  <threadedComment ref="R43" dT="2022-03-10T16:04:10.48" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{29231E64-24AA-413F-9FA6-0B09201F7447}">
+  <threadedComment ref="R41" dT="2022-03-10T16:04:10.48" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{29231E64-24AA-413F-9FA6-0B09201F7447}">
     <text>Paper describes the shrimp shoal structure but not assessment of fishing impacts on it</text>
   </threadedComment>
-  <threadedComment ref="R44" dT="2022-03-10T15:27:24.78" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{8E7B695D-F34B-40FE-813F-DC802677F34C}">
+  <threadedComment ref="R42" dT="2022-03-10T15:27:24.78" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{8E7B695D-F34B-40FE-813F-DC802677F34C}">
     <text>this study identifies impacts of season and breeding of species, resource access (regulations and competition between fisheries) on LPUE, not impacts of fishing on ecosystem</text>
   </threadedComment>
-  <threadedComment ref="R45" dT="2022-03-07T16:15:16.37" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{DB75CAF6-E7A8-4AD0-BD5E-B650738D5CE8}">
+  <threadedComment ref="R43" dT="2022-03-07T16:15:16.37" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{DB75CAF6-E7A8-4AD0-BD5E-B650738D5CE8}">
     <text>a review of deepwater fisheries with no analysis of data</text>
   </threadedComment>
-  <threadedComment ref="R46" dT="2022-03-09T18:33:51.38" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{172069E3-CDA2-41BE-8240-6D3A9258F91B}">
+  <threadedComment ref="R44" dT="2022-03-09T18:33:51.38" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{172069E3-CDA2-41BE-8240-6D3A9258F91B}">
     <text>I think this is purely a methodoligical paper - comparing hypotheses for natural mortality rates at age in stock assessment. This is not my area so would be good to have a second opinion!</text>
   </threadedComment>
-  <threadedComment ref="T47" dT="2022-03-09T18:41:25.25" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{ABCFD0AF-BE84-4846-9C69-0442BE7E7030}">
+  <threadedComment ref="T45" dT="2022-03-09T18:41:25.25" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{ABCFD0AF-BE84-4846-9C69-0442BE7E7030}">
     <text>Ebro Delta Natural Park, 40o37'N, 00o35'E; see Oro and Martinez-Vilalata 1994 for details</text>
   </threadedComment>
-  <threadedComment ref="V47" dT="2022-03-10T11:42:04.93" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{2E2E41C1-2DBF-42F9-8384-EA0DBD36144F}">
+  <threadedComment ref="V45" dT="2022-03-10T11:42:04.93" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{2E2E41C1-2DBF-42F9-8384-EA0DBD36144F}">
     <text>no information provided for this</text>
   </threadedComment>
-  <threadedComment ref="AR47" dT="2022-03-09T18:48:09.42" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{1F4028D3-691D-45CB-A4DC-194315CA757A}">
+  <threadedComment ref="AR45" dT="2022-03-09T18:48:09.42" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{1F4028D3-691D-45CB-A4DC-194315CA757A}">
     <text>just states trawling so could also include pelagic</text>
   </threadedComment>
-  <threadedComment ref="T48" dT="2022-03-09T18:41:25.25" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{6586F64A-DB48-4A9D-A4A3-A7DD60911E1C}">
+  <threadedComment ref="T46" dT="2022-03-09T18:41:25.25" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{6586F64A-DB48-4A9D-A4A3-A7DD60911E1C}">
     <text>Ebro Delta Natural Park, 40o37'N, 00o35'E; see Oro and Martinez-Vilalata 1994 for details</text>
   </threadedComment>
-  <threadedComment ref="V48" dT="2022-03-10T11:42:04.93" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{F75443A0-3FE8-4BA1-93C4-5CB19F2E9DCC}">
+  <threadedComment ref="V46" dT="2022-03-10T11:42:04.93" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{F75443A0-3FE8-4BA1-93C4-5CB19F2E9DCC}">
     <text>no information provided for this</text>
   </threadedComment>
-  <threadedComment ref="AR48" dT="2022-03-09T18:48:09.42" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{8071F227-D101-4336-BD57-1F39C4B7162B}">
+  <threadedComment ref="AR46" dT="2022-03-09T18:48:09.42" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{8071F227-D101-4336-BD57-1F39C4B7162B}">
     <text>just states trawling so could also include pelagic</text>
   </threadedComment>
-  <threadedComment ref="T49" dT="2022-03-09T18:41:25.25" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{BB98232E-2577-4BAC-B9A0-60E7F593BE74}">
+  <threadedComment ref="T47" dT="2022-03-09T18:41:25.25" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{BB98232E-2577-4BAC-B9A0-60E7F593BE74}">
     <text>Ebro Delta Natural Park, 40o37'N, 00o35'E; see Oro and Martinez-Vilalata 1994 for details</text>
   </threadedComment>
-  <threadedComment ref="V49" dT="2022-03-10T11:42:04.93" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{7AD91645-8D90-4760-9B65-974C35D6BB66}">
+  <threadedComment ref="V47" dT="2022-03-10T11:42:04.93" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{7AD91645-8D90-4760-9B65-974C35D6BB66}">
     <text>no information provided for this</text>
   </threadedComment>
-  <threadedComment ref="AR49" dT="2022-03-09T18:48:09.42" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{7D39EFC8-0081-450E-A4F5-FE481BD385AA}">
+  <threadedComment ref="AR47" dT="2022-03-09T18:48:09.42" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{7D39EFC8-0081-450E-A4F5-FE481BD385AA}">
     <text>just states trawling so could also include pelagic</text>
   </threadedComment>
-  <threadedComment ref="AR50" dT="2022-03-09T19:15:49.80" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{C0A70C4B-9FF8-4338-B62A-E4A38C309496}">
+  <threadedComment ref="AR48" dT="2022-03-09T19:15:49.80" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{C0A70C4B-9FF8-4338-B62A-E4A38C309496}">
     <text>Dutch trawlers fishing for mackerel, discuss additional purse-seine fishery in 1964 - so potentially multiple gears targeting mackerel</text>
   </threadedComment>
-  <threadedComment ref="AV50" dT="2022-03-10T14:00:21.45" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{265960B0-98E3-428D-9648-DA395740091E}">
+  <threadedComment ref="AV48" dT="2022-03-10T14:00:21.45" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{265960B0-98E3-428D-9648-DA395740091E}">
     <text>and age structure and mortality</text>
   </threadedComment>
-  <threadedComment ref="AG51" dT="2022-03-10T11:45:14.77" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{04C9DBD1-83BA-48D5-BC64-8A80252FBDCE}">
+  <threadedComment ref="AG49" dT="2022-03-10T11:45:14.77" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{04C9DBD1-83BA-48D5-BC64-8A80252FBDCE}">
     <text>field and lab experiment</text>
   </threadedComment>
-  <threadedComment ref="AG51" dT="2022-10-04T06:45:00.99" personId="{9965CBB5-2279-48F3-8BB4-29047743A273}" id="{BB8D6876-585D-4F3E-90F0-465E31031563}" parentId="{04C9DBD1-83BA-48D5-BC64-8A80252FBDCE}">
+  <threadedComment ref="AG49" dT="2022-10-04T06:45:00.99" personId="{9965CBB5-2279-48F3-8BB4-29047743A273}" id="{BB8D6876-585D-4F3E-90F0-465E31031563}" parentId="{04C9DBD1-83BA-48D5-BC64-8A80252FBDCE}">
     <text>Changed from 'Other'  to 'Field experiment' only</text>
   </threadedComment>
 </ThreadedComments>
@@ -5408,37 +5369,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX51"/>
+  <dimension ref="A1:AX49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="AW15" sqref="AW15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="28.453125" customWidth="1"/>
     <col min="4" max="4" width="120.54296875" customWidth="1"/>
-    <col min="11" max="11" width="26.36328125" customWidth="1"/>
-    <col min="15" max="15" width="17.6328125" customWidth="1"/>
-    <col min="19" max="19" width="18.08984375" customWidth="1"/>
-    <col min="24" max="25" width="32.6328125" customWidth="1"/>
+    <col min="11" max="11" width="26.453125" customWidth="1"/>
+    <col min="15" max="15" width="17.54296875" customWidth="1"/>
+    <col min="19" max="19" width="18.1796875" customWidth="1"/>
+    <col min="24" max="25" width="32.54296875" customWidth="1"/>
     <col min="26" max="26" width="22.54296875" customWidth="1"/>
-    <col min="30" max="30" width="67.6328125" style="11" customWidth="1"/>
-    <col min="34" max="35" width="17.6328125" customWidth="1"/>
-    <col min="36" max="36" width="18.6328125" customWidth="1"/>
-    <col min="37" max="37" width="19.08984375" customWidth="1"/>
-    <col min="38" max="38" width="17.6328125" customWidth="1"/>
-    <col min="39" max="39" width="14.36328125" customWidth="1"/>
-    <col min="40" max="40" width="15.90625" customWidth="1"/>
-    <col min="41" max="41" width="35.36328125" customWidth="1"/>
+    <col min="30" max="30" width="67.54296875" style="11" customWidth="1"/>
+    <col min="34" max="35" width="17.54296875" customWidth="1"/>
+    <col min="36" max="36" width="18.54296875" customWidth="1"/>
+    <col min="37" max="37" width="19.1796875" customWidth="1"/>
+    <col min="38" max="38" width="17.54296875" customWidth="1"/>
+    <col min="39" max="39" width="14.453125" customWidth="1"/>
+    <col min="40" max="40" width="15.81640625" customWidth="1"/>
+    <col min="41" max="41" width="35.453125" customWidth="1"/>
     <col min="42" max="42" width="15.453125" customWidth="1"/>
-    <col min="46" max="46" width="15.08984375" customWidth="1"/>
-    <col min="47" max="47" width="18.6328125" customWidth="1"/>
+    <col min="46" max="46" width="15.1796875" customWidth="1"/>
+    <col min="47" max="47" width="18.54296875" customWidth="1"/>
     <col min="48" max="48" width="18" customWidth="1"/>
-    <col min="50" max="50" width="87.6328125" style="11" customWidth="1"/>
+    <col min="50" max="50" width="87.54296875" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.35">
@@ -7097,121 +7058,53 @@
       <c r="Q15" t="s">
         <v>21</v>
       </c>
-      <c r="S15" t="s">
-        <v>26</v>
-      </c>
-      <c r="T15" t="s">
-        <v>46</v>
-      </c>
-      <c r="U15" t="s">
-        <v>55</v>
-      </c>
-      <c r="V15" t="s">
-        <v>44</v>
-      </c>
-      <c r="W15" t="s">
-        <v>47</v>
-      </c>
-      <c r="X15" t="s">
-        <v>215</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>542</v>
-      </c>
-      <c r="AA15">
-        <v>2</v>
-      </c>
-      <c r="AB15">
-        <v>2</v>
-      </c>
-      <c r="AC15">
-        <v>3</v>
-      </c>
-      <c r="AD15" s="11" t="s">
-        <v>546</v>
+      <c r="R15" t="s">
+        <v>84</v>
       </c>
       <c r="AF15" t="s">
         <v>510</v>
       </c>
-      <c r="AG15" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>120</v>
-      </c>
-      <c r="AL15" t="s">
-        <v>548</v>
-      </c>
-      <c r="AM15" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN15" t="s">
-        <v>162</v>
-      </c>
-      <c r="AO15" t="s">
-        <v>539</v>
-      </c>
-      <c r="AQ15" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR15" t="s">
-        <v>168</v>
-      </c>
-      <c r="AS15" t="s">
-        <v>179</v>
-      </c>
-      <c r="AT15" t="s">
-        <v>537</v>
-      </c>
-      <c r="AU15" t="s">
-        <v>541</v>
-      </c>
-      <c r="AV15" t="s">
-        <v>206</v>
-      </c>
-      <c r="AX15" t="s">
-        <v>544</v>
-      </c>
+      <c r="AX15"/>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>242</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="E16">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="F16" t="s">
-        <v>299</v>
+        <v>327</v>
       </c>
       <c r="G16" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="H16" t="s">
-        <v>292</v>
+        <v>251</v>
       </c>
       <c r="I16" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="J16" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="K16" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="L16" t="s">
         <v>251</v>
       </c>
       <c r="M16" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="N16" t="s">
         <v>253</v>
@@ -7220,31 +7113,34 @@
         <v>254</v>
       </c>
       <c r="P16" t="s">
-        <v>251</v>
+        <v>333</v>
       </c>
       <c r="Q16" t="s">
         <v>21</v>
       </c>
       <c r="S16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="T16" t="s">
         <v>46</v>
       </c>
       <c r="U16" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="W16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="X16" t="s">
-        <v>215</v>
+        <v>113</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>496</v>
       </c>
       <c r="Z16" t="s">
-        <v>540</v>
+        <v>501</v>
       </c>
       <c r="AA16">
         <v>2</v>
@@ -7256,10 +7152,10 @@
         <v>3</v>
       </c>
       <c r="AD16" s="11" t="s">
-        <v>545</v>
+        <v>509</v>
       </c>
       <c r="AF16" t="s">
-        <v>255</v>
+        <v>510</v>
       </c>
       <c r="AG16" t="s">
         <v>110</v>
@@ -7267,82 +7163,82 @@
       <c r="AH16" t="s">
         <v>120</v>
       </c>
+      <c r="AI16" t="s">
+        <v>133</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>148</v>
+      </c>
       <c r="AL16" t="s">
-        <v>547</v>
+        <v>497</v>
       </c>
       <c r="AM16" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN16" t="s">
-        <v>161</v>
+        <v>233</v>
       </c>
       <c r="AO16" t="s">
-        <v>539</v>
+        <v>498</v>
       </c>
       <c r="AQ16" t="s">
         <v>164</v>
       </c>
       <c r="AR16" t="s">
-        <v>168</v>
+        <v>239</v>
       </c>
       <c r="AS16" t="s">
-        <v>179</v>
-      </c>
-      <c r="AT16" t="s">
-        <v>537</v>
+        <v>176</v>
       </c>
       <c r="AU16" t="s">
-        <v>541</v>
+        <v>499</v>
       </c>
       <c r="AV16" t="s">
         <v>199</v>
       </c>
       <c r="AW16" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX16" s="11" t="s">
-        <v>543</v>
+        <v>208</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="17" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>242</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="E17">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="F17" t="s">
-        <v>299</v>
+        <v>327</v>
       </c>
       <c r="G17" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="H17" t="s">
-        <v>292</v>
+        <v>251</v>
       </c>
       <c r="I17" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="J17" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="K17" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="L17" t="s">
         <v>251</v>
       </c>
       <c r="M17" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="N17" t="s">
         <v>253</v>
@@ -7351,31 +7247,34 @@
         <v>254</v>
       </c>
       <c r="P17" t="s">
-        <v>251</v>
+        <v>333</v>
       </c>
       <c r="Q17" t="s">
         <v>21</v>
       </c>
       <c r="S17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="T17" t="s">
         <v>46</v>
       </c>
       <c r="U17" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="W17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="X17" t="s">
-        <v>215</v>
+        <v>113</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>496</v>
       </c>
       <c r="Z17" t="s">
-        <v>540</v>
+        <v>501</v>
       </c>
       <c r="AA17">
         <v>2</v>
@@ -7386,11 +7285,11 @@
       <c r="AC17">
         <v>3</v>
       </c>
-      <c r="AD17" s="11" t="s">
-        <v>545</v>
+      <c r="AD17" t="s">
+        <v>509</v>
       </c>
       <c r="AF17" t="s">
-        <v>255</v>
+        <v>510</v>
       </c>
       <c r="AG17" t="s">
         <v>110</v>
@@ -7398,41 +7297,41 @@
       <c r="AH17" t="s">
         <v>120</v>
       </c>
+      <c r="AI17" t="s">
+        <v>133</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>148</v>
+      </c>
       <c r="AL17" t="s">
-        <v>538</v>
+        <v>497</v>
       </c>
       <c r="AM17" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN17" t="s">
-        <v>162</v>
+        <v>233</v>
       </c>
       <c r="AO17" t="s">
-        <v>539</v>
+        <v>498</v>
       </c>
       <c r="AQ17" t="s">
         <v>164</v>
       </c>
       <c r="AR17" t="s">
-        <v>168</v>
+        <v>239</v>
       </c>
       <c r="AS17" t="s">
-        <v>179</v>
-      </c>
-      <c r="AT17" t="s">
-        <v>537</v>
+        <v>176</v>
       </c>
       <c r="AU17" t="s">
-        <v>541</v>
+        <v>502</v>
       </c>
       <c r="AV17" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="AW17" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX17" s="11" t="s">
-        <v>543</v>
+        <v>208</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="18" spans="1:50" x14ac:dyDescent="0.35">
@@ -7520,7 +7419,7 @@
       <c r="AC18">
         <v>3</v>
       </c>
-      <c r="AD18" s="11" t="s">
+      <c r="AD18" t="s">
         <v>509</v>
       </c>
       <c r="AF18" t="s">
@@ -7557,10 +7456,10 @@
         <v>176</v>
       </c>
       <c r="AU18" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AV18" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="AW18" t="s">
         <v>208</v>
@@ -7643,7 +7542,7 @@
         <v>496</v>
       </c>
       <c r="Z19" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="AA19">
         <v>2</v>
@@ -7691,16 +7590,16 @@
         <v>176</v>
       </c>
       <c r="AU19" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AV19" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AW19" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX19" t="s">
-        <v>508</v>
+        <v>209</v>
+      </c>
+      <c r="AX19" s="11" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="20" spans="1:50" x14ac:dyDescent="0.35">
@@ -7777,7 +7676,7 @@
         <v>496</v>
       </c>
       <c r="Z20" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="AA20">
         <v>2</v>
@@ -7825,57 +7724,57 @@
         <v>176</v>
       </c>
       <c r="AU20" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="AV20" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="AW20" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX20" t="s">
-        <v>508</v>
+        <v>209</v>
+      </c>
+      <c r="AX20" s="11" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="21" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>242</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="E21">
         <v>2009</v>
       </c>
       <c r="F21" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G21" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="H21" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="I21" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="J21" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="K21" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="L21" t="s">
         <v>251</v>
       </c>
       <c r="M21" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="N21" t="s">
         <v>253</v>
@@ -7884,34 +7783,31 @@
         <v>254</v>
       </c>
       <c r="P21" t="s">
-        <v>333</v>
+        <v>251</v>
       </c>
       <c r="Q21" t="s">
         <v>21</v>
       </c>
       <c r="S21" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="T21" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="U21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V21" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="W21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="X21" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>496</v>
+        <v>72</v>
       </c>
       <c r="Z21" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="AA21">
         <v>2</v>
@@ -7923,93 +7819,81 @@
         <v>3</v>
       </c>
       <c r="AD21" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
       <c r="AF21" t="s">
         <v>510</v>
       </c>
       <c r="AG21" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="AH21" t="s">
         <v>120</v>
       </c>
-      <c r="AI21" t="s">
-        <v>133</v>
-      </c>
-      <c r="AK21" t="s">
-        <v>148</v>
-      </c>
       <c r="AL21" t="s">
-        <v>497</v>
+        <v>523</v>
       </c>
       <c r="AM21" t="s">
         <v>233</v>
       </c>
       <c r="AO21" t="s">
-        <v>498</v>
+        <v>512</v>
       </c>
       <c r="AQ21" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR21" t="s">
-        <v>239</v>
-      </c>
-      <c r="AS21" t="s">
-        <v>176</v>
+        <v>150</v>
       </c>
       <c r="AU21" t="s">
-        <v>503</v>
+        <v>517</v>
       </c>
       <c r="AV21" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="AW21" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX21" s="11" t="s">
-        <v>504</v>
+        <v>208</v>
+      </c>
+      <c r="AX21" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="22" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>242</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="E22">
         <v>2009</v>
       </c>
       <c r="F22" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G22" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="H22" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="I22" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="J22" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="K22" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="L22" t="s">
         <v>251</v>
       </c>
       <c r="M22" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="N22" t="s">
         <v>253</v>
@@ -8018,34 +7902,31 @@
         <v>254</v>
       </c>
       <c r="P22" t="s">
-        <v>333</v>
+        <v>251</v>
       </c>
       <c r="Q22" t="s">
         <v>21</v>
       </c>
       <c r="S22" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="T22" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="U22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V22" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="W22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="X22" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>496</v>
+        <v>72</v>
       </c>
       <c r="Z22" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="AA22">
         <v>2</v>
@@ -8057,52 +7938,40 @@
         <v>3</v>
       </c>
       <c r="AD22" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
       <c r="AF22" t="s">
         <v>510</v>
       </c>
       <c r="AG22" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="AH22" t="s">
         <v>120</v>
       </c>
-      <c r="AI22" t="s">
-        <v>133</v>
-      </c>
-      <c r="AK22" t="s">
-        <v>148</v>
-      </c>
       <c r="AL22" t="s">
-        <v>497</v>
+        <v>523</v>
       </c>
       <c r="AM22" t="s">
         <v>233</v>
       </c>
       <c r="AO22" t="s">
-        <v>498</v>
+        <v>512</v>
       </c>
       <c r="AQ22" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR22" t="s">
-        <v>239</v>
-      </c>
-      <c r="AS22" t="s">
-        <v>176</v>
+        <v>150</v>
       </c>
       <c r="AU22" t="s">
-        <v>503</v>
+        <v>520</v>
       </c>
       <c r="AV22" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="AW22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AX22" s="11" t="s">
-        <v>505</v>
+        <v>521</v>
       </c>
     </row>
     <row r="23" spans="1:50" x14ac:dyDescent="0.35">
@@ -8176,7 +8045,7 @@
         <v>72</v>
       </c>
       <c r="Z23" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="AA23">
         <v>2</v>
@@ -8212,16 +8081,16 @@
         <v>150</v>
       </c>
       <c r="AU23" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="AV23" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="AW23" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AX23" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="24" spans="1:50" x14ac:dyDescent="0.35">
@@ -8292,7 +8161,10 @@
         <v>47</v>
       </c>
       <c r="X24" t="s">
-        <v>72</v>
+        <v>113</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>514</v>
       </c>
       <c r="Z24" t="s">
         <v>516</v>
@@ -8316,10 +8188,10 @@
         <v>107</v>
       </c>
       <c r="AH24" t="s">
-        <v>120</v>
-      </c>
-      <c r="AL24" t="s">
-        <v>523</v>
+        <v>121</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>141</v>
       </c>
       <c r="AM24" t="s">
         <v>233</v>
@@ -8331,57 +8203,57 @@
         <v>150</v>
       </c>
       <c r="AU24" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="AV24" t="s">
-        <v>205</v>
+        <v>113</v>
       </c>
       <c r="AW24" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX24" s="11" t="s">
-        <v>521</v>
+        <v>209</v>
+      </c>
+      <c r="AX24" t="s">
+        <v>519</v>
       </c>
     </row>
-    <row r="25" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="B25" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="B25" t="s">
         <v>242</v>
       </c>
-      <c r="C25" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>337</v>
+      <c r="C25" t="s">
+        <v>345</v>
+      </c>
+      <c r="D25" t="s">
+        <v>346</v>
       </c>
       <c r="E25">
-        <v>2009</v>
+        <v>2001</v>
       </c>
       <c r="F25" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="G25" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="H25" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="I25" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="J25" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="K25" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="L25" t="s">
         <v>251</v>
       </c>
       <c r="M25" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="N25" t="s">
         <v>253</v>
@@ -8396,25 +8268,28 @@
         <v>21</v>
       </c>
       <c r="S25" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="T25" t="s">
         <v>42</v>
       </c>
       <c r="U25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V25" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W25" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="X25" t="s">
-        <v>72</v>
+        <v>113</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>540</v>
       </c>
       <c r="Z25" t="s">
-        <v>516</v>
+        <v>550</v>
       </c>
       <c r="AA25">
         <v>2</v>
@@ -8423,13 +8298,13 @@
         <v>2</v>
       </c>
       <c r="AC25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD25" t="s">
-        <v>524</v>
+        <v>552</v>
       </c>
       <c r="AF25" t="s">
-        <v>510</v>
+        <v>334</v>
       </c>
       <c r="AG25" t="s">
         <v>107</v>
@@ -8438,69 +8313,75 @@
         <v>120</v>
       </c>
       <c r="AL25" t="s">
-        <v>523</v>
+        <v>539</v>
       </c>
       <c r="AM25" t="s">
         <v>233</v>
       </c>
       <c r="AO25" t="s">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="AQ25" t="s">
-        <v>150</v>
+        <v>164</v>
+      </c>
+      <c r="AR25" t="s">
+        <v>168</v>
+      </c>
+      <c r="AT25" t="s">
+        <v>538</v>
       </c>
       <c r="AU25" t="s">
-        <v>513</v>
+        <v>542</v>
       </c>
       <c r="AV25" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="AW25" t="s">
         <v>209</v>
       </c>
-      <c r="AX25" t="s">
-        <v>518</v>
+      <c r="AX25" s="4" t="s">
+        <v>551</v>
       </c>
     </row>
-    <row r="26" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="B26" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="B26" t="s">
         <v>242</v>
       </c>
-      <c r="C26" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>337</v>
+      <c r="C26" t="s">
+        <v>345</v>
+      </c>
+      <c r="D26" t="s">
+        <v>346</v>
       </c>
       <c r="E26">
-        <v>2009</v>
+        <v>2001</v>
       </c>
       <c r="F26" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="G26" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="H26" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="I26" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="J26" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="K26" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="L26" t="s">
         <v>251</v>
       </c>
       <c r="M26" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="N26" t="s">
         <v>253</v>
@@ -8515,28 +8396,22 @@
         <v>21</v>
       </c>
       <c r="S26" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="T26" t="s">
         <v>42</v>
       </c>
       <c r="U26" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="V26" t="s">
-        <v>37</v>
-      </c>
-      <c r="W26" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="X26" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>514</v>
+        <v>72</v>
       </c>
       <c r="Z26" t="s">
-        <v>516</v>
+        <v>537</v>
       </c>
       <c r="AA26">
         <v>2</v>
@@ -8545,43 +8420,55 @@
         <v>2</v>
       </c>
       <c r="AC26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD26" t="s">
-        <v>524</v>
+        <v>543</v>
       </c>
       <c r="AF26" t="s">
-        <v>510</v>
+        <v>390</v>
       </c>
       <c r="AG26" t="s">
         <v>107</v>
       </c>
       <c r="AH26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AI26" t="s">
-        <v>141</v>
+        <v>133</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>545</v>
       </c>
       <c r="AM26" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>160</v>
       </c>
       <c r="AO26" t="s">
-        <v>512</v>
+        <v>544</v>
       </c>
       <c r="AQ26" t="s">
-        <v>150</v>
+        <v>164</v>
+      </c>
+      <c r="AR26" t="s">
+        <v>168</v>
+      </c>
+      <c r="AT26" t="s">
+        <v>538</v>
       </c>
       <c r="AU26" t="s">
-        <v>515</v>
+        <v>546</v>
       </c>
       <c r="AV26" t="s">
-        <v>113</v>
+        <v>199</v>
       </c>
       <c r="AW26" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX26" t="s">
-        <v>519</v>
+        <v>207</v>
+      </c>
+      <c r="AX26" s="4" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="27" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -8643,22 +8530,16 @@
         <v>42</v>
       </c>
       <c r="U27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V27" t="s">
         <v>40</v>
       </c>
-      <c r="W27" t="s">
-        <v>54</v>
-      </c>
       <c r="X27" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>551</v>
+        <v>216</v>
       </c>
       <c r="Z27" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="AA27">
         <v>2</v>
@@ -8670,10 +8551,13 @@
         <v>1</v>
       </c>
       <c r="AD27" t="s">
-        <v>563</v>
+        <v>553</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>555</v>
       </c>
       <c r="AF27" t="s">
-        <v>334</v>
+        <v>390</v>
       </c>
       <c r="AG27" t="s">
         <v>107</v>
@@ -8681,14 +8565,20 @@
       <c r="AH27" t="s">
         <v>120</v>
       </c>
+      <c r="AI27" t="s">
+        <v>133</v>
+      </c>
       <c r="AL27" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="AM27" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>160</v>
       </c>
       <c r="AO27" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="AQ27" t="s">
         <v>164</v>
@@ -8697,60 +8587,60 @@
         <v>168</v>
       </c>
       <c r="AT27" t="s">
+        <v>538</v>
+      </c>
+      <c r="AU27" t="s">
+        <v>548</v>
+      </c>
+      <c r="AV27" t="s">
+        <v>200</v>
+      </c>
+      <c r="AW27" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX27" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="AU27" t="s">
-        <v>553</v>
-      </c>
-      <c r="AV27" t="s">
-        <v>206</v>
-      </c>
-      <c r="AW27" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX27" s="4" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="28" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="B28" t="s">
         <v>242</v>
       </c>
       <c r="C28" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="D28" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="E28">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="F28" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="G28" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="H28" t="s">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="I28" t="s">
+        <v>358</v>
+      </c>
+      <c r="J28" t="s">
         <v>349</v>
       </c>
-      <c r="J28" t="s">
-        <v>350</v>
-      </c>
       <c r="K28" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="L28" t="s">
         <v>251</v>
       </c>
       <c r="M28" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="N28" t="s">
         <v>253</v>
@@ -8768,19 +8658,22 @@
         <v>25</v>
       </c>
       <c r="T28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="U28" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="V28" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="W28" t="s">
+        <v>47</v>
       </c>
       <c r="X28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z28" t="s">
-        <v>540</v>
+        <v>559</v>
       </c>
       <c r="AA28">
         <v>2</v>
@@ -8789,13 +8682,13 @@
         <v>2</v>
       </c>
       <c r="AC28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD28" t="s">
-        <v>554</v>
-      </c>
-      <c r="AF28" t="s">
-        <v>390</v>
+        <v>560</v>
+      </c>
+      <c r="AF28">
+        <v>4.4000000000000004</v>
       </c>
       <c r="AG28" t="s">
         <v>107</v>
@@ -8804,19 +8697,16 @@
         <v>120</v>
       </c>
       <c r="AI28" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="AL28" t="s">
-        <v>556</v>
+        <v>539</v>
       </c>
       <c r="AM28" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AO28" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="AQ28" t="s">
         <v>164</v>
@@ -8825,10 +8715,10 @@
         <v>168</v>
       </c>
       <c r="AT28" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="AU28" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AV28" t="s">
         <v>199</v>
@@ -8836,49 +8726,49 @@
       <c r="AW28" t="s">
         <v>207</v>
       </c>
-      <c r="AX28" s="4" t="s">
+      <c r="AX28" s="11" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="29" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A29" s="10" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="B29" t="s">
         <v>242</v>
       </c>
       <c r="C29" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="D29" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="E29">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="F29" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="G29" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="H29" t="s">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="I29" t="s">
+        <v>358</v>
+      </c>
+      <c r="J29" t="s">
         <v>349</v>
       </c>
-      <c r="J29" t="s">
-        <v>350</v>
-      </c>
       <c r="K29" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="L29" t="s">
         <v>251</v>
       </c>
       <c r="M29" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="N29" t="s">
         <v>253</v>
@@ -8896,19 +8786,22 @@
         <v>25</v>
       </c>
       <c r="T29" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="U29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="V29" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="W29" t="s">
+        <v>47</v>
       </c>
       <c r="X29" t="s">
-        <v>216</v>
+        <v>71</v>
       </c>
       <c r="Z29" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="AA29">
         <v>2</v>
@@ -8917,37 +8810,31 @@
         <v>2</v>
       </c>
       <c r="AC29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD29" t="s">
-        <v>564</v>
-      </c>
-      <c r="AE29" t="s">
-        <v>566</v>
-      </c>
-      <c r="AF29" t="s">
-        <v>390</v>
+        <v>560</v>
+      </c>
+      <c r="AF29">
+        <v>4.4000000000000004</v>
       </c>
       <c r="AG29" t="s">
         <v>107</v>
       </c>
       <c r="AH29" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AI29" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="AL29" t="s">
-        <v>556</v>
+        <v>608</v>
       </c>
       <c r="AM29" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AO29" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="AQ29" t="s">
         <v>164</v>
@@ -8956,93 +8843,93 @@
         <v>168</v>
       </c>
       <c r="AT29" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="AU29" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="AV29" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AW29" t="s">
         <v>207</v>
       </c>
-      <c r="AX29" s="4" t="s">
-        <v>560</v>
+      <c r="AX29" s="11" t="s">
+        <v>558</v>
       </c>
     </row>
-    <row r="30" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="10" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="B30" t="s">
         <v>242</v>
       </c>
       <c r="C30" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="D30" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="E30">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="F30" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="G30" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="H30" t="s">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="I30" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="J30" t="s">
-        <v>349</v>
+        <v>368</v>
       </c>
       <c r="K30" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="L30" t="s">
         <v>251</v>
       </c>
       <c r="M30" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="N30" t="s">
         <v>253</v>
       </c>
       <c r="O30" t="s">
-        <v>254</v>
+        <v>362</v>
       </c>
       <c r="P30" t="s">
-        <v>251</v>
+        <v>371</v>
       </c>
       <c r="Q30" t="s">
         <v>21</v>
       </c>
       <c r="S30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T30" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="U30" t="s">
-        <v>53</v>
-      </c>
-      <c r="V30" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="W30" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="X30" t="s">
-        <v>71</v>
+        <v>113</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>565</v>
       </c>
       <c r="Z30" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="AA30">
         <v>2</v>
@@ -9053,11 +8940,11 @@
       <c r="AC30">
         <v>3</v>
       </c>
-      <c r="AD30" t="s">
-        <v>571</v>
-      </c>
-      <c r="AF30">
-        <v>4.4000000000000004</v>
+      <c r="AD30" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>567</v>
       </c>
       <c r="AG30" t="s">
         <v>107</v>
@@ -9065,112 +8952,109 @@
       <c r="AH30" t="s">
         <v>120</v>
       </c>
-      <c r="AI30" t="s">
-        <v>140</v>
-      </c>
       <c r="AL30" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="AM30" t="s">
-        <v>159</v>
+        <v>233</v>
       </c>
       <c r="AO30" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AQ30" t="s">
         <v>164</v>
       </c>
       <c r="AR30" t="s">
-        <v>168</v>
+        <v>239</v>
       </c>
       <c r="AT30" t="s">
-        <v>549</v>
+        <v>563</v>
       </c>
       <c r="AU30" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AV30" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="AW30" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX30" s="11" t="s">
-        <v>569</v>
+        <v>209</v>
+      </c>
+      <c r="AX30" t="s">
+        <v>570</v>
       </c>
     </row>
-    <row r="31" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="B31" t="s">
         <v>242</v>
       </c>
       <c r="C31" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="D31" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="E31">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="F31" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="G31" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="H31" t="s">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="I31" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="J31" t="s">
-        <v>349</v>
+        <v>368</v>
       </c>
       <c r="K31" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="L31" t="s">
         <v>251</v>
       </c>
       <c r="M31" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="N31" t="s">
         <v>253</v>
       </c>
       <c r="O31" t="s">
-        <v>254</v>
+        <v>362</v>
       </c>
       <c r="P31" t="s">
-        <v>251</v>
+        <v>371</v>
       </c>
       <c r="Q31" t="s">
         <v>21</v>
       </c>
       <c r="S31" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T31" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="U31" t="s">
-        <v>53</v>
-      </c>
-      <c r="V31" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="W31" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="X31" t="s">
-        <v>71</v>
+        <v>113</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>564</v>
       </c>
       <c r="Z31" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="AA31">
         <v>2</v>
@@ -9181,29 +9065,26 @@
       <c r="AC31">
         <v>3</v>
       </c>
-      <c r="AD31" t="s">
-        <v>571</v>
-      </c>
-      <c r="AF31">
-        <v>4.4000000000000004</v>
+      <c r="AD31" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>567</v>
       </c>
       <c r="AG31" t="s">
         <v>107</v>
       </c>
       <c r="AH31" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI31" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="AL31" t="s">
-        <v>620</v>
+        <v>561</v>
       </c>
       <c r="AM31" t="s">
-        <v>159</v>
+        <v>233</v>
       </c>
       <c r="AO31" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AQ31" t="s">
         <v>164</v>
@@ -9211,94 +9092,97 @@
       <c r="AR31" t="s">
         <v>168</v>
       </c>
+      <c r="AS31" t="s">
+        <v>179</v>
+      </c>
       <c r="AT31" t="s">
-        <v>549</v>
+        <v>562</v>
       </c>
       <c r="AU31" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AV31" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="AW31" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX31" s="11" t="s">
-        <v>569</v>
+        <v>209</v>
+      </c>
+      <c r="AX31" s="4" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="32" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="10" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B32" t="s">
         <v>242</v>
       </c>
       <c r="C32" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="D32" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="E32">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="F32" t="s">
-        <v>347</v>
+        <v>327</v>
       </c>
       <c r="G32" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="H32" t="s">
-        <v>251</v>
+        <v>376</v>
       </c>
       <c r="I32" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="J32" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="K32" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="L32" t="s">
         <v>251</v>
       </c>
       <c r="M32" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="N32" t="s">
         <v>253</v>
       </c>
       <c r="O32" t="s">
-        <v>362</v>
+        <v>254</v>
       </c>
       <c r="P32" t="s">
-        <v>371</v>
+        <v>315</v>
       </c>
       <c r="Q32" t="s">
         <v>21</v>
       </c>
       <c r="S32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="T32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="U32" t="s">
-        <v>56</v>
+        <v>49</v>
+      </c>
+      <c r="V32" t="s">
+        <v>40</v>
       </c>
       <c r="W32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="X32" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>576</v>
+        <v>216</v>
       </c>
       <c r="Z32" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="AA32">
         <v>2</v>
@@ -9309,26 +9193,29 @@
       <c r="AC32">
         <v>3</v>
       </c>
-      <c r="AD32" s="4" t="s">
-        <v>583</v>
+      <c r="AD32" t="s">
+        <v>578</v>
       </c>
       <c r="AF32" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="AG32" t="s">
         <v>107</v>
       </c>
       <c r="AH32" t="s">
-        <v>120</v>
+        <v>117</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>130</v>
       </c>
       <c r="AL32" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AM32" t="s">
         <v>233</v>
       </c>
       <c r="AO32" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="AQ32" t="s">
         <v>164</v>
@@ -9336,94 +9223,94 @@
       <c r="AR32" t="s">
         <v>239</v>
       </c>
-      <c r="AT32" t="s">
-        <v>574</v>
+      <c r="AS32" t="s">
+        <v>176</v>
       </c>
       <c r="AU32" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AV32" t="s">
-        <v>206</v>
+        <v>113</v>
       </c>
       <c r="AW32" t="s">
         <v>209</v>
       </c>
       <c r="AX32" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
     </row>
     <row r="33" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="10" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="B33" t="s">
         <v>242</v>
       </c>
       <c r="C33" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D33" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="E33">
-        <v>1998</v>
+        <v>2003</v>
       </c>
       <c r="F33" t="s">
-        <v>347</v>
+        <v>384</v>
       </c>
       <c r="G33" t="s">
-        <v>366</v>
+        <v>385</v>
       </c>
       <c r="H33" t="s">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="I33" t="s">
-        <v>367</v>
+        <v>386</v>
       </c>
       <c r="J33" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="K33" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="L33" t="s">
         <v>251</v>
       </c>
       <c r="M33" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="N33" t="s">
         <v>253</v>
       </c>
       <c r="O33" t="s">
-        <v>362</v>
-      </c>
-      <c r="P33" t="s">
-        <v>371</v>
+        <v>254</v>
       </c>
       <c r="Q33" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S33" t="s">
         <v>26</v>
       </c>
       <c r="T33" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="U33" t="s">
-        <v>56</v>
+        <v>54</v>
+      </c>
+      <c r="V33" t="s">
+        <v>42</v>
       </c>
       <c r="W33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="X33" t="s">
         <v>113</v>
       </c>
       <c r="Y33" t="s">
-        <v>575</v>
+        <v>590</v>
       </c>
       <c r="Z33" t="s">
-        <v>579</v>
+        <v>593</v>
       </c>
       <c r="AA33">
         <v>2</v>
@@ -9434,11 +9321,11 @@
       <c r="AC33">
         <v>3</v>
       </c>
-      <c r="AD33" s="4" t="s">
-        <v>583</v>
+      <c r="AD33" t="s">
+        <v>595</v>
       </c>
       <c r="AF33" t="s">
-        <v>578</v>
+        <v>390</v>
       </c>
       <c r="AG33" t="s">
         <v>107</v>
@@ -9446,14 +9333,20 @@
       <c r="AH33" t="s">
         <v>120</v>
       </c>
+      <c r="AI33" t="s">
+        <v>133</v>
+      </c>
       <c r="AL33" t="s">
-        <v>572</v>
+        <v>609</v>
       </c>
       <c r="AM33" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>160</v>
       </c>
       <c r="AO33" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="AQ33" t="s">
         <v>164</v>
@@ -9461,64 +9354,61 @@
       <c r="AR33" t="s">
         <v>168</v>
       </c>
-      <c r="AS33" t="s">
-        <v>179</v>
-      </c>
       <c r="AT33" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
       <c r="AU33" t="s">
-        <v>577</v>
+        <v>594</v>
       </c>
       <c r="AV33" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="AW33" t="s">
         <v>209</v>
       </c>
-      <c r="AX33" s="4" t="s">
-        <v>582</v>
+      <c r="AX33" s="11" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="34" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="B34" t="s">
         <v>242</v>
       </c>
       <c r="C34" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D34" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="E34">
-        <v>1997</v>
+        <v>2003</v>
       </c>
       <c r="F34" t="s">
-        <v>327</v>
+        <v>384</v>
       </c>
       <c r="G34" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="H34" t="s">
-        <v>376</v>
+        <v>301</v>
       </c>
       <c r="I34" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="J34" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="K34" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="L34" t="s">
         <v>251</v>
       </c>
       <c r="M34" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="N34" t="s">
         <v>253</v>
@@ -9526,32 +9416,32 @@
       <c r="O34" t="s">
         <v>254</v>
       </c>
-      <c r="P34" t="s">
-        <v>315</v>
-      </c>
       <c r="Q34" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S34" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T34" t="s">
+        <v>46</v>
+      </c>
+      <c r="U34" t="s">
+        <v>54</v>
+      </c>
+      <c r="V34" t="s">
         <v>42</v>
-      </c>
-      <c r="U34" t="s">
-        <v>49</v>
-      </c>
-      <c r="V34" t="s">
-        <v>40</v>
       </c>
       <c r="W34" t="s">
         <v>48</v>
       </c>
       <c r="X34" t="s">
-        <v>216</v>
+        <v>113</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>590</v>
       </c>
       <c r="Z34" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="AA34">
         <v>2</v>
@@ -9563,49 +9453,52 @@
         <v>3</v>
       </c>
       <c r="AD34" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="AF34" t="s">
-        <v>578</v>
+        <v>390</v>
       </c>
       <c r="AG34" t="s">
         <v>107</v>
       </c>
       <c r="AH34" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AI34" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AL34" t="s">
-        <v>584</v>
+        <v>609</v>
       </c>
       <c r="AM34" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="AN34" t="s">
+        <v>160</v>
       </c>
       <c r="AO34" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="AQ34" t="s">
         <v>164</v>
       </c>
       <c r="AR34" t="s">
-        <v>239</v>
-      </c>
-      <c r="AS34" t="s">
-        <v>176</v>
+        <v>168</v>
+      </c>
+      <c r="AT34" t="s">
+        <v>591</v>
       </c>
       <c r="AU34" t="s">
-        <v>587</v>
+        <v>611</v>
       </c>
       <c r="AV34" t="s">
-        <v>113</v>
+        <v>212</v>
       </c>
       <c r="AW34" t="s">
         <v>209</v>
       </c>
-      <c r="AX34" t="s">
-        <v>588</v>
+      <c r="AX34" s="11" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="35" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -9676,10 +9569,10 @@
         <v>113</v>
       </c>
       <c r="Y35" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="Z35" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="AA35">
         <v>2</v>
@@ -9691,13 +9584,13 @@
         <v>3</v>
       </c>
       <c r="AD35" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
       <c r="AF35" t="s">
         <v>390</v>
       </c>
       <c r="AG35" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AH35" t="s">
         <v>120</v>
@@ -9706,7 +9599,7 @@
         <v>133</v>
       </c>
       <c r="AL35" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="AM35" t="s">
         <v>232</v>
@@ -9715,7 +9608,7 @@
         <v>160</v>
       </c>
       <c r="AO35" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="AQ35" t="s">
         <v>164</v>
@@ -9724,10 +9617,10 @@
         <v>168</v>
       </c>
       <c r="AT35" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="AU35" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="AV35" t="s">
         <v>213</v>
@@ -9736,7 +9629,7 @@
         <v>209</v>
       </c>
       <c r="AX35" s="11" t="s">
-        <v>631</v>
+        <v>618</v>
       </c>
     </row>
     <row r="36" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -9807,10 +9700,10 @@
         <v>113</v>
       </c>
       <c r="Y36" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="Z36" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="AA36">
         <v>2</v>
@@ -9822,13 +9715,13 @@
         <v>3</v>
       </c>
       <c r="AD36" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
       <c r="AF36" t="s">
         <v>390</v>
       </c>
       <c r="AG36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AH36" t="s">
         <v>120</v>
@@ -9837,7 +9730,7 @@
         <v>133</v>
       </c>
       <c r="AL36" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="AM36" t="s">
         <v>232</v>
@@ -9846,7 +9739,7 @@
         <v>160</v>
       </c>
       <c r="AO36" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="AQ36" t="s">
         <v>164</v>
@@ -9855,10 +9748,10 @@
         <v>168</v>
       </c>
       <c r="AT36" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="AU36" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
       <c r="AV36" t="s">
         <v>212</v>
@@ -9867,78 +9760,78 @@
         <v>209</v>
       </c>
       <c r="AX36" s="11" t="s">
-        <v>631</v>
+        <v>618</v>
       </c>
     </row>
     <row r="37" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="10" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="B37" t="s">
         <v>242</v>
       </c>
       <c r="C37" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="D37" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="E37">
-        <v>2003</v>
+        <v>2009</v>
       </c>
       <c r="F37" t="s">
-        <v>384</v>
+        <v>309</v>
       </c>
       <c r="G37" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="H37" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="I37" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="J37" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="K37" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="L37" t="s">
         <v>251</v>
       </c>
       <c r="M37" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="N37" t="s">
         <v>253</v>
       </c>
       <c r="O37" t="s">
-        <v>254</v>
+        <v>362</v>
+      </c>
+      <c r="P37" t="s">
+        <v>251</v>
       </c>
       <c r="Q37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S37" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="T37" t="s">
         <v>46</v>
       </c>
       <c r="U37" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="V37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="X37" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>602</v>
+        <v>215</v>
       </c>
       <c r="Z37" t="s">
         <v>605</v>
@@ -9953,123 +9846,117 @@
         <v>3</v>
       </c>
       <c r="AD37" t="s">
-        <v>607</v>
-      </c>
-      <c r="AF37" t="s">
-        <v>390</v>
+        <v>606</v>
+      </c>
+      <c r="AF37">
+        <v>4.2</v>
       </c>
       <c r="AG37" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="AH37" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI37" t="s">
-        <v>133</v>
+        <v>220</v>
       </c>
       <c r="AL37" t="s">
-        <v>621</v>
+        <v>604</v>
       </c>
       <c r="AM37" t="s">
         <v>232</v>
       </c>
       <c r="AN37" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AO37" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="AQ37" t="s">
         <v>164</v>
       </c>
       <c r="AR37" t="s">
-        <v>168</v>
+        <v>239</v>
       </c>
       <c r="AT37" t="s">
+        <v>600</v>
+      </c>
+      <c r="AU37" t="s">
+        <v>602</v>
+      </c>
+      <c r="AV37" t="s">
+        <v>238</v>
+      </c>
+      <c r="AX37" t="s">
         <v>603</v>
-      </c>
-      <c r="AU37" t="s">
-        <v>606</v>
-      </c>
-      <c r="AV37" t="s">
-        <v>213</v>
-      </c>
-      <c r="AW37" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX37" s="11" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="38" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="10" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="B38" t="s">
         <v>242</v>
       </c>
       <c r="C38" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="D38" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="E38">
-        <v>2003</v>
+        <v>2009</v>
       </c>
       <c r="F38" t="s">
-        <v>384</v>
+        <v>309</v>
       </c>
       <c r="G38" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="H38" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="I38" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="J38" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="K38" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="L38" t="s">
         <v>251</v>
       </c>
       <c r="M38" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="N38" t="s">
         <v>253</v>
       </c>
       <c r="O38" t="s">
-        <v>254</v>
+        <v>362</v>
+      </c>
+      <c r="P38" t="s">
+        <v>251</v>
       </c>
       <c r="Q38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S38" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="T38" t="s">
         <v>46</v>
       </c>
       <c r="U38" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="V38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="X38" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y38" t="s">
-        <v>602</v>
+        <v>215</v>
       </c>
       <c r="Z38" t="s">
         <v>605</v>
@@ -10083,94 +9970,86 @@
       <c r="AC38">
         <v>3</v>
       </c>
-      <c r="AD38" t="s">
+      <c r="AD38"/>
+      <c r="AF38">
+        <v>4.2</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>117</v>
+      </c>
+      <c r="AL38" t="s">
         <v>607</v>
-      </c>
-      <c r="AF38" t="s">
-        <v>390</v>
-      </c>
-      <c r="AG38" t="s">
-        <v>108</v>
-      </c>
-      <c r="AH38" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI38" t="s">
-        <v>133</v>
-      </c>
-      <c r="AL38" t="s">
-        <v>621</v>
       </c>
       <c r="AM38" t="s">
         <v>232</v>
       </c>
       <c r="AN38" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AO38" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="AQ38" t="s">
         <v>164</v>
       </c>
       <c r="AR38" t="s">
-        <v>168</v>
+        <v>239</v>
       </c>
       <c r="AT38" t="s">
+        <v>600</v>
+      </c>
+      <c r="AU38" t="s">
+        <v>602</v>
+      </c>
+      <c r="AV38" t="s">
+        <v>238</v>
+      </c>
+      <c r="AX38" t="s">
         <v>603</v>
-      </c>
-      <c r="AU38" t="s">
-        <v>623</v>
-      </c>
-      <c r="AV38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AW38" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX38" s="11" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="39" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="B39" t="s">
         <v>242</v>
       </c>
       <c r="C39" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="D39" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="E39">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="F39" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="G39" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="H39" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="I39" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="J39" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="K39" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="L39" t="s">
         <v>251</v>
       </c>
       <c r="M39" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="N39" t="s">
         <v>253</v>
@@ -10185,13 +10064,13 @@
         <v>21</v>
       </c>
       <c r="S39" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="T39" t="s">
         <v>46</v>
       </c>
       <c r="U39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V39" t="s">
         <v>43</v>
@@ -10203,7 +10082,7 @@
         <v>215</v>
       </c>
       <c r="Z39" t="s">
-        <v>617</v>
+        <v>532</v>
       </c>
       <c r="AA39">
         <v>2</v>
@@ -10214,29 +10093,29 @@
       <c r="AC39">
         <v>3</v>
       </c>
-      <c r="AD39" t="s">
-        <v>618</v>
-      </c>
-      <c r="AF39">
-        <v>4.2</v>
+      <c r="AD39" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>390</v>
       </c>
       <c r="AG39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AH39" t="s">
-        <v>220</v>
+        <v>118</v>
       </c>
       <c r="AL39" t="s">
-        <v>616</v>
+        <v>531</v>
       </c>
       <c r="AM39" t="s">
         <v>232</v>
       </c>
       <c r="AN39" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AO39" t="s">
-        <v>613</v>
+        <v>487</v>
       </c>
       <c r="AQ39" t="s">
         <v>164</v>
@@ -10244,58 +10123,58 @@
       <c r="AR39" t="s">
         <v>239</v>
       </c>
-      <c r="AT39" t="s">
-        <v>612</v>
-      </c>
       <c r="AU39" t="s">
-        <v>614</v>
+        <v>533</v>
       </c>
       <c r="AV39" t="s">
         <v>238</v>
       </c>
-      <c r="AX39" t="s">
-        <v>615</v>
+      <c r="AW39" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX39" s="11" t="s">
+        <v>534</v>
       </c>
     </row>
-    <row r="40" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A40" s="10" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="B40" t="s">
         <v>242</v>
       </c>
       <c r="C40" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="D40" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="E40">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="F40" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="G40" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="H40" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="I40" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="J40" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="K40" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="L40" t="s">
         <v>251</v>
       </c>
       <c r="M40" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="N40" t="s">
         <v>253</v>
@@ -10310,13 +10189,13 @@
         <v>21</v>
       </c>
       <c r="S40" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="T40" t="s">
         <v>46</v>
       </c>
       <c r="U40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V40" t="s">
         <v>43</v>
@@ -10328,7 +10207,7 @@
         <v>215</v>
       </c>
       <c r="Z40" t="s">
-        <v>617</v>
+        <v>501</v>
       </c>
       <c r="AA40">
         <v>2</v>
@@ -10339,27 +10218,29 @@
       <c r="AC40">
         <v>3</v>
       </c>
-      <c r="AD40"/>
-      <c r="AF40">
-        <v>4.2</v>
+      <c r="AD40" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>390</v>
       </c>
       <c r="AG40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AH40" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AL40" t="s">
-        <v>619</v>
+        <v>531</v>
       </c>
       <c r="AM40" t="s">
         <v>232</v>
       </c>
       <c r="AN40" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AO40" t="s">
-        <v>613</v>
+        <v>487</v>
       </c>
       <c r="AQ40" t="s">
         <v>164</v>
@@ -10367,64 +10248,64 @@
       <c r="AR40" t="s">
         <v>239</v>
       </c>
-      <c r="AT40" t="s">
-        <v>612</v>
-      </c>
       <c r="AU40" t="s">
-        <v>614</v>
+        <v>533</v>
       </c>
       <c r="AV40" t="s">
-        <v>238</v>
-      </c>
-      <c r="AX40" t="s">
-        <v>615</v>
+        <v>199</v>
+      </c>
+      <c r="AW40" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX40" s="11" t="s">
+        <v>536</v>
       </c>
     </row>
-    <row r="41" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A41" s="10" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="B41" t="s">
         <v>242</v>
       </c>
       <c r="C41" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="D41" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="E41">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="F41" t="s">
-        <v>299</v>
+        <v>409</v>
       </c>
       <c r="G41" t="s">
-        <v>387</v>
+        <v>246</v>
       </c>
       <c r="H41" t="s">
-        <v>301</v>
+        <v>247</v>
       </c>
       <c r="I41" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="J41" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="K41" t="s">
-        <v>404</v>
+        <v>251</v>
       </c>
       <c r="L41" t="s">
         <v>251</v>
       </c>
       <c r="M41" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="N41" t="s">
         <v>253</v>
       </c>
       <c r="O41" t="s">
-        <v>362</v>
+        <v>254</v>
       </c>
       <c r="P41" t="s">
         <v>251</v>
@@ -10432,243 +10313,109 @@
       <c r="Q41" t="s">
         <v>21</v>
       </c>
-      <c r="S41" t="s">
-        <v>33</v>
-      </c>
-      <c r="T41" t="s">
-        <v>46</v>
-      </c>
-      <c r="U41" t="s">
-        <v>58</v>
-      </c>
-      <c r="V41" t="s">
-        <v>43</v>
-      </c>
-      <c r="W41" t="s">
-        <v>47</v>
-      </c>
-      <c r="X41" t="s">
-        <v>215</v>
-      </c>
-      <c r="Z41" t="s">
-        <v>532</v>
-      </c>
-      <c r="AA41">
-        <v>2</v>
-      </c>
-      <c r="AB41">
-        <v>2</v>
-      </c>
-      <c r="AC41">
-        <v>3</v>
-      </c>
-      <c r="AD41" s="11" t="s">
-        <v>535</v>
-      </c>
-      <c r="AF41" t="s">
-        <v>390</v>
-      </c>
-      <c r="AG41" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH41" t="s">
-        <v>118</v>
-      </c>
-      <c r="AL41" t="s">
-        <v>531</v>
-      </c>
-      <c r="AM41" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN41" t="s">
-        <v>160</v>
-      </c>
-      <c r="AO41" t="s">
-        <v>487</v>
-      </c>
-      <c r="AQ41" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR41" t="s">
-        <v>239</v>
-      </c>
-      <c r="AU41" t="s">
-        <v>533</v>
-      </c>
-      <c r="AV41" t="s">
-        <v>238</v>
-      </c>
-      <c r="AW41" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX41" s="11" t="s">
-        <v>534</v>
-      </c>
+      <c r="R41" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD41"/>
+      <c r="AX41"/>
     </row>
     <row r="42" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="B42" t="s">
         <v>242</v>
       </c>
       <c r="C42" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="D42" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="E42">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="F42" t="s">
-        <v>299</v>
+        <v>416</v>
       </c>
       <c r="G42" t="s">
-        <v>387</v>
+        <v>417</v>
       </c>
       <c r="H42" t="s">
-        <v>301</v>
+        <v>418</v>
       </c>
       <c r="I42" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c r="J42" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="K42" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
       <c r="L42" t="s">
         <v>251</v>
       </c>
       <c r="M42" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
       <c r="N42" t="s">
         <v>253</v>
       </c>
       <c r="O42" t="s">
-        <v>362</v>
+        <v>254</v>
       </c>
       <c r="P42" t="s">
-        <v>251</v>
+        <v>371</v>
       </c>
       <c r="Q42" t="s">
         <v>21</v>
       </c>
-      <c r="S42" t="s">
-        <v>33</v>
-      </c>
-      <c r="T42" t="s">
-        <v>46</v>
-      </c>
-      <c r="U42" t="s">
-        <v>58</v>
-      </c>
-      <c r="V42" t="s">
-        <v>43</v>
-      </c>
-      <c r="W42" t="s">
-        <v>47</v>
-      </c>
-      <c r="X42" t="s">
-        <v>215</v>
-      </c>
-      <c r="Z42" t="s">
-        <v>501</v>
-      </c>
-      <c r="AA42">
-        <v>2</v>
-      </c>
-      <c r="AB42">
-        <v>2</v>
-      </c>
-      <c r="AC42">
-        <v>3</v>
-      </c>
-      <c r="AD42" s="11" t="s">
-        <v>535</v>
-      </c>
-      <c r="AF42" t="s">
-        <v>390</v>
-      </c>
-      <c r="AG42" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH42" t="s">
-        <v>118</v>
-      </c>
-      <c r="AL42" t="s">
-        <v>531</v>
-      </c>
-      <c r="AM42" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN42" t="s">
-        <v>160</v>
-      </c>
-      <c r="AO42" t="s">
-        <v>487</v>
-      </c>
-      <c r="AQ42" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR42" t="s">
-        <v>239</v>
-      </c>
-      <c r="AU42" t="s">
-        <v>533</v>
-      </c>
-      <c r="AV42" t="s">
-        <v>199</v>
-      </c>
-      <c r="AW42" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX42" s="11" t="s">
-        <v>536</v>
-      </c>
+      <c r="R42" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD42"/>
+      <c r="AX42"/>
     </row>
     <row r="43" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A43" s="10" t="s">
-        <v>406</v>
+        <v>423</v>
       </c>
       <c r="B43" t="s">
         <v>242</v>
       </c>
       <c r="C43" t="s">
-        <v>407</v>
+        <v>424</v>
       </c>
       <c r="D43" t="s">
-        <v>408</v>
+        <v>425</v>
       </c>
       <c r="E43">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="F43" t="s">
-        <v>409</v>
+        <v>426</v>
       </c>
       <c r="G43" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="H43" t="s">
-        <v>247</v>
+        <v>427</v>
       </c>
       <c r="I43" t="s">
-        <v>410</v>
+        <v>428</v>
       </c>
       <c r="J43" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="K43" t="s">
-        <v>251</v>
+        <v>430</v>
       </c>
       <c r="L43" t="s">
         <v>251</v>
       </c>
       <c r="M43" t="s">
-        <v>412</v>
+        <v>431</v>
       </c>
       <c r="N43" t="s">
         <v>253</v>
@@ -10683,50 +10430,50 @@
         <v>21</v>
       </c>
       <c r="R43" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AD43"/>
       <c r="AX43"/>
     </row>
     <row r="44" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A44" s="10" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="B44" t="s">
         <v>242</v>
       </c>
       <c r="C44" t="s">
-        <v>414</v>
+        <v>433</v>
       </c>
       <c r="D44" t="s">
-        <v>415</v>
+        <v>434</v>
       </c>
       <c r="E44">
-        <v>2002</v>
+        <v>1997</v>
       </c>
       <c r="F44" t="s">
         <v>416</v>
       </c>
       <c r="G44" t="s">
-        <v>417</v>
+        <v>435</v>
       </c>
       <c r="H44" t="s">
-        <v>418</v>
+        <v>361</v>
       </c>
       <c r="I44" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="J44" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
       <c r="K44" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="L44" t="s">
         <v>251</v>
       </c>
       <c r="M44" t="s">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="N44" t="s">
         <v>253</v>
@@ -10735,56 +10482,59 @@
         <v>254</v>
       </c>
       <c r="P44" t="s">
-        <v>371</v>
+        <v>251</v>
       </c>
       <c r="Q44" t="s">
         <v>21</v>
       </c>
       <c r="R44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AD44"/>
+      <c r="AF44" t="s">
+        <v>390</v>
+      </c>
       <c r="AX44"/>
     </row>
     <row r="45" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A45" s="10" t="s">
-        <v>423</v>
+        <v>440</v>
       </c>
       <c r="B45" t="s">
         <v>242</v>
       </c>
       <c r="C45" t="s">
-        <v>424</v>
+        <v>441</v>
       </c>
       <c r="D45" t="s">
-        <v>425</v>
+        <v>442</v>
       </c>
       <c r="E45">
-        <v>2001</v>
+        <v>1996</v>
       </c>
       <c r="F45" t="s">
-        <v>426</v>
+        <v>327</v>
       </c>
       <c r="G45" t="s">
-        <v>260</v>
+        <v>443</v>
       </c>
       <c r="H45" t="s">
-        <v>427</v>
+        <v>376</v>
       </c>
       <c r="I45" t="s">
-        <v>428</v>
+        <v>444</v>
       </c>
       <c r="J45" t="s">
-        <v>429</v>
+        <v>445</v>
       </c>
       <c r="K45" t="s">
-        <v>430</v>
+        <v>446</v>
       </c>
       <c r="L45" t="s">
         <v>251</v>
       </c>
       <c r="M45" t="s">
-        <v>431</v>
+        <v>447</v>
       </c>
       <c r="N45" t="s">
         <v>253</v>
@@ -10793,56 +10543,117 @@
         <v>254</v>
       </c>
       <c r="P45" t="s">
-        <v>251</v>
+        <v>315</v>
       </c>
       <c r="Q45" t="s">
         <v>21</v>
       </c>
-      <c r="R45" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD45"/>
-      <c r="AX45"/>
+      <c r="S45" t="s">
+        <v>31</v>
+      </c>
+      <c r="U45" t="s">
+        <v>56</v>
+      </c>
+      <c r="W45" t="s">
+        <v>49</v>
+      </c>
+      <c r="X45" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>581</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>580</v>
+      </c>
+      <c r="AA45">
+        <v>2</v>
+      </c>
+      <c r="AB45">
+        <v>2</v>
+      </c>
+      <c r="AC45">
+        <v>3</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>582</v>
+      </c>
+      <c r="AF45">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG45" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH45" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL45" t="s">
+        <v>610</v>
+      </c>
+      <c r="AM45" t="s">
+        <v>159</v>
+      </c>
+      <c r="AO45" t="s">
+        <v>579</v>
+      </c>
+      <c r="AQ45" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR45" t="s">
+        <v>239</v>
+      </c>
+      <c r="AU45" t="s">
+        <v>612</v>
+      </c>
+      <c r="AV45" t="s">
+        <v>203</v>
+      </c>
+      <c r="AW45" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX45" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="46" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A46" s="10" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="B46" t="s">
         <v>242</v>
       </c>
       <c r="C46" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="D46" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="E46">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="F46" t="s">
-        <v>416</v>
+        <v>327</v>
       </c>
       <c r="G46" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="H46" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="I46" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="J46" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="K46" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="L46" t="s">
         <v>251</v>
       </c>
       <c r="M46" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="N46" t="s">
         <v>253</v>
@@ -10851,19 +10662,77 @@
         <v>254</v>
       </c>
       <c r="P46" t="s">
-        <v>251</v>
+        <v>315</v>
       </c>
       <c r="Q46" t="s">
         <v>21</v>
       </c>
-      <c r="R46" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD46"/>
-      <c r="AF46" t="s">
-        <v>390</v>
-      </c>
-      <c r="AX46"/>
+      <c r="S46" t="s">
+        <v>31</v>
+      </c>
+      <c r="U46" t="s">
+        <v>56</v>
+      </c>
+      <c r="W46" t="s">
+        <v>49</v>
+      </c>
+      <c r="X46" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>581</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>580</v>
+      </c>
+      <c r="AA46">
+        <v>2</v>
+      </c>
+      <c r="AB46">
+        <v>2</v>
+      </c>
+      <c r="AC46">
+        <v>3</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>582</v>
+      </c>
+      <c r="AF46">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL46" t="s">
+        <v>610</v>
+      </c>
+      <c r="AM46" t="s">
+        <v>159</v>
+      </c>
+      <c r="AO46" t="s">
+        <v>579</v>
+      </c>
+      <c r="AQ46" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR46" t="s">
+        <v>239</v>
+      </c>
+      <c r="AU46" t="s">
+        <v>614</v>
+      </c>
+      <c r="AV46" t="s">
+        <v>201</v>
+      </c>
+      <c r="AW46" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX46" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="47" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A47" s="10" t="s">
@@ -10930,10 +10799,10 @@
         <v>113</v>
       </c>
       <c r="Y47" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="Z47" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
       <c r="AA47">
         <v>2</v>
@@ -10945,7 +10814,7 @@
         <v>3</v>
       </c>
       <c r="AD47" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
       <c r="AF47">
         <v>4.4000000000000004</v>
@@ -10957,13 +10826,13 @@
         <v>116</v>
       </c>
       <c r="AL47" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="AM47" t="s">
         <v>159</v>
       </c>
       <c r="AO47" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="AQ47" t="s">
         <v>164</v>
@@ -10972,57 +10841,57 @@
         <v>239</v>
       </c>
       <c r="AU47" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="AV47" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AW47" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AX47" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
     </row>
     <row r="48" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A48" s="10" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="B48" t="s">
         <v>242</v>
       </c>
       <c r="C48" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="D48" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="E48">
-        <v>1996</v>
+        <v>1972</v>
       </c>
       <c r="F48" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="G48" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="H48" t="s">
-        <v>376</v>
+        <v>292</v>
       </c>
       <c r="I48" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="J48" t="s">
-        <v>445</v>
+        <v>348</v>
       </c>
       <c r="K48" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="L48" t="s">
         <v>251</v>
       </c>
       <c r="M48" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="N48" t="s">
         <v>253</v>
@@ -11031,28 +10900,31 @@
         <v>254</v>
       </c>
       <c r="P48" t="s">
-        <v>315</v>
+        <v>251</v>
       </c>
       <c r="Q48" t="s">
         <v>21</v>
       </c>
       <c r="S48" t="s">
-        <v>31</v>
+        <v>24</v>
+      </c>
+      <c r="T48" t="s">
+        <v>46</v>
       </c>
       <c r="U48" t="s">
-        <v>56</v>
+        <v>59</v>
+      </c>
+      <c r="V48" t="s">
+        <v>38</v>
       </c>
       <c r="W48" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="X48" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y48" t="s">
-        <v>592</v>
+        <v>69</v>
       </c>
       <c r="Z48" t="s">
-        <v>591</v>
+        <v>390</v>
       </c>
       <c r="AA48">
         <v>2</v>
@@ -11061,87 +10933,94 @@
         <v>2</v>
       </c>
       <c r="AC48">
-        <v>3</v>
-      </c>
-      <c r="AD48" t="s">
-        <v>593</v>
-      </c>
-      <c r="AF48">
-        <v>4.4000000000000004</v>
+        <v>1</v>
+      </c>
+      <c r="AD48"/>
+      <c r="AE48" t="s">
+        <v>598</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>390</v>
       </c>
       <c r="AG48" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AH48" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="AI48" t="s">
+        <v>147</v>
       </c>
       <c r="AL48" t="s">
-        <v>622</v>
+        <v>583</v>
       </c>
       <c r="AM48" t="s">
-        <v>159</v>
+        <v>232</v>
+      </c>
+      <c r="AN48" t="s">
+        <v>160</v>
       </c>
       <c r="AO48" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="AQ48" t="s">
         <v>164</v>
       </c>
-      <c r="AR48" t="s">
-        <v>239</v>
+      <c r="AT48" t="s">
+        <v>584</v>
       </c>
       <c r="AU48" t="s">
-        <v>626</v>
+        <v>596</v>
       </c>
       <c r="AV48" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AW48" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AX48" t="s">
-        <v>627</v>
+        <v>599</v>
       </c>
     </row>
     <row r="49" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A49" s="10" t="s">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="B49" t="s">
         <v>242</v>
       </c>
       <c r="C49" t="s">
-        <v>441</v>
+        <v>456</v>
       </c>
       <c r="D49" t="s">
-        <v>442</v>
+        <v>457</v>
       </c>
       <c r="E49">
-        <v>1996</v>
+        <v>2011</v>
       </c>
       <c r="F49" t="s">
-        <v>327</v>
+        <v>458</v>
       </c>
       <c r="G49" t="s">
-        <v>443</v>
+        <v>459</v>
       </c>
       <c r="H49" t="s">
-        <v>376</v>
+        <v>301</v>
       </c>
       <c r="I49" t="s">
-        <v>444</v>
+        <v>460</v>
       </c>
       <c r="J49" t="s">
-        <v>445</v>
+        <v>461</v>
       </c>
       <c r="K49" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="L49" t="s">
         <v>251</v>
       </c>
       <c r="M49" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
       <c r="N49" t="s">
         <v>253</v>
@@ -11150,28 +11029,34 @@
         <v>254</v>
       </c>
       <c r="P49" t="s">
-        <v>315</v>
+        <v>464</v>
       </c>
       <c r="Q49" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S49" t="s">
-        <v>31</v>
+        <v>26</v>
+      </c>
+      <c r="T49" t="s">
+        <v>44</v>
       </c>
       <c r="U49" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="V49" t="s">
+        <v>44</v>
       </c>
       <c r="W49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X49" t="s">
         <v>113</v>
       </c>
       <c r="Y49" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="Z49" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="AA49">
         <v>2</v>
@@ -11183,25 +11068,34 @@
         <v>3</v>
       </c>
       <c r="AD49" t="s">
-        <v>593</v>
-      </c>
-      <c r="AF49">
-        <v>4.4000000000000004</v>
+        <v>589</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>390</v>
       </c>
       <c r="AG49" t="s">
         <v>107</v>
       </c>
       <c r="AH49" t="s">
-        <v>116</v>
+        <v>120</v>
+      </c>
+      <c r="AI49" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ49" t="s">
+        <v>113</v>
       </c>
       <c r="AL49" t="s">
+        <v>587</v>
+      </c>
+      <c r="AM49" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN49" t="s">
+        <v>161</v>
+      </c>
+      <c r="AO49" t="s">
         <v>622</v>
-      </c>
-      <c r="AM49" t="s">
-        <v>159</v>
-      </c>
-      <c r="AO49" t="s">
-        <v>590</v>
       </c>
       <c r="AQ49" t="s">
         <v>164</v>
@@ -11209,280 +11103,23 @@
       <c r="AR49" t="s">
         <v>239</v>
       </c>
+      <c r="AS49" t="s">
+        <v>176</v>
+      </c>
+      <c r="AT49" t="s">
+        <v>621</v>
+      </c>
       <c r="AU49" t="s">
-        <v>628</v>
+        <v>588</v>
       </c>
       <c r="AV49" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="AW49" t="s">
         <v>209</v>
       </c>
-      <c r="AX49" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="50" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A50" s="10" t="s">
-        <v>448</v>
-      </c>
-      <c r="B50" t="s">
-        <v>242</v>
-      </c>
-      <c r="C50" t="s">
-        <v>449</v>
-      </c>
-      <c r="D50" t="s">
-        <v>450</v>
-      </c>
-      <c r="E50">
-        <v>1972</v>
-      </c>
-      <c r="F50" t="s">
-        <v>309</v>
-      </c>
-      <c r="G50" t="s">
-        <v>451</v>
-      </c>
-      <c r="H50" t="s">
-        <v>292</v>
-      </c>
-      <c r="I50" t="s">
-        <v>452</v>
-      </c>
-      <c r="J50" t="s">
-        <v>348</v>
-      </c>
-      <c r="K50" t="s">
-        <v>453</v>
-      </c>
-      <c r="L50" t="s">
-        <v>251</v>
-      </c>
-      <c r="M50" t="s">
-        <v>454</v>
-      </c>
-      <c r="N50" t="s">
-        <v>253</v>
-      </c>
-      <c r="O50" t="s">
-        <v>254</v>
-      </c>
-      <c r="P50" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>21</v>
-      </c>
-      <c r="S50" t="s">
-        <v>24</v>
-      </c>
-      <c r="T50" t="s">
-        <v>46</v>
-      </c>
-      <c r="U50" t="s">
-        <v>59</v>
-      </c>
-      <c r="V50" t="s">
-        <v>38</v>
-      </c>
-      <c r="W50" t="s">
-        <v>47</v>
-      </c>
-      <c r="X50" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z50" t="s">
-        <v>390</v>
-      </c>
-      <c r="AA50">
-        <v>2</v>
-      </c>
-      <c r="AB50">
-        <v>2</v>
-      </c>
-      <c r="AC50">
-        <v>1</v>
-      </c>
-      <c r="AD50"/>
-      <c r="AE50" t="s">
-        <v>610</v>
-      </c>
-      <c r="AF50" t="s">
-        <v>390</v>
-      </c>
-      <c r="AG50" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH50" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI50" t="s">
-        <v>147</v>
-      </c>
-      <c r="AL50" t="s">
-        <v>594</v>
-      </c>
-      <c r="AM50" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN50" t="s">
-        <v>160</v>
-      </c>
-      <c r="AO50" t="s">
-        <v>609</v>
-      </c>
-      <c r="AQ50" t="s">
-        <v>164</v>
-      </c>
-      <c r="AT50" t="s">
-        <v>595</v>
-      </c>
-      <c r="AU50" t="s">
-        <v>608</v>
-      </c>
-      <c r="AV50" t="s">
-        <v>199</v>
-      </c>
-      <c r="AW50" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX50" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="51" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A51" s="10" t="s">
-        <v>455</v>
-      </c>
-      <c r="B51" t="s">
-        <v>242</v>
-      </c>
-      <c r="C51" t="s">
-        <v>456</v>
-      </c>
-      <c r="D51" t="s">
-        <v>457</v>
-      </c>
-      <c r="E51">
-        <v>2011</v>
-      </c>
-      <c r="F51" t="s">
-        <v>458</v>
-      </c>
-      <c r="G51" t="s">
-        <v>459</v>
-      </c>
-      <c r="H51" t="s">
-        <v>301</v>
-      </c>
-      <c r="I51" t="s">
-        <v>460</v>
-      </c>
-      <c r="J51" t="s">
-        <v>461</v>
-      </c>
-      <c r="K51" t="s">
-        <v>462</v>
-      </c>
-      <c r="L51" t="s">
-        <v>251</v>
-      </c>
-      <c r="M51" t="s">
-        <v>463</v>
-      </c>
-      <c r="N51" t="s">
-        <v>253</v>
-      </c>
-      <c r="O51" t="s">
-        <v>254</v>
-      </c>
-      <c r="P51" t="s">
-        <v>464</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>22</v>
-      </c>
-      <c r="S51" t="s">
-        <v>26</v>
-      </c>
-      <c r="T51" t="s">
-        <v>44</v>
-      </c>
-      <c r="U51" t="s">
-        <v>55</v>
-      </c>
-      <c r="V51" t="s">
-        <v>44</v>
-      </c>
-      <c r="W51" t="s">
-        <v>48</v>
-      </c>
-      <c r="X51" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y51" t="s">
-        <v>596</v>
-      </c>
-      <c r="Z51" t="s">
-        <v>597</v>
-      </c>
-      <c r="AA51">
-        <v>2</v>
-      </c>
-      <c r="AB51">
-        <v>2</v>
-      </c>
-      <c r="AC51">
-        <v>3</v>
-      </c>
-      <c r="AD51" t="s">
-        <v>601</v>
-      </c>
-      <c r="AF51" t="s">
-        <v>390</v>
-      </c>
-      <c r="AG51" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH51" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI51" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ51" t="s">
-        <v>113</v>
-      </c>
-      <c r="AL51" t="s">
-        <v>598</v>
-      </c>
-      <c r="AM51" t="s">
-        <v>159</v>
-      </c>
-      <c r="AO51" t="s">
-        <v>600</v>
-      </c>
-      <c r="AQ51" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR51" t="s">
-        <v>239</v>
-      </c>
-      <c r="AS51" t="s">
-        <v>176</v>
-      </c>
-      <c r="AU51" t="s">
-        <v>599</v>
-      </c>
-      <c r="AV51" t="s">
-        <v>213</v>
-      </c>
-      <c r="AW51" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX51" s="11" t="s">
-        <v>632</v>
+      <c r="AX49" s="11" t="s">
+        <v>620</v>
       </c>
     </row>
   </sheetData>
@@ -11503,7 +11140,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ3:AQ1048576" xr:uid="{1D650BBF-FD60-42B1-B997-0927D010D36F}">
       <formula1>Fishery_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR3:AS1048576 AN3:AN1048576 AI3:AJ1048576" xr:uid="{17784AA4-6490-40EE-AF59-791F00291349}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI3:AJ1048576 AN3:AN1048576 AR3:AS1048576" xr:uid="{17784AA4-6490-40EE-AF59-791F00291349}">
       <formula1>INDIRECT(AH3)</formula1>
     </dataValidation>
   </dataValidations>
@@ -11517,7 +11154,7 @@
           <x14:formula1>
             <xm:f>Validation!$R$3:$R$9</xm:f>
           </x14:formula1>
-          <xm:sqref>R52:R1048576 R3:R9 R12 R14 R23:R26 R43:R49</xm:sqref>
+          <xm:sqref>R50:R1048576 R3:R9 R12 R14 R21:R24 R41:R47</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FB66A4B2-AC63-401A-912C-59AB3AFB17C3}">
           <x14:formula1>
@@ -11619,12 +11256,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="19" max="19" width="32.08984375" customWidth="1"/>
+    <col min="19" max="19" width="32.1796875" customWidth="1"/>
     <col min="23" max="23" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="25" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="25" customWidth="1"/>
-    <col min="32" max="32" width="14.6328125" customWidth="1"/>
-    <col min="33" max="33" width="26.36328125" customWidth="1"/>
+    <col min="32" max="32" width="14.54296875" customWidth="1"/>
+    <col min="33" max="33" width="26.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:49" x14ac:dyDescent="0.35">
@@ -12690,32 +12327,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.453125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.54296875" customWidth="1"/>
-    <col min="9" max="9" width="17.36328125" customWidth="1"/>
-    <col min="10" max="10" width="14.6328125" customWidth="1"/>
+    <col min="9" max="9" width="17.453125" customWidth="1"/>
+    <col min="10" max="10" width="14.54296875" customWidth="1"/>
     <col min="13" max="13" width="14.453125" customWidth="1"/>
     <col min="15" max="15" width="25" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="26.54296875" customWidth="1"/>
     <col min="17" max="17" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.90625" customWidth="1"/>
-    <col min="19" max="19" width="17.6328125" customWidth="1"/>
-    <col min="20" max="20" width="19.36328125" customWidth="1"/>
-    <col min="21" max="21" width="17.6328125" customWidth="1"/>
-    <col min="22" max="22" width="18.6328125" customWidth="1"/>
-    <col min="25" max="25" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.81640625" customWidth="1"/>
+    <col min="19" max="19" width="17.54296875" customWidth="1"/>
+    <col min="20" max="20" width="19.453125" customWidth="1"/>
+    <col min="21" max="21" width="17.54296875" customWidth="1"/>
+    <col min="22" max="22" width="18.54296875" customWidth="1"/>
+    <col min="25" max="25" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="15" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="28.54296875" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="14.453125" customWidth="1"/>
-    <col min="29" max="29" width="15.36328125" customWidth="1"/>
-    <col min="30" max="30" width="26.36328125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.6328125" customWidth="1"/>
+    <col min="29" max="29" width="15.453125" customWidth="1"/>
+    <col min="30" max="30" width="26.453125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.54296875" customWidth="1"/>
     <col min="32" max="32" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13598,14 +13235,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="abe771af6212f3f785694fa6f4ad1686">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="125e2131eddd38cce17ebc9527d7a9d7">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="553f2d8843fd2aa64b81f9e8c63a6619">
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -13717,6 +13348,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
   <ds:schemaRefs>
@@ -13726,22 +13363,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{296C6747-B437-4BFD-90D3-AF1F913D3FA0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD9F6DFA-3CE5-417E-90E8-A9FD71AA783B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -13754,4 +13376,19 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Bluemel.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Bluemel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224BCAA0-1CCC-4BDE-9F37-8428A73D816F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02BC8319-B459-4178-9E4C-146B54BB8C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4598,9 +4598,6 @@
     <t>Our results suggest that as the tickler chains pass through surface layers of the sediment, they dig out of expose entire brittlestars increasing their susceptability to predation by dab. This would explain the large increases in oral discs in the diets of dab. we believe this is the first study to demonstrate that dab increase their intake of food by feeding in areas disturbed by fishing activities.</t>
   </si>
   <si>
-    <t>trawling activity at different breeding stages (overlapped with egg laying  in 1994, initiated during hatching in 1995)</t>
-  </si>
-  <si>
     <t>contingency tables _ G-test statistic _ Mann-Whitney U-test _ ANOVA</t>
   </si>
   <si>
@@ -4730,6 +4727,9 @@
   </si>
   <si>
     <t>exposure to air after trawling disturbance and re-immersion (discarding) in different seasons</t>
+  </si>
+  <si>
+    <t>trawling activity at different breeding stages</t>
   </si>
 </sst>
 </file>
@@ -5372,10 +5372,10 @@
   <dimension ref="A1:AX49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="AG15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AW15" sqref="AW15"/>
+      <selection pane="bottomRight" activeCell="AO53" sqref="AO53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8828,7 +8828,7 @@
         <v>144</v>
       </c>
       <c r="AL29" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AM29" t="s">
         <v>159</v>
@@ -9307,10 +9307,10 @@
         <v>113</v>
       </c>
       <c r="Y33" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="Z33" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AA33">
         <v>2</v>
@@ -9322,7 +9322,7 @@
         <v>3</v>
       </c>
       <c r="AD33" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AF33" t="s">
         <v>390</v>
@@ -9337,7 +9337,7 @@
         <v>133</v>
       </c>
       <c r="AL33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AM33" t="s">
         <v>232</v>
@@ -9346,7 +9346,7 @@
         <v>160</v>
       </c>
       <c r="AO33" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AQ33" t="s">
         <v>164</v>
@@ -9355,10 +9355,10 @@
         <v>168</v>
       </c>
       <c r="AT33" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AU33" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AV33" t="s">
         <v>213</v>
@@ -9367,7 +9367,7 @@
         <v>209</v>
       </c>
       <c r="AX33" s="11" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="34" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -9438,10 +9438,10 @@
         <v>113</v>
       </c>
       <c r="Y34" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="Z34" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AA34">
         <v>2</v>
@@ -9453,7 +9453,7 @@
         <v>3</v>
       </c>
       <c r="AD34" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AF34" t="s">
         <v>390</v>
@@ -9468,7 +9468,7 @@
         <v>133</v>
       </c>
       <c r="AL34" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AM34" t="s">
         <v>232</v>
@@ -9477,7 +9477,7 @@
         <v>160</v>
       </c>
       <c r="AO34" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AQ34" t="s">
         <v>164</v>
@@ -9486,10 +9486,10 @@
         <v>168</v>
       </c>
       <c r="AT34" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AU34" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AV34" t="s">
         <v>212</v>
@@ -9498,7 +9498,7 @@
         <v>209</v>
       </c>
       <c r="AX34" s="11" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="35" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -9569,10 +9569,10 @@
         <v>113</v>
       </c>
       <c r="Y35" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="Z35" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AA35">
         <v>2</v>
@@ -9584,7 +9584,7 @@
         <v>3</v>
       </c>
       <c r="AD35" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AF35" t="s">
         <v>390</v>
@@ -9599,7 +9599,7 @@
         <v>133</v>
       </c>
       <c r="AL35" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AM35" t="s">
         <v>232</v>
@@ -9608,7 +9608,7 @@
         <v>160</v>
       </c>
       <c r="AO35" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AQ35" t="s">
         <v>164</v>
@@ -9617,10 +9617,10 @@
         <v>168</v>
       </c>
       <c r="AT35" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AU35" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AV35" t="s">
         <v>213</v>
@@ -9629,7 +9629,7 @@
         <v>209</v>
       </c>
       <c r="AX35" s="11" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="36" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -9700,10 +9700,10 @@
         <v>113</v>
       </c>
       <c r="Y36" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="Z36" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AA36">
         <v>2</v>
@@ -9715,7 +9715,7 @@
         <v>3</v>
       </c>
       <c r="AD36" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AF36" t="s">
         <v>390</v>
@@ -9730,7 +9730,7 @@
         <v>133</v>
       </c>
       <c r="AL36" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AM36" t="s">
         <v>232</v>
@@ -9739,7 +9739,7 @@
         <v>160</v>
       </c>
       <c r="AO36" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AQ36" t="s">
         <v>164</v>
@@ -9748,10 +9748,10 @@
         <v>168</v>
       </c>
       <c r="AT36" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AU36" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AV36" t="s">
         <v>212</v>
@@ -9760,7 +9760,7 @@
         <v>209</v>
       </c>
       <c r="AX36" s="11" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="37" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -9834,7 +9834,7 @@
         <v>215</v>
       </c>
       <c r="Z37" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AA37">
         <v>2</v>
@@ -9846,7 +9846,7 @@
         <v>3</v>
       </c>
       <c r="AD37" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AF37">
         <v>4.2</v>
@@ -9858,7 +9858,7 @@
         <v>220</v>
       </c>
       <c r="AL37" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AM37" t="s">
         <v>232</v>
@@ -9867,7 +9867,7 @@
         <v>162</v>
       </c>
       <c r="AO37" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AQ37" t="s">
         <v>164</v>
@@ -9876,16 +9876,16 @@
         <v>239</v>
       </c>
       <c r="AT37" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AU37" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AV37" t="s">
         <v>238</v>
       </c>
       <c r="AX37" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="38" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -9959,7 +9959,7 @@
         <v>215</v>
       </c>
       <c r="Z38" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AA38">
         <v>2</v>
@@ -9981,7 +9981,7 @@
         <v>117</v>
       </c>
       <c r="AL38" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AM38" t="s">
         <v>232</v>
@@ -9990,7 +9990,7 @@
         <v>162</v>
       </c>
       <c r="AO38" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AQ38" t="s">
         <v>164</v>
@@ -9999,16 +9999,16 @@
         <v>239</v>
       </c>
       <c r="AT38" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AU38" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AV38" t="s">
         <v>238</v>
       </c>
       <c r="AX38" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="39" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -10561,10 +10561,10 @@
         <v>113</v>
       </c>
       <c r="Y45" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="Z45" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AA45">
         <v>2</v>
@@ -10576,7 +10576,7 @@
         <v>3</v>
       </c>
       <c r="AD45" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AF45">
         <v>4.4000000000000004</v>
@@ -10588,13 +10588,13 @@
         <v>116</v>
       </c>
       <c r="AL45" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AM45" t="s">
         <v>159</v>
       </c>
       <c r="AO45" t="s">
-        <v>579</v>
+        <v>622</v>
       </c>
       <c r="AQ45" t="s">
         <v>164</v>
@@ -10603,7 +10603,7 @@
         <v>239</v>
       </c>
       <c r="AU45" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AV45" t="s">
         <v>203</v>
@@ -10612,7 +10612,7 @@
         <v>207</v>
       </c>
       <c r="AX45" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="46" spans="1:50" x14ac:dyDescent="0.35">
@@ -10680,10 +10680,10 @@
         <v>113</v>
       </c>
       <c r="Y46" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="Z46" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AA46">
         <v>2</v>
@@ -10695,7 +10695,7 @@
         <v>3</v>
       </c>
       <c r="AD46" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AF46">
         <v>4.4000000000000004</v>
@@ -10707,13 +10707,13 @@
         <v>116</v>
       </c>
       <c r="AL46" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AM46" t="s">
         <v>159</v>
       </c>
       <c r="AO46" t="s">
-        <v>579</v>
+        <v>622</v>
       </c>
       <c r="AQ46" t="s">
         <v>164</v>
@@ -10722,7 +10722,7 @@
         <v>239</v>
       </c>
       <c r="AU46" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AV46" t="s">
         <v>201</v>
@@ -10731,7 +10731,7 @@
         <v>207</v>
       </c>
       <c r="AX46" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="47" spans="1:50" x14ac:dyDescent="0.35">
@@ -10799,10 +10799,10 @@
         <v>113</v>
       </c>
       <c r="Y47" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="Z47" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AA47">
         <v>2</v>
@@ -10814,7 +10814,7 @@
         <v>3</v>
       </c>
       <c r="AD47" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AF47">
         <v>4.4000000000000004</v>
@@ -10826,13 +10826,13 @@
         <v>116</v>
       </c>
       <c r="AL47" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AM47" t="s">
         <v>159</v>
       </c>
       <c r="AO47" t="s">
-        <v>579</v>
+        <v>622</v>
       </c>
       <c r="AQ47" t="s">
         <v>164</v>
@@ -10841,7 +10841,7 @@
         <v>239</v>
       </c>
       <c r="AU47" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AV47" t="s">
         <v>201</v>
@@ -10850,7 +10850,7 @@
         <v>209</v>
       </c>
       <c r="AX47" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="48" spans="1:50" x14ac:dyDescent="0.35">
@@ -10937,7 +10937,7 @@
       </c>
       <c r="AD48"/>
       <c r="AE48" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AF48" t="s">
         <v>390</v>
@@ -10952,7 +10952,7 @@
         <v>147</v>
       </c>
       <c r="AL48" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AM48" t="s">
         <v>232</v>
@@ -10961,16 +10961,16 @@
         <v>160</v>
       </c>
       <c r="AO48" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AQ48" t="s">
         <v>164</v>
       </c>
       <c r="AT48" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AU48" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AV48" t="s">
         <v>199</v>
@@ -10979,7 +10979,7 @@
         <v>209</v>
       </c>
       <c r="AX48" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="49" spans="1:50" x14ac:dyDescent="0.35">
@@ -11053,10 +11053,10 @@
         <v>113</v>
       </c>
       <c r="Y49" t="s">
+        <v>584</v>
+      </c>
+      <c r="Z49" t="s">
         <v>585</v>
-      </c>
-      <c r="Z49" t="s">
-        <v>586</v>
       </c>
       <c r="AA49">
         <v>2</v>
@@ -11068,7 +11068,7 @@
         <v>3</v>
       </c>
       <c r="AD49" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AF49" t="s">
         <v>390</v>
@@ -11086,7 +11086,7 @@
         <v>113</v>
       </c>
       <c r="AL49" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="AM49" t="s">
         <v>232</v>
@@ -11095,7 +11095,7 @@
         <v>161</v>
       </c>
       <c r="AO49" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AQ49" t="s">
         <v>164</v>
@@ -11107,10 +11107,10 @@
         <v>176</v>
       </c>
       <c r="AT49" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AU49" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AV49" t="s">
         <v>213</v>
@@ -11119,7 +11119,7 @@
         <v>209</v>
       </c>
       <c r="AX49" s="11" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
   </sheetData>
@@ -13226,12 +13226,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13349,15 +13346,25 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -13379,16 +13386,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Bluemel.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Bluemel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02BC8319-B459-4178-9E4C-146B54BB8C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00231874-511E-47E9-A1CF-B63600A67CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Drop-down overview" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$50</definedName>
     <definedName name="Benthic_epifauna">Validation!$AI$32:$AI$35</definedName>
     <definedName name="Benthos">Validation!$AN$24:$AN$25</definedName>
     <definedName name="Catch_and_bycatch">Validation!$AM$15:$AM$17</definedName>
@@ -72,6 +72,7 @@
     <author>tc={3BF0D208-47C5-4D4B-9CDC-A9DD6D877E78}</author>
     <author>tc={E7968050-7AC4-4A16-A1C2-3611A550242A}</author>
     <author>tc={611739EA-8C72-4C05-8465-123915D7F861}</author>
+    <author>tc={0D8A73F8-F5E4-4E52-8AEC-BF8450A24B7C}</author>
     <author>tc={E0E1F796-D3BC-404E-A30F-39BF25EBDA28}</author>
     <author>tc={1EF740BF-27A5-4E0B-977E-8B93DA623BD7}</author>
     <author>tc={4A27027B-1168-496E-8B13-CD1978DAFC96}</author>
@@ -1311,7 +1312,7 @@
     pontoon trap fitted with 2 types of seal exclusion devices (diamond mesh and square mesh) at entrance of middle chamber, and control with no SED</t>
       </text>
     </comment>
-    <comment ref="V11" authorId="8" shapeId="0" xr:uid="{E0E1F796-D3BC-404E-A30F-39BF25EBDA28}">
+    <comment ref="V11" authorId="8" shapeId="0" xr:uid="{0D8A73F8-F5E4-4E52-8AEC-BF8450A24B7C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1319,7 +1320,15 @@
     no indication of distrance between deployments</t>
       </text>
     </comment>
-    <comment ref="R12" authorId="9" shapeId="0" xr:uid="{1EF740BF-27A5-4E0B-977E-8B93DA623BD7}">
+    <comment ref="V12" authorId="9" shapeId="0" xr:uid="{E0E1F796-D3BC-404E-A30F-39BF25EBDA28}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    no indication of distrance between deployments</t>
+      </text>
+    </comment>
+    <comment ref="R13" authorId="10" shapeId="0" xr:uid="{1EF740BF-27A5-4E0B-977E-8B93DA623BD7}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1327,7 +1336,7 @@
     this study looks at how pingers can reduce depredation and the impact of dolphins on catch, physical damage to gears and economic damage, not quantifying bycatch of or impact on dolphins</t>
       </text>
     </comment>
-    <comment ref="R14" authorId="10" shapeId="0" xr:uid="{4A27027B-1168-496E-8B13-CD1978DAFC96}">
+    <comment ref="R15" authorId="11" shapeId="0" xr:uid="{4A27027B-1168-496E-8B13-CD1978DAFC96}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1335,7 +1344,7 @@
     study aiming to reduce seal depredation and damage to fishing gear, but not impact on seals</t>
       </text>
     </comment>
-    <comment ref="AW15" authorId="11" shapeId="0" xr:uid="{896A940F-A0F7-4FF3-AC4C-E43C1D2C49CE}">
+    <comment ref="AW16" authorId="12" shapeId="0" xr:uid="{896A940F-A0F7-4FF3-AC4C-E43C1D2C49CE}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1343,7 +1352,7 @@
     not sure how to answer this for SIMPER % dissimilarity analyses</t>
       </text>
     </comment>
-    <comment ref="U16" authorId="12" shapeId="0" xr:uid="{69572EBE-4693-4845-933B-DC6BECF12705}">
+    <comment ref="U17" authorId="13" shapeId="0" xr:uid="{69572EBE-4693-4845-933B-DC6BECF12705}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1351,7 +1360,7 @@
     conclusions drawn at multiple temporal scales - 11yrs is the longest</t>
       </text>
     </comment>
-    <comment ref="AV16" authorId="13" shapeId="0" xr:uid="{9D496DF3-D2B4-4A43-AC12-7E0B2D2CF8F0}">
+    <comment ref="AV17" authorId="14" shapeId="0" xr:uid="{9D496DF3-D2B4-4A43-AC12-7E0B2D2CF8F0}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1359,7 +1368,7 @@
     community</t>
       </text>
     </comment>
-    <comment ref="U17" authorId="14" shapeId="0" xr:uid="{17355E08-798F-4F45-858A-F25954AE3C84}">
+    <comment ref="U18" authorId="15" shapeId="0" xr:uid="{17355E08-798F-4F45-858A-F25954AE3C84}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1367,7 +1376,7 @@
     conclusions drawn at multiple temporal scales - 11yrs is the longest</t>
       </text>
     </comment>
-    <comment ref="AV17" authorId="15" shapeId="0" xr:uid="{6929C21F-094B-4808-8B4E-1B33E7A4701C}">
+    <comment ref="AV18" authorId="16" shapeId="0" xr:uid="{6929C21F-094B-4808-8B4E-1B33E7A4701C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1375,7 +1384,7 @@
     community</t>
       </text>
     </comment>
-    <comment ref="U18" authorId="16" shapeId="0" xr:uid="{E6A9A326-217C-4898-80F8-7CD55BB6DEEF}">
+    <comment ref="U19" authorId="17" shapeId="0" xr:uid="{E6A9A326-217C-4898-80F8-7CD55BB6DEEF}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1383,7 +1392,7 @@
     conclusions drawn at multiple temporal scales - 11yrs is the longest</t>
       </text>
     </comment>
-    <comment ref="AV18" authorId="17" shapeId="0" xr:uid="{88E79990-A62D-4722-ACFD-92973EBB279B}">
+    <comment ref="AV19" authorId="18" shapeId="0" xr:uid="{88E79990-A62D-4722-ACFD-92973EBB279B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1391,7 +1400,7 @@
     community</t>
       </text>
     </comment>
-    <comment ref="U19" authorId="18" shapeId="0" xr:uid="{410074BB-2A10-4A00-B590-372121EDB157}">
+    <comment ref="U20" authorId="19" shapeId="0" xr:uid="{410074BB-2A10-4A00-B590-372121EDB157}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1399,7 +1408,7 @@
     conclusions drawn at multiple temporal scales - 11yrs is the longest</t>
       </text>
     </comment>
-    <comment ref="AV19" authorId="19" shapeId="0" xr:uid="{677E21BE-76FB-4376-9080-9A6FB650A045}">
+    <comment ref="AV20" authorId="20" shapeId="0" xr:uid="{677E21BE-76FB-4376-9080-9A6FB650A045}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1407,7 +1416,7 @@
     community</t>
       </text>
     </comment>
-    <comment ref="U20" authorId="20" shapeId="0" xr:uid="{E6BD52E7-A7E1-4132-A2C0-978A9903971E}">
+    <comment ref="U21" authorId="21" shapeId="0" xr:uid="{E6BD52E7-A7E1-4132-A2C0-978A9903971E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1415,7 +1424,7 @@
     conclusions drawn at multiple temporal scales - 11yrs is the longest</t>
       </text>
     </comment>
-    <comment ref="AV20" authorId="21" shapeId="0" xr:uid="{3D685687-21C0-4EA4-B6AD-065DBB750A9C}">
+    <comment ref="AV21" authorId="22" shapeId="0" xr:uid="{3D685687-21C0-4EA4-B6AD-065DBB750A9C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1423,7 +1432,7 @@
     community</t>
       </text>
     </comment>
-    <comment ref="AS25" authorId="22" shapeId="0" xr:uid="{2C4E279E-5FF2-4AB6-B498-F4090DBBA0E8}">
+    <comment ref="AS26" authorId="23" shapeId="0" xr:uid="{2C4E279E-5FF2-4AB6-B498-F4090DBBA0E8}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1431,7 +1440,7 @@
     spring-toothed, Newhaven-type scallop dredges?</t>
       </text>
     </comment>
-    <comment ref="W26" authorId="23" shapeId="0" xr:uid="{2180B62C-9FF4-4D06-9655-E14C6EB79F6E}">
+    <comment ref="W27" authorId="24" shapeId="0" xr:uid="{2180B62C-9FF4-4D06-9655-E14C6EB79F6E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1439,7 +1448,7 @@
     does not state, only that between 4 and 20 transects carried out per year</t>
       </text>
     </comment>
-    <comment ref="AS26" authorId="24" shapeId="0" xr:uid="{B1643C2D-EFEA-48DA-BA3C-D8C9AC01BA07}">
+    <comment ref="AS27" authorId="25" shapeId="0" xr:uid="{B1643C2D-EFEA-48DA-BA3C-D8C9AC01BA07}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1447,7 +1456,7 @@
     spring-toothed, Newhaven-type scallop dredges?</t>
       </text>
     </comment>
-    <comment ref="AW26" authorId="25" shapeId="0" xr:uid="{213E6476-B61F-43C2-9A39-F100276A1870}">
+    <comment ref="AW27" authorId="26" shapeId="0" xr:uid="{213E6476-B61F-43C2-9A39-F100276A1870}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1455,7 +1464,7 @@
     higher density of scallops in closed area (not-significant</t>
       </text>
     </comment>
-    <comment ref="W27" authorId="26" shapeId="0" xr:uid="{265B2087-59BD-4F8A-ACE7-82F6B9EEB1B4}">
+    <comment ref="W28" authorId="27" shapeId="0" xr:uid="{265B2087-59BD-4F8A-ACE7-82F6B9EEB1B4}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1463,7 +1472,7 @@
     does not state, only that 3 tows of scallop dredge outside closed area were compared to data from illegal fishing event inside closed area in April 2000</t>
       </text>
     </comment>
-    <comment ref="AS27" authorId="27" shapeId="0" xr:uid="{80879F60-554F-4919-B3B4-51914927EA17}">
+    <comment ref="AS28" authorId="28" shapeId="0" xr:uid="{80879F60-554F-4919-B3B4-51914927EA17}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1471,7 +1480,7 @@
     spring-toothed, Newhaven-type scallop dredges?</t>
       </text>
     </comment>
-    <comment ref="AW27" authorId="28" shapeId="0" xr:uid="{87EB4814-791C-4151-897C-220F10B66323}">
+    <comment ref="AW28" authorId="29" shapeId="0" xr:uid="{87EB4814-791C-4151-897C-220F10B66323}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1479,7 +1488,7 @@
     scallops older in closed area</t>
       </text>
     </comment>
-    <comment ref="V30" authorId="29" shapeId="0" xr:uid="{8F605331-8FA3-4091-906F-6572B9E08CBE}">
+    <comment ref="V31" authorId="30" shapeId="0" xr:uid="{8F605331-8FA3-4091-906F-6572B9E08CBE}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1487,7 +1496,7 @@
     no indication of this</t>
       </text>
     </comment>
-    <comment ref="AR30" authorId="30" shapeId="0" xr:uid="{CD3A6164-943A-4E6E-9BF5-5FE09891CCB9}">
+    <comment ref="AR31" authorId="31" shapeId="0" xr:uid="{CD3A6164-943A-4E6E-9BF5-5FE09891CCB9}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1495,7 +1504,7 @@
     rapido similar to beamtrawl</t>
       </text>
     </comment>
-    <comment ref="V31" authorId="31" shapeId="0" xr:uid="{0DBA107E-6F54-47E4-99BD-BD727CABFC0F}">
+    <comment ref="V32" authorId="32" shapeId="0" xr:uid="{0DBA107E-6F54-47E4-99BD-BD727CABFC0F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1503,7 +1512,7 @@
     no indication of this</t>
       </text>
     </comment>
-    <comment ref="AS31" authorId="32" shapeId="0" xr:uid="{CC0A6BC4-04EF-4A83-B009-E37BE3CA69B7}">
+    <comment ref="AS32" authorId="33" shapeId="0" xr:uid="{CC0A6BC4-04EF-4A83-B009-E37BE3CA69B7}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1511,7 +1520,7 @@
     hydrolic dredge</t>
       </text>
     </comment>
-    <comment ref="AV32" authorId="33" shapeId="0" xr:uid="{83BF076C-EF3A-4FF6-92DF-06C2F3DA57D1}">
+    <comment ref="AV33" authorId="34" shapeId="0" xr:uid="{83BF076C-EF3A-4FF6-92DF-06C2F3DA57D1}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1519,7 +1528,7 @@
     Diet</t>
       </text>
     </comment>
-    <comment ref="AG33" authorId="34" shapeId="0" xr:uid="{FDF1D696-0CED-4B50-9488-28F563E535BB}">
+    <comment ref="AG34" authorId="35" shapeId="0" xr:uid="{FDF1D696-0CED-4B50-9488-28F563E535BB}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1527,7 +1536,7 @@
     both field and lab study</t>
       </text>
     </comment>
-    <comment ref="AG34" authorId="35" shapeId="0" xr:uid="{3E7E8A63-FE8F-485C-B7B0-D651CC82B2E5}">
+    <comment ref="AG35" authorId="36" shapeId="0" xr:uid="{3E7E8A63-FE8F-485C-B7B0-D651CC82B2E5}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1535,7 +1544,7 @@
     both field and lab study</t>
       </text>
     </comment>
-    <comment ref="AG35" authorId="36" shapeId="0" xr:uid="{1F73A643-4889-4B00-BF17-FD191EDC437F}">
+    <comment ref="AG36" authorId="37" shapeId="0" xr:uid="{1F73A643-4889-4B00-BF17-FD191EDC437F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1543,7 +1552,7 @@
     both field and lab study</t>
       </text>
     </comment>
-    <comment ref="AG36" authorId="37" shapeId="0" xr:uid="{C13FAB98-20DA-4332-A868-0381F8EB51A5}">
+    <comment ref="AG37" authorId="38" shapeId="0" xr:uid="{C13FAB98-20DA-4332-A868-0381F8EB51A5}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1551,7 +1560,7 @@
     both field and lab study</t>
       </text>
     </comment>
-    <comment ref="AR37" authorId="38" shapeId="0" xr:uid="{8B01BB42-BD50-4A2B-91AE-BFF1AE1CC4A6}">
+    <comment ref="AR38" authorId="39" shapeId="0" xr:uid="{8B01BB42-BD50-4A2B-91AE-BFF1AE1CC4A6}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1559,7 +1568,7 @@
     beam and otter</t>
       </text>
     </comment>
-    <comment ref="AW37" authorId="39" shapeId="0" xr:uid="{11A0CED8-7C4E-4A10-B3D6-7390E2591B9D}">
+    <comment ref="AW38" authorId="40" shapeId="0" xr:uid="{11A0CED8-7C4E-4A10-B3D6-7390E2591B9D}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1567,7 +1576,7 @@
     Did not test relationship but modelled mortality rates of bycatch for each species</t>
       </text>
     </comment>
-    <comment ref="AR38" authorId="40" shapeId="0" xr:uid="{7C93FD45-F80E-4576-B1F4-320CE5D28934}">
+    <comment ref="AR39" authorId="41" shapeId="0" xr:uid="{7C93FD45-F80E-4576-B1F4-320CE5D28934}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1575,7 +1584,7 @@
     beam and otter</t>
       </text>
     </comment>
-    <comment ref="AW38" authorId="41" shapeId="0" xr:uid="{84CBE241-7A40-4FBE-9038-FF85F7034818}">
+    <comment ref="AW39" authorId="42" shapeId="0" xr:uid="{84CBE241-7A40-4FBE-9038-FF85F7034818}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1583,7 +1592,7 @@
     Did not test relationship but modelled mortality rates of bycatch for each species</t>
       </text>
     </comment>
-    <comment ref="R41" authorId="42" shapeId="0" xr:uid="{29231E64-24AA-413F-9FA6-0B09201F7447}">
+    <comment ref="R42" authorId="43" shapeId="0" xr:uid="{29231E64-24AA-413F-9FA6-0B09201F7447}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1591,7 +1600,7 @@
     Paper describes the shrimp shoal structure but not assessment of fishing impacts on it</t>
       </text>
     </comment>
-    <comment ref="R42" authorId="43" shapeId="0" xr:uid="{8E7B695D-F34B-40FE-813F-DC802677F34C}">
+    <comment ref="R43" authorId="44" shapeId="0" xr:uid="{8E7B695D-F34B-40FE-813F-DC802677F34C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1599,7 +1608,7 @@
     this study identifies impacts of season and breeding of species, resource access (regulations and competition between fisheries) on LPUE, not impacts of fishing on ecosystem</t>
       </text>
     </comment>
-    <comment ref="R43" authorId="44" shapeId="0" xr:uid="{DB75CAF6-E7A8-4AD0-BD5E-B650738D5CE8}">
+    <comment ref="R44" authorId="45" shapeId="0" xr:uid="{DB75CAF6-E7A8-4AD0-BD5E-B650738D5CE8}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1607,7 +1616,7 @@
     a review of deepwater fisheries with no analysis of data</t>
       </text>
     </comment>
-    <comment ref="R44" authorId="45" shapeId="0" xr:uid="{172069E3-CDA2-41BE-8240-6D3A9258F91B}">
+    <comment ref="R45" authorId="46" shapeId="0" xr:uid="{172069E3-CDA2-41BE-8240-6D3A9258F91B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1615,7 +1624,7 @@
     I think this is purely a methodoligical paper - comparing hypotheses for natural mortality rates at age in stock assessment. This is not my area so would be good to have a second opinion!</t>
       </text>
     </comment>
-    <comment ref="T45" authorId="46" shapeId="0" xr:uid="{ABCFD0AF-BE84-4846-9C69-0442BE7E7030}">
+    <comment ref="T46" authorId="47" shapeId="0" xr:uid="{ABCFD0AF-BE84-4846-9C69-0442BE7E7030}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1623,7 +1632,7 @@
     Ebro Delta Natural Park, 40o37'N, 00o35'E; see Oro and Martinez-Vilalata 1994 for details</t>
       </text>
     </comment>
-    <comment ref="V45" authorId="47" shapeId="0" xr:uid="{2E2E41C1-2DBF-42F9-8384-EA0DBD36144F}">
+    <comment ref="V46" authorId="48" shapeId="0" xr:uid="{2E2E41C1-2DBF-42F9-8384-EA0DBD36144F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1631,7 +1640,7 @@
     no information provided for this</t>
       </text>
     </comment>
-    <comment ref="AR45" authorId="48" shapeId="0" xr:uid="{1F4028D3-691D-45CB-A4DC-194315CA757A}">
+    <comment ref="AR46" authorId="49" shapeId="0" xr:uid="{1F4028D3-691D-45CB-A4DC-194315CA757A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1639,7 +1648,7 @@
     just states trawling so could also include pelagic</t>
       </text>
     </comment>
-    <comment ref="T46" authorId="49" shapeId="0" xr:uid="{6586F64A-DB48-4A9D-A4A3-A7DD60911E1C}">
+    <comment ref="T47" authorId="50" shapeId="0" xr:uid="{6586F64A-DB48-4A9D-A4A3-A7DD60911E1C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1647,7 +1656,7 @@
     Ebro Delta Natural Park, 40o37'N, 00o35'E; see Oro and Martinez-Vilalata 1994 for details</t>
       </text>
     </comment>
-    <comment ref="V46" authorId="50" shapeId="0" xr:uid="{F75443A0-3FE8-4BA1-93C4-5CB19F2E9DCC}">
+    <comment ref="V47" authorId="51" shapeId="0" xr:uid="{F75443A0-3FE8-4BA1-93C4-5CB19F2E9DCC}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1655,7 +1664,7 @@
     no information provided for this</t>
       </text>
     </comment>
-    <comment ref="AR46" authorId="51" shapeId="0" xr:uid="{8071F227-D101-4336-BD57-1F39C4B7162B}">
+    <comment ref="AR47" authorId="52" shapeId="0" xr:uid="{8071F227-D101-4336-BD57-1F39C4B7162B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1663,7 +1672,7 @@
     just states trawling so could also include pelagic</t>
       </text>
     </comment>
-    <comment ref="T47" authorId="52" shapeId="0" xr:uid="{BB98232E-2577-4BAC-B9A0-60E7F593BE74}">
+    <comment ref="T48" authorId="53" shapeId="0" xr:uid="{BB98232E-2577-4BAC-B9A0-60E7F593BE74}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1671,7 +1680,7 @@
     Ebro Delta Natural Park, 40o37'N, 00o35'E; see Oro and Martinez-Vilalata 1994 for details</t>
       </text>
     </comment>
-    <comment ref="V47" authorId="53" shapeId="0" xr:uid="{7AD91645-8D90-4760-9B65-974C35D6BB66}">
+    <comment ref="V48" authorId="54" shapeId="0" xr:uid="{7AD91645-8D90-4760-9B65-974C35D6BB66}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1679,7 +1688,7 @@
     no information provided for this</t>
       </text>
     </comment>
-    <comment ref="AR47" authorId="54" shapeId="0" xr:uid="{7D39EFC8-0081-450E-A4F5-FE481BD385AA}">
+    <comment ref="AR48" authorId="55" shapeId="0" xr:uid="{7D39EFC8-0081-450E-A4F5-FE481BD385AA}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1687,7 +1696,7 @@
     just states trawling so could also include pelagic</t>
       </text>
     </comment>
-    <comment ref="AR48" authorId="55" shapeId="0" xr:uid="{C0A70C4B-9FF8-4338-B62A-E4A38C309496}">
+    <comment ref="AR49" authorId="56" shapeId="0" xr:uid="{C0A70C4B-9FF8-4338-B62A-E4A38C309496}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1695,7 +1704,7 @@
     Dutch trawlers fishing for mackerel, discuss additional purse-seine fishery in 1964 - so potentially multiple gears targeting mackerel</t>
       </text>
     </comment>
-    <comment ref="AV48" authorId="56" shapeId="0" xr:uid="{265960B0-98E3-428D-9648-DA395740091E}">
+    <comment ref="AV49" authorId="57" shapeId="0" xr:uid="{265960B0-98E3-428D-9648-DA395740091E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1703,7 +1712,7 @@
     and age structure and mortality</t>
       </text>
     </comment>
-    <comment ref="AG49" authorId="57" shapeId="0" xr:uid="{04C9DBD1-83BA-48D5-BC64-8A80252FBDCE}">
+    <comment ref="AG50" authorId="58" shapeId="0" xr:uid="{04C9DBD1-83BA-48D5-BC64-8A80252FBDCE}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -2843,7 +2852,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2221" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2261" uniqueCount="623">
   <si>
     <t>SearchID</t>
   </si>
@@ -4316,22 +4325,10 @@
     <t>cuttlefish (Sepia officinalis)</t>
   </si>
   <si>
-    <t>Raja radula _ Dasyatis pastinaca _ Torpedo marmorata _ Torpedo torpedo</t>
-  </si>
-  <si>
-    <t>monthly CPUE _ speciment/1000m net</t>
-  </si>
-  <si>
     <t>chi-square _ ANOVA</t>
   </si>
   <si>
     <t>The results ofthis study showed that discards ofelasmobranchs per vessel in trammel net fishery targeting Sepia officinalis were high. Taking into account that 34 vessels operated in the research area, the overall impact of this activity on elasmobranchs is con- siderable. Furthermore, traditional fishing of S. officinalis using trammel net is widespread in Italy, especially in the southern part, and in other Mediterranean countries (Stergiou et al., 2006). This fishing method impacts on shallow water species of elasmo- branchs that, instead, are caught in smaller quantities (or generally absent from catches) with trawl nets (Tsagarakis et al., 2014), which usually operate in deeper waters (&gt;50 m).</t>
-  </si>
-  <si>
-    <t>temporal difference in bycatch mortality _ bycatch mortality differences between species _ bycatch sex ratio _ survival rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ANOVA analysis showed significant differences (P &lt; 0.05) between monthly CPUE values of the four species (Fig. 2); while, for each species, the chi-square test failed (P &gt; 0.05) to show a significant difference in monthly CPUE values. Chi-square test for sex ratio showed a significant difference (P &lt; 0.05) only for T. torpedo, with sex ratio of 2.12 (Table 1). As a result, most of the elasmobranch specimens from our study were still alive at landing and had a good chance to survive when released. However, for the reasons explained above, the survival rate of D. pastinaca represents an exception: all landed specimens were freed dead from the net.</t>
   </si>
   <si>
     <t xml:space="preserve">van Veen grab </t>
@@ -4731,12 +4728,24 @@
   <si>
     <t>trawling activity at different breeding stages</t>
   </si>
+  <si>
+    <t>Raja radula _ Torpedo marmorata _ Torpedo torpedo</t>
+  </si>
+  <si>
+    <t>catch</t>
+  </si>
+  <si>
+    <t>Dasyatis pastinaca</t>
+  </si>
+  <si>
+    <t>As a result, most of the elasmobranch specimens from our study were still alive at landing and had a good chance to survive when released. However, for the reasons explained above, the survival rate of D. pastinaca represents an exception: all landed specimens were freed dead from the net.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4785,6 +4794,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="10">
@@ -5211,157 +5226,160 @@
   <threadedComment ref="AR10" dT="2022-03-03T09:50:30.78" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{611739EA-8C72-4C05-8465-123915D7F861}">
     <text>pontoon trap fitted with 2 types of seal exclusion devices (diamond mesh and square mesh) at entrance of middle chamber, and control with no SED</text>
   </threadedComment>
-  <threadedComment ref="V11" dT="2022-03-03T11:42:20.68" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{E0E1F796-D3BC-404E-A30F-39BF25EBDA28}">
+  <threadedComment ref="V11" dT="2022-03-03T11:42:20.68" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{0D8A73F8-F5E4-4E52-8AEC-BF8450A24B7C}">
     <text>no indication of distrance between deployments</text>
   </threadedComment>
-  <threadedComment ref="R12" dT="2022-03-03T13:29:56.20" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{1EF740BF-27A5-4E0B-977E-8B93DA623BD7}">
+  <threadedComment ref="V12" dT="2022-03-03T11:42:20.68" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{E0E1F796-D3BC-404E-A30F-39BF25EBDA28}">
+    <text>no indication of distrance between deployments</text>
+  </threadedComment>
+  <threadedComment ref="R13" dT="2022-03-03T13:29:56.20" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{1EF740BF-27A5-4E0B-977E-8B93DA623BD7}">
     <text>this study looks at how pingers can reduce depredation and the impact of dolphins on catch, physical damage to gears and economic damage, not quantifying bycatch of or impact on dolphins</text>
   </threadedComment>
-  <threadedComment ref="R14" dT="2022-03-07T10:34:07.43" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{4A27027B-1168-496E-8B13-CD1978DAFC96}">
+  <threadedComment ref="R15" dT="2022-03-07T10:34:07.43" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{4A27027B-1168-496E-8B13-CD1978DAFC96}">
     <text>study aiming to reduce seal depredation and damage to fishing gear, but not impact on seals</text>
   </threadedComment>
-  <threadedComment ref="AW15" dT="2022-03-07T13:16:22.97" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{896A940F-A0F7-4FF3-AC4C-E43C1D2C49CE}">
+  <threadedComment ref="AW16" dT="2022-03-07T13:16:22.97" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{896A940F-A0F7-4FF3-AC4C-E43C1D2C49CE}">
     <text>not sure how to answer this for SIMPER % dissimilarity analyses</text>
   </threadedComment>
-  <threadedComment ref="U16" dT="2022-03-03T15:44:06.02" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{69572EBE-4693-4845-933B-DC6BECF12705}">
+  <threadedComment ref="U17" dT="2022-03-03T15:44:06.02" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{69572EBE-4693-4845-933B-DC6BECF12705}">
     <text>conclusions drawn at multiple temporal scales - 11yrs is the longest</text>
   </threadedComment>
-  <threadedComment ref="AV16" dT="2022-03-03T15:54:26.07" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{9D496DF3-D2B4-4A43-AC12-7E0B2D2CF8F0}">
+  <threadedComment ref="AV17" dT="2022-03-03T15:54:26.07" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{9D496DF3-D2B4-4A43-AC12-7E0B2D2CF8F0}">
     <text>community</text>
   </threadedComment>
-  <threadedComment ref="U17" dT="2022-03-03T15:44:06.02" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{17355E08-798F-4F45-858A-F25954AE3C84}">
+  <threadedComment ref="U18" dT="2022-03-03T15:44:06.02" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{17355E08-798F-4F45-858A-F25954AE3C84}">
     <text>conclusions drawn at multiple temporal scales - 11yrs is the longest</text>
   </threadedComment>
-  <threadedComment ref="AV17" dT="2022-03-03T15:54:34.88" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{6929C21F-094B-4808-8B4E-1B33E7A4701C}">
+  <threadedComment ref="AV18" dT="2022-03-03T15:54:34.88" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{6929C21F-094B-4808-8B4E-1B33E7A4701C}">
     <text>community</text>
   </threadedComment>
-  <threadedComment ref="U18" dT="2022-03-03T15:44:06.02" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{E6A9A326-217C-4898-80F8-7CD55BB6DEEF}">
+  <threadedComment ref="U19" dT="2022-03-03T15:44:06.02" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{E6A9A326-217C-4898-80F8-7CD55BB6DEEF}">
     <text>conclusions drawn at multiple temporal scales - 11yrs is the longest</text>
   </threadedComment>
-  <threadedComment ref="AV18" dT="2022-03-03T15:54:43.28" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{88E79990-A62D-4722-ACFD-92973EBB279B}">
+  <threadedComment ref="AV19" dT="2022-03-03T15:54:43.28" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{88E79990-A62D-4722-ACFD-92973EBB279B}">
     <text>community</text>
   </threadedComment>
-  <threadedComment ref="U19" dT="2022-03-03T15:44:06.02" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{410074BB-2A10-4A00-B590-372121EDB157}">
+  <threadedComment ref="U20" dT="2022-03-03T15:44:06.02" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{410074BB-2A10-4A00-B590-372121EDB157}">
     <text>conclusions drawn at multiple temporal scales - 11yrs is the longest</text>
   </threadedComment>
-  <threadedComment ref="AV19" dT="2022-03-03T15:54:53.01" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{677E21BE-76FB-4376-9080-9A6FB650A045}">
+  <threadedComment ref="AV20" dT="2022-03-03T15:54:53.01" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{677E21BE-76FB-4376-9080-9A6FB650A045}">
     <text>community</text>
   </threadedComment>
-  <threadedComment ref="U20" dT="2022-03-03T15:44:06.02" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{E6BD52E7-A7E1-4132-A2C0-978A9903971E}">
+  <threadedComment ref="U21" dT="2022-03-03T15:44:06.02" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{E6BD52E7-A7E1-4132-A2C0-978A9903971E}">
     <text>conclusions drawn at multiple temporal scales - 11yrs is the longest</text>
   </threadedComment>
-  <threadedComment ref="AV20" dT="2022-03-03T15:54:59.82" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{3D685687-21C0-4EA4-B6AD-065DBB750A9C}">
+  <threadedComment ref="AV21" dT="2022-03-03T15:54:59.82" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{3D685687-21C0-4EA4-B6AD-065DBB750A9C}">
     <text>community</text>
   </threadedComment>
-  <threadedComment ref="AS25" dT="2022-03-07T14:51:14.23" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{2C4E279E-5FF2-4AB6-B498-F4090DBBA0E8}">
+  <threadedComment ref="AS26" dT="2022-03-07T14:51:14.23" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{2C4E279E-5FF2-4AB6-B498-F4090DBBA0E8}">
     <text>spring-toothed, Newhaven-type scallop dredges?</text>
   </threadedComment>
-  <threadedComment ref="W26" dT="2022-03-07T15:45:06.58" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{2180B62C-9FF4-4D06-9655-E14C6EB79F6E}">
+  <threadedComment ref="W27" dT="2022-03-07T15:45:06.58" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{2180B62C-9FF4-4D06-9655-E14C6EB79F6E}">
     <text>does not state, only that between 4 and 20 transects carried out per year</text>
   </threadedComment>
-  <threadedComment ref="AS26" dT="2022-03-07T14:51:14.23" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{B1643C2D-EFEA-48DA-BA3C-D8C9AC01BA07}">
+  <threadedComment ref="AS27" dT="2022-03-07T14:51:14.23" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{B1643C2D-EFEA-48DA-BA3C-D8C9AC01BA07}">
     <text>spring-toothed, Newhaven-type scallop dredges?</text>
   </threadedComment>
-  <threadedComment ref="AW26" dT="2022-03-07T15:49:09.47" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{213E6476-B61F-43C2-9A39-F100276A1870}">
+  <threadedComment ref="AW27" dT="2022-03-07T15:49:09.47" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{213E6476-B61F-43C2-9A39-F100276A1870}">
     <text>higher density of scallops in closed area (not-significant</text>
   </threadedComment>
-  <threadedComment ref="W27" dT="2022-03-07T15:45:06.58" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{265B2087-59BD-4F8A-ACE7-82F6B9EEB1B4}">
+  <threadedComment ref="W28" dT="2022-03-07T15:45:06.58" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{265B2087-59BD-4F8A-ACE7-82F6B9EEB1B4}">
     <text>does not state, only that 3 tows of scallop dredge outside closed area were compared to data from illegal fishing event inside closed area in April 2000</text>
   </threadedComment>
-  <threadedComment ref="AS27" dT="2022-03-07T14:51:14.23" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{80879F60-554F-4919-B3B4-51914927EA17}">
+  <threadedComment ref="AS28" dT="2022-03-07T14:51:14.23" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{80879F60-554F-4919-B3B4-51914927EA17}">
     <text>spring-toothed, Newhaven-type scallop dredges?</text>
   </threadedComment>
-  <threadedComment ref="AW27" dT="2022-03-07T15:49:09.47" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{87EB4814-791C-4151-897C-220F10B66323}">
+  <threadedComment ref="AW28" dT="2022-03-07T15:49:09.47" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{87EB4814-791C-4151-897C-220F10B66323}">
     <text>scallops older in closed area</text>
   </threadedComment>
-  <threadedComment ref="V30" dT="2022-03-09T17:27:01.81" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{8F605331-8FA3-4091-906F-6572B9E08CBE}">
+  <threadedComment ref="V31" dT="2022-03-09T17:27:01.81" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{8F605331-8FA3-4091-906F-6572B9E08CBE}">
     <text>no indication of this</text>
   </threadedComment>
-  <threadedComment ref="AR30" dT="2022-03-09T14:17:41.25" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{CD3A6164-943A-4E6E-9BF5-5FE09891CCB9}">
+  <threadedComment ref="AR31" dT="2022-03-09T14:17:41.25" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{CD3A6164-943A-4E6E-9BF5-5FE09891CCB9}">
     <text>rapido similar to beamtrawl</text>
   </threadedComment>
-  <threadedComment ref="V31" dT="2022-03-09T17:27:01.81" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{0DBA107E-6F54-47E4-99BD-BD727CABFC0F}">
+  <threadedComment ref="V32" dT="2022-03-09T17:27:01.81" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{0DBA107E-6F54-47E4-99BD-BD727CABFC0F}">
     <text>no indication of this</text>
   </threadedComment>
-  <threadedComment ref="AS31" dT="2022-03-09T14:13:10.19" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{CC0A6BC4-04EF-4A83-B009-E37BE3CA69B7}">
+  <threadedComment ref="AS32" dT="2022-03-09T14:13:10.19" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{CC0A6BC4-04EF-4A83-B009-E37BE3CA69B7}">
     <text>hydrolic dredge</text>
   </threadedComment>
-  <threadedComment ref="AV32" dT="2022-03-09T18:02:50.58" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{83BF076C-EF3A-4FF6-92DF-06C2F3DA57D1}">
+  <threadedComment ref="AV33" dT="2022-03-09T18:02:50.58" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{83BF076C-EF3A-4FF6-92DF-06C2F3DA57D1}">
     <text>Diet</text>
   </threadedComment>
-  <threadedComment ref="AG33" dT="2022-03-10T12:59:27.41" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{FDF1D696-0CED-4B50-9488-28F563E535BB}">
+  <threadedComment ref="AG34" dT="2022-03-10T12:59:27.41" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{FDF1D696-0CED-4B50-9488-28F563E535BB}">
     <text>both field and lab study</text>
   </threadedComment>
-  <threadedComment ref="AG34" dT="2022-03-10T12:59:27.41" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{3E7E8A63-FE8F-485C-B7B0-D651CC82B2E5}">
+  <threadedComment ref="AG35" dT="2022-03-10T12:59:27.41" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{3E7E8A63-FE8F-485C-B7B0-D651CC82B2E5}">
     <text>both field and lab study</text>
   </threadedComment>
-  <threadedComment ref="AG35" dT="2022-03-10T12:59:27.41" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{1F73A643-4889-4B00-BF17-FD191EDC437F}">
+  <threadedComment ref="AG36" dT="2022-03-10T12:59:27.41" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{1F73A643-4889-4B00-BF17-FD191EDC437F}">
     <text>both field and lab study</text>
   </threadedComment>
-  <threadedComment ref="AG36" dT="2022-03-10T12:59:27.41" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{C13FAB98-20DA-4332-A868-0381F8EB51A5}">
+  <threadedComment ref="AG37" dT="2022-03-10T12:59:27.41" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{C13FAB98-20DA-4332-A868-0381F8EB51A5}">
     <text>both field and lab study</text>
   </threadedComment>
-  <threadedComment ref="AR37" dT="2022-03-10T16:31:58.86" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{8B01BB42-BD50-4A2B-91AE-BFF1AE1CC4A6}">
+  <threadedComment ref="AR38" dT="2022-03-10T16:31:58.86" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{8B01BB42-BD50-4A2B-91AE-BFF1AE1CC4A6}">
     <text>beam and otter</text>
   </threadedComment>
-  <threadedComment ref="AW37" dT="2022-03-10T16:47:15.25" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{11A0CED8-7C4E-4A10-B3D6-7390E2591B9D}">
+  <threadedComment ref="AW38" dT="2022-03-10T16:47:15.25" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{11A0CED8-7C4E-4A10-B3D6-7390E2591B9D}">
     <text>Did not test relationship but modelled mortality rates of bycatch for each species</text>
   </threadedComment>
-  <threadedComment ref="AR38" dT="2022-03-10T16:31:58.86" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{7C93FD45-F80E-4576-B1F4-320CE5D28934}">
+  <threadedComment ref="AR39" dT="2022-03-10T16:31:58.86" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{7C93FD45-F80E-4576-B1F4-320CE5D28934}">
     <text>beam and otter</text>
   </threadedComment>
-  <threadedComment ref="AW38" dT="2022-03-10T16:47:15.25" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{84CBE241-7A40-4FBE-9038-FF85F7034818}">
+  <threadedComment ref="AW39" dT="2022-03-10T16:47:15.25" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{84CBE241-7A40-4FBE-9038-FF85F7034818}">
     <text>Did not test relationship but modelled mortality rates of bycatch for each species</text>
   </threadedComment>
-  <threadedComment ref="R41" dT="2022-03-10T16:04:10.48" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{29231E64-24AA-413F-9FA6-0B09201F7447}">
+  <threadedComment ref="R42" dT="2022-03-10T16:04:10.48" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{29231E64-24AA-413F-9FA6-0B09201F7447}">
     <text>Paper describes the shrimp shoal structure but not assessment of fishing impacts on it</text>
   </threadedComment>
-  <threadedComment ref="R42" dT="2022-03-10T15:27:24.78" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{8E7B695D-F34B-40FE-813F-DC802677F34C}">
+  <threadedComment ref="R43" dT="2022-03-10T15:27:24.78" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{8E7B695D-F34B-40FE-813F-DC802677F34C}">
     <text>this study identifies impacts of season and breeding of species, resource access (regulations and competition between fisheries) on LPUE, not impacts of fishing on ecosystem</text>
   </threadedComment>
-  <threadedComment ref="R43" dT="2022-03-07T16:15:16.37" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{DB75CAF6-E7A8-4AD0-BD5E-B650738D5CE8}">
+  <threadedComment ref="R44" dT="2022-03-07T16:15:16.37" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{DB75CAF6-E7A8-4AD0-BD5E-B650738D5CE8}">
     <text>a review of deepwater fisheries with no analysis of data</text>
   </threadedComment>
-  <threadedComment ref="R44" dT="2022-03-09T18:33:51.38" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{172069E3-CDA2-41BE-8240-6D3A9258F91B}">
+  <threadedComment ref="R45" dT="2022-03-09T18:33:51.38" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{172069E3-CDA2-41BE-8240-6D3A9258F91B}">
     <text>I think this is purely a methodoligical paper - comparing hypotheses for natural mortality rates at age in stock assessment. This is not my area so would be good to have a second opinion!</text>
   </threadedComment>
-  <threadedComment ref="T45" dT="2022-03-09T18:41:25.25" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{ABCFD0AF-BE84-4846-9C69-0442BE7E7030}">
+  <threadedComment ref="T46" dT="2022-03-09T18:41:25.25" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{ABCFD0AF-BE84-4846-9C69-0442BE7E7030}">
     <text>Ebro Delta Natural Park, 40o37'N, 00o35'E; see Oro and Martinez-Vilalata 1994 for details</text>
   </threadedComment>
-  <threadedComment ref="V45" dT="2022-03-10T11:42:04.93" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{2E2E41C1-2DBF-42F9-8384-EA0DBD36144F}">
+  <threadedComment ref="V46" dT="2022-03-10T11:42:04.93" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{2E2E41C1-2DBF-42F9-8384-EA0DBD36144F}">
     <text>no information provided for this</text>
   </threadedComment>
-  <threadedComment ref="AR45" dT="2022-03-09T18:48:09.42" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{1F4028D3-691D-45CB-A4DC-194315CA757A}">
+  <threadedComment ref="AR46" dT="2022-03-09T18:48:09.42" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{1F4028D3-691D-45CB-A4DC-194315CA757A}">
     <text>just states trawling so could also include pelagic</text>
   </threadedComment>
-  <threadedComment ref="T46" dT="2022-03-09T18:41:25.25" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{6586F64A-DB48-4A9D-A4A3-A7DD60911E1C}">
+  <threadedComment ref="T47" dT="2022-03-09T18:41:25.25" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{6586F64A-DB48-4A9D-A4A3-A7DD60911E1C}">
     <text>Ebro Delta Natural Park, 40o37'N, 00o35'E; see Oro and Martinez-Vilalata 1994 for details</text>
   </threadedComment>
-  <threadedComment ref="V46" dT="2022-03-10T11:42:04.93" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{F75443A0-3FE8-4BA1-93C4-5CB19F2E9DCC}">
+  <threadedComment ref="V47" dT="2022-03-10T11:42:04.93" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{F75443A0-3FE8-4BA1-93C4-5CB19F2E9DCC}">
     <text>no information provided for this</text>
   </threadedComment>
-  <threadedComment ref="AR46" dT="2022-03-09T18:48:09.42" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{8071F227-D101-4336-BD57-1F39C4B7162B}">
+  <threadedComment ref="AR47" dT="2022-03-09T18:48:09.42" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{8071F227-D101-4336-BD57-1F39C4B7162B}">
     <text>just states trawling so could also include pelagic</text>
   </threadedComment>
-  <threadedComment ref="T47" dT="2022-03-09T18:41:25.25" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{BB98232E-2577-4BAC-B9A0-60E7F593BE74}">
+  <threadedComment ref="T48" dT="2022-03-09T18:41:25.25" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{BB98232E-2577-4BAC-B9A0-60E7F593BE74}">
     <text>Ebro Delta Natural Park, 40o37'N, 00o35'E; see Oro and Martinez-Vilalata 1994 for details</text>
   </threadedComment>
-  <threadedComment ref="V47" dT="2022-03-10T11:42:04.93" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{7AD91645-8D90-4760-9B65-974C35D6BB66}">
+  <threadedComment ref="V48" dT="2022-03-10T11:42:04.93" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{7AD91645-8D90-4760-9B65-974C35D6BB66}">
     <text>no information provided for this</text>
   </threadedComment>
-  <threadedComment ref="AR47" dT="2022-03-09T18:48:09.42" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{7D39EFC8-0081-450E-A4F5-FE481BD385AA}">
+  <threadedComment ref="AR48" dT="2022-03-09T18:48:09.42" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{7D39EFC8-0081-450E-A4F5-FE481BD385AA}">
     <text>just states trawling so could also include pelagic</text>
   </threadedComment>
-  <threadedComment ref="AR48" dT="2022-03-09T19:15:49.80" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{C0A70C4B-9FF8-4338-B62A-E4A38C309496}">
+  <threadedComment ref="AR49" dT="2022-03-09T19:15:49.80" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{C0A70C4B-9FF8-4338-B62A-E4A38C309496}">
     <text>Dutch trawlers fishing for mackerel, discuss additional purse-seine fishery in 1964 - so potentially multiple gears targeting mackerel</text>
   </threadedComment>
-  <threadedComment ref="AV48" dT="2022-03-10T14:00:21.45" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{265960B0-98E3-428D-9648-DA395740091E}">
+  <threadedComment ref="AV49" dT="2022-03-10T14:00:21.45" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{265960B0-98E3-428D-9648-DA395740091E}">
     <text>and age structure and mortality</text>
   </threadedComment>
-  <threadedComment ref="AG49" dT="2022-03-10T11:45:14.77" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{04C9DBD1-83BA-48D5-BC64-8A80252FBDCE}">
+  <threadedComment ref="AG50" dT="2022-03-10T11:45:14.77" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{04C9DBD1-83BA-48D5-BC64-8A80252FBDCE}">
     <text>field and lab experiment</text>
   </threadedComment>
-  <threadedComment ref="AG49" dT="2022-10-04T06:45:00.99" personId="{9965CBB5-2279-48F3-8BB4-29047743A273}" id="{BB8D6876-585D-4F3E-90F0-465E31031563}" parentId="{04C9DBD1-83BA-48D5-BC64-8A80252FBDCE}">
+  <threadedComment ref="AG50" dT="2022-10-04T06:45:00.99" personId="{9965CBB5-2279-48F3-8BB4-29047743A273}" id="{BB8D6876-585D-4F3E-90F0-465E31031563}" parentId="{04C9DBD1-83BA-48D5-BC64-8A80252FBDCE}">
     <text>Changed from 'Other'  to 'Field experiment' only</text>
   </threadedComment>
 </ThreadedComments>
@@ -5369,10 +5387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX49"/>
+  <dimension ref="A1:AX50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="AG15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="AI11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="AO53" sqref="AO53"/>
@@ -6693,7 +6711,7 @@
         <v>216</v>
       </c>
       <c r="Z11" s="11" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="AA11" s="11">
         <v>2</v>
@@ -6705,7 +6723,7 @@
         <v>2</v>
       </c>
       <c r="AD11" s="11" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="AF11" s="11" t="s">
         <v>255</v>
@@ -6720,7 +6738,7 @@
         <v>139</v>
       </c>
       <c r="AL11" s="11" t="s">
-        <v>490</v>
+        <v>619</v>
       </c>
       <c r="AM11" s="11" t="s">
         <v>232</v>
@@ -6729,7 +6747,7 @@
         <v>162</v>
       </c>
       <c r="AO11" s="11" t="s">
-        <v>494</v>
+        <v>620</v>
       </c>
       <c r="AQ11" s="11" t="s">
         <v>164</v>
@@ -6744,115 +6762,191 @@
         <v>489</v>
       </c>
       <c r="AU11" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="AV11" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="AW11" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="AX11" s="11" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="12" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="E12" s="11">
+        <v>2018</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="N12" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="O12" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="P12" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q12" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="S12" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="T12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="U12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="V12" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="W12" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="X12" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z12" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="AA12" s="11">
+        <v>2</v>
+      </c>
+      <c r="AB12" s="11">
+        <v>2</v>
+      </c>
+      <c r="AC12" s="11">
+        <v>2</v>
+      </c>
+      <c r="AD12" s="11" t="s">
         <v>491</v>
       </c>
-      <c r="AV11" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="AW11" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX11" s="11" t="s">
-        <v>495</v>
+      <c r="AF12" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="AG12" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH12" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="AI12" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL12" s="11" t="s">
+        <v>621</v>
+      </c>
+      <c r="AM12" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN12" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO12" s="11" t="s">
+        <v>620</v>
+      </c>
+      <c r="AQ12" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR12" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="AS12" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="AT12" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="AU12" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="AV12" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="AW12" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="AX12" s="11" t="s">
+        <v>622</v>
       </c>
     </row>
-    <row r="12" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="10" t="s">
+    <row r="13" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="10" t="s">
         <v>287</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="E12">
-        <v>2013</v>
-      </c>
-      <c r="F12" t="s">
-        <v>290</v>
-      </c>
-      <c r="G12" t="s">
-        <v>291</v>
-      </c>
-      <c r="H12" t="s">
-        <v>292</v>
-      </c>
-      <c r="I12" t="s">
-        <v>293</v>
-      </c>
-      <c r="J12" t="s">
-        <v>294</v>
-      </c>
-      <c r="K12" t="s">
-        <v>251</v>
-      </c>
-      <c r="L12" t="s">
-        <v>251</v>
-      </c>
-      <c r="M12" t="s">
-        <v>295</v>
-      </c>
-      <c r="N12" t="s">
-        <v>253</v>
-      </c>
-      <c r="O12" t="s">
-        <v>254</v>
-      </c>
-      <c r="P12" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>21</v>
-      </c>
-      <c r="R12" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD12"/>
-      <c r="AX12"/>
-    </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A13" s="10" t="s">
-        <v>296</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>242</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="E13">
-        <v>2008</v>
+        <v>2013</v>
       </c>
       <c r="F13" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="G13" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="H13" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="I13" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="J13" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="K13" t="s">
-        <v>304</v>
+        <v>251</v>
       </c>
       <c r="L13" t="s">
         <v>251</v>
       </c>
       <c r="M13" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="N13" t="s">
         <v>253</v>
@@ -6866,127 +6960,51 @@
       <c r="Q13" t="s">
         <v>21</v>
       </c>
-      <c r="S13" t="s">
-        <v>27</v>
-      </c>
-      <c r="T13" t="s">
-        <v>41</v>
-      </c>
-      <c r="U13" t="s">
-        <v>56</v>
-      </c>
-      <c r="V13" t="s">
-        <v>39</v>
-      </c>
-      <c r="W13" t="s">
-        <v>48</v>
-      </c>
-      <c r="X13" t="s">
-        <v>216</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>529</v>
-      </c>
-      <c r="AA13">
-        <v>2</v>
-      </c>
-      <c r="AB13">
-        <v>2</v>
-      </c>
-      <c r="AC13">
-        <v>3</v>
-      </c>
-      <c r="AD13" s="11" t="s">
-        <v>530</v>
-      </c>
-      <c r="AF13" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>113</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>526</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN13" t="s">
-        <v>161</v>
-      </c>
-      <c r="AO13" t="s">
-        <v>486</v>
-      </c>
-      <c r="AQ13" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR13" t="s">
-        <v>171</v>
-      </c>
-      <c r="AT13" t="s">
-        <v>525</v>
-      </c>
-      <c r="AU13" t="s">
-        <v>527</v>
-      </c>
-      <c r="AV13" t="s">
-        <v>199</v>
-      </c>
-      <c r="AW13" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX13" s="11" t="s">
-        <v>528</v>
-      </c>
+      <c r="R13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD13"/>
+      <c r="AX13"/>
     </row>
-    <row r="14" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>242</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="E14">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="F14" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="G14" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="H14" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="I14" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="J14" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="K14" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="L14" t="s">
         <v>251</v>
       </c>
       <c r="M14" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="N14" t="s">
         <v>253</v>
@@ -6995,56 +7013,132 @@
         <v>254</v>
       </c>
       <c r="P14" t="s">
-        <v>315</v>
+        <v>251</v>
       </c>
       <c r="Q14" t="s">
         <v>21</v>
       </c>
-      <c r="R14" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD14"/>
-      <c r="AX14"/>
+      <c r="S14" t="s">
+        <v>27</v>
+      </c>
+      <c r="T14" t="s">
+        <v>41</v>
+      </c>
+      <c r="U14" t="s">
+        <v>56</v>
+      </c>
+      <c r="V14" t="s">
+        <v>39</v>
+      </c>
+      <c r="W14" t="s">
+        <v>48</v>
+      </c>
+      <c r="X14" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>525</v>
+      </c>
+      <c r="AA14">
+        <v>2</v>
+      </c>
+      <c r="AB14">
+        <v>2</v>
+      </c>
+      <c r="AC14">
+        <v>3</v>
+      </c>
+      <c r="AD14" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="AF14" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>522</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>161</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>486</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>171</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>521</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>523</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>208</v>
+      </c>
+      <c r="AX14" s="11" t="s">
+        <v>524</v>
+      </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>242</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="E15">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="F15" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="G15" t="s">
-        <v>319</v>
+        <v>284</v>
       </c>
       <c r="H15" t="s">
-        <v>292</v>
+        <v>310</v>
       </c>
       <c r="I15" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="J15" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="K15" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="L15" t="s">
         <v>251</v>
       </c>
       <c r="M15" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="N15" t="s">
         <v>253</v>
@@ -7053,7 +7147,7 @@
         <v>254</v>
       </c>
       <c r="P15" t="s">
-        <v>251</v>
+        <v>315</v>
       </c>
       <c r="Q15" t="s">
         <v>21</v>
@@ -7061,50 +7155,48 @@
       <c r="R15" t="s">
         <v>84</v>
       </c>
-      <c r="AF15" t="s">
-        <v>510</v>
-      </c>
+      <c r="AD15"/>
       <c r="AX15"/>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>242</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="E16">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="F16" t="s">
-        <v>327</v>
+        <v>299</v>
       </c>
       <c r="G16" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="H16" t="s">
-        <v>251</v>
+        <v>292</v>
       </c>
       <c r="I16" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="J16" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="K16" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="L16" t="s">
         <v>251</v>
       </c>
       <c r="M16" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="N16" t="s">
         <v>253</v>
@@ -7113,92 +7205,18 @@
         <v>254</v>
       </c>
       <c r="P16" t="s">
-        <v>333</v>
+        <v>251</v>
       </c>
       <c r="Q16" t="s">
         <v>21</v>
       </c>
-      <c r="S16" t="s">
-        <v>24</v>
-      </c>
-      <c r="T16" t="s">
-        <v>46</v>
-      </c>
-      <c r="U16" t="s">
-        <v>58</v>
-      </c>
-      <c r="V16" t="s">
-        <v>42</v>
-      </c>
-      <c r="W16" t="s">
-        <v>48</v>
-      </c>
-      <c r="X16" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>496</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>501</v>
-      </c>
-      <c r="AA16">
-        <v>2</v>
-      </c>
-      <c r="AB16">
-        <v>2</v>
-      </c>
-      <c r="AC16">
-        <v>3</v>
-      </c>
-      <c r="AD16" s="11" t="s">
-        <v>509</v>
+      <c r="R16" t="s">
+        <v>84</v>
       </c>
       <c r="AF16" t="s">
-        <v>510</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI16" t="s">
-        <v>133</v>
-      </c>
-      <c r="AK16" t="s">
-        <v>148</v>
-      </c>
-      <c r="AL16" t="s">
-        <v>497</v>
-      </c>
-      <c r="AM16" t="s">
-        <v>233</v>
-      </c>
-      <c r="AO16" t="s">
-        <v>498</v>
-      </c>
-      <c r="AQ16" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR16" t="s">
-        <v>239</v>
-      </c>
-      <c r="AS16" t="s">
-        <v>176</v>
-      </c>
-      <c r="AU16" t="s">
-        <v>499</v>
-      </c>
-      <c r="AV16" t="s">
-        <v>199</v>
-      </c>
-      <c r="AW16" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX16" t="s">
-        <v>508</v>
-      </c>
+        <v>506</v>
+      </c>
+      <c r="AX16"/>
     </row>
     <row r="17" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
@@ -7271,10 +7289,10 @@
         <v>113</v>
       </c>
       <c r="Y17" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="Z17" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="AA17">
         <v>2</v>
@@ -7285,11 +7303,11 @@
       <c r="AC17">
         <v>3</v>
       </c>
-      <c r="AD17" t="s">
-        <v>509</v>
+      <c r="AD17" s="11" t="s">
+        <v>505</v>
       </c>
       <c r="AF17" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="AG17" t="s">
         <v>110</v>
@@ -7304,13 +7322,13 @@
         <v>148</v>
       </c>
       <c r="AL17" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="AM17" t="s">
         <v>233</v>
       </c>
       <c r="AO17" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="AQ17" t="s">
         <v>164</v>
@@ -7322,16 +7340,16 @@
         <v>176</v>
       </c>
       <c r="AU17" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="AV17" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="AW17" t="s">
         <v>208</v>
       </c>
       <c r="AX17" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="18" spans="1:50" x14ac:dyDescent="0.35">
@@ -7405,10 +7423,10 @@
         <v>113</v>
       </c>
       <c r="Y18" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="Z18" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="AA18">
         <v>2</v>
@@ -7420,10 +7438,10 @@
         <v>3</v>
       </c>
       <c r="AD18" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="AF18" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="AG18" t="s">
         <v>110</v>
@@ -7438,13 +7456,13 @@
         <v>148</v>
       </c>
       <c r="AL18" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="AM18" t="s">
         <v>233</v>
       </c>
       <c r="AO18" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="AQ18" t="s">
         <v>164</v>
@@ -7456,16 +7474,16 @@
         <v>176</v>
       </c>
       <c r="AU18" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="AV18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AW18" t="s">
         <v>208</v>
       </c>
       <c r="AX18" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="19" spans="1:50" x14ac:dyDescent="0.35">
@@ -7539,10 +7557,10 @@
         <v>113</v>
       </c>
       <c r="Y19" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="Z19" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="AA19">
         <v>2</v>
@@ -7554,10 +7572,10 @@
         <v>3</v>
       </c>
       <c r="AD19" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="AF19" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="AG19" t="s">
         <v>110</v>
@@ -7572,13 +7590,13 @@
         <v>148</v>
       </c>
       <c r="AL19" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="AM19" t="s">
         <v>233</v>
       </c>
       <c r="AO19" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="AQ19" t="s">
         <v>164</v>
@@ -7590,15 +7608,15 @@
         <v>176</v>
       </c>
       <c r="AU19" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="AV19" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="AW19" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX19" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="AX19" t="s">
         <v>504</v>
       </c>
     </row>
@@ -7673,10 +7691,10 @@
         <v>113</v>
       </c>
       <c r="Y20" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="Z20" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="AA20">
         <v>2</v>
@@ -7688,10 +7706,10 @@
         <v>3</v>
       </c>
       <c r="AD20" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="AF20" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="AG20" t="s">
         <v>110</v>
@@ -7706,13 +7724,13 @@
         <v>148</v>
       </c>
       <c r="AL20" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="AM20" t="s">
         <v>233</v>
       </c>
       <c r="AO20" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="AQ20" t="s">
         <v>164</v>
@@ -7724,7 +7742,7 @@
         <v>176</v>
       </c>
       <c r="AU20" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="AV20" t="s">
         <v>200</v>
@@ -7733,48 +7751,48 @@
         <v>209</v>
       </c>
       <c r="AX20" s="11" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="21" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>242</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="E21">
         <v>2009</v>
       </c>
       <c r="F21" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="G21" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="H21" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="I21" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="J21" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="K21" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="L21" t="s">
         <v>251</v>
       </c>
       <c r="M21" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="N21" t="s">
         <v>253</v>
@@ -7783,31 +7801,34 @@
         <v>254</v>
       </c>
       <c r="P21" t="s">
-        <v>251</v>
+        <v>333</v>
       </c>
       <c r="Q21" t="s">
         <v>21</v>
       </c>
       <c r="S21" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="T21" t="s">
+        <v>46</v>
+      </c>
+      <c r="U21" t="s">
+        <v>58</v>
+      </c>
+      <c r="V21" t="s">
         <v>42</v>
       </c>
-      <c r="U21" t="s">
-        <v>56</v>
-      </c>
-      <c r="V21" t="s">
-        <v>37</v>
-      </c>
       <c r="W21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="X21" t="s">
-        <v>72</v>
+        <v>113</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>492</v>
       </c>
       <c r="Z21" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="AA21">
         <v>2</v>
@@ -7819,40 +7840,52 @@
         <v>3</v>
       </c>
       <c r="AD21" t="s">
-        <v>524</v>
+        <v>505</v>
       </c>
       <c r="AF21" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="AG21" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="AH21" t="s">
         <v>120</v>
       </c>
+      <c r="AI21" t="s">
+        <v>133</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>148</v>
+      </c>
       <c r="AL21" t="s">
-        <v>523</v>
+        <v>493</v>
       </c>
       <c r="AM21" t="s">
         <v>233</v>
       </c>
       <c r="AO21" t="s">
-        <v>512</v>
+        <v>494</v>
       </c>
       <c r="AQ21" t="s">
-        <v>150</v>
+        <v>164</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>239</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>176</v>
       </c>
       <c r="AU21" t="s">
-        <v>517</v>
+        <v>499</v>
       </c>
       <c r="AV21" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="AW21" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX21" t="s">
-        <v>522</v>
+        <v>209</v>
+      </c>
+      <c r="AX21" s="11" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="22" spans="1:50" x14ac:dyDescent="0.35">
@@ -7926,7 +7959,7 @@
         <v>72</v>
       </c>
       <c r="Z22" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="AA22">
         <v>2</v>
@@ -7938,10 +7971,10 @@
         <v>3</v>
       </c>
       <c r="AD22" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="AF22" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="AG22" t="s">
         <v>107</v>
@@ -7950,28 +7983,28 @@
         <v>120</v>
       </c>
       <c r="AL22" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="AM22" t="s">
         <v>233</v>
       </c>
       <c r="AO22" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="AQ22" t="s">
         <v>150</v>
       </c>
       <c r="AU22" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="AV22" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AW22" t="s">
         <v>208</v>
       </c>
-      <c r="AX22" s="11" t="s">
-        <v>521</v>
+      <c r="AX22" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="23" spans="1:50" x14ac:dyDescent="0.35">
@@ -8045,7 +8078,7 @@
         <v>72</v>
       </c>
       <c r="Z23" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="AA23">
         <v>2</v>
@@ -8057,10 +8090,10 @@
         <v>3</v>
       </c>
       <c r="AD23" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="AF23" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="AG23" t="s">
         <v>107</v>
@@ -8069,28 +8102,28 @@
         <v>120</v>
       </c>
       <c r="AL23" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="AM23" t="s">
         <v>233</v>
       </c>
       <c r="AO23" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="AQ23" t="s">
         <v>150</v>
       </c>
       <c r="AU23" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="AV23" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="AW23" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX23" t="s">
-        <v>518</v>
+        <v>208</v>
+      </c>
+      <c r="AX23" s="11" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="24" spans="1:50" x14ac:dyDescent="0.35">
@@ -8161,13 +8194,10 @@
         <v>47</v>
       </c>
       <c r="X24" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>514</v>
+        <v>72</v>
       </c>
       <c r="Z24" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="AA24">
         <v>2</v>
@@ -8179,81 +8209,81 @@
         <v>3</v>
       </c>
       <c r="AD24" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="AF24" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="AG24" t="s">
         <v>107</v>
       </c>
       <c r="AH24" t="s">
-        <v>121</v>
-      </c>
-      <c r="AI24" t="s">
-        <v>141</v>
+        <v>120</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>519</v>
       </c>
       <c r="AM24" t="s">
         <v>233</v>
       </c>
       <c r="AO24" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="AQ24" t="s">
         <v>150</v>
       </c>
       <c r="AU24" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="AV24" t="s">
-        <v>113</v>
+        <v>199</v>
       </c>
       <c r="AW24" t="s">
         <v>209</v>
       </c>
       <c r="AX24" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
     </row>
-    <row r="25" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
-        <v>344</v>
-      </c>
-      <c r="B25" t="s">
+        <v>335</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="C25" t="s">
-        <v>345</v>
-      </c>
-      <c r="D25" t="s">
-        <v>346</v>
+      <c r="C25" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>337</v>
       </c>
       <c r="E25">
-        <v>2001</v>
+        <v>2009</v>
       </c>
       <c r="F25" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="G25" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="H25" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="I25" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="J25" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="K25" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="L25" t="s">
         <v>251</v>
       </c>
       <c r="M25" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="N25" t="s">
         <v>253</v>
@@ -8268,28 +8298,28 @@
         <v>21</v>
       </c>
       <c r="S25" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="T25" t="s">
         <v>42</v>
       </c>
       <c r="U25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V25" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="W25" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="X25" t="s">
         <v>113</v>
       </c>
       <c r="Y25" t="s">
-        <v>540</v>
+        <v>510</v>
       </c>
       <c r="Z25" t="s">
-        <v>550</v>
+        <v>512</v>
       </c>
       <c r="AA25">
         <v>2</v>
@@ -8298,49 +8328,43 @@
         <v>2</v>
       </c>
       <c r="AC25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD25" t="s">
-        <v>552</v>
+        <v>520</v>
       </c>
       <c r="AF25" t="s">
-        <v>334</v>
+        <v>506</v>
       </c>
       <c r="AG25" t="s">
         <v>107</v>
       </c>
       <c r="AH25" t="s">
-        <v>120</v>
-      </c>
-      <c r="AL25" t="s">
-        <v>539</v>
+        <v>121</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>141</v>
       </c>
       <c r="AM25" t="s">
         <v>233</v>
       </c>
       <c r="AO25" t="s">
-        <v>541</v>
+        <v>508</v>
       </c>
       <c r="AQ25" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR25" t="s">
-        <v>168</v>
-      </c>
-      <c r="AT25" t="s">
-        <v>538</v>
+        <v>150</v>
       </c>
       <c r="AU25" t="s">
-        <v>542</v>
+        <v>511</v>
       </c>
       <c r="AV25" t="s">
-        <v>206</v>
+        <v>113</v>
       </c>
       <c r="AW25" t="s">
         <v>209</v>
       </c>
-      <c r="AX25" s="4" t="s">
-        <v>551</v>
+      <c r="AX25" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="26" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -8402,16 +8426,22 @@
         <v>42</v>
       </c>
       <c r="U26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V26" t="s">
         <v>40</v>
       </c>
+      <c r="W26" t="s">
+        <v>54</v>
+      </c>
       <c r="X26" t="s">
-        <v>72</v>
+        <v>113</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>536</v>
       </c>
       <c r="Z26" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="AA26">
         <v>2</v>
@@ -8423,10 +8453,10 @@
         <v>1</v>
       </c>
       <c r="AD26" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="AF26" t="s">
-        <v>390</v>
+        <v>334</v>
       </c>
       <c r="AG26" t="s">
         <v>107</v>
@@ -8434,20 +8464,14 @@
       <c r="AH26" t="s">
         <v>120</v>
       </c>
-      <c r="AI26" t="s">
-        <v>133</v>
-      </c>
       <c r="AL26" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="AM26" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN26" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="AO26" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="AQ26" t="s">
         <v>164</v>
@@ -8456,16 +8480,16 @@
         <v>168</v>
       </c>
       <c r="AT26" t="s">
+        <v>534</v>
+      </c>
+      <c r="AU26" t="s">
         <v>538</v>
       </c>
-      <c r="AU26" t="s">
-        <v>546</v>
-      </c>
       <c r="AV26" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="AW26" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AX26" s="4" t="s">
         <v>547</v>
@@ -8530,16 +8554,16 @@
         <v>42</v>
       </c>
       <c r="U27" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V27" t="s">
         <v>40</v>
       </c>
       <c r="X27" t="s">
-        <v>216</v>
+        <v>72</v>
       </c>
       <c r="Z27" t="s">
-        <v>554</v>
+        <v>533</v>
       </c>
       <c r="AA27">
         <v>2</v>
@@ -8551,10 +8575,7 @@
         <v>1</v>
       </c>
       <c r="AD27" t="s">
-        <v>553</v>
-      </c>
-      <c r="AE27" t="s">
-        <v>555</v>
+        <v>539</v>
       </c>
       <c r="AF27" t="s">
         <v>390</v>
@@ -8569,7 +8590,7 @@
         <v>133</v>
       </c>
       <c r="AL27" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="AM27" t="s">
         <v>232</v>
@@ -8578,7 +8599,7 @@
         <v>160</v>
       </c>
       <c r="AO27" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="AQ27" t="s">
         <v>164</v>
@@ -8587,60 +8608,60 @@
         <v>168</v>
       </c>
       <c r="AT27" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="AU27" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="AV27" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AW27" t="s">
         <v>207</v>
       </c>
       <c r="AX27" s="4" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
     </row>
-    <row r="28" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="B28" t="s">
         <v>242</v>
       </c>
       <c r="C28" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="D28" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="E28">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="F28" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="G28" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="H28" t="s">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="I28" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="J28" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K28" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="L28" t="s">
         <v>251</v>
       </c>
       <c r="M28" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="N28" t="s">
         <v>253</v>
@@ -8658,22 +8679,19 @@
         <v>25</v>
       </c>
       <c r="T28" t="s">
+        <v>42</v>
+      </c>
+      <c r="U28" t="s">
+        <v>55</v>
+      </c>
+      <c r="V28" t="s">
         <v>40</v>
       </c>
-      <c r="U28" t="s">
-        <v>53</v>
-      </c>
-      <c r="V28" t="s">
-        <v>39</v>
-      </c>
-      <c r="W28" t="s">
-        <v>47</v>
-      </c>
       <c r="X28" t="s">
-        <v>71</v>
+        <v>216</v>
       </c>
       <c r="Z28" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="AA28">
         <v>2</v>
@@ -8682,13 +8700,16 @@
         <v>2</v>
       </c>
       <c r="AC28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD28" t="s">
-        <v>560</v>
-      </c>
-      <c r="AF28">
-        <v>4.4000000000000004</v>
+        <v>549</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>551</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>390</v>
       </c>
       <c r="AG28" t="s">
         <v>107</v>
@@ -8697,16 +8718,19 @@
         <v>120</v>
       </c>
       <c r="AI28" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="AL28" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="AM28" t="s">
-        <v>159</v>
+        <v>232</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>160</v>
       </c>
       <c r="AO28" t="s">
-        <v>557</v>
+        <v>540</v>
       </c>
       <c r="AQ28" t="s">
         <v>164</v>
@@ -8715,19 +8739,19 @@
         <v>168</v>
       </c>
       <c r="AT28" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="AU28" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="AV28" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AW28" t="s">
         <v>207</v>
       </c>
-      <c r="AX28" s="11" t="s">
-        <v>558</v>
+      <c r="AX28" s="4" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="29" spans="1:50" x14ac:dyDescent="0.35">
@@ -8801,7 +8825,7 @@
         <v>71</v>
       </c>
       <c r="Z29" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="AA29">
         <v>2</v>
@@ -8813,7 +8837,7 @@
         <v>3</v>
       </c>
       <c r="AD29" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="AF29">
         <v>4.4000000000000004</v>
@@ -8822,19 +8846,19 @@
         <v>107</v>
       </c>
       <c r="AH29" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AI29" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AL29" t="s">
-        <v>607</v>
+        <v>535</v>
       </c>
       <c r="AM29" t="s">
         <v>159</v>
       </c>
       <c r="AO29" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="AQ29" t="s">
         <v>164</v>
@@ -8843,10 +8867,10 @@
         <v>168</v>
       </c>
       <c r="AT29" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="AU29" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="AV29" t="s">
         <v>199</v>
@@ -8855,81 +8879,81 @@
         <v>207</v>
       </c>
       <c r="AX29" s="11" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
-    <row r="30" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A30" s="10" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="B30" t="s">
         <v>242</v>
       </c>
       <c r="C30" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="D30" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="E30">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="F30" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="G30" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="H30" t="s">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="I30" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="J30" t="s">
-        <v>368</v>
+        <v>349</v>
       </c>
       <c r="K30" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="L30" t="s">
         <v>251</v>
       </c>
       <c r="M30" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="N30" t="s">
         <v>253</v>
       </c>
       <c r="O30" t="s">
-        <v>362</v>
+        <v>254</v>
       </c>
       <c r="P30" t="s">
-        <v>371</v>
+        <v>251</v>
       </c>
       <c r="Q30" t="s">
         <v>21</v>
       </c>
       <c r="S30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="T30" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="U30" t="s">
-        <v>56</v>
+        <v>53</v>
+      </c>
+      <c r="V30" t="s">
+        <v>39</v>
       </c>
       <c r="W30" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="X30" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>565</v>
+        <v>71</v>
       </c>
       <c r="Z30" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="AA30">
         <v>2</v>
@@ -8940,47 +8964,50 @@
       <c r="AC30">
         <v>3</v>
       </c>
-      <c r="AD30" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="AF30" t="s">
-        <v>567</v>
+      <c r="AD30" t="s">
+        <v>556</v>
+      </c>
+      <c r="AF30">
+        <v>4.4000000000000004</v>
       </c>
       <c r="AG30" t="s">
         <v>107</v>
       </c>
       <c r="AH30" t="s">
-        <v>120</v>
+        <v>117</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>144</v>
       </c>
       <c r="AL30" t="s">
-        <v>561</v>
+        <v>603</v>
       </c>
       <c r="AM30" t="s">
-        <v>233</v>
+        <v>159</v>
       </c>
       <c r="AO30" t="s">
-        <v>569</v>
+        <v>553</v>
       </c>
       <c r="AQ30" t="s">
         <v>164</v>
       </c>
       <c r="AR30" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="AT30" t="s">
-        <v>563</v>
+        <v>534</v>
       </c>
       <c r="AU30" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="AV30" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="AW30" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX30" t="s">
-        <v>570</v>
+        <v>207</v>
+      </c>
+      <c r="AX30" s="11" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="31" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -9051,10 +9078,10 @@
         <v>113</v>
       </c>
       <c r="Y31" t="s">
+        <v>561</v>
+      </c>
+      <c r="Z31" t="s">
         <v>564</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>568</v>
       </c>
       <c r="AA31">
         <v>2</v>
@@ -9066,10 +9093,10 @@
         <v>3</v>
       </c>
       <c r="AD31" s="4" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="AF31" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="AG31" t="s">
         <v>107</v>
@@ -9078,28 +9105,25 @@
         <v>120</v>
       </c>
       <c r="AL31" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="AM31" t="s">
         <v>233</v>
       </c>
       <c r="AO31" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="AQ31" t="s">
         <v>164</v>
       </c>
       <c r="AR31" t="s">
-        <v>168</v>
-      </c>
-      <c r="AS31" t="s">
-        <v>179</v>
+        <v>239</v>
       </c>
       <c r="AT31" t="s">
+        <v>559</v>
+      </c>
+      <c r="AU31" t="s">
         <v>562</v>
-      </c>
-      <c r="AU31" t="s">
-        <v>566</v>
       </c>
       <c r="AV31" t="s">
         <v>206</v>
@@ -9107,82 +9131,82 @@
       <c r="AW31" t="s">
         <v>209</v>
       </c>
-      <c r="AX31" s="4" t="s">
-        <v>571</v>
+      <c r="AX31" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="32" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="10" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="B32" t="s">
         <v>242</v>
       </c>
       <c r="C32" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="D32" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="E32">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="F32" t="s">
-        <v>327</v>
+        <v>347</v>
       </c>
       <c r="G32" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="H32" t="s">
-        <v>376</v>
+        <v>251</v>
       </c>
       <c r="I32" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="J32" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="K32" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="L32" t="s">
         <v>251</v>
       </c>
       <c r="M32" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="N32" t="s">
         <v>253</v>
       </c>
       <c r="O32" t="s">
-        <v>254</v>
+        <v>362</v>
       </c>
       <c r="P32" t="s">
-        <v>315</v>
+        <v>371</v>
       </c>
       <c r="Q32" t="s">
         <v>21</v>
       </c>
       <c r="S32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T32" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="U32" t="s">
-        <v>49</v>
-      </c>
-      <c r="V32" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="W32" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="X32" t="s">
-        <v>216</v>
+        <v>113</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>560</v>
       </c>
       <c r="Z32" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="AA32">
         <v>2</v>
@@ -9193,91 +9217,91 @@
       <c r="AC32">
         <v>3</v>
       </c>
-      <c r="AD32" t="s">
-        <v>578</v>
+      <c r="AD32" s="4" t="s">
+        <v>568</v>
       </c>
       <c r="AF32" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="AG32" t="s">
         <v>107</v>
       </c>
       <c r="AH32" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI32" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AL32" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="AM32" t="s">
         <v>233</v>
       </c>
       <c r="AO32" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="AQ32" t="s">
         <v>164</v>
       </c>
       <c r="AR32" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="AS32" t="s">
-        <v>176</v>
+        <v>179</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>558</v>
       </c>
       <c r="AU32" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
       <c r="AV32" t="s">
-        <v>113</v>
+        <v>206</v>
       </c>
       <c r="AW32" t="s">
         <v>209</v>
       </c>
-      <c r="AX32" t="s">
-        <v>577</v>
+      <c r="AX32" s="4" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="33" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="10" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="B33" t="s">
         <v>242</v>
       </c>
       <c r="C33" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="D33" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="E33">
-        <v>2003</v>
+        <v>1997</v>
       </c>
       <c r="F33" t="s">
-        <v>384</v>
+        <v>327</v>
       </c>
       <c r="G33" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="H33" t="s">
-        <v>301</v>
+        <v>376</v>
       </c>
       <c r="I33" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="J33" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="K33" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="L33" t="s">
         <v>251</v>
       </c>
       <c r="M33" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="N33" t="s">
         <v>253</v>
@@ -9285,32 +9309,32 @@
       <c r="O33" t="s">
         <v>254</v>
       </c>
+      <c r="P33" t="s">
+        <v>315</v>
+      </c>
       <c r="Q33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="T33" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="U33" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="V33" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W33" t="s">
         <v>48</v>
       </c>
       <c r="X33" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>589</v>
+        <v>216</v>
       </c>
       <c r="Z33" t="s">
-        <v>592</v>
+        <v>571</v>
       </c>
       <c r="AA33">
         <v>2</v>
@@ -9322,52 +9346,49 @@
         <v>3</v>
       </c>
       <c r="AD33" t="s">
-        <v>594</v>
+        <v>574</v>
       </c>
       <c r="AF33" t="s">
-        <v>390</v>
+        <v>563</v>
       </c>
       <c r="AG33" t="s">
         <v>107</v>
       </c>
       <c r="AH33" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AI33" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AL33" t="s">
-        <v>608</v>
+        <v>569</v>
       </c>
       <c r="AM33" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN33" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="AO33" t="s">
-        <v>591</v>
+        <v>570</v>
       </c>
       <c r="AQ33" t="s">
         <v>164</v>
       </c>
       <c r="AR33" t="s">
-        <v>168</v>
-      </c>
-      <c r="AT33" t="s">
-        <v>590</v>
+        <v>239</v>
+      </c>
+      <c r="AS33" t="s">
+        <v>176</v>
       </c>
       <c r="AU33" t="s">
-        <v>593</v>
+        <v>572</v>
       </c>
       <c r="AV33" t="s">
-        <v>213</v>
+        <v>113</v>
       </c>
       <c r="AW33" t="s">
         <v>209</v>
       </c>
-      <c r="AX33" s="11" t="s">
-        <v>618</v>
+      <c r="AX33" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="34" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -9438,10 +9459,10 @@
         <v>113</v>
       </c>
       <c r="Y34" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="Z34" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="AA34">
         <v>2</v>
@@ -9453,7 +9474,7 @@
         <v>3</v>
       </c>
       <c r="AD34" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="AF34" t="s">
         <v>390</v>
@@ -9468,7 +9489,7 @@
         <v>133</v>
       </c>
       <c r="AL34" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="AM34" t="s">
         <v>232</v>
@@ -9477,7 +9498,7 @@
         <v>160</v>
       </c>
       <c r="AO34" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="AQ34" t="s">
         <v>164</v>
@@ -9486,19 +9507,19 @@
         <v>168</v>
       </c>
       <c r="AT34" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="AU34" t="s">
-        <v>610</v>
+        <v>589</v>
       </c>
       <c r="AV34" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AW34" t="s">
         <v>209</v>
       </c>
       <c r="AX34" s="11" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="35" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -9569,10 +9590,10 @@
         <v>113</v>
       </c>
       <c r="Y35" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="Z35" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="AA35">
         <v>2</v>
@@ -9584,13 +9605,13 @@
         <v>3</v>
       </c>
       <c r="AD35" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="AF35" t="s">
         <v>390</v>
       </c>
       <c r="AG35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AH35" t="s">
         <v>120</v>
@@ -9599,7 +9620,7 @@
         <v>133</v>
       </c>
       <c r="AL35" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="AM35" t="s">
         <v>232</v>
@@ -9608,7 +9629,7 @@
         <v>160</v>
       </c>
       <c r="AO35" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="AQ35" t="s">
         <v>164</v>
@@ -9617,19 +9638,19 @@
         <v>168</v>
       </c>
       <c r="AT35" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="AU35" t="s">
-        <v>593</v>
+        <v>606</v>
       </c>
       <c r="AV35" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AW35" t="s">
         <v>209</v>
       </c>
       <c r="AX35" s="11" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="36" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -9700,10 +9721,10 @@
         <v>113</v>
       </c>
       <c r="Y36" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="Z36" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="AA36">
         <v>2</v>
@@ -9715,7 +9736,7 @@
         <v>3</v>
       </c>
       <c r="AD36" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="AF36" t="s">
         <v>390</v>
@@ -9730,7 +9751,7 @@
         <v>133</v>
       </c>
       <c r="AL36" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="AM36" t="s">
         <v>232</v>
@@ -9739,7 +9760,7 @@
         <v>160</v>
       </c>
       <c r="AO36" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="AQ36" t="s">
         <v>164</v>
@@ -9748,93 +9769,93 @@
         <v>168</v>
       </c>
       <c r="AT36" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="AU36" t="s">
-        <v>610</v>
+        <v>589</v>
       </c>
       <c r="AV36" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AW36" t="s">
         <v>209</v>
       </c>
       <c r="AX36" s="11" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="37" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="10" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="B37" t="s">
         <v>242</v>
       </c>
       <c r="C37" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="D37" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="E37">
-        <v>2009</v>
+        <v>2003</v>
       </c>
       <c r="F37" t="s">
-        <v>309</v>
+        <v>384</v>
       </c>
       <c r="G37" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="H37" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="I37" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="J37" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="K37" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="L37" t="s">
         <v>251</v>
       </c>
       <c r="M37" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="N37" t="s">
         <v>253</v>
       </c>
       <c r="O37" t="s">
-        <v>362</v>
-      </c>
-      <c r="P37" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q37" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S37" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="T37" t="s">
         <v>46</v>
       </c>
       <c r="U37" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="V37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="X37" t="s">
-        <v>215</v>
+        <v>113</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>585</v>
       </c>
       <c r="Z37" t="s">
-        <v>604</v>
+        <v>588</v>
       </c>
       <c r="AA37">
         <v>2</v>
@@ -9846,46 +9867,52 @@
         <v>3</v>
       </c>
       <c r="AD37" t="s">
-        <v>605</v>
-      </c>
-      <c r="AF37">
-        <v>4.2</v>
+        <v>590</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>390</v>
       </c>
       <c r="AG37" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AH37" t="s">
-        <v>220</v>
+        <v>120</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>133</v>
       </c>
       <c r="AL37" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AM37" t="s">
         <v>232</v>
       </c>
       <c r="AN37" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AO37" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="AQ37" t="s">
         <v>164</v>
       </c>
       <c r="AR37" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="AT37" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
       <c r="AU37" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="AV37" t="s">
-        <v>238</v>
-      </c>
-      <c r="AX37" t="s">
-        <v>602</v>
+        <v>212</v>
+      </c>
+      <c r="AW37" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX37" s="11" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="38" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -9959,7 +9986,7 @@
         <v>215</v>
       </c>
       <c r="Z38" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="AA38">
         <v>2</v>
@@ -9970,7 +9997,9 @@
       <c r="AC38">
         <v>3</v>
       </c>
-      <c r="AD38"/>
+      <c r="AD38" t="s">
+        <v>601</v>
+      </c>
       <c r="AF38">
         <v>4.2</v>
       </c>
@@ -9978,10 +10007,10 @@
         <v>111</v>
       </c>
       <c r="AH38" t="s">
-        <v>117</v>
+        <v>220</v>
       </c>
       <c r="AL38" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="AM38" t="s">
         <v>232</v>
@@ -9990,7 +10019,7 @@
         <v>162</v>
       </c>
       <c r="AO38" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="AQ38" t="s">
         <v>164</v>
@@ -9999,57 +10028,57 @@
         <v>239</v>
       </c>
       <c r="AT38" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="AU38" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="AV38" t="s">
         <v>238</v>
       </c>
       <c r="AX38" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
     </row>
     <row r="39" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="B39" t="s">
         <v>242</v>
       </c>
       <c r="C39" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="D39" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="E39">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="F39" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="G39" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="H39" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="I39" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="J39" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="K39" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="L39" t="s">
         <v>251</v>
       </c>
       <c r="M39" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="N39" t="s">
         <v>253</v>
@@ -10064,13 +10093,13 @@
         <v>21</v>
       </c>
       <c r="S39" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="T39" t="s">
         <v>46</v>
       </c>
       <c r="U39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V39" t="s">
         <v>43</v>
@@ -10082,7 +10111,7 @@
         <v>215</v>
       </c>
       <c r="Z39" t="s">
-        <v>532</v>
+        <v>600</v>
       </c>
       <c r="AA39">
         <v>2</v>
@@ -10093,29 +10122,27 @@
       <c r="AC39">
         <v>3</v>
       </c>
-      <c r="AD39" s="11" t="s">
-        <v>535</v>
-      </c>
-      <c r="AF39" t="s">
-        <v>390</v>
+      <c r="AD39"/>
+      <c r="AF39">
+        <v>4.2</v>
       </c>
       <c r="AG39" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AH39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AL39" t="s">
-        <v>531</v>
+        <v>602</v>
       </c>
       <c r="AM39" t="s">
         <v>232</v>
       </c>
       <c r="AN39" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AO39" t="s">
-        <v>487</v>
+        <v>596</v>
       </c>
       <c r="AQ39" t="s">
         <v>164</v>
@@ -10123,20 +10150,20 @@
       <c r="AR39" t="s">
         <v>239</v>
       </c>
+      <c r="AT39" t="s">
+        <v>595</v>
+      </c>
       <c r="AU39" t="s">
-        <v>533</v>
+        <v>597</v>
       </c>
       <c r="AV39" t="s">
         <v>238</v>
       </c>
-      <c r="AW39" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX39" s="11" t="s">
-        <v>534</v>
+      <c r="AX39" t="s">
+        <v>598</v>
       </c>
     </row>
-    <row r="40" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="10" t="s">
         <v>399</v>
       </c>
@@ -10207,7 +10234,7 @@
         <v>215</v>
       </c>
       <c r="Z40" t="s">
-        <v>501</v>
+        <v>528</v>
       </c>
       <c r="AA40">
         <v>2</v>
@@ -10219,7 +10246,7 @@
         <v>3</v>
       </c>
       <c r="AD40" s="11" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="AF40" t="s">
         <v>390</v>
@@ -10231,7 +10258,7 @@
         <v>118</v>
       </c>
       <c r="AL40" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="AM40" t="s">
         <v>232</v>
@@ -10249,63 +10276,63 @@
         <v>239</v>
       </c>
       <c r="AU40" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="AV40" t="s">
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="AW40" t="s">
         <v>209</v>
       </c>
       <c r="AX40" s="11" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
     </row>
     <row r="41" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A41" s="10" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="B41" t="s">
         <v>242</v>
       </c>
       <c r="C41" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="D41" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="E41">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="F41" t="s">
-        <v>409</v>
+        <v>299</v>
       </c>
       <c r="G41" t="s">
-        <v>246</v>
+        <v>387</v>
       </c>
       <c r="H41" t="s">
-        <v>247</v>
+        <v>301</v>
       </c>
       <c r="I41" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="J41" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="K41" t="s">
-        <v>251</v>
+        <v>404</v>
       </c>
       <c r="L41" t="s">
         <v>251</v>
       </c>
       <c r="M41" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="N41" t="s">
         <v>253</v>
       </c>
       <c r="O41" t="s">
-        <v>254</v>
+        <v>362</v>
       </c>
       <c r="P41" t="s">
         <v>251</v>
@@ -10313,51 +10340,118 @@
       <c r="Q41" t="s">
         <v>21</v>
       </c>
-      <c r="R41" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD41"/>
-      <c r="AX41"/>
+      <c r="S41" t="s">
+        <v>33</v>
+      </c>
+      <c r="T41" t="s">
+        <v>46</v>
+      </c>
+      <c r="U41" t="s">
+        <v>58</v>
+      </c>
+      <c r="V41" t="s">
+        <v>43</v>
+      </c>
+      <c r="W41" t="s">
+        <v>47</v>
+      </c>
+      <c r="X41" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>497</v>
+      </c>
+      <c r="AA41">
+        <v>2</v>
+      </c>
+      <c r="AB41">
+        <v>2</v>
+      </c>
+      <c r="AC41">
+        <v>3</v>
+      </c>
+      <c r="AD41" s="11" t="s">
+        <v>531</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>390</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>118</v>
+      </c>
+      <c r="AL41" t="s">
+        <v>527</v>
+      </c>
+      <c r="AM41" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN41" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO41" t="s">
+        <v>487</v>
+      </c>
+      <c r="AQ41" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR41" t="s">
+        <v>239</v>
+      </c>
+      <c r="AU41" t="s">
+        <v>529</v>
+      </c>
+      <c r="AV41" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW41" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX41" s="11" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="42" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="B42" t="s">
         <v>242</v>
       </c>
       <c r="C42" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="D42" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="E42">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="F42" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="G42" t="s">
-        <v>417</v>
+        <v>246</v>
       </c>
       <c r="H42" t="s">
-        <v>418</v>
+        <v>247</v>
       </c>
       <c r="I42" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="J42" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="K42" t="s">
-        <v>421</v>
+        <v>251</v>
       </c>
       <c r="L42" t="s">
         <v>251</v>
       </c>
       <c r="M42" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="N42" t="s">
         <v>253</v>
@@ -10366,7 +10460,7 @@
         <v>254</v>
       </c>
       <c r="P42" t="s">
-        <v>371</v>
+        <v>251</v>
       </c>
       <c r="Q42" t="s">
         <v>21</v>
@@ -10379,43 +10473,43 @@
     </row>
     <row r="43" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A43" s="10" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="B43" t="s">
         <v>242</v>
       </c>
       <c r="C43" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="D43" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="E43">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="F43" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="G43" t="s">
-        <v>260</v>
+        <v>417</v>
       </c>
       <c r="H43" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="I43" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="J43" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="K43" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="L43" t="s">
         <v>251</v>
       </c>
       <c r="M43" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="N43" t="s">
         <v>253</v>
@@ -10424,56 +10518,56 @@
         <v>254</v>
       </c>
       <c r="P43" t="s">
-        <v>251</v>
+        <v>371</v>
       </c>
       <c r="Q43" t="s">
         <v>21</v>
       </c>
       <c r="R43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AD43"/>
       <c r="AX43"/>
     </row>
     <row r="44" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A44" s="10" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="B44" t="s">
         <v>242</v>
       </c>
       <c r="C44" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="D44" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="E44">
-        <v>1997</v>
+        <v>2001</v>
       </c>
       <c r="F44" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="G44" t="s">
-        <v>435</v>
+        <v>260</v>
       </c>
       <c r="H44" t="s">
-        <v>361</v>
+        <v>427</v>
       </c>
       <c r="I44" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="J44" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="K44" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="L44" t="s">
         <v>251</v>
       </c>
       <c r="M44" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="N44" t="s">
         <v>253</v>
@@ -10491,50 +10585,47 @@
         <v>85</v>
       </c>
       <c r="AD44"/>
-      <c r="AF44" t="s">
-        <v>390</v>
-      </c>
       <c r="AX44"/>
     </row>
     <row r="45" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A45" s="10" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="B45" t="s">
         <v>242</v>
       </c>
       <c r="C45" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="D45" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="E45">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="F45" t="s">
-        <v>327</v>
+        <v>416</v>
       </c>
       <c r="G45" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="H45" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="I45" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="J45" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="K45" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="L45" t="s">
         <v>251</v>
       </c>
       <c r="M45" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="N45" t="s">
         <v>253</v>
@@ -10543,77 +10634,19 @@
         <v>254</v>
       </c>
       <c r="P45" t="s">
-        <v>315</v>
+        <v>251</v>
       </c>
       <c r="Q45" t="s">
         <v>21</v>
       </c>
-      <c r="S45" t="s">
-        <v>31</v>
-      </c>
-      <c r="U45" t="s">
-        <v>56</v>
-      </c>
-      <c r="W45" t="s">
-        <v>49</v>
-      </c>
-      <c r="X45" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y45" t="s">
-        <v>580</v>
-      </c>
-      <c r="Z45" t="s">
-        <v>579</v>
-      </c>
-      <c r="AA45">
-        <v>2</v>
-      </c>
-      <c r="AB45">
-        <v>2</v>
-      </c>
-      <c r="AC45">
-        <v>3</v>
-      </c>
-      <c r="AD45" t="s">
-        <v>581</v>
-      </c>
-      <c r="AF45">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AG45" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH45" t="s">
-        <v>116</v>
-      </c>
-      <c r="AL45" t="s">
-        <v>609</v>
-      </c>
-      <c r="AM45" t="s">
-        <v>159</v>
-      </c>
-      <c r="AO45" t="s">
-        <v>622</v>
-      </c>
-      <c r="AQ45" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR45" t="s">
-        <v>239</v>
-      </c>
-      <c r="AU45" t="s">
-        <v>611</v>
-      </c>
-      <c r="AV45" t="s">
-        <v>203</v>
-      </c>
-      <c r="AW45" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX45" t="s">
-        <v>612</v>
-      </c>
+      <c r="R45" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD45"/>
+      <c r="AF45" t="s">
+        <v>390</v>
+      </c>
+      <c r="AX45"/>
     </row>
     <row r="46" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A46" s="10" t="s">
@@ -10680,10 +10713,10 @@
         <v>113</v>
       </c>
       <c r="Y46" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="Z46" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="AA46">
         <v>2</v>
@@ -10695,7 +10728,7 @@
         <v>3</v>
       </c>
       <c r="AD46" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="AF46">
         <v>4.4000000000000004</v>
@@ -10707,13 +10740,13 @@
         <v>116</v>
       </c>
       <c r="AL46" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="AM46" t="s">
         <v>159</v>
       </c>
       <c r="AO46" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="AQ46" t="s">
         <v>164</v>
@@ -10722,16 +10755,16 @@
         <v>239</v>
       </c>
       <c r="AU46" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="AV46" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AW46" t="s">
         <v>207</v>
       </c>
       <c r="AX46" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
     </row>
     <row r="47" spans="1:50" x14ac:dyDescent="0.35">
@@ -10799,10 +10832,10 @@
         <v>113</v>
       </c>
       <c r="Y47" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="Z47" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="AA47">
         <v>2</v>
@@ -10814,7 +10847,7 @@
         <v>3</v>
       </c>
       <c r="AD47" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="AF47">
         <v>4.4000000000000004</v>
@@ -10826,13 +10859,13 @@
         <v>116</v>
       </c>
       <c r="AL47" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="AM47" t="s">
         <v>159</v>
       </c>
       <c r="AO47" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="AQ47" t="s">
         <v>164</v>
@@ -10841,57 +10874,57 @@
         <v>239</v>
       </c>
       <c r="AU47" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="AV47" t="s">
         <v>201</v>
       </c>
       <c r="AW47" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AX47" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
     </row>
     <row r="48" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A48" s="10" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="B48" t="s">
         <v>242</v>
       </c>
       <c r="C48" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="D48" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="E48">
-        <v>1972</v>
+        <v>1996</v>
       </c>
       <c r="F48" t="s">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="G48" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="H48" t="s">
-        <v>292</v>
+        <v>376</v>
       </c>
       <c r="I48" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="J48" t="s">
-        <v>348</v>
+        <v>445</v>
       </c>
       <c r="K48" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="L48" t="s">
         <v>251</v>
       </c>
       <c r="M48" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="N48" t="s">
         <v>253</v>
@@ -10900,31 +10933,28 @@
         <v>254</v>
       </c>
       <c r="P48" t="s">
-        <v>251</v>
+        <v>315</v>
       </c>
       <c r="Q48" t="s">
         <v>21</v>
       </c>
       <c r="S48" t="s">
-        <v>24</v>
-      </c>
-      <c r="T48" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="U48" t="s">
-        <v>59</v>
-      </c>
-      <c r="V48" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="W48" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="X48" t="s">
-        <v>69</v>
+        <v>113</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>576</v>
       </c>
       <c r="Z48" t="s">
-        <v>390</v>
+        <v>575</v>
       </c>
       <c r="AA48">
         <v>2</v>
@@ -10933,94 +10963,87 @@
         <v>2</v>
       </c>
       <c r="AC48">
-        <v>1</v>
-      </c>
-      <c r="AD48"/>
-      <c r="AE48" t="s">
-        <v>597</v>
-      </c>
-      <c r="AF48" t="s">
-        <v>390</v>
+        <v>3</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>577</v>
+      </c>
+      <c r="AF48">
+        <v>4.4000000000000004</v>
       </c>
       <c r="AG48" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AH48" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI48" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="AL48" t="s">
-        <v>582</v>
+        <v>605</v>
       </c>
       <c r="AM48" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN48" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AO48" t="s">
-        <v>596</v>
+        <v>618</v>
       </c>
       <c r="AQ48" t="s">
         <v>164</v>
       </c>
-      <c r="AT48" t="s">
-        <v>583</v>
+      <c r="AR48" t="s">
+        <v>239</v>
       </c>
       <c r="AU48" t="s">
-        <v>595</v>
+        <v>611</v>
       </c>
       <c r="AV48" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AW48" t="s">
         <v>209</v>
       </c>
       <c r="AX48" t="s">
-        <v>598</v>
+        <v>612</v>
       </c>
     </row>
     <row r="49" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A49" s="10" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="B49" t="s">
         <v>242</v>
       </c>
       <c r="C49" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="D49" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="E49">
-        <v>2011</v>
+        <v>1972</v>
       </c>
       <c r="F49" t="s">
-        <v>458</v>
+        <v>309</v>
       </c>
       <c r="G49" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="H49" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="I49" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="J49" t="s">
-        <v>461</v>
+        <v>348</v>
       </c>
       <c r="K49" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="L49" t="s">
         <v>251</v>
       </c>
       <c r="M49" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="N49" t="s">
         <v>253</v>
@@ -11029,34 +11052,31 @@
         <v>254</v>
       </c>
       <c r="P49" t="s">
-        <v>464</v>
+        <v>251</v>
       </c>
       <c r="Q49" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S49" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="T49" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="U49" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="V49" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="W49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="X49" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y49" t="s">
-        <v>584</v>
+        <v>69</v>
       </c>
       <c r="Z49" t="s">
-        <v>585</v>
+        <v>390</v>
       </c>
       <c r="AA49">
         <v>2</v>
@@ -11065,61 +11085,193 @@
         <v>2</v>
       </c>
       <c r="AC49">
-        <v>3</v>
-      </c>
-      <c r="AD49" t="s">
-        <v>588</v>
+        <v>1</v>
+      </c>
+      <c r="AD49"/>
+      <c r="AE49" t="s">
+        <v>593</v>
       </c>
       <c r="AF49" t="s">
         <v>390</v>
       </c>
       <c r="AG49" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AH49" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AI49" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ49" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="AL49" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="AM49" t="s">
         <v>232</v>
       </c>
       <c r="AN49" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AO49" t="s">
-        <v>621</v>
+        <v>592</v>
       </c>
       <c r="AQ49" t="s">
         <v>164</v>
       </c>
-      <c r="AR49" t="s">
-        <v>239</v>
-      </c>
-      <c r="AS49" t="s">
-        <v>176</v>
-      </c>
       <c r="AT49" t="s">
-        <v>620</v>
+        <v>579</v>
       </c>
       <c r="AU49" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="AV49" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="AW49" t="s">
         <v>209</v>
       </c>
-      <c r="AX49" s="11" t="s">
-        <v>619</v>
+      <c r="AX49" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="50" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A50" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="B50" t="s">
+        <v>242</v>
+      </c>
+      <c r="C50" t="s">
+        <v>456</v>
+      </c>
+      <c r="D50" t="s">
+        <v>457</v>
+      </c>
+      <c r="E50">
+        <v>2011</v>
+      </c>
+      <c r="F50" t="s">
+        <v>458</v>
+      </c>
+      <c r="G50" t="s">
+        <v>459</v>
+      </c>
+      <c r="H50" t="s">
+        <v>301</v>
+      </c>
+      <c r="I50" t="s">
+        <v>460</v>
+      </c>
+      <c r="J50" t="s">
+        <v>461</v>
+      </c>
+      <c r="K50" t="s">
+        <v>462</v>
+      </c>
+      <c r="L50" t="s">
+        <v>251</v>
+      </c>
+      <c r="M50" t="s">
+        <v>463</v>
+      </c>
+      <c r="N50" t="s">
+        <v>253</v>
+      </c>
+      <c r="O50" t="s">
+        <v>254</v>
+      </c>
+      <c r="P50" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>22</v>
+      </c>
+      <c r="S50" t="s">
+        <v>26</v>
+      </c>
+      <c r="T50" t="s">
+        <v>44</v>
+      </c>
+      <c r="U50" t="s">
+        <v>55</v>
+      </c>
+      <c r="V50" t="s">
+        <v>44</v>
+      </c>
+      <c r="W50" t="s">
+        <v>48</v>
+      </c>
+      <c r="X50" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>580</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>581</v>
+      </c>
+      <c r="AA50">
+        <v>2</v>
+      </c>
+      <c r="AB50">
+        <v>2</v>
+      </c>
+      <c r="AC50">
+        <v>3</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>584</v>
+      </c>
+      <c r="AF50" t="s">
+        <v>390</v>
+      </c>
+      <c r="AG50" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH50" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI50" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ50" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL50" t="s">
+        <v>582</v>
+      </c>
+      <c r="AM50" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN50" t="s">
+        <v>161</v>
+      </c>
+      <c r="AO50" t="s">
+        <v>617</v>
+      </c>
+      <c r="AQ50" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR50" t="s">
+        <v>239</v>
+      </c>
+      <c r="AS50" t="s">
+        <v>176</v>
+      </c>
+      <c r="AT50" t="s">
+        <v>616</v>
+      </c>
+      <c r="AU50" t="s">
+        <v>583</v>
+      </c>
+      <c r="AV50" t="s">
+        <v>213</v>
+      </c>
+      <c r="AW50" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX50" s="11" t="s">
+        <v>615</v>
       </c>
     </row>
   </sheetData>
@@ -11133,7 +11285,7 @@
     <mergeCell ref="AM1:AP1"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="Q3:Q11 P12:P1048576" xr:uid="{362F6CDE-1825-4749-A70C-DB47556067E9}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="P13:P1048576 Q3:Q12" xr:uid="{362F6CDE-1825-4749-A70C-DB47556067E9}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH3:AH1048576" xr:uid="{CC52EB33-CB89-440E-A680-3600353FCD60}">
       <formula1>Ecosystem_component</formula1>
     </dataValidation>
@@ -11154,7 +11306,7 @@
           <x14:formula1>
             <xm:f>Validation!$R$3:$R$9</xm:f>
           </x14:formula1>
-          <xm:sqref>R50:R1048576 R3:R9 R12 R14 R21:R24 R41:R47</xm:sqref>
+          <xm:sqref>R51:R1048576 R3:R9 R13 R15 R22:R25 R42:R48</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FB66A4B2-AC63-401A-912C-59AB3AFB17C3}">
           <x14:formula1>
@@ -13226,9 +13378,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13346,25 +13501,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -13386,9 +13531,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Bluemel.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Bluemel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00231874-511E-47E9-A1CF-B63600A67CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8BCBDFA-003C-4928-A491-48636C4A379F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataExtraction" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Drop-down overview" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$52</definedName>
     <definedName name="Benthic_epifauna">Validation!$AI$32:$AI$35</definedName>
     <definedName name="Benthos">Validation!$AN$24:$AN$25</definedName>
     <definedName name="Catch_and_bycatch">Validation!$AM$15:$AM$17</definedName>
@@ -98,6 +98,8 @@
     <author>tc={CD3A6164-943A-4E6E-9BF5-5FE09891CCB9}</author>
     <author>tc={0DBA107E-6F54-47E4-99BD-BD727CABFC0F}</author>
     <author>tc={CC0A6BC4-04EF-4A83-B009-E37BE3CA69B7}</author>
+    <author>tc={C8CE8C76-CB6C-49E4-800B-D36CD6D5A455}</author>
+    <author>tc={C39B4CF5-F8A5-4850-B83E-9C2F42B4226D}</author>
     <author>tc={83BF076C-EF3A-4FF6-92DF-06C2F3DA57D1}</author>
     <author>tc={FDF1D696-0CED-4B50-9488-28F563E535BB}</author>
     <author>tc={3E7E8A63-FE8F-485C-B7B0-D651CC82B2E5}</author>
@@ -1520,7 +1522,7 @@
     hydrolic dredge</t>
       </text>
     </comment>
-    <comment ref="AV33" authorId="34" shapeId="0" xr:uid="{83BF076C-EF3A-4FF6-92DF-06C2F3DA57D1}">
+    <comment ref="AV33" authorId="34" shapeId="0" xr:uid="{C8CE8C76-CB6C-49E4-800B-D36CD6D5A455}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1528,7 +1530,23 @@
     Diet</t>
       </text>
     </comment>
-    <comment ref="AG34" authorId="35" shapeId="0" xr:uid="{FDF1D696-0CED-4B50-9488-28F563E535BB}">
+    <comment ref="AV34" authorId="35" shapeId="0" xr:uid="{C39B4CF5-F8A5-4850-B83E-9C2F42B4226D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Diet</t>
+      </text>
+    </comment>
+    <comment ref="AV35" authorId="36" shapeId="0" xr:uid="{83BF076C-EF3A-4FF6-92DF-06C2F3DA57D1}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Diet</t>
+      </text>
+    </comment>
+    <comment ref="AG36" authorId="37" shapeId="0" xr:uid="{FDF1D696-0CED-4B50-9488-28F563E535BB}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1536,7 +1554,7 @@
     both field and lab study</t>
       </text>
     </comment>
-    <comment ref="AG35" authorId="36" shapeId="0" xr:uid="{3E7E8A63-FE8F-485C-B7B0-D651CC82B2E5}">
+    <comment ref="AG37" authorId="38" shapeId="0" xr:uid="{3E7E8A63-FE8F-485C-B7B0-D651CC82B2E5}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1544,7 +1562,7 @@
     both field and lab study</t>
       </text>
     </comment>
-    <comment ref="AG36" authorId="37" shapeId="0" xr:uid="{1F73A643-4889-4B00-BF17-FD191EDC437F}">
+    <comment ref="AG38" authorId="39" shapeId="0" xr:uid="{1F73A643-4889-4B00-BF17-FD191EDC437F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1552,7 +1570,7 @@
     both field and lab study</t>
       </text>
     </comment>
-    <comment ref="AG37" authorId="38" shapeId="0" xr:uid="{C13FAB98-20DA-4332-A868-0381F8EB51A5}">
+    <comment ref="AG39" authorId="40" shapeId="0" xr:uid="{C13FAB98-20DA-4332-A868-0381F8EB51A5}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1560,7 +1578,7 @@
     both field and lab study</t>
       </text>
     </comment>
-    <comment ref="AR38" authorId="39" shapeId="0" xr:uid="{8B01BB42-BD50-4A2B-91AE-BFF1AE1CC4A6}">
+    <comment ref="AR40" authorId="41" shapeId="0" xr:uid="{8B01BB42-BD50-4A2B-91AE-BFF1AE1CC4A6}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1568,7 +1586,7 @@
     beam and otter</t>
       </text>
     </comment>
-    <comment ref="AW38" authorId="40" shapeId="0" xr:uid="{11A0CED8-7C4E-4A10-B3D6-7390E2591B9D}">
+    <comment ref="AW40" authorId="42" shapeId="0" xr:uid="{11A0CED8-7C4E-4A10-B3D6-7390E2591B9D}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1576,7 +1594,7 @@
     Did not test relationship but modelled mortality rates of bycatch for each species</t>
       </text>
     </comment>
-    <comment ref="AR39" authorId="41" shapeId="0" xr:uid="{7C93FD45-F80E-4576-B1F4-320CE5D28934}">
+    <comment ref="AR41" authorId="43" shapeId="0" xr:uid="{7C93FD45-F80E-4576-B1F4-320CE5D28934}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1584,7 +1602,7 @@
     beam and otter</t>
       </text>
     </comment>
-    <comment ref="AW39" authorId="42" shapeId="0" xr:uid="{84CBE241-7A40-4FBE-9038-FF85F7034818}">
+    <comment ref="AW41" authorId="44" shapeId="0" xr:uid="{84CBE241-7A40-4FBE-9038-FF85F7034818}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1592,7 +1610,7 @@
     Did not test relationship but modelled mortality rates of bycatch for each species</t>
       </text>
     </comment>
-    <comment ref="R42" authorId="43" shapeId="0" xr:uid="{29231E64-24AA-413F-9FA6-0B09201F7447}">
+    <comment ref="R44" authorId="45" shapeId="0" xr:uid="{29231E64-24AA-413F-9FA6-0B09201F7447}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1600,7 +1618,7 @@
     Paper describes the shrimp shoal structure but not assessment of fishing impacts on it</t>
       </text>
     </comment>
-    <comment ref="R43" authorId="44" shapeId="0" xr:uid="{8E7B695D-F34B-40FE-813F-DC802677F34C}">
+    <comment ref="R45" authorId="46" shapeId="0" xr:uid="{8E7B695D-F34B-40FE-813F-DC802677F34C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1608,7 +1626,7 @@
     this study identifies impacts of season and breeding of species, resource access (regulations and competition between fisheries) on LPUE, not impacts of fishing on ecosystem</t>
       </text>
     </comment>
-    <comment ref="R44" authorId="45" shapeId="0" xr:uid="{DB75CAF6-E7A8-4AD0-BD5E-B650738D5CE8}">
+    <comment ref="R46" authorId="47" shapeId="0" xr:uid="{DB75CAF6-E7A8-4AD0-BD5E-B650738D5CE8}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1616,7 +1634,7 @@
     a review of deepwater fisheries with no analysis of data</t>
       </text>
     </comment>
-    <comment ref="R45" authorId="46" shapeId="0" xr:uid="{172069E3-CDA2-41BE-8240-6D3A9258F91B}">
+    <comment ref="R47" authorId="48" shapeId="0" xr:uid="{172069E3-CDA2-41BE-8240-6D3A9258F91B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1624,7 +1642,7 @@
     I think this is purely a methodoligical paper - comparing hypotheses for natural mortality rates at age in stock assessment. This is not my area so would be good to have a second opinion!</t>
       </text>
     </comment>
-    <comment ref="T46" authorId="47" shapeId="0" xr:uid="{ABCFD0AF-BE84-4846-9C69-0442BE7E7030}">
+    <comment ref="T48" authorId="49" shapeId="0" xr:uid="{ABCFD0AF-BE84-4846-9C69-0442BE7E7030}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1632,7 +1650,7 @@
     Ebro Delta Natural Park, 40o37'N, 00o35'E; see Oro and Martinez-Vilalata 1994 for details</t>
       </text>
     </comment>
-    <comment ref="V46" authorId="48" shapeId="0" xr:uid="{2E2E41C1-2DBF-42F9-8384-EA0DBD36144F}">
+    <comment ref="V48" authorId="50" shapeId="0" xr:uid="{2E2E41C1-2DBF-42F9-8384-EA0DBD36144F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1640,7 +1658,7 @@
     no information provided for this</t>
       </text>
     </comment>
-    <comment ref="AR46" authorId="49" shapeId="0" xr:uid="{1F4028D3-691D-45CB-A4DC-194315CA757A}">
+    <comment ref="AR48" authorId="51" shapeId="0" xr:uid="{1F4028D3-691D-45CB-A4DC-194315CA757A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1648,7 +1666,7 @@
     just states trawling so could also include pelagic</t>
       </text>
     </comment>
-    <comment ref="T47" authorId="50" shapeId="0" xr:uid="{6586F64A-DB48-4A9D-A4A3-A7DD60911E1C}">
+    <comment ref="T49" authorId="52" shapeId="0" xr:uid="{6586F64A-DB48-4A9D-A4A3-A7DD60911E1C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1656,7 +1674,7 @@
     Ebro Delta Natural Park, 40o37'N, 00o35'E; see Oro and Martinez-Vilalata 1994 for details</t>
       </text>
     </comment>
-    <comment ref="V47" authorId="51" shapeId="0" xr:uid="{F75443A0-3FE8-4BA1-93C4-5CB19F2E9DCC}">
+    <comment ref="V49" authorId="53" shapeId="0" xr:uid="{F75443A0-3FE8-4BA1-93C4-5CB19F2E9DCC}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1664,7 +1682,7 @@
     no information provided for this</t>
       </text>
     </comment>
-    <comment ref="AR47" authorId="52" shapeId="0" xr:uid="{8071F227-D101-4336-BD57-1F39C4B7162B}">
+    <comment ref="AR49" authorId="54" shapeId="0" xr:uid="{8071F227-D101-4336-BD57-1F39C4B7162B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1672,7 +1690,7 @@
     just states trawling so could also include pelagic</t>
       </text>
     </comment>
-    <comment ref="T48" authorId="53" shapeId="0" xr:uid="{BB98232E-2577-4BAC-B9A0-60E7F593BE74}">
+    <comment ref="T50" authorId="55" shapeId="0" xr:uid="{BB98232E-2577-4BAC-B9A0-60E7F593BE74}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1680,7 +1698,7 @@
     Ebro Delta Natural Park, 40o37'N, 00o35'E; see Oro and Martinez-Vilalata 1994 for details</t>
       </text>
     </comment>
-    <comment ref="V48" authorId="54" shapeId="0" xr:uid="{7AD91645-8D90-4760-9B65-974C35D6BB66}">
+    <comment ref="V50" authorId="56" shapeId="0" xr:uid="{7AD91645-8D90-4760-9B65-974C35D6BB66}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1688,7 +1706,7 @@
     no information provided for this</t>
       </text>
     </comment>
-    <comment ref="AR48" authorId="55" shapeId="0" xr:uid="{7D39EFC8-0081-450E-A4F5-FE481BD385AA}">
+    <comment ref="AR50" authorId="57" shapeId="0" xr:uid="{7D39EFC8-0081-450E-A4F5-FE481BD385AA}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1696,7 +1714,7 @@
     just states trawling so could also include pelagic</t>
       </text>
     </comment>
-    <comment ref="AR49" authorId="56" shapeId="0" xr:uid="{C0A70C4B-9FF8-4338-B62A-E4A38C309496}">
+    <comment ref="AR51" authorId="58" shapeId="0" xr:uid="{C0A70C4B-9FF8-4338-B62A-E4A38C309496}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1704,7 +1722,7 @@
     Dutch trawlers fishing for mackerel, discuss additional purse-seine fishery in 1964 - so potentially multiple gears targeting mackerel</t>
       </text>
     </comment>
-    <comment ref="AV49" authorId="57" shapeId="0" xr:uid="{265960B0-98E3-428D-9648-DA395740091E}">
+    <comment ref="AV51" authorId="59" shapeId="0" xr:uid="{265960B0-98E3-428D-9648-DA395740091E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1712,7 +1730,7 @@
     and age structure and mortality</t>
       </text>
     </comment>
-    <comment ref="AG50" authorId="58" shapeId="0" xr:uid="{04C9DBD1-83BA-48D5-BC64-8A80252FBDCE}">
+    <comment ref="AG52" authorId="60" shapeId="0" xr:uid="{04C9DBD1-83BA-48D5-BC64-8A80252FBDCE}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -2852,7 +2870,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2261" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2337" uniqueCount="627">
   <si>
     <t>SearchID</t>
   </si>
@@ -4299,9 +4317,6 @@
   </si>
   <si>
     <t>Chi-square</t>
-  </si>
-  <si>
-    <t>sea visits - counts of times body extends into funnel of pontoon trap</t>
   </si>
   <si>
     <t>Although discuss bycatch of seals, study not set up to test this effectively - more about the reduction in depredation and determining if catch of target species is affected by using the SEDs.</t>
@@ -4586,12 +4601,6 @@
     <t>ANOVA _ t-test _ Kruskal-Wallis test _ chi-squared test</t>
   </si>
   <si>
-    <t>Mean catch of dab _ mean length _ stomach weights _ no. prey eaten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean density of dab was significantly lower on the treatment line for 48h after it had been fished with commercial beam trawl. There was no significant differences between the mean lengths of the dab collected for stomach contents analyses from the treatment and contorl lines. Digesta was most prev-elant in the stomachs of dab sampled from the control line, which resulted in a significantly greater SC/FL index for these dab (Fig. 3; K-W, H = 19.9, p &lt; 0.001). A larger number of the stomachs of dab collected on the control lines contained Amphiura spp. arms compared with those of fish collected on the treatment line (Fig. 2; Fisher's exact test, p &lt; 0.001). In contrast, the stom- achs of dab collected from the treatment line con- tained much larger numbers of oral discs of Amphiura spp. than those collected on the control line on 3 con- secutive days after the initial disturbance (Fig. 2; x2 = 228.3, p &lt; 0.001). Immedately after fishing distur-bance, the SC/FL index of dab collected on the treat- ment line had increased significantly since the previ- ous day and was significantly higher than for dab col- lected on the control line (Fig. 3; K-W, H = 7.29, p &lt; 0.008). Thereafter, the SC/FL index did not vary sig- nificantly for dab collected from either treatment or control lines (Fig. 3). </t>
-  </si>
-  <si>
     <t>Our results suggest that as the tickler chains pass through surface layers of the sediment, they dig out of expose entire brittlestars increasing their susceptability to predation by dab. This would explain the large increases in oral discs in the diets of dab. we believe this is the first study to demonstrate that dab increase their intake of food by feeding in areas disturbed by fishing activities.</t>
   </si>
   <si>
@@ -4739,6 +4748,27 @@
   </si>
   <si>
     <t>As a result, most of the elasmobranch specimens from our study were still alive at landing and had a good chance to survive when released. However, for the reasons explained above, the survival rate of D. pastinaca represents an exception: all landed specimens were freed dead from the net.</t>
+  </si>
+  <si>
+    <t>seal visits _ counts of times body extends into funnel of pontoon trap</t>
+  </si>
+  <si>
+    <t>Mean catch of dab</t>
+  </si>
+  <si>
+    <t>mean length</t>
+  </si>
+  <si>
+    <t>stomach weights _ no. prey eaten</t>
+  </si>
+  <si>
+    <t>Mean density of dab was significantly lower on the treatment line for 48h after it had been fished with commercial beam trawl.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There was no significant differences between the mean lengths of the dab collected for stomach contents analyses from the treatment and contorl lines. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digesta was most prev-elant in the stomachs of dab sampled from the control line, which resulted in a significantly greater SC/FL index for these dab (Fig. 3; K-W, H = 19.9, p &lt; 0.001). A larger number of the stomachs of dab collected on the control lines contained Amphiura spp. arms compared with those of fish collected on the treatment line (Fig. 2; Fisher's exact test, p &lt; 0.001). In contrast, the stom- achs of dab collected from the treatment line con- tained much larger numbers of oral discs of Amphiura spp. than those collected on the control line on 3 con- secutive days after the initial disturbance (Fig. 2; x2 = 228.3, p &lt; 0.001). Immedately after fishing distur-bance, the SC/FL index of dab collected on the treat- ment line had increased significantly since the previ- ous day and was significantly higher than for dab col- lected on the control line (Fig. 3; K-W, H = 7.29, p &lt; 0.008). Thereafter, the SC/FL index did not vary sig- nificantly for dab collected from either treatment or control lines (Fig. 3). </t>
   </si>
 </sst>
 </file>
@@ -4870,7 +4900,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4884,17 +4914,13 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5304,82 +5330,88 @@
   <threadedComment ref="AS32" dT="2022-03-09T14:13:10.19" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{CC0A6BC4-04EF-4A83-B009-E37BE3CA69B7}">
     <text>hydrolic dredge</text>
   </threadedComment>
-  <threadedComment ref="AV33" dT="2022-03-09T18:02:50.58" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{83BF076C-EF3A-4FF6-92DF-06C2F3DA57D1}">
+  <threadedComment ref="AV33" dT="2022-03-09T18:02:50.58" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{C8CE8C76-CB6C-49E4-800B-D36CD6D5A455}">
     <text>Diet</text>
   </threadedComment>
-  <threadedComment ref="AG34" dT="2022-03-10T12:59:27.41" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{FDF1D696-0CED-4B50-9488-28F563E535BB}">
+  <threadedComment ref="AV34" dT="2022-03-09T18:02:50.58" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{C39B4CF5-F8A5-4850-B83E-9C2F42B4226D}">
+    <text>Diet</text>
+  </threadedComment>
+  <threadedComment ref="AV35" dT="2022-03-09T18:02:50.58" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{83BF076C-EF3A-4FF6-92DF-06C2F3DA57D1}">
+    <text>Diet</text>
+  </threadedComment>
+  <threadedComment ref="AG36" dT="2022-03-10T12:59:27.41" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{FDF1D696-0CED-4B50-9488-28F563E535BB}">
     <text>both field and lab study</text>
   </threadedComment>
-  <threadedComment ref="AG35" dT="2022-03-10T12:59:27.41" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{3E7E8A63-FE8F-485C-B7B0-D651CC82B2E5}">
+  <threadedComment ref="AG37" dT="2022-03-10T12:59:27.41" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{3E7E8A63-FE8F-485C-B7B0-D651CC82B2E5}">
     <text>both field and lab study</text>
   </threadedComment>
-  <threadedComment ref="AG36" dT="2022-03-10T12:59:27.41" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{1F73A643-4889-4B00-BF17-FD191EDC437F}">
+  <threadedComment ref="AG38" dT="2022-03-10T12:59:27.41" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{1F73A643-4889-4B00-BF17-FD191EDC437F}">
     <text>both field and lab study</text>
   </threadedComment>
-  <threadedComment ref="AG37" dT="2022-03-10T12:59:27.41" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{C13FAB98-20DA-4332-A868-0381F8EB51A5}">
+  <threadedComment ref="AG39" dT="2022-03-10T12:59:27.41" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{C13FAB98-20DA-4332-A868-0381F8EB51A5}">
     <text>both field and lab study</text>
   </threadedComment>
-  <threadedComment ref="AR38" dT="2022-03-10T16:31:58.86" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{8B01BB42-BD50-4A2B-91AE-BFF1AE1CC4A6}">
+  <threadedComment ref="AR40" dT="2022-03-10T16:31:58.86" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{8B01BB42-BD50-4A2B-91AE-BFF1AE1CC4A6}">
     <text>beam and otter</text>
   </threadedComment>
-  <threadedComment ref="AW38" dT="2022-03-10T16:47:15.25" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{11A0CED8-7C4E-4A10-B3D6-7390E2591B9D}">
+  <threadedComment ref="AW40" dT="2022-03-10T16:47:15.25" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{11A0CED8-7C4E-4A10-B3D6-7390E2591B9D}">
     <text>Did not test relationship but modelled mortality rates of bycatch for each species</text>
   </threadedComment>
-  <threadedComment ref="AR39" dT="2022-03-10T16:31:58.86" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{7C93FD45-F80E-4576-B1F4-320CE5D28934}">
+  <threadedComment ref="AR41" dT="2022-03-10T16:31:58.86" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{7C93FD45-F80E-4576-B1F4-320CE5D28934}">
     <text>beam and otter</text>
   </threadedComment>
-  <threadedComment ref="AW39" dT="2022-03-10T16:47:15.25" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{84CBE241-7A40-4FBE-9038-FF85F7034818}">
+  <threadedComment ref="AW41" dT="2022-03-10T16:47:15.25" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{84CBE241-7A40-4FBE-9038-FF85F7034818}">
     <text>Did not test relationship but modelled mortality rates of bycatch for each species</text>
   </threadedComment>
-  <threadedComment ref="R42" dT="2022-03-10T16:04:10.48" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{29231E64-24AA-413F-9FA6-0B09201F7447}">
+  <threadedComment ref="R44" dT="2022-03-10T16:04:10.48" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{29231E64-24AA-413F-9FA6-0B09201F7447}">
     <text>Paper describes the shrimp shoal structure but not assessment of fishing impacts on it</text>
   </threadedComment>
-  <threadedComment ref="R43" dT="2022-03-10T15:27:24.78" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{8E7B695D-F34B-40FE-813F-DC802677F34C}">
+  <threadedComment ref="R45" dT="2022-03-10T15:27:24.78" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{8E7B695D-F34B-40FE-813F-DC802677F34C}">
     <text>this study identifies impacts of season and breeding of species, resource access (regulations and competition between fisheries) on LPUE, not impacts of fishing on ecosystem</text>
   </threadedComment>
-  <threadedComment ref="R44" dT="2022-03-07T16:15:16.37" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{DB75CAF6-E7A8-4AD0-BD5E-B650738D5CE8}">
+  <threadedComment ref="R46" dT="2022-03-07T16:15:16.37" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{DB75CAF6-E7A8-4AD0-BD5E-B650738D5CE8}">
     <text>a review of deepwater fisheries with no analysis of data</text>
   </threadedComment>
-  <threadedComment ref="R45" dT="2022-03-09T18:33:51.38" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{172069E3-CDA2-41BE-8240-6D3A9258F91B}">
+  <threadedComment ref="R47" dT="2022-03-09T18:33:51.38" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{172069E3-CDA2-41BE-8240-6D3A9258F91B}">
     <text>I think this is purely a methodoligical paper - comparing hypotheses for natural mortality rates at age in stock assessment. This is not my area so would be good to have a second opinion!</text>
   </threadedComment>
-  <threadedComment ref="T46" dT="2022-03-09T18:41:25.25" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{ABCFD0AF-BE84-4846-9C69-0442BE7E7030}">
+  <threadedComment ref="T48" dT="2022-03-09T18:41:25.25" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{ABCFD0AF-BE84-4846-9C69-0442BE7E7030}">
     <text>Ebro Delta Natural Park, 40o37'N, 00o35'E; see Oro and Martinez-Vilalata 1994 for details</text>
   </threadedComment>
-  <threadedComment ref="V46" dT="2022-03-10T11:42:04.93" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{2E2E41C1-2DBF-42F9-8384-EA0DBD36144F}">
+  <threadedComment ref="V48" dT="2022-03-10T11:42:04.93" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{2E2E41C1-2DBF-42F9-8384-EA0DBD36144F}">
     <text>no information provided for this</text>
   </threadedComment>
-  <threadedComment ref="AR46" dT="2022-03-09T18:48:09.42" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{1F4028D3-691D-45CB-A4DC-194315CA757A}">
+  <threadedComment ref="AR48" dT="2022-03-09T18:48:09.42" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{1F4028D3-691D-45CB-A4DC-194315CA757A}">
     <text>just states trawling so could also include pelagic</text>
   </threadedComment>
-  <threadedComment ref="T47" dT="2022-03-09T18:41:25.25" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{6586F64A-DB48-4A9D-A4A3-A7DD60911E1C}">
+  <threadedComment ref="T49" dT="2022-03-09T18:41:25.25" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{6586F64A-DB48-4A9D-A4A3-A7DD60911E1C}">
     <text>Ebro Delta Natural Park, 40o37'N, 00o35'E; see Oro and Martinez-Vilalata 1994 for details</text>
   </threadedComment>
-  <threadedComment ref="V47" dT="2022-03-10T11:42:04.93" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{F75443A0-3FE8-4BA1-93C4-5CB19F2E9DCC}">
+  <threadedComment ref="V49" dT="2022-03-10T11:42:04.93" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{F75443A0-3FE8-4BA1-93C4-5CB19F2E9DCC}">
     <text>no information provided for this</text>
   </threadedComment>
-  <threadedComment ref="AR47" dT="2022-03-09T18:48:09.42" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{8071F227-D101-4336-BD57-1F39C4B7162B}">
+  <threadedComment ref="AR49" dT="2022-03-09T18:48:09.42" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{8071F227-D101-4336-BD57-1F39C4B7162B}">
     <text>just states trawling so could also include pelagic</text>
   </threadedComment>
-  <threadedComment ref="T48" dT="2022-03-09T18:41:25.25" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{BB98232E-2577-4BAC-B9A0-60E7F593BE74}">
+  <threadedComment ref="T50" dT="2022-03-09T18:41:25.25" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{BB98232E-2577-4BAC-B9A0-60E7F593BE74}">
     <text>Ebro Delta Natural Park, 40o37'N, 00o35'E; see Oro and Martinez-Vilalata 1994 for details</text>
   </threadedComment>
-  <threadedComment ref="V48" dT="2022-03-10T11:42:04.93" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{7AD91645-8D90-4760-9B65-974C35D6BB66}">
+  <threadedComment ref="V50" dT="2022-03-10T11:42:04.93" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{7AD91645-8D90-4760-9B65-974C35D6BB66}">
     <text>no information provided for this</text>
   </threadedComment>
-  <threadedComment ref="AR48" dT="2022-03-09T18:48:09.42" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{7D39EFC8-0081-450E-A4F5-FE481BD385AA}">
+  <threadedComment ref="AR50" dT="2022-03-09T18:48:09.42" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{7D39EFC8-0081-450E-A4F5-FE481BD385AA}">
     <text>just states trawling so could also include pelagic</text>
   </threadedComment>
-  <threadedComment ref="AR49" dT="2022-03-09T19:15:49.80" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{C0A70C4B-9FF8-4338-B62A-E4A38C309496}">
+  <threadedComment ref="AR51" dT="2022-03-09T19:15:49.80" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{C0A70C4B-9FF8-4338-B62A-E4A38C309496}">
     <text>Dutch trawlers fishing for mackerel, discuss additional purse-seine fishery in 1964 - so potentially multiple gears targeting mackerel</text>
   </threadedComment>
-  <threadedComment ref="AV49" dT="2022-03-10T14:00:21.45" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{265960B0-98E3-428D-9648-DA395740091E}">
+  <threadedComment ref="AV51" dT="2022-03-10T14:00:21.45" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{265960B0-98E3-428D-9648-DA395740091E}">
     <text>and age structure and mortality</text>
   </threadedComment>
-  <threadedComment ref="AG50" dT="2022-03-10T11:45:14.77" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{04C9DBD1-83BA-48D5-BC64-8A80252FBDCE}">
+  <threadedComment ref="AG52" dT="2022-03-10T11:45:14.77" personId="{74E09EC7-4F3B-4A5C-8E8F-B9FFDB57E6B9}" id="{04C9DBD1-83BA-48D5-BC64-8A80252FBDCE}">
     <text>field and lab experiment</text>
   </threadedComment>
-  <threadedComment ref="AG50" dT="2022-10-04T06:45:00.99" personId="{9965CBB5-2279-48F3-8BB4-29047743A273}" id="{BB8D6876-585D-4F3E-90F0-465E31031563}" parentId="{04C9DBD1-83BA-48D5-BC64-8A80252FBDCE}">
+  <threadedComment ref="AG52" dT="2022-10-04T06:45:00.99" personId="{9965CBB5-2279-48F3-8BB4-29047743A273}" id="{BB8D6876-585D-4F3E-90F0-465E31031563}" parentId="{04C9DBD1-83BA-48D5-BC64-8A80252FBDCE}">
     <text>Changed from 'Other'  to 'Field experiment' only</text>
   </threadedComment>
 </ThreadedComments>
@@ -5387,13 +5419,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX50"/>
+  <dimension ref="A1:AX52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="AI11" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="AS33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AO53" sqref="AO53"/>
+      <selection pane="bottomRight" activeCell="AW55" sqref="AW55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5405,7 +5437,7 @@
     <col min="19" max="19" width="18.1796875" customWidth="1"/>
     <col min="24" max="25" width="32.54296875" customWidth="1"/>
     <col min="26" max="26" width="22.54296875" customWidth="1"/>
-    <col min="30" max="30" width="67.54296875" style="11" customWidth="1"/>
+    <col min="30" max="30" width="67.54296875" customWidth="1"/>
     <col min="34" max="35" width="17.54296875" customWidth="1"/>
     <col min="36" max="36" width="18.54296875" customWidth="1"/>
     <col min="37" max="37" width="19.1796875" customWidth="1"/>
@@ -5417,74 +5449,74 @@
     <col min="46" max="46" width="15.1796875" customWidth="1"/>
     <col min="47" max="47" width="18.54296875" customWidth="1"/>
     <col min="48" max="48" width="18" customWidth="1"/>
-    <col min="50" max="50" width="87.54296875" style="11" customWidth="1"/>
+    <col min="50" max="50" width="87.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="19" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19"/>
-      <c r="AA1" s="19"/>
-      <c r="AB1" s="19"/>
-      <c r="AC1" s="19"/>
-      <c r="AD1" s="19"/>
-      <c r="AE1" s="19"/>
-      <c r="AF1" s="17" t="s">
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="AG1" s="17"/>
-      <c r="AH1" s="18" t="s">
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="AI1" s="18"/>
-      <c r="AJ1" s="18"/>
-      <c r="AK1" s="18"/>
-      <c r="AL1" s="18"/>
-      <c r="AM1" s="20" t="s">
+      <c r="AI1" s="14"/>
+      <c r="AJ1" s="14"/>
+      <c r="AK1" s="14"/>
+      <c r="AL1" s="14"/>
+      <c r="AM1" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="AN1" s="20"/>
-      <c r="AO1" s="20"/>
-      <c r="AP1" s="20"/>
-      <c r="AQ1" s="14" t="s">
+      <c r="AN1" s="16"/>
+      <c r="AO1" s="16"/>
+      <c r="AP1" s="16"/>
+      <c r="AQ1" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="AR1" s="14"/>
-      <c r="AS1" s="14"/>
-      <c r="AT1" s="14"/>
-      <c r="AU1" s="15" t="s">
+      <c r="AR1" s="10"/>
+      <c r="AS1" s="10"/>
+      <c r="AT1" s="10"/>
+      <c r="AU1" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="AV1" s="15"/>
-      <c r="AW1" s="15"/>
-      <c r="AX1" s="15"/>
+      <c r="AV1" s="11"/>
+      <c r="AW1" s="11"/>
+      <c r="AX1" s="11"/>
     </row>
     <row r="2" spans="1:50" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -5574,7 +5606,7 @@
       <c r="AC2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AD2" s="12" t="s">
+      <c r="AD2" s="9" t="s">
         <v>67</v>
       </c>
       <c r="AE2" s="2" t="s">
@@ -5608,7 +5640,7 @@
         <v>230</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AP2" s="2" t="s">
         <v>98</v>
@@ -5634,12 +5666,12 @@
       <c r="AW2" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AX2" s="12" t="s">
+      <c r="AX2" s="9" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
+      <c r="A3" t="s">
         <v>241</v>
       </c>
       <c r="B3" t="s">
@@ -5693,11 +5725,9 @@
       <c r="R3" t="s">
         <v>84</v>
       </c>
-      <c r="AD3"/>
-      <c r="AX3"/>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A4" s="10" t="s">
+      <c r="A4" t="s">
         <v>256</v>
       </c>
       <c r="B4" t="s">
@@ -5781,7 +5811,7 @@
       <c r="AC4">
         <v>3</v>
       </c>
-      <c r="AD4" s="11" t="s">
+      <c r="AD4" t="s">
         <v>472</v>
       </c>
       <c r="AF4" t="s">
@@ -5809,7 +5839,7 @@
         <v>162</v>
       </c>
       <c r="AO4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AQ4" t="s">
         <v>164</v>
@@ -5829,12 +5859,12 @@
       <c r="AW4" t="s">
         <v>207</v>
       </c>
-      <c r="AX4" s="11" t="s">
+      <c r="AX4" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
+      <c r="A5" t="s">
         <v>256</v>
       </c>
       <c r="B5" t="s">
@@ -5918,7 +5948,7 @@
       <c r="AC5">
         <v>3</v>
       </c>
-      <c r="AD5" s="11" t="s">
+      <c r="AD5" t="s">
         <v>472</v>
       </c>
       <c r="AF5" t="s">
@@ -5946,7 +5976,7 @@
         <v>162</v>
       </c>
       <c r="AO5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AQ5" t="s">
         <v>164</v>
@@ -5966,12 +5996,12 @@
       <c r="AW5" t="s">
         <v>207</v>
       </c>
-      <c r="AX5" s="11" t="s">
+      <c r="AX5" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A6" s="10" t="s">
+      <c r="A6" t="s">
         <v>256</v>
       </c>
       <c r="B6" t="s">
@@ -6055,7 +6085,7 @@
       <c r="AC6">
         <v>3</v>
       </c>
-      <c r="AD6" s="11" t="s">
+      <c r="AD6" t="s">
         <v>472</v>
       </c>
       <c r="AF6" t="s">
@@ -6083,7 +6113,7 @@
         <v>162</v>
       </c>
       <c r="AO6" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AQ6" t="s">
         <v>164</v>
@@ -6103,12 +6133,12 @@
       <c r="AW6" t="s">
         <v>210</v>
       </c>
-      <c r="AX6" s="11" t="s">
+      <c r="AX6" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A7" s="10" t="s">
+      <c r="A7" t="s">
         <v>256</v>
       </c>
       <c r="B7" t="s">
@@ -6192,7 +6222,7 @@
       <c r="AC7">
         <v>3</v>
       </c>
-      <c r="AD7" s="11" t="s">
+      <c r="AD7" t="s">
         <v>472</v>
       </c>
       <c r="AF7" t="s">
@@ -6220,7 +6250,7 @@
         <v>162</v>
       </c>
       <c r="AO7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AQ7" t="s">
         <v>164</v>
@@ -6240,12 +6270,12 @@
       <c r="AW7" t="s">
         <v>210</v>
       </c>
-      <c r="AX7" s="11" t="s">
+      <c r="AX7" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
+      <c r="A8" t="s">
         <v>256</v>
       </c>
       <c r="B8" t="s">
@@ -6329,7 +6359,7 @@
       <c r="AC8">
         <v>3</v>
       </c>
-      <c r="AD8" s="11" t="s">
+      <c r="AD8" t="s">
         <v>472</v>
       </c>
       <c r="AF8" t="s">
@@ -6357,7 +6387,7 @@
         <v>162</v>
       </c>
       <c r="AO8" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AQ8" t="s">
         <v>164</v>
@@ -6377,548 +6407,548 @@
       <c r="AW8" t="s">
         <v>209</v>
       </c>
-      <c r="AX8" s="11" t="s">
+      <c r="AX8" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="9" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>264</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" t="s">
         <v>242</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" t="s">
         <v>265</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" t="s">
         <v>266</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9">
         <v>2018</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" t="s">
         <v>267</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" t="s">
         <v>268</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" t="s">
         <v>269</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" t="s">
         <v>251</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" t="s">
         <v>251</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" t="s">
         <v>270</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="L9" t="s">
         <v>251</v>
       </c>
-      <c r="M9" s="11" t="s">
+      <c r="M9" t="s">
         <v>271</v>
       </c>
-      <c r="N9" s="11" t="s">
+      <c r="N9" t="s">
         <v>253</v>
       </c>
-      <c r="O9" s="11" t="s">
+      <c r="O9" t="s">
         <v>254</v>
       </c>
-      <c r="P9" s="11" t="s">
+      <c r="P9" t="s">
         <v>263</v>
       </c>
-      <c r="Q9" s="11" t="s">
+      <c r="Q9" t="s">
         <v>21</v>
       </c>
-      <c r="S9" s="11" t="s">
+      <c r="S9" t="s">
         <v>27</v>
       </c>
-      <c r="U9" s="11" t="s">
+      <c r="U9" t="s">
         <v>48</v>
       </c>
-      <c r="W9" s="11" t="s">
+      <c r="W9" t="s">
         <v>47</v>
       </c>
-      <c r="X9" s="11" t="s">
+      <c r="X9" t="s">
         <v>216</v>
       </c>
-      <c r="Z9" s="11" t="s">
+      <c r="Z9" t="s">
         <v>476</v>
       </c>
-      <c r="AA9" s="11">
+      <c r="AA9">
         <v>2</v>
       </c>
-      <c r="AB9" s="11">
+      <c r="AB9">
         <v>2</v>
       </c>
-      <c r="AC9" s="11">
+      <c r="AC9">
         <v>1</v>
       </c>
-      <c r="AD9" s="11" t="s">
+      <c r="AD9" t="s">
         <v>478</v>
       </c>
-      <c r="AE9" s="11" t="s">
+      <c r="AE9" t="s">
         <v>479</v>
       </c>
-      <c r="AF9" s="11" t="s">
+      <c r="AF9" t="s">
         <v>255</v>
       </c>
-      <c r="AG9" s="11" t="s">
+      <c r="AG9" t="s">
         <v>107</v>
       </c>
-      <c r="AH9" s="11" t="s">
+      <c r="AH9" t="s">
         <v>117</v>
       </c>
-      <c r="AI9" s="11" t="s">
+      <c r="AI9" t="s">
         <v>138</v>
       </c>
-      <c r="AL9" s="11" t="s">
+      <c r="AL9" t="s">
         <v>474</v>
       </c>
-      <c r="AM9" s="11" t="s">
+      <c r="AM9" t="s">
         <v>232</v>
       </c>
-      <c r="AN9" s="11" t="s">
+      <c r="AN9" t="s">
         <v>162</v>
       </c>
-      <c r="AO9" s="11" t="s">
-        <v>486</v>
-      </c>
-      <c r="AQ9" s="11" t="s">
+      <c r="AO9" t="s">
+        <v>485</v>
+      </c>
+      <c r="AQ9" t="s">
         <v>164</v>
       </c>
-      <c r="AR9" s="11" t="s">
+      <c r="AR9" t="s">
         <v>239</v>
       </c>
-      <c r="AT9" s="11" t="s">
+      <c r="AT9" t="s">
         <v>473</v>
       </c>
-      <c r="AU9" s="11" t="s">
+      <c r="AU9" t="s">
         <v>475</v>
       </c>
-      <c r="AV9" s="11" t="s">
+      <c r="AV9" t="s">
         <v>200</v>
       </c>
-      <c r="AW9" s="11" t="s">
+      <c r="AW9" t="s">
         <v>208</v>
       </c>
-      <c r="AX9" s="11" t="s">
+      <c r="AX9" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="10" spans="1:50" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="13" t="s">
+    <row r="10" spans="1:50" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>272</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" t="s">
         <v>242</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" t="s">
         <v>273</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" t="s">
         <v>274</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10">
         <v>2018</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" t="s">
         <v>267</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" t="s">
         <v>268</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" t="s">
         <v>275</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I10" t="s">
         <v>251</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="J10" t="s">
         <v>251</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" t="s">
         <v>276</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="L10" t="s">
         <v>251</v>
       </c>
-      <c r="M10" s="11" t="s">
+      <c r="M10" t="s">
         <v>277</v>
       </c>
-      <c r="N10" s="11" t="s">
+      <c r="N10" t="s">
         <v>253</v>
       </c>
-      <c r="O10" s="11" t="s">
+      <c r="O10" t="s">
         <v>254</v>
       </c>
-      <c r="P10" s="11" t="s">
+      <c r="P10" t="s">
         <v>263</v>
       </c>
-      <c r="Q10" s="11" t="s">
+      <c r="Q10" t="s">
         <v>21</v>
       </c>
-      <c r="S10" s="11" t="s">
+      <c r="S10" t="s">
         <v>33</v>
       </c>
-      <c r="T10" s="11" t="s">
+      <c r="T10" t="s">
         <v>45</v>
       </c>
-      <c r="U10" s="11" t="s">
+      <c r="U10" t="s">
         <v>50</v>
       </c>
-      <c r="V10" s="11" t="s">
+      <c r="V10" t="s">
         <v>43</v>
       </c>
-      <c r="W10" s="11" t="s">
+      <c r="W10" t="s">
         <v>48</v>
       </c>
-      <c r="X10" s="11" t="s">
+      <c r="X10" t="s">
         <v>71</v>
       </c>
-      <c r="Z10" s="11" t="s">
+      <c r="Z10" t="s">
         <v>481</v>
       </c>
-      <c r="AA10" s="11">
+      <c r="AA10">
         <v>1</v>
       </c>
-      <c r="AB10" s="11">
+      <c r="AB10">
         <v>1</v>
       </c>
-      <c r="AC10" s="11">
+      <c r="AC10">
         <v>2</v>
       </c>
-      <c r="AD10" s="11" t="s">
-        <v>484</v>
-      </c>
-      <c r="AE10" s="11" t="s">
+      <c r="AD10" t="s">
         <v>483</v>
       </c>
-      <c r="AF10" s="11" t="s">
+      <c r="AE10" t="s">
+        <v>482</v>
+      </c>
+      <c r="AF10" t="s">
         <v>255</v>
       </c>
-      <c r="AG10" s="11" t="s">
+      <c r="AG10" t="s">
         <v>107</v>
       </c>
-      <c r="AH10" s="11" t="s">
+      <c r="AH10" t="s">
         <v>115</v>
       </c>
-      <c r="AI10" s="11" t="s">
+      <c r="AI10" t="s">
         <v>137</v>
       </c>
-      <c r="AM10" s="11" t="s">
+      <c r="AM10" t="s">
         <v>232</v>
       </c>
-      <c r="AN10" s="11" t="s">
+      <c r="AN10" t="s">
         <v>162</v>
       </c>
-      <c r="AO10" s="11" t="s">
-        <v>486</v>
-      </c>
-      <c r="AQ10" s="11" t="s">
+      <c r="AO10" t="s">
+        <v>485</v>
+      </c>
+      <c r="AQ10" t="s">
         <v>164</v>
       </c>
-      <c r="AR10" s="11" t="s">
+      <c r="AR10" t="s">
         <v>113</v>
       </c>
-      <c r="AT10" s="11" t="s">
+      <c r="AT10" t="s">
         <v>480</v>
       </c>
-      <c r="AU10" s="11" t="s">
-        <v>482</v>
-      </c>
-      <c r="AV10" s="11" t="s">
+      <c r="AU10" t="s">
+        <v>620</v>
+      </c>
+      <c r="AV10" t="s">
         <v>212</v>
       </c>
-      <c r="AW10" s="11" t="s">
+      <c r="AW10" t="s">
         <v>210</v>
       </c>
-      <c r="AX10" s="11" t="s">
+      <c r="AX10" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="11" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>278</v>
+      </c>
+      <c r="B11" t="s">
+        <v>242</v>
+      </c>
+      <c r="C11" t="s">
+        <v>279</v>
+      </c>
+      <c r="D11" t="s">
+        <v>280</v>
+      </c>
+      <c r="E11">
+        <v>2018</v>
+      </c>
+      <c r="F11" t="s">
+        <v>281</v>
+      </c>
+      <c r="G11" t="s">
+        <v>282</v>
+      </c>
+      <c r="H11" t="s">
+        <v>251</v>
+      </c>
+      <c r="I11" t="s">
+        <v>283</v>
+      </c>
+      <c r="J11" t="s">
+        <v>284</v>
+      </c>
+      <c r="K11" t="s">
+        <v>285</v>
+      </c>
+      <c r="L11" t="s">
+        <v>251</v>
+      </c>
+      <c r="M11" t="s">
+        <v>286</v>
+      </c>
+      <c r="N11" t="s">
+        <v>253</v>
+      </c>
+      <c r="O11" t="s">
+        <v>254</v>
+      </c>
+      <c r="P11" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>21</v>
+      </c>
+      <c r="S11" t="s">
+        <v>26</v>
+      </c>
+      <c r="T11" t="s">
+        <v>41</v>
+      </c>
+      <c r="U11" t="s">
+        <v>52</v>
+      </c>
+      <c r="V11" t="s">
+        <v>44</v>
+      </c>
+      <c r="W11" t="s">
+        <v>48</v>
+      </c>
+      <c r="X11" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>489</v>
+      </c>
+      <c r="AA11">
+        <v>2</v>
+      </c>
+      <c r="AB11">
+        <v>2</v>
+      </c>
+      <c r="AC11">
+        <v>2</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>490</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>255</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>220</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>616</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>617</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>170</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>189</v>
+      </c>
+      <c r="AT11" t="s">
         <v>488</v>
       </c>
+      <c r="AU11" t="s">
+        <v>237</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>237</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>210</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>619</v>
+      </c>
     </row>
-    <row r="11" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="13" t="s">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>278</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B12" t="s">
         <v>242</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C12" t="s">
         <v>279</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D12" t="s">
         <v>280</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E12">
         <v>2018</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F12" t="s">
         <v>281</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G12" t="s">
         <v>282</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H12" t="s">
         <v>251</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I12" t="s">
         <v>283</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="J12" t="s">
         <v>284</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K12" t="s">
         <v>285</v>
       </c>
-      <c r="L11" s="11" t="s">
+      <c r="L12" t="s">
         <v>251</v>
       </c>
-      <c r="M11" s="11" t="s">
+      <c r="M12" t="s">
         <v>286</v>
       </c>
-      <c r="N11" s="11" t="s">
+      <c r="N12" t="s">
         <v>253</v>
       </c>
-      <c r="O11" s="11" t="s">
+      <c r="O12" t="s">
         <v>254</v>
       </c>
-      <c r="P11" s="11" t="s">
+      <c r="P12" t="s">
         <v>251</v>
       </c>
-      <c r="Q11" s="11" t="s">
+      <c r="Q12" t="s">
         <v>21</v>
       </c>
-      <c r="S11" s="11" t="s">
+      <c r="S12" t="s">
         <v>26</v>
       </c>
-      <c r="T11" s="11" t="s">
+      <c r="T12" t="s">
         <v>41</v>
       </c>
-      <c r="U11" s="11" t="s">
+      <c r="U12" t="s">
         <v>52</v>
       </c>
-      <c r="V11" s="11" t="s">
+      <c r="V12" t="s">
         <v>44</v>
       </c>
-      <c r="W11" s="11" t="s">
+      <c r="W12" t="s">
         <v>48</v>
       </c>
-      <c r="X11" s="11" t="s">
+      <c r="X12" t="s">
         <v>216</v>
       </c>
-      <c r="Z11" s="11" t="s">
+      <c r="Z12" t="s">
+        <v>489</v>
+      </c>
+      <c r="AA12">
+        <v>2</v>
+      </c>
+      <c r="AB12">
+        <v>2</v>
+      </c>
+      <c r="AC12">
+        <v>2</v>
+      </c>
+      <c r="AD12" t="s">
         <v>490</v>
       </c>
-      <c r="AA11" s="11">
-        <v>2</v>
-      </c>
-      <c r="AB11" s="11">
-        <v>2</v>
-      </c>
-      <c r="AC11" s="11">
-        <v>2</v>
-      </c>
-      <c r="AD11" s="11" t="s">
-        <v>491</v>
-      </c>
-      <c r="AF11" s="11" t="s">
+      <c r="AF12" t="s">
         <v>255</v>
       </c>
-      <c r="AG11" s="11" t="s">
+      <c r="AG12" t="s">
         <v>110</v>
       </c>
-      <c r="AH11" s="11" t="s">
+      <c r="AH12" t="s">
         <v>220</v>
       </c>
-      <c r="AI11" s="11" t="s">
+      <c r="AI12" t="s">
         <v>139</v>
       </c>
-      <c r="AL11" s="11" t="s">
+      <c r="AL12" t="s">
+        <v>618</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>617</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>170</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>189</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>488</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>237</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>237</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>208</v>
+      </c>
+      <c r="AX12" t="s">
         <v>619</v>
-      </c>
-      <c r="AM11" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN11" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="AO11" s="11" t="s">
-        <v>620</v>
-      </c>
-      <c r="AQ11" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR11" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="AS11" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="AT11" s="11" t="s">
-        <v>489</v>
-      </c>
-      <c r="AU11" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="AV11" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="AW11" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="AX11" s="11" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="12" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="E12" s="11">
-        <v>2018</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="K12" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="L12" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="M12" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="N12" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="O12" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="P12" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q12" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="S12" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="T12" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="U12" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="V12" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="W12" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="X12" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="Z12" s="11" t="s">
-        <v>490</v>
-      </c>
-      <c r="AA12" s="11">
-        <v>2</v>
-      </c>
-      <c r="AB12" s="11">
-        <v>2</v>
-      </c>
-      <c r="AC12" s="11">
-        <v>2</v>
-      </c>
-      <c r="AD12" s="11" t="s">
-        <v>491</v>
-      </c>
-      <c r="AF12" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="AG12" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH12" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="AI12" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="AL12" s="11" t="s">
-        <v>621</v>
-      </c>
-      <c r="AM12" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN12" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="AO12" s="11" t="s">
-        <v>620</v>
-      </c>
-      <c r="AQ12" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR12" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="AS12" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="AT12" s="11" t="s">
-        <v>489</v>
-      </c>
-      <c r="AU12" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="AV12" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="AW12" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX12" s="11" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="13" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="10" t="s">
+      <c r="A13" t="s">
         <v>287</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" t="s">
         <v>242</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" t="s">
         <v>288</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" t="s">
         <v>289</v>
       </c>
       <c r="E13">
@@ -6963,20 +6993,18 @@
       <c r="R13" t="s">
         <v>84</v>
       </c>
-      <c r="AD13"/>
-      <c r="AX13"/>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A14" s="10" t="s">
+      <c r="A14" t="s">
         <v>296</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" t="s">
         <v>242</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" t="s">
         <v>297</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" t="s">
         <v>298</v>
       </c>
       <c r="E14">
@@ -7037,7 +7065,7 @@
         <v>216</v>
       </c>
       <c r="Z14" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AA14">
         <v>2</v>
@@ -7048,10 +7076,10 @@
       <c r="AC14">
         <v>3</v>
       </c>
-      <c r="AD14" s="11" t="s">
-        <v>526</v>
-      </c>
-      <c r="AF14" s="11" t="s">
+      <c r="AD14" t="s">
+        <v>525</v>
+      </c>
+      <c r="AF14" t="s">
         <v>255</v>
       </c>
       <c r="AG14" t="s">
@@ -7067,7 +7095,7 @@
         <v>113</v>
       </c>
       <c r="AL14" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AM14" t="s">
         <v>232</v>
@@ -7076,7 +7104,7 @@
         <v>161</v>
       </c>
       <c r="AO14" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AQ14" t="s">
         <v>164</v>
@@ -7085,10 +7113,10 @@
         <v>171</v>
       </c>
       <c r="AT14" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AU14" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AV14" t="s">
         <v>199</v>
@@ -7096,21 +7124,21 @@
       <c r="AW14" t="s">
         <v>208</v>
       </c>
-      <c r="AX14" s="11" t="s">
-        <v>524</v>
+      <c r="AX14" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="15" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="10" t="s">
+      <c r="A15" t="s">
         <v>306</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" t="s">
         <v>242</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" t="s">
         <v>307</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" t="s">
         <v>308</v>
       </c>
       <c r="E15">
@@ -7155,20 +7183,18 @@
       <c r="R15" t="s">
         <v>84</v>
       </c>
-      <c r="AD15"/>
-      <c r="AX15"/>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A16" s="10" t="s">
+      <c r="A16" t="s">
         <v>316</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" t="s">
         <v>242</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" t="s">
         <v>317</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" t="s">
         <v>318</v>
       </c>
       <c r="E16">
@@ -7214,21 +7240,20 @@
         <v>84</v>
       </c>
       <c r="AF16" t="s">
-        <v>506</v>
-      </c>
-      <c r="AX16"/>
+        <v>505</v>
+      </c>
     </row>
     <row r="17" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A17" s="10" t="s">
+      <c r="A17" t="s">
         <v>324</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" t="s">
         <v>242</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" t="s">
         <v>325</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" t="s">
         <v>326</v>
       </c>
       <c r="E17">
@@ -7289,10 +7314,10 @@
         <v>113</v>
       </c>
       <c r="Y17" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="Z17" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AA17">
         <v>2</v>
@@ -7303,11 +7328,11 @@
       <c r="AC17">
         <v>3</v>
       </c>
-      <c r="AD17" s="11" t="s">
+      <c r="AD17" t="s">
+        <v>504</v>
+      </c>
+      <c r="AF17" t="s">
         <v>505</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>506</v>
       </c>
       <c r="AG17" t="s">
         <v>110</v>
@@ -7322,13 +7347,13 @@
         <v>148</v>
       </c>
       <c r="AL17" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AM17" t="s">
         <v>233</v>
       </c>
       <c r="AO17" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AQ17" t="s">
         <v>164</v>
@@ -7340,7 +7365,7 @@
         <v>176</v>
       </c>
       <c r="AU17" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AV17" t="s">
         <v>199</v>
@@ -7349,20 +7374,20 @@
         <v>208</v>
       </c>
       <c r="AX17" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="18" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A18" s="10" t="s">
+      <c r="A18" t="s">
         <v>324</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" t="s">
         <v>242</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" t="s">
         <v>325</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" t="s">
         <v>326</v>
       </c>
       <c r="E18">
@@ -7423,10 +7448,10 @@
         <v>113</v>
       </c>
       <c r="Y18" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="Z18" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AA18">
         <v>2</v>
@@ -7438,10 +7463,10 @@
         <v>3</v>
       </c>
       <c r="AD18" t="s">
+        <v>504</v>
+      </c>
+      <c r="AF18" t="s">
         <v>505</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>506</v>
       </c>
       <c r="AG18" t="s">
         <v>110</v>
@@ -7456,13 +7481,13 @@
         <v>148</v>
       </c>
       <c r="AL18" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AM18" t="s">
         <v>233</v>
       </c>
       <c r="AO18" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AQ18" t="s">
         <v>164</v>
@@ -7474,7 +7499,7 @@
         <v>176</v>
       </c>
       <c r="AU18" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AV18" t="s">
         <v>204</v>
@@ -7483,20 +7508,20 @@
         <v>208</v>
       </c>
       <c r="AX18" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="19" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A19" s="10" t="s">
+      <c r="A19" t="s">
         <v>324</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" t="s">
         <v>242</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" t="s">
         <v>325</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" t="s">
         <v>326</v>
       </c>
       <c r="E19">
@@ -7557,10 +7582,10 @@
         <v>113</v>
       </c>
       <c r="Y19" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="Z19" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AA19">
         <v>2</v>
@@ -7572,10 +7597,10 @@
         <v>3</v>
       </c>
       <c r="AD19" t="s">
+        <v>504</v>
+      </c>
+      <c r="AF19" t="s">
         <v>505</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>506</v>
       </c>
       <c r="AG19" t="s">
         <v>110</v>
@@ -7590,13 +7615,13 @@
         <v>148</v>
       </c>
       <c r="AL19" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AM19" t="s">
         <v>233</v>
       </c>
       <c r="AO19" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AQ19" t="s">
         <v>164</v>
@@ -7608,7 +7633,7 @@
         <v>176</v>
       </c>
       <c r="AU19" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AV19" t="s">
         <v>205</v>
@@ -7617,20 +7642,20 @@
         <v>208</v>
       </c>
       <c r="AX19" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="20" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A20" s="10" t="s">
+      <c r="A20" t="s">
         <v>324</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" t="s">
         <v>242</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" t="s">
         <v>325</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" t="s">
         <v>326</v>
       </c>
       <c r="E20">
@@ -7691,10 +7716,10 @@
         <v>113</v>
       </c>
       <c r="Y20" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="Z20" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AA20">
         <v>2</v>
@@ -7706,10 +7731,10 @@
         <v>3</v>
       </c>
       <c r="AD20" t="s">
+        <v>504</v>
+      </c>
+      <c r="AF20" t="s">
         <v>505</v>
-      </c>
-      <c r="AF20" t="s">
-        <v>506</v>
       </c>
       <c r="AG20" t="s">
         <v>110</v>
@@ -7724,13 +7749,13 @@
         <v>148</v>
       </c>
       <c r="AL20" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AM20" t="s">
         <v>233</v>
       </c>
       <c r="AO20" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AQ20" t="s">
         <v>164</v>
@@ -7742,7 +7767,7 @@
         <v>176</v>
       </c>
       <c r="AU20" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AV20" t="s">
         <v>200</v>
@@ -7750,21 +7775,21 @@
       <c r="AW20" t="s">
         <v>209</v>
       </c>
-      <c r="AX20" s="11" t="s">
-        <v>500</v>
+      <c r="AX20" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="21" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A21" s="10" t="s">
+      <c r="A21" t="s">
         <v>324</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" t="s">
         <v>242</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" t="s">
         <v>325</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" t="s">
         <v>326</v>
       </c>
       <c r="E21">
@@ -7825,10 +7850,10 @@
         <v>113</v>
       </c>
       <c r="Y21" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="Z21" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AA21">
         <v>2</v>
@@ -7840,10 +7865,10 @@
         <v>3</v>
       </c>
       <c r="AD21" t="s">
+        <v>504</v>
+      </c>
+      <c r="AF21" t="s">
         <v>505</v>
-      </c>
-      <c r="AF21" t="s">
-        <v>506</v>
       </c>
       <c r="AG21" t="s">
         <v>110</v>
@@ -7858,13 +7883,13 @@
         <v>148</v>
       </c>
       <c r="AL21" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AM21" t="s">
         <v>233</v>
       </c>
       <c r="AO21" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AQ21" t="s">
         <v>164</v>
@@ -7876,7 +7901,7 @@
         <v>176</v>
       </c>
       <c r="AU21" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AV21" t="s">
         <v>200</v>
@@ -7884,21 +7909,21 @@
       <c r="AW21" t="s">
         <v>209</v>
       </c>
-      <c r="AX21" s="11" t="s">
-        <v>501</v>
+      <c r="AX21" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="22" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A22" s="10" t="s">
+      <c r="A22" t="s">
         <v>335</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" t="s">
         <v>242</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" t="s">
         <v>336</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" t="s">
         <v>337</v>
       </c>
       <c r="E22">
@@ -7959,7 +7984,7 @@
         <v>72</v>
       </c>
       <c r="Z22" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AA22">
         <v>2</v>
@@ -7971,10 +7996,10 @@
         <v>3</v>
       </c>
       <c r="AD22" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AF22" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AG22" t="s">
         <v>107</v>
@@ -7983,19 +8008,19 @@
         <v>120</v>
       </c>
       <c r="AL22" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AM22" t="s">
         <v>233</v>
       </c>
       <c r="AO22" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AQ22" t="s">
         <v>150</v>
       </c>
       <c r="AU22" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AV22" t="s">
         <v>206</v>
@@ -8004,20 +8029,20 @@
         <v>208</v>
       </c>
       <c r="AX22" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="23" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A23" s="10" t="s">
+      <c r="A23" t="s">
         <v>335</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" t="s">
         <v>242</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" t="s">
         <v>336</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" t="s">
         <v>337</v>
       </c>
       <c r="E23">
@@ -8078,7 +8103,7 @@
         <v>72</v>
       </c>
       <c r="Z23" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AA23">
         <v>2</v>
@@ -8090,10 +8115,10 @@
         <v>3</v>
       </c>
       <c r="AD23" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AF23" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AG23" t="s">
         <v>107</v>
@@ -8102,19 +8127,19 @@
         <v>120</v>
       </c>
       <c r="AL23" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AM23" t="s">
         <v>233</v>
       </c>
       <c r="AO23" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AQ23" t="s">
         <v>150</v>
       </c>
       <c r="AU23" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AV23" t="s">
         <v>205</v>
@@ -8122,21 +8147,21 @@
       <c r="AW23" t="s">
         <v>208</v>
       </c>
-      <c r="AX23" s="11" t="s">
-        <v>517</v>
+      <c r="AX23" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="24" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A24" s="10" t="s">
+      <c r="A24" t="s">
         <v>335</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" t="s">
         <v>242</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" t="s">
         <v>336</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" t="s">
         <v>337</v>
       </c>
       <c r="E24">
@@ -8197,7 +8222,7 @@
         <v>72</v>
       </c>
       <c r="Z24" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AA24">
         <v>2</v>
@@ -8209,10 +8234,10 @@
         <v>3</v>
       </c>
       <c r="AD24" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AF24" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AG24" t="s">
         <v>107</v>
@@ -8221,19 +8246,19 @@
         <v>120</v>
       </c>
       <c r="AL24" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AM24" t="s">
         <v>233</v>
       </c>
       <c r="AO24" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AQ24" t="s">
         <v>150</v>
       </c>
       <c r="AU24" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AV24" t="s">
         <v>199</v>
@@ -8242,20 +8267,20 @@
         <v>209</v>
       </c>
       <c r="AX24" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="25" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A25" s="10" t="s">
+      <c r="A25" t="s">
         <v>335</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" t="s">
         <v>242</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" t="s">
         <v>336</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" t="s">
         <v>337</v>
       </c>
       <c r="E25">
@@ -8316,10 +8341,10 @@
         <v>113</v>
       </c>
       <c r="Y25" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="Z25" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AA25">
         <v>2</v>
@@ -8331,10 +8356,10 @@
         <v>3</v>
       </c>
       <c r="AD25" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AF25" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AG25" t="s">
         <v>107</v>
@@ -8349,13 +8374,13 @@
         <v>233</v>
       </c>
       <c r="AO25" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AQ25" t="s">
         <v>150</v>
       </c>
       <c r="AU25" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AV25" t="s">
         <v>113</v>
@@ -8364,11 +8389,11 @@
         <v>209</v>
       </c>
       <c r="AX25" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="26" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="10" t="s">
+      <c r="A26" t="s">
         <v>344</v>
       </c>
       <c r="B26" t="s">
@@ -8438,10 +8463,10 @@
         <v>113</v>
       </c>
       <c r="Y26" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Z26" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AA26">
         <v>2</v>
@@ -8453,7 +8478,7 @@
         <v>1</v>
       </c>
       <c r="AD26" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AF26" t="s">
         <v>334</v>
@@ -8465,13 +8490,13 @@
         <v>120</v>
       </c>
       <c r="AL26" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AM26" t="s">
         <v>233</v>
       </c>
       <c r="AO26" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AQ26" t="s">
         <v>164</v>
@@ -8480,10 +8505,10 @@
         <v>168</v>
       </c>
       <c r="AT26" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AU26" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AV26" t="s">
         <v>206</v>
@@ -8492,11 +8517,11 @@
         <v>209</v>
       </c>
       <c r="AX26" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="27" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="10" t="s">
+      <c r="A27" t="s">
         <v>344</v>
       </c>
       <c r="B27" t="s">
@@ -8563,7 +8588,7 @@
         <v>72</v>
       </c>
       <c r="Z27" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AA27">
         <v>2</v>
@@ -8575,7 +8600,7 @@
         <v>1</v>
       </c>
       <c r="AD27" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AF27" t="s">
         <v>390</v>
@@ -8590,7 +8615,7 @@
         <v>133</v>
       </c>
       <c r="AL27" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AM27" t="s">
         <v>232</v>
@@ -8599,7 +8624,7 @@
         <v>160</v>
       </c>
       <c r="AO27" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AQ27" t="s">
         <v>164</v>
@@ -8608,10 +8633,10 @@
         <v>168</v>
       </c>
       <c r="AT27" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AU27" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AV27" t="s">
         <v>199</v>
@@ -8620,11 +8645,11 @@
         <v>207</v>
       </c>
       <c r="AX27" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="28" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="10" t="s">
+      <c r="A28" t="s">
         <v>344</v>
       </c>
       <c r="B28" t="s">
@@ -8691,7 +8716,7 @@
         <v>216</v>
       </c>
       <c r="Z28" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="AA28">
         <v>2</v>
@@ -8703,10 +8728,10 @@
         <v>1</v>
       </c>
       <c r="AD28" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AE28" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AF28" t="s">
         <v>390</v>
@@ -8721,7 +8746,7 @@
         <v>133</v>
       </c>
       <c r="AL28" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AM28" t="s">
         <v>232</v>
@@ -8730,7 +8755,7 @@
         <v>160</v>
       </c>
       <c r="AO28" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AQ28" t="s">
         <v>164</v>
@@ -8739,10 +8764,10 @@
         <v>168</v>
       </c>
       <c r="AT28" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AU28" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AV28" t="s">
         <v>200</v>
@@ -8751,11 +8776,11 @@
         <v>207</v>
       </c>
       <c r="AX28" s="4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="29" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A29" s="10" t="s">
+      <c r="A29" t="s">
         <v>353</v>
       </c>
       <c r="B29" t="s">
@@ -8825,7 +8850,7 @@
         <v>71</v>
       </c>
       <c r="Z29" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AA29">
         <v>2</v>
@@ -8837,7 +8862,7 @@
         <v>3</v>
       </c>
       <c r="AD29" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AF29">
         <v>4.4000000000000004</v>
@@ -8852,13 +8877,13 @@
         <v>140</v>
       </c>
       <c r="AL29" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AM29" t="s">
         <v>159</v>
       </c>
       <c r="AO29" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AQ29" t="s">
         <v>164</v>
@@ -8867,10 +8892,10 @@
         <v>168</v>
       </c>
       <c r="AT29" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AU29" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AV29" t="s">
         <v>199</v>
@@ -8878,12 +8903,12 @@
       <c r="AW29" t="s">
         <v>207</v>
       </c>
-      <c r="AX29" s="11" t="s">
-        <v>554</v>
+      <c r="AX29" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="30" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A30" s="10" t="s">
+      <c r="A30" t="s">
         <v>353</v>
       </c>
       <c r="B30" t="s">
@@ -8953,7 +8978,7 @@
         <v>71</v>
       </c>
       <c r="Z30" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AA30">
         <v>2</v>
@@ -8965,7 +8990,7 @@
         <v>3</v>
       </c>
       <c r="AD30" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AF30">
         <v>4.4000000000000004</v>
@@ -8980,13 +9005,13 @@
         <v>144</v>
       </c>
       <c r="AL30" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="AM30" t="s">
         <v>159</v>
       </c>
       <c r="AO30" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AQ30" t="s">
         <v>164</v>
@@ -8995,10 +9020,10 @@
         <v>168</v>
       </c>
       <c r="AT30" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AU30" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AV30" t="s">
         <v>199</v>
@@ -9006,12 +9031,12 @@
       <c r="AW30" t="s">
         <v>207</v>
       </c>
-      <c r="AX30" s="11" t="s">
-        <v>554</v>
+      <c r="AX30" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="31" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="10" t="s">
+      <c r="A31" t="s">
         <v>363</v>
       </c>
       <c r="B31" t="s">
@@ -9078,10 +9103,10 @@
         <v>113</v>
       </c>
       <c r="Y31" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="Z31" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AA31">
         <v>2</v>
@@ -9093,10 +9118,10 @@
         <v>3</v>
       </c>
       <c r="AD31" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AF31" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AG31" t="s">
         <v>107</v>
@@ -9105,13 +9130,13 @@
         <v>120</v>
       </c>
       <c r="AL31" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AM31" t="s">
         <v>233</v>
       </c>
       <c r="AO31" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AQ31" t="s">
         <v>164</v>
@@ -9120,10 +9145,10 @@
         <v>239</v>
       </c>
       <c r="AT31" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AU31" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AV31" t="s">
         <v>206</v>
@@ -9132,11 +9157,11 @@
         <v>209</v>
       </c>
       <c r="AX31" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="32" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="10" t="s">
+      <c r="A32" t="s">
         <v>363</v>
       </c>
       <c r="B32" t="s">
@@ -9203,10 +9228,10 @@
         <v>113</v>
       </c>
       <c r="Y32" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="Z32" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AA32">
         <v>2</v>
@@ -9218,10 +9243,10 @@
         <v>3</v>
       </c>
       <c r="AD32" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AF32" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AG32" t="s">
         <v>107</v>
@@ -9230,13 +9255,13 @@
         <v>120</v>
       </c>
       <c r="AL32" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AM32" t="s">
         <v>233</v>
       </c>
       <c r="AO32" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AQ32" t="s">
         <v>164</v>
@@ -9248,10 +9273,10 @@
         <v>179</v>
       </c>
       <c r="AT32" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AU32" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AV32" t="s">
         <v>206</v>
@@ -9260,11 +9285,11 @@
         <v>209</v>
       </c>
       <c r="AX32" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="33" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="10" t="s">
+      <c r="A33" t="s">
         <v>372</v>
       </c>
       <c r="B33" t="s">
@@ -9334,7 +9359,7 @@
         <v>216</v>
       </c>
       <c r="Z33" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="AA33">
         <v>2</v>
@@ -9346,10 +9371,10 @@
         <v>3</v>
       </c>
       <c r="AD33" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="AF33" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AG33" t="s">
         <v>107</v>
@@ -9361,13 +9386,13 @@
         <v>130</v>
       </c>
       <c r="AL33" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AM33" t="s">
         <v>233</v>
       </c>
       <c r="AO33" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AQ33" t="s">
         <v>164</v>
@@ -9379,57 +9404,57 @@
         <v>176</v>
       </c>
       <c r="AU33" t="s">
-        <v>572</v>
+        <v>621</v>
       </c>
       <c r="AV33" t="s">
-        <v>113</v>
+        <v>199</v>
       </c>
       <c r="AW33" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AX33" t="s">
-        <v>573</v>
+        <v>624</v>
       </c>
     </row>
     <row r="34" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="10" t="s">
-        <v>381</v>
+      <c r="A34" t="s">
+        <v>372</v>
       </c>
       <c r="B34" t="s">
         <v>242</v>
       </c>
       <c r="C34" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="D34" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="E34">
-        <v>2003</v>
+        <v>1997</v>
       </c>
       <c r="F34" t="s">
-        <v>384</v>
+        <v>327</v>
       </c>
       <c r="G34" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="H34" t="s">
-        <v>301</v>
+        <v>376</v>
       </c>
       <c r="I34" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="J34" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="K34" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="L34" t="s">
         <v>251</v>
       </c>
       <c r="M34" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="N34" t="s">
         <v>253</v>
@@ -9437,32 +9462,32 @@
       <c r="O34" t="s">
         <v>254</v>
       </c>
+      <c r="P34" t="s">
+        <v>315</v>
+      </c>
       <c r="Q34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="T34" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="U34" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="V34" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W34" t="s">
         <v>48</v>
       </c>
       <c r="X34" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>585</v>
+        <v>216</v>
       </c>
       <c r="Z34" t="s">
-        <v>588</v>
+        <v>570</v>
       </c>
       <c r="AA34">
         <v>2</v>
@@ -9474,93 +9499,90 @@
         <v>3</v>
       </c>
       <c r="AD34" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
       <c r="AF34" t="s">
-        <v>390</v>
+        <v>562</v>
       </c>
       <c r="AG34" t="s">
         <v>107</v>
       </c>
       <c r="AH34" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AI34" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AL34" t="s">
-        <v>604</v>
+        <v>568</v>
       </c>
       <c r="AM34" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN34" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="AO34" t="s">
-        <v>587</v>
+        <v>569</v>
       </c>
       <c r="AQ34" t="s">
         <v>164</v>
       </c>
       <c r="AR34" t="s">
-        <v>168</v>
-      </c>
-      <c r="AT34" t="s">
-        <v>586</v>
+        <v>239</v>
+      </c>
+      <c r="AS34" t="s">
+        <v>176</v>
       </c>
       <c r="AU34" t="s">
-        <v>589</v>
+        <v>622</v>
       </c>
       <c r="AV34" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="AW34" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX34" s="11" t="s">
-        <v>614</v>
+        <v>210</v>
+      </c>
+      <c r="AX34" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="35" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="10" t="s">
-        <v>381</v>
+      <c r="A35" t="s">
+        <v>372</v>
       </c>
       <c r="B35" t="s">
         <v>242</v>
       </c>
       <c r="C35" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="D35" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="E35">
-        <v>2003</v>
+        <v>1997</v>
       </c>
       <c r="F35" t="s">
-        <v>384</v>
+        <v>327</v>
       </c>
       <c r="G35" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="H35" t="s">
-        <v>301</v>
+        <v>376</v>
       </c>
       <c r="I35" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="J35" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="K35" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="L35" t="s">
         <v>251</v>
       </c>
       <c r="M35" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="N35" t="s">
         <v>253</v>
@@ -9568,32 +9590,32 @@
       <c r="O35" t="s">
         <v>254</v>
       </c>
+      <c r="P35" t="s">
+        <v>315</v>
+      </c>
       <c r="Q35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="T35" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="U35" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="V35" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W35" t="s">
         <v>48</v>
       </c>
       <c r="X35" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>585</v>
+        <v>216</v>
       </c>
       <c r="Z35" t="s">
-        <v>588</v>
+        <v>570</v>
       </c>
       <c r="AA35">
         <v>2</v>
@@ -9605,56 +9627,53 @@
         <v>3</v>
       </c>
       <c r="AD35" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
       <c r="AF35" t="s">
-        <v>390</v>
+        <v>562</v>
       </c>
       <c r="AG35" t="s">
         <v>107</v>
       </c>
       <c r="AH35" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AI35" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AL35" t="s">
-        <v>604</v>
+        <v>568</v>
       </c>
       <c r="AM35" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN35" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="AO35" t="s">
-        <v>587</v>
+        <v>569</v>
       </c>
       <c r="AQ35" t="s">
         <v>164</v>
       </c>
       <c r="AR35" t="s">
-        <v>168</v>
-      </c>
-      <c r="AT35" t="s">
-        <v>586</v>
+        <v>239</v>
+      </c>
+      <c r="AS35" t="s">
+        <v>176</v>
       </c>
       <c r="AU35" t="s">
-        <v>606</v>
+        <v>623</v>
       </c>
       <c r="AV35" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="AW35" t="s">
         <v>209</v>
       </c>
-      <c r="AX35" s="11" t="s">
-        <v>614</v>
+      <c r="AX35" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="36" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="10" t="s">
+      <c r="A36" t="s">
         <v>381</v>
       </c>
       <c r="B36" t="s">
@@ -9721,10 +9740,10 @@
         <v>113</v>
       </c>
       <c r="Y36" t="s">
+        <v>582</v>
+      </c>
+      <c r="Z36" t="s">
         <v>585</v>
-      </c>
-      <c r="Z36" t="s">
-        <v>588</v>
       </c>
       <c r="AA36">
         <v>2</v>
@@ -9736,13 +9755,13 @@
         <v>3</v>
       </c>
       <c r="AD36" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="AF36" t="s">
         <v>390</v>
       </c>
       <c r="AG36" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AH36" t="s">
         <v>120</v>
@@ -9751,7 +9770,7 @@
         <v>133</v>
       </c>
       <c r="AL36" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="AM36" t="s">
         <v>232</v>
@@ -9760,7 +9779,7 @@
         <v>160</v>
       </c>
       <c r="AO36" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="AQ36" t="s">
         <v>164</v>
@@ -9769,10 +9788,10 @@
         <v>168</v>
       </c>
       <c r="AT36" t="s">
+        <v>583</v>
+      </c>
+      <c r="AU36" t="s">
         <v>586</v>
-      </c>
-      <c r="AU36" t="s">
-        <v>589</v>
       </c>
       <c r="AV36" t="s">
         <v>213</v>
@@ -9780,12 +9799,12 @@
       <c r="AW36" t="s">
         <v>209</v>
       </c>
-      <c r="AX36" s="11" t="s">
-        <v>613</v>
+      <c r="AX36" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="37" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="10" t="s">
+      <c r="A37" t="s">
         <v>381</v>
       </c>
       <c r="B37" t="s">
@@ -9852,10 +9871,10 @@
         <v>113</v>
       </c>
       <c r="Y37" t="s">
+        <v>582</v>
+      </c>
+      <c r="Z37" t="s">
         <v>585</v>
-      </c>
-      <c r="Z37" t="s">
-        <v>588</v>
       </c>
       <c r="AA37">
         <v>2</v>
@@ -9867,13 +9886,13 @@
         <v>3</v>
       </c>
       <c r="AD37" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="AF37" t="s">
         <v>390</v>
       </c>
       <c r="AG37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AH37" t="s">
         <v>120</v>
@@ -9882,7 +9901,7 @@
         <v>133</v>
       </c>
       <c r="AL37" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="AM37" t="s">
         <v>232</v>
@@ -9891,7 +9910,7 @@
         <v>160</v>
       </c>
       <c r="AO37" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="AQ37" t="s">
         <v>164</v>
@@ -9900,10 +9919,10 @@
         <v>168</v>
       </c>
       <c r="AT37" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="AU37" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="AV37" t="s">
         <v>212</v>
@@ -9911,82 +9930,82 @@
       <c r="AW37" t="s">
         <v>209</v>
       </c>
-      <c r="AX37" s="11" t="s">
-        <v>613</v>
+      <c r="AX37" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="38" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="10" t="s">
-        <v>391</v>
+      <c r="A38" t="s">
+        <v>381</v>
       </c>
       <c r="B38" t="s">
         <v>242</v>
       </c>
       <c r="C38" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="D38" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="E38">
-        <v>2009</v>
+        <v>2003</v>
       </c>
       <c r="F38" t="s">
-        <v>309</v>
+        <v>384</v>
       </c>
       <c r="G38" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="H38" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="I38" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="J38" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="K38" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="L38" t="s">
         <v>251</v>
       </c>
       <c r="M38" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="N38" t="s">
         <v>253</v>
       </c>
       <c r="O38" t="s">
-        <v>362</v>
-      </c>
-      <c r="P38" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q38" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S38" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="T38" t="s">
         <v>46</v>
       </c>
       <c r="U38" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="V38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="X38" t="s">
-        <v>215</v>
+        <v>113</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>582</v>
       </c>
       <c r="Z38" t="s">
-        <v>600</v>
+        <v>585</v>
       </c>
       <c r="AA38">
         <v>2</v>
@@ -9998,120 +10017,126 @@
         <v>3</v>
       </c>
       <c r="AD38" t="s">
+        <v>587</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>390</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI38" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL38" t="s">
         <v>601</v>
-      </c>
-      <c r="AF38">
-        <v>4.2</v>
-      </c>
-      <c r="AG38" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH38" t="s">
-        <v>220</v>
-      </c>
-      <c r="AL38" t="s">
-        <v>599</v>
       </c>
       <c r="AM38" t="s">
         <v>232</v>
       </c>
       <c r="AN38" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AO38" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="AQ38" t="s">
         <v>164</v>
       </c>
       <c r="AR38" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="AT38" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="AU38" t="s">
-        <v>597</v>
+        <v>586</v>
       </c>
       <c r="AV38" t="s">
-        <v>238</v>
+        <v>213</v>
+      </c>
+      <c r="AW38" t="s">
+        <v>209</v>
       </c>
       <c r="AX38" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
     </row>
     <row r="39" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="10" t="s">
-        <v>391</v>
+      <c r="A39" t="s">
+        <v>381</v>
       </c>
       <c r="B39" t="s">
         <v>242</v>
       </c>
       <c r="C39" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="D39" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="E39">
-        <v>2009</v>
+        <v>2003</v>
       </c>
       <c r="F39" t="s">
-        <v>309</v>
+        <v>384</v>
       </c>
       <c r="G39" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="H39" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="I39" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="J39" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="K39" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="L39" t="s">
         <v>251</v>
       </c>
       <c r="M39" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="N39" t="s">
         <v>253</v>
       </c>
       <c r="O39" t="s">
-        <v>362</v>
-      </c>
-      <c r="P39" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q39" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S39" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="T39" t="s">
         <v>46</v>
       </c>
       <c r="U39" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="V39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="X39" t="s">
-        <v>215</v>
+        <v>113</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>582</v>
       </c>
       <c r="Z39" t="s">
-        <v>600</v>
+        <v>585</v>
       </c>
       <c r="AA39">
         <v>2</v>
@@ -10122,86 +10147,94 @@
       <c r="AC39">
         <v>3</v>
       </c>
-      <c r="AD39"/>
-      <c r="AF39">
-        <v>4.2</v>
+      <c r="AD39" t="s">
+        <v>587</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>390</v>
       </c>
       <c r="AG39" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AH39" t="s">
-        <v>117</v>
+        <v>120</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>133</v>
       </c>
       <c r="AL39" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AM39" t="s">
         <v>232</v>
       </c>
       <c r="AN39" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AO39" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="AQ39" t="s">
         <v>164</v>
       </c>
       <c r="AR39" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="AT39" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="AU39" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="AV39" t="s">
-        <v>238</v>
+        <v>212</v>
+      </c>
+      <c r="AW39" t="s">
+        <v>209</v>
       </c>
       <c r="AX39" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
     </row>
     <row r="40" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="10" t="s">
-        <v>399</v>
+      <c r="A40" t="s">
+        <v>391</v>
       </c>
       <c r="B40" t="s">
         <v>242</v>
       </c>
       <c r="C40" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="D40" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="E40">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="F40" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="G40" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="H40" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="I40" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="J40" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="K40" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="L40" t="s">
         <v>251</v>
       </c>
       <c r="M40" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="N40" t="s">
         <v>253</v>
@@ -10216,13 +10249,13 @@
         <v>21</v>
       </c>
       <c r="S40" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="T40" t="s">
         <v>46</v>
       </c>
       <c r="U40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V40" t="s">
         <v>43</v>
@@ -10234,7 +10267,7 @@
         <v>215</v>
       </c>
       <c r="Z40" t="s">
-        <v>528</v>
+        <v>597</v>
       </c>
       <c r="AA40">
         <v>2</v>
@@ -10245,29 +10278,29 @@
       <c r="AC40">
         <v>3</v>
       </c>
-      <c r="AD40" s="11" t="s">
-        <v>531</v>
-      </c>
-      <c r="AF40" t="s">
-        <v>390</v>
+      <c r="AD40" t="s">
+        <v>598</v>
+      </c>
+      <c r="AF40">
+        <v>4.2</v>
       </c>
       <c r="AG40" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AH40" t="s">
-        <v>118</v>
+        <v>220</v>
       </c>
       <c r="AL40" t="s">
-        <v>527</v>
+        <v>596</v>
       </c>
       <c r="AM40" t="s">
         <v>232</v>
       </c>
       <c r="AN40" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AO40" t="s">
-        <v>487</v>
+        <v>593</v>
       </c>
       <c r="AQ40" t="s">
         <v>164</v>
@@ -10275,58 +10308,58 @@
       <c r="AR40" t="s">
         <v>239</v>
       </c>
+      <c r="AT40" t="s">
+        <v>592</v>
+      </c>
       <c r="AU40" t="s">
-        <v>529</v>
+        <v>594</v>
       </c>
       <c r="AV40" t="s">
         <v>238</v>
       </c>
-      <c r="AW40" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX40" s="11" t="s">
-        <v>530</v>
+      <c r="AX40" t="s">
+        <v>595</v>
       </c>
     </row>
-    <row r="41" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A41" s="10" t="s">
-        <v>399</v>
+    <row r="41" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>391</v>
       </c>
       <c r="B41" t="s">
         <v>242</v>
       </c>
       <c r="C41" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="D41" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="E41">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="F41" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="G41" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="H41" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="I41" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="J41" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="K41" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="L41" t="s">
         <v>251</v>
       </c>
       <c r="M41" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="N41" t="s">
         <v>253</v>
@@ -10341,13 +10374,13 @@
         <v>21</v>
       </c>
       <c r="S41" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="T41" t="s">
         <v>46</v>
       </c>
       <c r="U41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V41" t="s">
         <v>43</v>
@@ -10359,7 +10392,7 @@
         <v>215</v>
       </c>
       <c r="Z41" t="s">
-        <v>497</v>
+        <v>597</v>
       </c>
       <c r="AA41">
         <v>2</v>
@@ -10370,29 +10403,26 @@
       <c r="AC41">
         <v>3</v>
       </c>
-      <c r="AD41" s="11" t="s">
-        <v>531</v>
-      </c>
-      <c r="AF41" t="s">
-        <v>390</v>
+      <c r="AF41">
+        <v>4.2</v>
       </c>
       <c r="AG41" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AH41" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AL41" t="s">
-        <v>527</v>
+        <v>599</v>
       </c>
       <c r="AM41" t="s">
         <v>232</v>
       </c>
       <c r="AN41" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AO41" t="s">
-        <v>487</v>
+        <v>593</v>
       </c>
       <c r="AQ41" t="s">
         <v>164</v>
@@ -10400,64 +10430,64 @@
       <c r="AR41" t="s">
         <v>239</v>
       </c>
+      <c r="AT41" t="s">
+        <v>592</v>
+      </c>
       <c r="AU41" t="s">
-        <v>529</v>
+        <v>594</v>
       </c>
       <c r="AV41" t="s">
-        <v>199</v>
-      </c>
-      <c r="AW41" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX41" s="11" t="s">
-        <v>532</v>
+        <v>238</v>
+      </c>
+      <c r="AX41" t="s">
+        <v>595</v>
       </c>
     </row>
-    <row r="42" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A42" s="10" t="s">
-        <v>406</v>
+    <row r="42" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>399</v>
       </c>
       <c r="B42" t="s">
         <v>242</v>
       </c>
       <c r="C42" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="D42" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="E42">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="F42" t="s">
-        <v>409</v>
+        <v>299</v>
       </c>
       <c r="G42" t="s">
-        <v>246</v>
+        <v>387</v>
       </c>
       <c r="H42" t="s">
-        <v>247</v>
+        <v>301</v>
       </c>
       <c r="I42" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="J42" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="K42" t="s">
-        <v>251</v>
+        <v>404</v>
       </c>
       <c r="L42" t="s">
         <v>251</v>
       </c>
       <c r="M42" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="N42" t="s">
         <v>253</v>
       </c>
       <c r="O42" t="s">
-        <v>254</v>
+        <v>362</v>
       </c>
       <c r="P42" t="s">
         <v>251</v>
@@ -10465,109 +10495,243 @@
       <c r="Q42" t="s">
         <v>21</v>
       </c>
-      <c r="R42" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD42"/>
-      <c r="AX42"/>
+      <c r="S42" t="s">
+        <v>33</v>
+      </c>
+      <c r="T42" t="s">
+        <v>46</v>
+      </c>
+      <c r="U42" t="s">
+        <v>58</v>
+      </c>
+      <c r="V42" t="s">
+        <v>43</v>
+      </c>
+      <c r="W42" t="s">
+        <v>47</v>
+      </c>
+      <c r="X42" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>527</v>
+      </c>
+      <c r="AA42">
+        <v>2</v>
+      </c>
+      <c r="AB42">
+        <v>2</v>
+      </c>
+      <c r="AC42">
+        <v>3</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>530</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>390</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>118</v>
+      </c>
+      <c r="AL42" t="s">
+        <v>526</v>
+      </c>
+      <c r="AM42" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN42" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO42" t="s">
+        <v>486</v>
+      </c>
+      <c r="AQ42" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR42" t="s">
+        <v>239</v>
+      </c>
+      <c r="AU42" t="s">
+        <v>528</v>
+      </c>
+      <c r="AV42" t="s">
+        <v>238</v>
+      </c>
+      <c r="AW42" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX42" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="43" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A43" s="10" t="s">
-        <v>413</v>
+      <c r="A43" t="s">
+        <v>399</v>
       </c>
       <c r="B43" t="s">
         <v>242</v>
       </c>
       <c r="C43" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="D43" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="E43">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="F43" t="s">
-        <v>416</v>
+        <v>299</v>
       </c>
       <c r="G43" t="s">
-        <v>417</v>
+        <v>387</v>
       </c>
       <c r="H43" t="s">
-        <v>418</v>
+        <v>301</v>
       </c>
       <c r="I43" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="J43" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="K43" t="s">
-        <v>421</v>
+        <v>404</v>
       </c>
       <c r="L43" t="s">
         <v>251</v>
       </c>
       <c r="M43" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="N43" t="s">
         <v>253</v>
       </c>
       <c r="O43" t="s">
-        <v>254</v>
+        <v>362</v>
       </c>
       <c r="P43" t="s">
-        <v>371</v>
+        <v>251</v>
       </c>
       <c r="Q43" t="s">
         <v>21</v>
       </c>
-      <c r="R43" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD43"/>
-      <c r="AX43"/>
+      <c r="S43" t="s">
+        <v>33</v>
+      </c>
+      <c r="T43" t="s">
+        <v>46</v>
+      </c>
+      <c r="U43" t="s">
+        <v>58</v>
+      </c>
+      <c r="V43" t="s">
+        <v>43</v>
+      </c>
+      <c r="W43" t="s">
+        <v>47</v>
+      </c>
+      <c r="X43" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>496</v>
+      </c>
+      <c r="AA43">
+        <v>2</v>
+      </c>
+      <c r="AB43">
+        <v>2</v>
+      </c>
+      <c r="AC43">
+        <v>3</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>530</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>390</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH43" t="s">
+        <v>118</v>
+      </c>
+      <c r="AL43" t="s">
+        <v>526</v>
+      </c>
+      <c r="AM43" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN43" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO43" t="s">
+        <v>486</v>
+      </c>
+      <c r="AQ43" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR43" t="s">
+        <v>239</v>
+      </c>
+      <c r="AU43" t="s">
+        <v>528</v>
+      </c>
+      <c r="AV43" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW43" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX43" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="44" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A44" s="10" t="s">
-        <v>423</v>
+      <c r="A44" t="s">
+        <v>406</v>
       </c>
       <c r="B44" t="s">
         <v>242</v>
       </c>
       <c r="C44" t="s">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="D44" t="s">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="E44">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="F44" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="G44" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="H44" t="s">
-        <v>427</v>
+        <v>247</v>
       </c>
       <c r="I44" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="J44" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="K44" t="s">
-        <v>430</v>
+        <v>251</v>
       </c>
       <c r="L44" t="s">
         <v>251</v>
       </c>
       <c r="M44" t="s">
-        <v>431</v>
+        <v>412</v>
       </c>
       <c r="N44" t="s">
         <v>253</v>
@@ -10582,50 +10746,48 @@
         <v>21</v>
       </c>
       <c r="R44" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD44"/>
-      <c r="AX44"/>
+        <v>84</v>
+      </c>
     </row>
     <row r="45" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A45" s="10" t="s">
-        <v>432</v>
+      <c r="A45" t="s">
+        <v>413</v>
       </c>
       <c r="B45" t="s">
         <v>242</v>
       </c>
       <c r="C45" t="s">
-        <v>433</v>
+        <v>414</v>
       </c>
       <c r="D45" t="s">
-        <v>434</v>
+        <v>415</v>
       </c>
       <c r="E45">
-        <v>1997</v>
+        <v>2002</v>
       </c>
       <c r="F45" t="s">
         <v>416</v>
       </c>
       <c r="G45" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="H45" t="s">
-        <v>361</v>
+        <v>418</v>
       </c>
       <c r="I45" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="J45" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="K45" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="L45" t="s">
         <v>251</v>
       </c>
       <c r="M45" t="s">
-        <v>439</v>
+        <v>422</v>
       </c>
       <c r="N45" t="s">
         <v>253</v>
@@ -10634,59 +10796,54 @@
         <v>254</v>
       </c>
       <c r="P45" t="s">
-        <v>251</v>
+        <v>371</v>
       </c>
       <c r="Q45" t="s">
         <v>21</v>
       </c>
       <c r="R45" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD45"/>
-      <c r="AF45" t="s">
-        <v>390</v>
-      </c>
-      <c r="AX45"/>
+        <v>84</v>
+      </c>
     </row>
     <row r="46" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A46" s="10" t="s">
-        <v>440</v>
+      <c r="A46" t="s">
+        <v>423</v>
       </c>
       <c r="B46" t="s">
         <v>242</v>
       </c>
       <c r="C46" t="s">
-        <v>441</v>
+        <v>424</v>
       </c>
       <c r="D46" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="E46">
-        <v>1996</v>
+        <v>2001</v>
       </c>
       <c r="F46" t="s">
-        <v>327</v>
+        <v>426</v>
       </c>
       <c r="G46" t="s">
-        <v>443</v>
+        <v>260</v>
       </c>
       <c r="H46" t="s">
-        <v>376</v>
+        <v>427</v>
       </c>
       <c r="I46" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="J46" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="K46" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="L46" t="s">
         <v>251</v>
       </c>
       <c r="M46" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="N46" t="s">
         <v>253</v>
@@ -10695,117 +10852,54 @@
         <v>254</v>
       </c>
       <c r="P46" t="s">
-        <v>315</v>
+        <v>251</v>
       </c>
       <c r="Q46" t="s">
         <v>21</v>
       </c>
-      <c r="S46" t="s">
-        <v>31</v>
-      </c>
-      <c r="U46" t="s">
-        <v>56</v>
-      </c>
-      <c r="W46" t="s">
-        <v>49</v>
-      </c>
-      <c r="X46" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y46" t="s">
-        <v>576</v>
-      </c>
-      <c r="Z46" t="s">
-        <v>575</v>
-      </c>
-      <c r="AA46">
-        <v>2</v>
-      </c>
-      <c r="AB46">
-        <v>2</v>
-      </c>
-      <c r="AC46">
-        <v>3</v>
-      </c>
-      <c r="AD46" t="s">
-        <v>577</v>
-      </c>
-      <c r="AF46">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AG46" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH46" t="s">
-        <v>116</v>
-      </c>
-      <c r="AL46" t="s">
-        <v>605</v>
-      </c>
-      <c r="AM46" t="s">
-        <v>159</v>
-      </c>
-      <c r="AO46" t="s">
-        <v>618</v>
-      </c>
-      <c r="AQ46" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR46" t="s">
-        <v>239</v>
-      </c>
-      <c r="AU46" t="s">
-        <v>607</v>
-      </c>
-      <c r="AV46" t="s">
-        <v>203</v>
-      </c>
-      <c r="AW46" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX46" t="s">
-        <v>608</v>
+      <c r="R46" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A47" s="10" t="s">
-        <v>440</v>
+      <c r="A47" t="s">
+        <v>432</v>
       </c>
       <c r="B47" t="s">
         <v>242</v>
       </c>
       <c r="C47" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="D47" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="E47">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="F47" t="s">
-        <v>327</v>
+        <v>416</v>
       </c>
       <c r="G47" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="H47" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="I47" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="J47" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="K47" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="L47" t="s">
         <v>251</v>
       </c>
       <c r="M47" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="N47" t="s">
         <v>253</v>
@@ -10814,80 +10908,20 @@
         <v>254</v>
       </c>
       <c r="P47" t="s">
-        <v>315</v>
+        <v>251</v>
       </c>
       <c r="Q47" t="s">
         <v>21</v>
       </c>
-      <c r="S47" t="s">
-        <v>31</v>
-      </c>
-      <c r="U47" t="s">
-        <v>56</v>
-      </c>
-      <c r="W47" t="s">
-        <v>49</v>
-      </c>
-      <c r="X47" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y47" t="s">
-        <v>576</v>
-      </c>
-      <c r="Z47" t="s">
-        <v>575</v>
-      </c>
-      <c r="AA47">
-        <v>2</v>
-      </c>
-      <c r="AB47">
-        <v>2</v>
-      </c>
-      <c r="AC47">
-        <v>3</v>
-      </c>
-      <c r="AD47" t="s">
-        <v>577</v>
-      </c>
-      <c r="AF47">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AG47" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH47" t="s">
-        <v>116</v>
-      </c>
-      <c r="AL47" t="s">
-        <v>605</v>
-      </c>
-      <c r="AM47" t="s">
-        <v>159</v>
-      </c>
-      <c r="AO47" t="s">
-        <v>618</v>
-      </c>
-      <c r="AQ47" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR47" t="s">
-        <v>239</v>
-      </c>
-      <c r="AU47" t="s">
-        <v>609</v>
-      </c>
-      <c r="AV47" t="s">
-        <v>201</v>
-      </c>
-      <c r="AW47" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX47" t="s">
-        <v>610</v>
+      <c r="R47" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="48" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A48" s="10" t="s">
+      <c r="A48" t="s">
         <v>440</v>
       </c>
       <c r="B48" t="s">
@@ -10951,10 +10985,10 @@
         <v>113</v>
       </c>
       <c r="Y48" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="Z48" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="AA48">
         <v>2</v>
@@ -10966,7 +11000,7 @@
         <v>3</v>
       </c>
       <c r="AD48" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="AF48">
         <v>4.4000000000000004</v>
@@ -10978,13 +11012,13 @@
         <v>116</v>
       </c>
       <c r="AL48" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="AM48" t="s">
         <v>159</v>
       </c>
       <c r="AO48" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="AQ48" t="s">
         <v>164</v>
@@ -10993,57 +11027,57 @@
         <v>239</v>
       </c>
       <c r="AU48" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="AV48" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AW48" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AX48" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
     </row>
     <row r="49" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A49" s="10" t="s">
-        <v>448</v>
+      <c r="A49" t="s">
+        <v>440</v>
       </c>
       <c r="B49" t="s">
         <v>242</v>
       </c>
       <c r="C49" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="D49" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="E49">
-        <v>1972</v>
+        <v>1996</v>
       </c>
       <c r="F49" t="s">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="G49" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="H49" t="s">
-        <v>292</v>
+        <v>376</v>
       </c>
       <c r="I49" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="J49" t="s">
-        <v>348</v>
+        <v>445</v>
       </c>
       <c r="K49" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="L49" t="s">
         <v>251</v>
       </c>
       <c r="M49" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="N49" t="s">
         <v>253</v>
@@ -11052,31 +11086,28 @@
         <v>254</v>
       </c>
       <c r="P49" t="s">
-        <v>251</v>
+        <v>315</v>
       </c>
       <c r="Q49" t="s">
         <v>21</v>
       </c>
       <c r="S49" t="s">
-        <v>24</v>
-      </c>
-      <c r="T49" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="U49" t="s">
-        <v>59</v>
-      </c>
-      <c r="V49" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="W49" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="X49" t="s">
-        <v>69</v>
+        <v>113</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>573</v>
       </c>
       <c r="Z49" t="s">
-        <v>390</v>
+        <v>572</v>
       </c>
       <c r="AA49">
         <v>2</v>
@@ -11085,94 +11116,87 @@
         <v>2</v>
       </c>
       <c r="AC49">
-        <v>1</v>
-      </c>
-      <c r="AD49"/>
-      <c r="AE49" t="s">
-        <v>593</v>
-      </c>
-      <c r="AF49" t="s">
-        <v>390</v>
+        <v>3</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>574</v>
+      </c>
+      <c r="AF49">
+        <v>4.4000000000000004</v>
       </c>
       <c r="AG49" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AH49" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI49" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="AL49" t="s">
-        <v>578</v>
+        <v>602</v>
       </c>
       <c r="AM49" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN49" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AO49" t="s">
-        <v>592</v>
+        <v>615</v>
       </c>
       <c r="AQ49" t="s">
         <v>164</v>
       </c>
-      <c r="AT49" t="s">
-        <v>579</v>
+      <c r="AR49" t="s">
+        <v>239</v>
       </c>
       <c r="AU49" t="s">
-        <v>591</v>
+        <v>606</v>
       </c>
       <c r="AV49" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AW49" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AX49" t="s">
-        <v>594</v>
+        <v>607</v>
       </c>
     </row>
     <row r="50" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A50" s="10" t="s">
-        <v>455</v>
+      <c r="A50" t="s">
+        <v>440</v>
       </c>
       <c r="B50" t="s">
         <v>242</v>
       </c>
       <c r="C50" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="D50" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="E50">
-        <v>2011</v>
+        <v>1996</v>
       </c>
       <c r="F50" t="s">
-        <v>458</v>
+        <v>327</v>
       </c>
       <c r="G50" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="H50" t="s">
-        <v>301</v>
+        <v>376</v>
       </c>
       <c r="I50" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="J50" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="K50" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="L50" t="s">
         <v>251</v>
       </c>
       <c r="M50" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="N50" t="s">
         <v>253</v>
@@ -11181,34 +11205,28 @@
         <v>254</v>
       </c>
       <c r="P50" t="s">
-        <v>464</v>
+        <v>315</v>
       </c>
       <c r="Q50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S50" t="s">
-        <v>26</v>
-      </c>
-      <c r="T50" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="U50" t="s">
-        <v>55</v>
-      </c>
-      <c r="V50" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="W50" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X50" t="s">
         <v>113</v>
       </c>
       <c r="Y50" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="Z50" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="AA50">
         <v>2</v>
@@ -11220,34 +11238,25 @@
         <v>3</v>
       </c>
       <c r="AD50" t="s">
-        <v>584</v>
-      </c>
-      <c r="AF50" t="s">
-        <v>390</v>
+        <v>574</v>
+      </c>
+      <c r="AF50">
+        <v>4.4000000000000004</v>
       </c>
       <c r="AG50" t="s">
         <v>107</v>
       </c>
       <c r="AH50" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI50" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ50" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AL50" t="s">
-        <v>582</v>
+        <v>602</v>
       </c>
       <c r="AM50" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN50" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AO50" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="AQ50" t="s">
         <v>164</v>
@@ -11255,23 +11264,285 @@
       <c r="AR50" t="s">
         <v>239</v>
       </c>
-      <c r="AS50" t="s">
-        <v>176</v>
-      </c>
-      <c r="AT50" t="s">
-        <v>616</v>
-      </c>
       <c r="AU50" t="s">
-        <v>583</v>
+        <v>608</v>
       </c>
       <c r="AV50" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="AW50" t="s">
         <v>209</v>
       </c>
-      <c r="AX50" s="11" t="s">
-        <v>615</v>
+      <c r="AX50" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="51" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>448</v>
+      </c>
+      <c r="B51" t="s">
+        <v>242</v>
+      </c>
+      <c r="C51" t="s">
+        <v>449</v>
+      </c>
+      <c r="D51" t="s">
+        <v>450</v>
+      </c>
+      <c r="E51">
+        <v>1972</v>
+      </c>
+      <c r="F51" t="s">
+        <v>309</v>
+      </c>
+      <c r="G51" t="s">
+        <v>451</v>
+      </c>
+      <c r="H51" t="s">
+        <v>292</v>
+      </c>
+      <c r="I51" t="s">
+        <v>452</v>
+      </c>
+      <c r="J51" t="s">
+        <v>348</v>
+      </c>
+      <c r="K51" t="s">
+        <v>453</v>
+      </c>
+      <c r="L51" t="s">
+        <v>251</v>
+      </c>
+      <c r="M51" t="s">
+        <v>454</v>
+      </c>
+      <c r="N51" t="s">
+        <v>253</v>
+      </c>
+      <c r="O51" t="s">
+        <v>254</v>
+      </c>
+      <c r="P51" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>21</v>
+      </c>
+      <c r="S51" t="s">
+        <v>24</v>
+      </c>
+      <c r="T51" t="s">
+        <v>46</v>
+      </c>
+      <c r="U51" t="s">
+        <v>59</v>
+      </c>
+      <c r="V51" t="s">
+        <v>38</v>
+      </c>
+      <c r="W51" t="s">
+        <v>47</v>
+      </c>
+      <c r="X51" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>390</v>
+      </c>
+      <c r="AA51">
+        <v>2</v>
+      </c>
+      <c r="AB51">
+        <v>2</v>
+      </c>
+      <c r="AC51">
+        <v>1</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>590</v>
+      </c>
+      <c r="AF51" t="s">
+        <v>390</v>
+      </c>
+      <c r="AG51" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH51" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI51" t="s">
+        <v>147</v>
+      </c>
+      <c r="AL51" t="s">
+        <v>575</v>
+      </c>
+      <c r="AM51" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN51" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO51" t="s">
+        <v>589</v>
+      </c>
+      <c r="AQ51" t="s">
+        <v>164</v>
+      </c>
+      <c r="AT51" t="s">
+        <v>576</v>
+      </c>
+      <c r="AU51" t="s">
+        <v>588</v>
+      </c>
+      <c r="AV51" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW51" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX51" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="52" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>242</v>
+      </c>
+      <c r="C52" t="s">
+        <v>456</v>
+      </c>
+      <c r="D52" t="s">
+        <v>457</v>
+      </c>
+      <c r="E52">
+        <v>2011</v>
+      </c>
+      <c r="F52" t="s">
+        <v>458</v>
+      </c>
+      <c r="G52" t="s">
+        <v>459</v>
+      </c>
+      <c r="H52" t="s">
+        <v>301</v>
+      </c>
+      <c r="I52" t="s">
+        <v>460</v>
+      </c>
+      <c r="J52" t="s">
+        <v>461</v>
+      </c>
+      <c r="K52" t="s">
+        <v>462</v>
+      </c>
+      <c r="L52" t="s">
+        <v>251</v>
+      </c>
+      <c r="M52" t="s">
+        <v>463</v>
+      </c>
+      <c r="N52" t="s">
+        <v>253</v>
+      </c>
+      <c r="O52" t="s">
+        <v>254</v>
+      </c>
+      <c r="P52" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>22</v>
+      </c>
+      <c r="S52" t="s">
+        <v>26</v>
+      </c>
+      <c r="T52" t="s">
+        <v>44</v>
+      </c>
+      <c r="U52" t="s">
+        <v>55</v>
+      </c>
+      <c r="V52" t="s">
+        <v>44</v>
+      </c>
+      <c r="W52" t="s">
+        <v>48</v>
+      </c>
+      <c r="X52" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>577</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>578</v>
+      </c>
+      <c r="AA52">
+        <v>2</v>
+      </c>
+      <c r="AB52">
+        <v>2</v>
+      </c>
+      <c r="AC52">
+        <v>3</v>
+      </c>
+      <c r="AD52" t="s">
+        <v>581</v>
+      </c>
+      <c r="AF52" t="s">
+        <v>390</v>
+      </c>
+      <c r="AG52" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI52" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ52" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL52" t="s">
+        <v>579</v>
+      </c>
+      <c r="AM52" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN52" t="s">
+        <v>161</v>
+      </c>
+      <c r="AO52" t="s">
+        <v>614</v>
+      </c>
+      <c r="AQ52" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR52" t="s">
+        <v>239</v>
+      </c>
+      <c r="AS52" t="s">
+        <v>176</v>
+      </c>
+      <c r="AT52" t="s">
+        <v>613</v>
+      </c>
+      <c r="AU52" t="s">
+        <v>580</v>
+      </c>
+      <c r="AV52" t="s">
+        <v>213</v>
+      </c>
+      <c r="AW52" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX52" t="s">
+        <v>612</v>
       </c>
     </row>
   </sheetData>
@@ -11285,7 +11556,7 @@
     <mergeCell ref="AM1:AP1"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="P13:P1048576 Q3:Q12" xr:uid="{362F6CDE-1825-4749-A70C-DB47556067E9}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="Q3:Q12 P13:P1048576" xr:uid="{362F6CDE-1825-4749-A70C-DB47556067E9}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH3:AH1048576" xr:uid="{CC52EB33-CB89-440E-A680-3600353FCD60}">
       <formula1>Ecosystem_component</formula1>
     </dataValidation>
@@ -11306,7 +11577,7 @@
           <x14:formula1>
             <xm:f>Validation!$R$3:$R$9</xm:f>
           </x14:formula1>
-          <xm:sqref>R51:R1048576 R3:R9 R13 R15 R22:R25 R42:R48</xm:sqref>
+          <xm:sqref>R53:R1048576 R3:R9 R13 R15 R22:R25 R44:R50</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FB66A4B2-AC63-401A-912C-59AB3AFB17C3}">
           <x14:formula1>
@@ -11400,7 +11671,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AX38"/>
+  <dimension ref="A1:AW38"/>
   <sheetViews>
     <sheetView topLeftCell="AC1" workbookViewId="0">
       <selection activeCell="AP31" sqref="AP31"/>
@@ -11417,69 +11688,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="19" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19"/>
-      <c r="AA1" s="19"/>
-      <c r="AB1" s="19"/>
-      <c r="AC1" s="19"/>
-      <c r="AD1" s="19"/>
-      <c r="AE1" s="19"/>
-      <c r="AF1" s="17" t="s">
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="AG1" s="17"/>
-      <c r="AH1" s="18" t="s">
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="AI1" s="18"/>
-      <c r="AJ1" s="18"/>
-      <c r="AK1" s="18"/>
-      <c r="AL1" s="18"/>
-      <c r="AM1" s="20" t="s">
+      <c r="AI1" s="14"/>
+      <c r="AJ1" s="14"/>
+      <c r="AK1" s="14"/>
+      <c r="AL1" s="14"/>
+      <c r="AM1" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="AN1" s="20"/>
-      <c r="AO1" s="20"/>
-      <c r="AP1" s="14" t="s">
+      <c r="AN1" s="16"/>
+      <c r="AO1" s="16"/>
+      <c r="AP1" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="AQ1" s="14"/>
-      <c r="AR1" s="14"/>
-      <c r="AS1" s="14"/>
-      <c r="AT1" s="9" t="s">
+      <c r="AQ1" s="10"/>
+      <c r="AR1" s="10"/>
+      <c r="AS1" s="10"/>
+      <c r="AT1" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="AU1" s="9"/>
-      <c r="AV1" s="9"/>
-      <c r="AW1" s="9"/>
+      <c r="AU1" s="8"/>
+      <c r="AV1" s="8"/>
+      <c r="AW1" s="8"/>
     </row>
     <row r="2" spans="1:49" ht="87" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -11798,7 +12069,7 @@
       <c r="AV5" t="s">
         <v>210</v>
       </c>
-      <c r="AW5" s="8"/>
+      <c r="AW5" s="7"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.35">
       <c r="R6" t="s">
@@ -12186,7 +12457,7 @@
       </c>
     </row>
     <row r="19" spans="34:47" x14ac:dyDescent="0.35">
-      <c r="AP19" s="7" t="s">
+      <c r="AP19" t="s">
         <v>113</v>
       </c>
     </row>
@@ -12389,7 +12660,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="33" spans="34:50" x14ac:dyDescent="0.35">
+    <row r="33" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AH33" t="s">
         <v>155</v>
       </c>
@@ -12409,7 +12680,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="34" spans="34:50" x14ac:dyDescent="0.35">
+    <row r="34" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AI34" t="s">
         <v>157</v>
       </c>
@@ -12422,9 +12693,8 @@
       <c r="AU34" t="s">
         <v>194</v>
       </c>
-      <c r="AX34" s="7"/>
     </row>
-    <row r="35" spans="34:50" x14ac:dyDescent="0.35">
+    <row r="35" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AI35" t="s">
         <v>113</v>
       </c>
@@ -12438,7 +12708,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="36" spans="34:50" x14ac:dyDescent="0.35">
+    <row r="36" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AT36" t="s">
         <v>211</v>
       </c>
@@ -12446,10 +12716,10 @@
         <v>196</v>
       </c>
     </row>
-    <row r="37" spans="34:50" x14ac:dyDescent="0.35">
+    <row r="37" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AL37" s="5"/>
     </row>
-    <row r="38" spans="34:50" x14ac:dyDescent="0.35">
+    <row r="38" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AL38" s="6"/>
       <c r="AM38" s="6"/>
       <c r="AN38" s="6"/>
@@ -12509,50 +12779,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="17" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="18" t="s">
+      <c r="P1" s="13"/>
+      <c r="Q1" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="20" t="s">
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="14" t="s">
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="Z1" s="14"/>
-      <c r="AA1" s="14"/>
-      <c r="AB1" s="14"/>
-      <c r="AC1" s="15" t="s">
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
+      <c r="AC1" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="AD1" s="15"/>
-      <c r="AE1" s="15"/>
-      <c r="AF1" s="15"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
     </row>
     <row r="2" spans="1:32" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -13072,7 +13342,7 @@
       <c r="G12" t="s">
         <v>76</v>
       </c>
-      <c r="Q12" s="7" t="s">
+      <c r="Q12" t="s">
         <v>221</v>
       </c>
       <c r="R12" t="s">
@@ -13533,14 +13803,14 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Bluemel.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Bluemel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8BCBDFA-003C-4928-A491-48636C4A379F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4D0B84-2060-4525-A68A-7640D079484B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4775,7 +4775,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4824,12 +4824,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="10">
@@ -5422,10 +5416,10 @@
   <dimension ref="A1:AX52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="AS33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="AI42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AW55" sqref="AW55"/>
+      <selection pane="bottomRight" activeCell="AO57" sqref="AO57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10547,7 +10541,7 @@
         <v>160</v>
       </c>
       <c r="AO42" t="s">
-        <v>486</v>
+        <v>617</v>
       </c>
       <c r="AQ42" t="s">
         <v>164</v>
@@ -13648,12 +13642,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13771,15 +13762,25 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -13801,16 +13802,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Bluemel.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Bluemel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4D0B84-2060-4525-A68A-7640D079484B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68565FF0-125F-43BC-95F7-11625C1748C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2870,7 +2870,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2337" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2337" uniqueCount="628">
   <si>
     <t>SearchID</t>
   </si>
@@ -4769,6 +4769,9 @@
   </si>
   <si>
     <t xml:space="preserve">Digesta was most prev-elant in the stomachs of dab sampled from the control line, which resulted in a significantly greater SC/FL index for these dab (Fig. 3; K-W, H = 19.9, p &lt; 0.001). A larger number of the stomachs of dab collected on the control lines contained Amphiura spp. arms compared with those of fish collected on the treatment line (Fig. 2; Fisher's exact test, p &lt; 0.001). In contrast, the stom- achs of dab collected from the treatment line con- tained much larger numbers of oral discs of Amphiura spp. than those collected on the control line on 3 con- secutive days after the initial disturbance (Fig. 2; x2 = 228.3, p &lt; 0.001). Immedately after fishing distur-bance, the SC/FL index of dab collected on the treat- ment line had increased significantly since the previ- ous day and was significantly higher than for dab col- lected on the control line (Fig. 3; K-W, H = 7.29, p &lt; 0.008). Thereafter, the SC/FL index did not vary sig- nificantly for dab collected from either treatment or control lines (Fig. 3). </t>
+  </si>
+  <si>
+    <t>fishing effort</t>
   </si>
 </sst>
 </file>
@@ -5416,10 +5419,10 @@
   <dimension ref="A1:AX52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="AI42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="AL3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AO57" sqref="AO57"/>
+      <selection pane="bottomRight" activeCell="AX57" sqref="AX57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5833,7 +5836,7 @@
         <v>162</v>
       </c>
       <c r="AO4" t="s">
-        <v>486</v>
+        <v>627</v>
       </c>
       <c r="AQ4" t="s">
         <v>164</v>
@@ -5848,7 +5851,7 @@
         <v>468</v>
       </c>
       <c r="AV4" t="s">
-        <v>203</v>
+        <v>238</v>
       </c>
       <c r="AW4" t="s">
         <v>207</v>
@@ -5970,7 +5973,7 @@
         <v>162</v>
       </c>
       <c r="AO5" t="s">
-        <v>486</v>
+        <v>627</v>
       </c>
       <c r="AQ5" t="s">
         <v>164</v>
@@ -5985,7 +5988,7 @@
         <v>468</v>
       </c>
       <c r="AV5" t="s">
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="AW5" t="s">
         <v>207</v>
@@ -6107,7 +6110,7 @@
         <v>162</v>
       </c>
       <c r="AO6" t="s">
-        <v>486</v>
+        <v>627</v>
       </c>
       <c r="AQ6" t="s">
         <v>164</v>
@@ -6122,7 +6125,7 @@
         <v>468</v>
       </c>
       <c r="AV6" t="s">
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="AW6" t="s">
         <v>210</v>
@@ -6244,7 +6247,7 @@
         <v>162</v>
       </c>
       <c r="AO7" t="s">
-        <v>486</v>
+        <v>627</v>
       </c>
       <c r="AQ7" t="s">
         <v>164</v>
@@ -6259,7 +6262,7 @@
         <v>468</v>
       </c>
       <c r="AV7" t="s">
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="AW7" t="s">
         <v>210</v>
@@ -6381,7 +6384,7 @@
         <v>162</v>
       </c>
       <c r="AO8" t="s">
-        <v>486</v>
+        <v>627</v>
       </c>
       <c r="AQ8" t="s">
         <v>164</v>
@@ -6396,7 +6399,7 @@
         <v>468</v>
       </c>
       <c r="AV8" t="s">
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="AW8" t="s">
         <v>209</v>
@@ -13642,12 +13645,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="125e2131eddd38cce17ebc9527d7a9d7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="553f2d8843fd2aa64b81f9e8c63a6619">
     <xsd:element name="properties">
@@ -13761,6 +13758,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -13771,21 +13774,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD9F6DFA-3CE5-417E-90E8-A9FD71AA783B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13801,6 +13789,21 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
   <ds:schemaRefs>

--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Bluemel.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Bluemel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68565FF0-125F-43BC-95F7-11625C1748C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12DD2C1E-6ECA-40C3-B581-3E355337DD17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataExtraction" sheetId="1" r:id="rId1"/>
@@ -3643,9 +3643,6 @@
     <t>SW4_0209</t>
   </si>
   <si>
-    <t>Hélène P., Authier M., Willy D., Cécile D., Fabien D., Ghislain D., Olivier V.C., Sophie L., Paula M.-F., Jérôme S., Pierre D., Vincent R.</t>
-  </si>
-  <si>
     <t>Can modelling the drift of bycaught dolphin stranded carcasses help identify involved fisheries? An exploratory study</t>
   </si>
   <si>
@@ -4772,6 +4769,9 @@
   </si>
   <si>
     <t>fishing effort</t>
+  </si>
+  <si>
+    <t>Peltier H., Authier M., Dabin W., Dars C., Demaret F., Doremus G., Van Canneyt O., Laran S., Mendez-Fernandez P., Spitz J., Daniel P., Ridoux V.</t>
   </si>
 </sst>
 </file>
@@ -5419,37 +5419,37 @@
   <dimension ref="A1:AX52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="AL3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AX57" sqref="AX57"/>
+      <selection pane="bottomRight" activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="28.453125" customWidth="1"/>
-    <col min="4" max="4" width="120.54296875" customWidth="1"/>
-    <col min="11" max="11" width="26.453125" customWidth="1"/>
-    <col min="15" max="15" width="17.54296875" customWidth="1"/>
-    <col min="19" max="19" width="18.1796875" customWidth="1"/>
-    <col min="24" max="25" width="32.54296875" customWidth="1"/>
-    <col min="26" max="26" width="22.54296875" customWidth="1"/>
-    <col min="30" max="30" width="67.54296875" customWidth="1"/>
-    <col min="34" max="35" width="17.54296875" customWidth="1"/>
-    <col min="36" max="36" width="18.54296875" customWidth="1"/>
-    <col min="37" max="37" width="19.1796875" customWidth="1"/>
-    <col min="38" max="38" width="17.54296875" customWidth="1"/>
-    <col min="39" max="39" width="14.453125" customWidth="1"/>
-    <col min="40" max="40" width="15.81640625" customWidth="1"/>
-    <col min="41" max="41" width="35.453125" customWidth="1"/>
-    <col min="42" max="42" width="15.453125" customWidth="1"/>
-    <col min="46" max="46" width="15.1796875" customWidth="1"/>
-    <col min="47" max="47" width="18.54296875" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" customWidth="1"/>
+    <col min="4" max="4" width="120.5703125" customWidth="1"/>
+    <col min="11" max="11" width="26.42578125" customWidth="1"/>
+    <col min="15" max="15" width="17.5703125" customWidth="1"/>
+    <col min="19" max="19" width="18.140625" customWidth="1"/>
+    <col min="24" max="25" width="32.5703125" customWidth="1"/>
+    <col min="26" max="26" width="22.5703125" customWidth="1"/>
+    <col min="30" max="30" width="67.5703125" customWidth="1"/>
+    <col min="34" max="35" width="17.5703125" customWidth="1"/>
+    <col min="36" max="36" width="18.5703125" customWidth="1"/>
+    <col min="37" max="37" width="19.140625" customWidth="1"/>
+    <col min="38" max="38" width="17.5703125" customWidth="1"/>
+    <col min="39" max="39" width="14.42578125" customWidth="1"/>
+    <col min="40" max="40" width="15.85546875" customWidth="1"/>
+    <col min="41" max="41" width="35.42578125" customWidth="1"/>
+    <col min="42" max="42" width="15.42578125" customWidth="1"/>
+    <col min="46" max="46" width="15.140625" customWidth="1"/>
+    <col min="47" max="47" width="18.5703125" customWidth="1"/>
     <col min="48" max="48" width="18" customWidth="1"/>
-    <col min="50" max="50" width="87.54296875" customWidth="1"/>
+    <col min="50" max="50" width="87.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>11</v>
       </c>
@@ -5515,7 +5515,7 @@
       <c r="AW1" s="11"/>
       <c r="AX1" s="11"/>
     </row>
-    <row r="2" spans="1:50" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:50" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>68</v>
       </c>
@@ -5637,7 +5637,7 @@
         <v>230</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AP2" s="2" t="s">
         <v>98</v>
@@ -5667,7 +5667,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>241</v>
       </c>
@@ -5723,7 +5723,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>256</v>
       </c>
@@ -5731,19 +5731,19 @@
         <v>242</v>
       </c>
       <c r="C4" t="s">
+        <v>627</v>
+      </c>
+      <c r="D4" t="s">
         <v>257</v>
-      </c>
-      <c r="D4" t="s">
-        <v>258</v>
       </c>
       <c r="E4">
         <v>2020</v>
       </c>
       <c r="F4" t="s">
+        <v>258</v>
+      </c>
+      <c r="G4" t="s">
         <v>259</v>
-      </c>
-      <c r="G4" t="s">
-        <v>260</v>
       </c>
       <c r="H4" t="s">
         <v>251</v>
@@ -5755,13 +5755,13 @@
         <v>251</v>
       </c>
       <c r="K4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L4" t="s">
         <v>251</v>
       </c>
       <c r="M4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="N4" t="s">
         <v>253</v>
@@ -5770,7 +5770,7 @@
         <v>254</v>
       </c>
       <c r="P4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Q4" t="s">
         <v>21</v>
@@ -5794,10 +5794,10 @@
         <v>113</v>
       </c>
       <c r="Y4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="Z4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AA4">
         <v>2</v>
@@ -5809,7 +5809,7 @@
         <v>3</v>
       </c>
       <c r="AD4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AF4" t="s">
         <v>255</v>
@@ -5827,7 +5827,7 @@
         <v>155</v>
       </c>
       <c r="AL4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AM4" t="s">
         <v>232</v>
@@ -5836,7 +5836,7 @@
         <v>162</v>
       </c>
       <c r="AO4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AQ4" t="s">
         <v>164</v>
@@ -5848,7 +5848,7 @@
         <v>182</v>
       </c>
       <c r="AU4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AV4" t="s">
         <v>238</v>
@@ -5857,10 +5857,10 @@
         <v>207</v>
       </c>
       <c r="AX4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>256</v>
       </c>
@@ -5868,19 +5868,19 @@
         <v>242</v>
       </c>
       <c r="C5" t="s">
+        <v>627</v>
+      </c>
+      <c r="D5" t="s">
         <v>257</v>
-      </c>
-      <c r="D5" t="s">
-        <v>258</v>
       </c>
       <c r="E5">
         <v>2020</v>
       </c>
       <c r="F5" t="s">
+        <v>258</v>
+      </c>
+      <c r="G5" t="s">
         <v>259</v>
-      </c>
-      <c r="G5" t="s">
-        <v>260</v>
       </c>
       <c r="H5" t="s">
         <v>251</v>
@@ -5892,13 +5892,13 @@
         <v>251</v>
       </c>
       <c r="K5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L5" t="s">
         <v>251</v>
       </c>
       <c r="M5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="N5" t="s">
         <v>253</v>
@@ -5907,7 +5907,7 @@
         <v>254</v>
       </c>
       <c r="P5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Q5" t="s">
         <v>21</v>
@@ -5931,10 +5931,10 @@
         <v>113</v>
       </c>
       <c r="Y5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="Z5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AA5">
         <v>2</v>
@@ -5946,7 +5946,7 @@
         <v>3</v>
       </c>
       <c r="AD5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AF5" t="s">
         <v>255</v>
@@ -5964,7 +5964,7 @@
         <v>155</v>
       </c>
       <c r="AL5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AM5" t="s">
         <v>232</v>
@@ -5973,7 +5973,7 @@
         <v>162</v>
       </c>
       <c r="AO5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AQ5" t="s">
         <v>164</v>
@@ -5985,7 +5985,7 @@
         <v>177</v>
       </c>
       <c r="AU5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AV5" t="s">
         <v>238</v>
@@ -5994,10 +5994,10 @@
         <v>207</v>
       </c>
       <c r="AX5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>256</v>
       </c>
@@ -6005,19 +6005,19 @@
         <v>242</v>
       </c>
       <c r="C6" t="s">
+        <v>627</v>
+      </c>
+      <c r="D6" t="s">
         <v>257</v>
-      </c>
-      <c r="D6" t="s">
-        <v>258</v>
       </c>
       <c r="E6">
         <v>2020</v>
       </c>
       <c r="F6" t="s">
+        <v>258</v>
+      </c>
+      <c r="G6" t="s">
         <v>259</v>
-      </c>
-      <c r="G6" t="s">
-        <v>260</v>
       </c>
       <c r="H6" t="s">
         <v>251</v>
@@ -6029,13 +6029,13 @@
         <v>251</v>
       </c>
       <c r="K6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L6" t="s">
         <v>251</v>
       </c>
       <c r="M6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="N6" t="s">
         <v>253</v>
@@ -6044,7 +6044,7 @@
         <v>254</v>
       </c>
       <c r="P6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Q6" t="s">
         <v>21</v>
@@ -6068,10 +6068,10 @@
         <v>113</v>
       </c>
       <c r="Y6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="Z6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AA6">
         <v>2</v>
@@ -6083,7 +6083,7 @@
         <v>3</v>
       </c>
       <c r="AD6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AF6" t="s">
         <v>255</v>
@@ -6101,7 +6101,7 @@
         <v>155</v>
       </c>
       <c r="AL6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AM6" t="s">
         <v>232</v>
@@ -6110,7 +6110,7 @@
         <v>162</v>
       </c>
       <c r="AO6" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AQ6" t="s">
         <v>164</v>
@@ -6122,7 +6122,7 @@
         <v>188</v>
       </c>
       <c r="AU6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AV6" t="s">
         <v>238</v>
@@ -6131,10 +6131,10 @@
         <v>210</v>
       </c>
       <c r="AX6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>256</v>
       </c>
@@ -6142,19 +6142,19 @@
         <v>242</v>
       </c>
       <c r="C7" t="s">
+        <v>627</v>
+      </c>
+      <c r="D7" t="s">
         <v>257</v>
-      </c>
-      <c r="D7" t="s">
-        <v>258</v>
       </c>
       <c r="E7">
         <v>2020</v>
       </c>
       <c r="F7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G7" t="s">
         <v>259</v>
-      </c>
-      <c r="G7" t="s">
-        <v>260</v>
       </c>
       <c r="H7" t="s">
         <v>251</v>
@@ -6166,13 +6166,13 @@
         <v>251</v>
       </c>
       <c r="K7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L7" t="s">
         <v>251</v>
       </c>
       <c r="M7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="N7" t="s">
         <v>253</v>
@@ -6181,7 +6181,7 @@
         <v>254</v>
       </c>
       <c r="P7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Q7" t="s">
         <v>21</v>
@@ -6205,10 +6205,10 @@
         <v>113</v>
       </c>
       <c r="Y7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="Z7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AA7">
         <v>2</v>
@@ -6220,7 +6220,7 @@
         <v>3</v>
       </c>
       <c r="AD7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AF7" t="s">
         <v>255</v>
@@ -6238,7 +6238,7 @@
         <v>155</v>
       </c>
       <c r="AL7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AM7" t="s">
         <v>232</v>
@@ -6247,7 +6247,7 @@
         <v>162</v>
       </c>
       <c r="AO7" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AQ7" t="s">
         <v>164</v>
@@ -6259,7 +6259,7 @@
         <v>189</v>
       </c>
       <c r="AU7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AV7" t="s">
         <v>238</v>
@@ -6268,10 +6268,10 @@
         <v>210</v>
       </c>
       <c r="AX7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>256</v>
       </c>
@@ -6279,19 +6279,19 @@
         <v>242</v>
       </c>
       <c r="C8" t="s">
+        <v>627</v>
+      </c>
+      <c r="D8" t="s">
         <v>257</v>
-      </c>
-      <c r="D8" t="s">
-        <v>258</v>
       </c>
       <c r="E8">
         <v>2020</v>
       </c>
       <c r="F8" t="s">
+        <v>258</v>
+      </c>
+      <c r="G8" t="s">
         <v>259</v>
-      </c>
-      <c r="G8" t="s">
-        <v>260</v>
       </c>
       <c r="H8" t="s">
         <v>251</v>
@@ -6303,13 +6303,13 @@
         <v>251</v>
       </c>
       <c r="K8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L8" t="s">
         <v>251</v>
       </c>
       <c r="M8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="N8" t="s">
         <v>253</v>
@@ -6318,7 +6318,7 @@
         <v>254</v>
       </c>
       <c r="P8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Q8" t="s">
         <v>21</v>
@@ -6342,10 +6342,10 @@
         <v>113</v>
       </c>
       <c r="Y8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="Z8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AA8">
         <v>2</v>
@@ -6357,7 +6357,7 @@
         <v>3</v>
       </c>
       <c r="AD8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AF8" t="s">
         <v>255</v>
@@ -6375,7 +6375,7 @@
         <v>155</v>
       </c>
       <c r="AL8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AM8" t="s">
         <v>232</v>
@@ -6384,7 +6384,7 @@
         <v>162</v>
       </c>
       <c r="AO8" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AQ8" t="s">
         <v>164</v>
@@ -6396,7 +6396,7 @@
         <v>175</v>
       </c>
       <c r="AU8" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AV8" t="s">
         <v>238</v>
@@ -6405,33 +6405,33 @@
         <v>209</v>
       </c>
       <c r="AX8" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B9" t="s">
         <v>242</v>
       </c>
       <c r="C9" t="s">
+        <v>264</v>
+      </c>
+      <c r="D9" t="s">
         <v>265</v>
-      </c>
-      <c r="D9" t="s">
-        <v>266</v>
       </c>
       <c r="E9">
         <v>2018</v>
       </c>
       <c r="F9" t="s">
+        <v>266</v>
+      </c>
+      <c r="G9" t="s">
         <v>267</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>268</v>
-      </c>
-      <c r="H9" t="s">
-        <v>269</v>
       </c>
       <c r="I9" t="s">
         <v>251</v>
@@ -6440,13 +6440,13 @@
         <v>251</v>
       </c>
       <c r="K9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L9" t="s">
         <v>251</v>
       </c>
       <c r="M9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="N9" t="s">
         <v>253</v>
@@ -6455,7 +6455,7 @@
         <v>254</v>
       </c>
       <c r="P9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Q9" t="s">
         <v>21</v>
@@ -6473,7 +6473,7 @@
         <v>216</v>
       </c>
       <c r="Z9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AA9">
         <v>2</v>
@@ -6485,10 +6485,10 @@
         <v>1</v>
       </c>
       <c r="AD9" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE9" t="s">
         <v>478</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>479</v>
       </c>
       <c r="AF9" t="s">
         <v>255</v>
@@ -6503,7 +6503,7 @@
         <v>138</v>
       </c>
       <c r="AL9" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AM9" t="s">
         <v>232</v>
@@ -6512,7 +6512,7 @@
         <v>162</v>
       </c>
       <c r="AO9" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AQ9" t="s">
         <v>164</v>
@@ -6521,10 +6521,10 @@
         <v>239</v>
       </c>
       <c r="AT9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AU9" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AV9" t="s">
         <v>200</v>
@@ -6533,33 +6533,33 @@
         <v>208</v>
       </c>
       <c r="AX9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
-    <row r="10" spans="1:50" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:50" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B10" t="s">
         <v>242</v>
       </c>
       <c r="C10" t="s">
+        <v>272</v>
+      </c>
+      <c r="D10" t="s">
         <v>273</v>
-      </c>
-      <c r="D10" t="s">
-        <v>274</v>
       </c>
       <c r="E10">
         <v>2018</v>
       </c>
       <c r="F10" t="s">
+        <v>266</v>
+      </c>
+      <c r="G10" t="s">
         <v>267</v>
       </c>
-      <c r="G10" t="s">
-        <v>268</v>
-      </c>
       <c r="H10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I10" t="s">
         <v>251</v>
@@ -6568,13 +6568,13 @@
         <v>251</v>
       </c>
       <c r="K10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L10" t="s">
         <v>251</v>
       </c>
       <c r="M10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="N10" t="s">
         <v>253</v>
@@ -6583,7 +6583,7 @@
         <v>254</v>
       </c>
       <c r="P10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Q10" t="s">
         <v>21</v>
@@ -6607,7 +6607,7 @@
         <v>71</v>
       </c>
       <c r="Z10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AA10">
         <v>1</v>
@@ -6619,10 +6619,10 @@
         <v>2</v>
       </c>
       <c r="AD10" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AE10" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AF10" t="s">
         <v>255</v>
@@ -6643,7 +6643,7 @@
         <v>162</v>
       </c>
       <c r="AO10" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AQ10" t="s">
         <v>164</v>
@@ -6652,10 +6652,10 @@
         <v>113</v>
       </c>
       <c r="AT10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AU10" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AV10" t="s">
         <v>212</v>
@@ -6664,48 +6664,48 @@
         <v>210</v>
       </c>
       <c r="AX10" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B11" t="s">
         <v>242</v>
       </c>
       <c r="C11" t="s">
+        <v>278</v>
+      </c>
+      <c r="D11" t="s">
         <v>279</v>
-      </c>
-      <c r="D11" t="s">
-        <v>280</v>
       </c>
       <c r="E11">
         <v>2018</v>
       </c>
       <c r="F11" t="s">
+        <v>280</v>
+      </c>
+      <c r="G11" t="s">
         <v>281</v>
-      </c>
-      <c r="G11" t="s">
-        <v>282</v>
       </c>
       <c r="H11" t="s">
         <v>251</v>
       </c>
       <c r="I11" t="s">
+        <v>282</v>
+      </c>
+      <c r="J11" t="s">
         <v>283</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>284</v>
-      </c>
-      <c r="K11" t="s">
-        <v>285</v>
       </c>
       <c r="L11" t="s">
         <v>251</v>
       </c>
       <c r="M11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="N11" t="s">
         <v>253</v>
@@ -6738,7 +6738,7 @@
         <v>216</v>
       </c>
       <c r="Z11" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AA11">
         <v>2</v>
@@ -6750,7 +6750,7 @@
         <v>2</v>
       </c>
       <c r="AD11" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AF11" t="s">
         <v>255</v>
@@ -6765,7 +6765,7 @@
         <v>139</v>
       </c>
       <c r="AL11" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AM11" t="s">
         <v>232</v>
@@ -6774,7 +6774,7 @@
         <v>162</v>
       </c>
       <c r="AO11" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AQ11" t="s">
         <v>164</v>
@@ -6786,7 +6786,7 @@
         <v>189</v>
       </c>
       <c r="AT11" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AU11" t="s">
         <v>237</v>
@@ -6798,48 +6798,48 @@
         <v>210</v>
       </c>
       <c r="AX11" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B12" t="s">
         <v>242</v>
       </c>
       <c r="C12" t="s">
+        <v>278</v>
+      </c>
+      <c r="D12" t="s">
         <v>279</v>
-      </c>
-      <c r="D12" t="s">
-        <v>280</v>
       </c>
       <c r="E12">
         <v>2018</v>
       </c>
       <c r="F12" t="s">
+        <v>280</v>
+      </c>
+      <c r="G12" t="s">
         <v>281</v>
-      </c>
-      <c r="G12" t="s">
-        <v>282</v>
       </c>
       <c r="H12" t="s">
         <v>251</v>
       </c>
       <c r="I12" t="s">
+        <v>282</v>
+      </c>
+      <c r="J12" t="s">
         <v>283</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>284</v>
-      </c>
-      <c r="K12" t="s">
-        <v>285</v>
       </c>
       <c r="L12" t="s">
         <v>251</v>
       </c>
       <c r="M12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="N12" t="s">
         <v>253</v>
@@ -6872,7 +6872,7 @@
         <v>216</v>
       </c>
       <c r="Z12" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AA12">
         <v>2</v>
@@ -6884,7 +6884,7 @@
         <v>2</v>
       </c>
       <c r="AD12" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AF12" t="s">
         <v>255</v>
@@ -6899,7 +6899,7 @@
         <v>139</v>
       </c>
       <c r="AL12" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AM12" t="s">
         <v>232</v>
@@ -6908,7 +6908,7 @@
         <v>162</v>
       </c>
       <c r="AO12" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AQ12" t="s">
         <v>164</v>
@@ -6920,7 +6920,7 @@
         <v>189</v>
       </c>
       <c r="AT12" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AU12" t="s">
         <v>237</v>
@@ -6932,39 +6932,39 @@
         <v>208</v>
       </c>
       <c r="AX12" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
-    <row r="13" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B13" t="s">
         <v>242</v>
       </c>
       <c r="C13" t="s">
+        <v>287</v>
+      </c>
+      <c r="D13" t="s">
         <v>288</v>
-      </c>
-      <c r="D13" t="s">
-        <v>289</v>
       </c>
       <c r="E13">
         <v>2013</v>
       </c>
       <c r="F13" t="s">
+        <v>289</v>
+      </c>
+      <c r="G13" t="s">
         <v>290</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>291</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>292</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>293</v>
-      </c>
-      <c r="J13" t="s">
-        <v>294</v>
       </c>
       <c r="K13" t="s">
         <v>251</v>
@@ -6973,7 +6973,7 @@
         <v>251</v>
       </c>
       <c r="M13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="N13" t="s">
         <v>253</v>
@@ -6991,45 +6991,45 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B14" t="s">
         <v>242</v>
       </c>
       <c r="C14" t="s">
+        <v>296</v>
+      </c>
+      <c r="D14" t="s">
         <v>297</v>
-      </c>
-      <c r="D14" t="s">
-        <v>298</v>
       </c>
       <c r="E14">
         <v>2008</v>
       </c>
       <c r="F14" t="s">
+        <v>298</v>
+      </c>
+      <c r="G14" t="s">
         <v>299</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>300</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>301</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>302</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>303</v>
-      </c>
-      <c r="K14" t="s">
-        <v>304</v>
       </c>
       <c r="L14" t="s">
         <v>251</v>
       </c>
       <c r="M14" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="N14" t="s">
         <v>253</v>
@@ -7062,7 +7062,7 @@
         <v>216</v>
       </c>
       <c r="Z14" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AA14">
         <v>2</v>
@@ -7074,7 +7074,7 @@
         <v>3</v>
       </c>
       <c r="AD14" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AF14" t="s">
         <v>255</v>
@@ -7092,7 +7092,7 @@
         <v>113</v>
       </c>
       <c r="AL14" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AM14" t="s">
         <v>232</v>
@@ -7101,7 +7101,7 @@
         <v>161</v>
       </c>
       <c r="AO14" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AQ14" t="s">
         <v>164</v>
@@ -7110,10 +7110,10 @@
         <v>171</v>
       </c>
       <c r="AT14" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AU14" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AV14" t="s">
         <v>199</v>
@@ -7122,48 +7122,48 @@
         <v>208</v>
       </c>
       <c r="AX14" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
-    <row r="15" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B15" t="s">
         <v>242</v>
       </c>
       <c r="C15" t="s">
+        <v>306</v>
+      </c>
+      <c r="D15" t="s">
         <v>307</v>
-      </c>
-      <c r="D15" t="s">
-        <v>308</v>
       </c>
       <c r="E15">
         <v>2006</v>
       </c>
       <c r="F15" t="s">
+        <v>308</v>
+      </c>
+      <c r="G15" t="s">
+        <v>283</v>
+      </c>
+      <c r="H15" t="s">
         <v>309</v>
       </c>
-      <c r="G15" t="s">
-        <v>284</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>310</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>311</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>312</v>
-      </c>
-      <c r="K15" t="s">
-        <v>313</v>
       </c>
       <c r="L15" t="s">
         <v>251</v>
       </c>
       <c r="M15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="N15" t="s">
         <v>253</v>
@@ -7172,7 +7172,7 @@
         <v>254</v>
       </c>
       <c r="P15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Q15" t="s">
         <v>21</v>
@@ -7181,45 +7181,45 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B16" t="s">
         <v>242</v>
       </c>
       <c r="C16" t="s">
+        <v>316</v>
+      </c>
+      <c r="D16" t="s">
         <v>317</v>
-      </c>
-      <c r="D16" t="s">
-        <v>318</v>
       </c>
       <c r="E16">
         <v>2005</v>
       </c>
       <c r="F16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G16" t="s">
+        <v>318</v>
+      </c>
+      <c r="H16" t="s">
+        <v>291</v>
+      </c>
+      <c r="I16" t="s">
         <v>319</v>
       </c>
-      <c r="H16" t="s">
-        <v>292</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>320</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>321</v>
-      </c>
-      <c r="K16" t="s">
-        <v>322</v>
       </c>
       <c r="L16" t="s">
         <v>251</v>
       </c>
       <c r="M16" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="N16" t="s">
         <v>253</v>
@@ -7237,48 +7237,48 @@
         <v>84</v>
       </c>
       <c r="AF16" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B17" t="s">
         <v>242</v>
       </c>
       <c r="C17" t="s">
+        <v>324</v>
+      </c>
+      <c r="D17" t="s">
         <v>325</v>
-      </c>
-      <c r="D17" t="s">
-        <v>326</v>
       </c>
       <c r="E17">
         <v>2009</v>
       </c>
       <c r="F17" t="s">
+        <v>326</v>
+      </c>
+      <c r="G17" t="s">
         <v>327</v>
-      </c>
-      <c r="G17" t="s">
-        <v>328</v>
       </c>
       <c r="H17" t="s">
         <v>251</v>
       </c>
       <c r="I17" t="s">
+        <v>328</v>
+      </c>
+      <c r="J17" t="s">
         <v>329</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>330</v>
-      </c>
-      <c r="K17" t="s">
-        <v>331</v>
       </c>
       <c r="L17" t="s">
         <v>251</v>
       </c>
       <c r="M17" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="N17" t="s">
         <v>253</v>
@@ -7287,7 +7287,7 @@
         <v>254</v>
       </c>
       <c r="P17" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Q17" t="s">
         <v>21</v>
@@ -7311,10 +7311,10 @@
         <v>113</v>
       </c>
       <c r="Y17" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="Z17" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AA17">
         <v>2</v>
@@ -7326,10 +7326,10 @@
         <v>3</v>
       </c>
       <c r="AD17" t="s">
+        <v>503</v>
+      </c>
+      <c r="AF17" t="s">
         <v>504</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>505</v>
       </c>
       <c r="AG17" t="s">
         <v>110</v>
@@ -7344,13 +7344,13 @@
         <v>148</v>
       </c>
       <c r="AL17" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AM17" t="s">
         <v>233</v>
       </c>
       <c r="AO17" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AQ17" t="s">
         <v>164</v>
@@ -7362,7 +7362,7 @@
         <v>176</v>
       </c>
       <c r="AU17" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AV17" t="s">
         <v>199</v>
@@ -7371,48 +7371,48 @@
         <v>208</v>
       </c>
       <c r="AX17" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B18" t="s">
         <v>242</v>
       </c>
       <c r="C18" t="s">
+        <v>324</v>
+      </c>
+      <c r="D18" t="s">
         <v>325</v>
-      </c>
-      <c r="D18" t="s">
-        <v>326</v>
       </c>
       <c r="E18">
         <v>2009</v>
       </c>
       <c r="F18" t="s">
+        <v>326</v>
+      </c>
+      <c r="G18" t="s">
         <v>327</v>
-      </c>
-      <c r="G18" t="s">
-        <v>328</v>
       </c>
       <c r="H18" t="s">
         <v>251</v>
       </c>
       <c r="I18" t="s">
+        <v>328</v>
+      </c>
+      <c r="J18" t="s">
         <v>329</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>330</v>
-      </c>
-      <c r="K18" t="s">
-        <v>331</v>
       </c>
       <c r="L18" t="s">
         <v>251</v>
       </c>
       <c r="M18" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="N18" t="s">
         <v>253</v>
@@ -7421,7 +7421,7 @@
         <v>254</v>
       </c>
       <c r="P18" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Q18" t="s">
         <v>21</v>
@@ -7445,10 +7445,10 @@
         <v>113</v>
       </c>
       <c r="Y18" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="Z18" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AA18">
         <v>2</v>
@@ -7460,10 +7460,10 @@
         <v>3</v>
       </c>
       <c r="AD18" t="s">
+        <v>503</v>
+      </c>
+      <c r="AF18" t="s">
         <v>504</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>505</v>
       </c>
       <c r="AG18" t="s">
         <v>110</v>
@@ -7478,13 +7478,13 @@
         <v>148</v>
       </c>
       <c r="AL18" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AM18" t="s">
         <v>233</v>
       </c>
       <c r="AO18" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AQ18" t="s">
         <v>164</v>
@@ -7496,7 +7496,7 @@
         <v>176</v>
       </c>
       <c r="AU18" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AV18" t="s">
         <v>204</v>
@@ -7505,48 +7505,48 @@
         <v>208</v>
       </c>
       <c r="AX18" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B19" t="s">
         <v>242</v>
       </c>
       <c r="C19" t="s">
+        <v>324</v>
+      </c>
+      <c r="D19" t="s">
         <v>325</v>
-      </c>
-      <c r="D19" t="s">
-        <v>326</v>
       </c>
       <c r="E19">
         <v>2009</v>
       </c>
       <c r="F19" t="s">
+        <v>326</v>
+      </c>
+      <c r="G19" t="s">
         <v>327</v>
-      </c>
-      <c r="G19" t="s">
-        <v>328</v>
       </c>
       <c r="H19" t="s">
         <v>251</v>
       </c>
       <c r="I19" t="s">
+        <v>328</v>
+      </c>
+      <c r="J19" t="s">
         <v>329</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>330</v>
-      </c>
-      <c r="K19" t="s">
-        <v>331</v>
       </c>
       <c r="L19" t="s">
         <v>251</v>
       </c>
       <c r="M19" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="N19" t="s">
         <v>253</v>
@@ -7555,7 +7555,7 @@
         <v>254</v>
       </c>
       <c r="P19" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Q19" t="s">
         <v>21</v>
@@ -7579,10 +7579,10 @@
         <v>113</v>
       </c>
       <c r="Y19" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="Z19" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AA19">
         <v>2</v>
@@ -7594,10 +7594,10 @@
         <v>3</v>
       </c>
       <c r="AD19" t="s">
+        <v>503</v>
+      </c>
+      <c r="AF19" t="s">
         <v>504</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>505</v>
       </c>
       <c r="AG19" t="s">
         <v>110</v>
@@ -7612,13 +7612,13 @@
         <v>148</v>
       </c>
       <c r="AL19" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AM19" t="s">
         <v>233</v>
       </c>
       <c r="AO19" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AQ19" t="s">
         <v>164</v>
@@ -7630,7 +7630,7 @@
         <v>176</v>
       </c>
       <c r="AU19" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AV19" t="s">
         <v>205</v>
@@ -7639,48 +7639,48 @@
         <v>208</v>
       </c>
       <c r="AX19" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B20" t="s">
         <v>242</v>
       </c>
       <c r="C20" t="s">
+        <v>324</v>
+      </c>
+      <c r="D20" t="s">
         <v>325</v>
-      </c>
-      <c r="D20" t="s">
-        <v>326</v>
       </c>
       <c r="E20">
         <v>2009</v>
       </c>
       <c r="F20" t="s">
+        <v>326</v>
+      </c>
+      <c r="G20" t="s">
         <v>327</v>
-      </c>
-      <c r="G20" t="s">
-        <v>328</v>
       </c>
       <c r="H20" t="s">
         <v>251</v>
       </c>
       <c r="I20" t="s">
+        <v>328</v>
+      </c>
+      <c r="J20" t="s">
         <v>329</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>330</v>
-      </c>
-      <c r="K20" t="s">
-        <v>331</v>
       </c>
       <c r="L20" t="s">
         <v>251</v>
       </c>
       <c r="M20" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="N20" t="s">
         <v>253</v>
@@ -7689,7 +7689,7 @@
         <v>254</v>
       </c>
       <c r="P20" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Q20" t="s">
         <v>21</v>
@@ -7713,10 +7713,10 @@
         <v>113</v>
       </c>
       <c r="Y20" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="Z20" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AA20">
         <v>2</v>
@@ -7728,10 +7728,10 @@
         <v>3</v>
       </c>
       <c r="AD20" t="s">
+        <v>503</v>
+      </c>
+      <c r="AF20" t="s">
         <v>504</v>
-      </c>
-      <c r="AF20" t="s">
-        <v>505</v>
       </c>
       <c r="AG20" t="s">
         <v>110</v>
@@ -7746,13 +7746,13 @@
         <v>148</v>
       </c>
       <c r="AL20" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AM20" t="s">
         <v>233</v>
       </c>
       <c r="AO20" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AQ20" t="s">
         <v>164</v>
@@ -7764,7 +7764,7 @@
         <v>176</v>
       </c>
       <c r="AU20" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AV20" t="s">
         <v>200</v>
@@ -7773,48 +7773,48 @@
         <v>209</v>
       </c>
       <c r="AX20" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B21" t="s">
         <v>242</v>
       </c>
       <c r="C21" t="s">
+        <v>324</v>
+      </c>
+      <c r="D21" t="s">
         <v>325</v>
-      </c>
-      <c r="D21" t="s">
-        <v>326</v>
       </c>
       <c r="E21">
         <v>2009</v>
       </c>
       <c r="F21" t="s">
+        <v>326</v>
+      </c>
+      <c r="G21" t="s">
         <v>327</v>
-      </c>
-      <c r="G21" t="s">
-        <v>328</v>
       </c>
       <c r="H21" t="s">
         <v>251</v>
       </c>
       <c r="I21" t="s">
+        <v>328</v>
+      </c>
+      <c r="J21" t="s">
         <v>329</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>330</v>
-      </c>
-      <c r="K21" t="s">
-        <v>331</v>
       </c>
       <c r="L21" t="s">
         <v>251</v>
       </c>
       <c r="M21" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="N21" t="s">
         <v>253</v>
@@ -7823,7 +7823,7 @@
         <v>254</v>
       </c>
       <c r="P21" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Q21" t="s">
         <v>21</v>
@@ -7847,10 +7847,10 @@
         <v>113</v>
       </c>
       <c r="Y21" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="Z21" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AA21">
         <v>2</v>
@@ -7862,10 +7862,10 @@
         <v>3</v>
       </c>
       <c r="AD21" t="s">
+        <v>503</v>
+      </c>
+      <c r="AF21" t="s">
         <v>504</v>
-      </c>
-      <c r="AF21" t="s">
-        <v>505</v>
       </c>
       <c r="AG21" t="s">
         <v>110</v>
@@ -7880,13 +7880,13 @@
         <v>148</v>
       </c>
       <c r="AL21" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AM21" t="s">
         <v>233</v>
       </c>
       <c r="AO21" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AQ21" t="s">
         <v>164</v>
@@ -7898,7 +7898,7 @@
         <v>176</v>
       </c>
       <c r="AU21" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AV21" t="s">
         <v>200</v>
@@ -7907,48 +7907,48 @@
         <v>209</v>
       </c>
       <c r="AX21" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B22" t="s">
         <v>242</v>
       </c>
       <c r="C22" t="s">
+        <v>335</v>
+      </c>
+      <c r="D22" t="s">
         <v>336</v>
-      </c>
-      <c r="D22" t="s">
-        <v>337</v>
       </c>
       <c r="E22">
         <v>2009</v>
       </c>
       <c r="F22" t="s">
+        <v>337</v>
+      </c>
+      <c r="G22" t="s">
         <v>338</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
+        <v>274</v>
+      </c>
+      <c r="I22" t="s">
         <v>339</v>
       </c>
-      <c r="H22" t="s">
-        <v>275</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>340</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>341</v>
-      </c>
-      <c r="K22" t="s">
-        <v>342</v>
       </c>
       <c r="L22" t="s">
         <v>251</v>
       </c>
       <c r="M22" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="N22" t="s">
         <v>253</v>
@@ -7981,7 +7981,7 @@
         <v>72</v>
       </c>
       <c r="Z22" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AA22">
         <v>2</v>
@@ -7993,10 +7993,10 @@
         <v>3</v>
       </c>
       <c r="AD22" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AF22" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AG22" t="s">
         <v>107</v>
@@ -8005,19 +8005,19 @@
         <v>120</v>
       </c>
       <c r="AL22" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AM22" t="s">
         <v>233</v>
       </c>
       <c r="AO22" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AQ22" t="s">
         <v>150</v>
       </c>
       <c r="AU22" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AV22" t="s">
         <v>206</v>
@@ -8026,48 +8026,48 @@
         <v>208</v>
       </c>
       <c r="AX22" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
-    <row r="23" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B23" t="s">
         <v>242</v>
       </c>
       <c r="C23" t="s">
+        <v>335</v>
+      </c>
+      <c r="D23" t="s">
         <v>336</v>
-      </c>
-      <c r="D23" t="s">
-        <v>337</v>
       </c>
       <c r="E23">
         <v>2009</v>
       </c>
       <c r="F23" t="s">
+        <v>337</v>
+      </c>
+      <c r="G23" t="s">
         <v>338</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
+        <v>274</v>
+      </c>
+      <c r="I23" t="s">
         <v>339</v>
       </c>
-      <c r="H23" t="s">
-        <v>275</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>340</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>341</v>
-      </c>
-      <c r="K23" t="s">
-        <v>342</v>
       </c>
       <c r="L23" t="s">
         <v>251</v>
       </c>
       <c r="M23" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="N23" t="s">
         <v>253</v>
@@ -8100,7 +8100,7 @@
         <v>72</v>
       </c>
       <c r="Z23" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AA23">
         <v>2</v>
@@ -8112,10 +8112,10 @@
         <v>3</v>
       </c>
       <c r="AD23" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AF23" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AG23" t="s">
         <v>107</v>
@@ -8124,19 +8124,19 @@
         <v>120</v>
       </c>
       <c r="AL23" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AM23" t="s">
         <v>233</v>
       </c>
       <c r="AO23" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AQ23" t="s">
         <v>150</v>
       </c>
       <c r="AU23" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AV23" t="s">
         <v>205</v>
@@ -8145,48 +8145,48 @@
         <v>208</v>
       </c>
       <c r="AX23" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
-    <row r="24" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B24" t="s">
         <v>242</v>
       </c>
       <c r="C24" t="s">
+        <v>335</v>
+      </c>
+      <c r="D24" t="s">
         <v>336</v>
-      </c>
-      <c r="D24" t="s">
-        <v>337</v>
       </c>
       <c r="E24">
         <v>2009</v>
       </c>
       <c r="F24" t="s">
+        <v>337</v>
+      </c>
+      <c r="G24" t="s">
         <v>338</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
+        <v>274</v>
+      </c>
+      <c r="I24" t="s">
         <v>339</v>
       </c>
-      <c r="H24" t="s">
-        <v>275</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>340</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>341</v>
-      </c>
-      <c r="K24" t="s">
-        <v>342</v>
       </c>
       <c r="L24" t="s">
         <v>251</v>
       </c>
       <c r="M24" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="N24" t="s">
         <v>253</v>
@@ -8219,7 +8219,7 @@
         <v>72</v>
       </c>
       <c r="Z24" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AA24">
         <v>2</v>
@@ -8231,10 +8231,10 @@
         <v>3</v>
       </c>
       <c r="AD24" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AF24" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AG24" t="s">
         <v>107</v>
@@ -8243,19 +8243,19 @@
         <v>120</v>
       </c>
       <c r="AL24" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AM24" t="s">
         <v>233</v>
       </c>
       <c r="AO24" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AQ24" t="s">
         <v>150</v>
       </c>
       <c r="AU24" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AV24" t="s">
         <v>199</v>
@@ -8264,48 +8264,48 @@
         <v>209</v>
       </c>
       <c r="AX24" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
-    <row r="25" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B25" t="s">
         <v>242</v>
       </c>
       <c r="C25" t="s">
+        <v>335</v>
+      </c>
+      <c r="D25" t="s">
         <v>336</v>
-      </c>
-      <c r="D25" t="s">
-        <v>337</v>
       </c>
       <c r="E25">
         <v>2009</v>
       </c>
       <c r="F25" t="s">
+        <v>337</v>
+      </c>
+      <c r="G25" t="s">
         <v>338</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
+        <v>274</v>
+      </c>
+      <c r="I25" t="s">
         <v>339</v>
       </c>
-      <c r="H25" t="s">
-        <v>275</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>340</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>341</v>
-      </c>
-      <c r="K25" t="s">
-        <v>342</v>
       </c>
       <c r="L25" t="s">
         <v>251</v>
       </c>
       <c r="M25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="N25" t="s">
         <v>253</v>
@@ -8338,10 +8338,10 @@
         <v>113</v>
       </c>
       <c r="Y25" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="Z25" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AA25">
         <v>2</v>
@@ -8353,10 +8353,10 @@
         <v>3</v>
       </c>
       <c r="AD25" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AF25" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AG25" t="s">
         <v>107</v>
@@ -8371,13 +8371,13 @@
         <v>233</v>
       </c>
       <c r="AO25" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AQ25" t="s">
         <v>150</v>
       </c>
       <c r="AU25" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AV25" t="s">
         <v>113</v>
@@ -8386,48 +8386,48 @@
         <v>209</v>
       </c>
       <c r="AX25" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
-    <row r="26" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B26" t="s">
         <v>242</v>
       </c>
       <c r="C26" t="s">
+        <v>344</v>
+      </c>
+      <c r="D26" t="s">
         <v>345</v>
-      </c>
-      <c r="D26" t="s">
-        <v>346</v>
       </c>
       <c r="E26">
         <v>2001</v>
       </c>
       <c r="F26" t="s">
+        <v>346</v>
+      </c>
+      <c r="G26" t="s">
         <v>347</v>
-      </c>
-      <c r="G26" t="s">
-        <v>348</v>
       </c>
       <c r="H26" t="s">
         <v>251</v>
       </c>
       <c r="I26" t="s">
+        <v>348</v>
+      </c>
+      <c r="J26" t="s">
         <v>349</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>350</v>
-      </c>
-      <c r="K26" t="s">
-        <v>351</v>
       </c>
       <c r="L26" t="s">
         <v>251</v>
       </c>
       <c r="M26" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="N26" t="s">
         <v>253</v>
@@ -8460,10 +8460,10 @@
         <v>113</v>
       </c>
       <c r="Y26" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="Z26" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AA26">
         <v>2</v>
@@ -8475,10 +8475,10 @@
         <v>1</v>
       </c>
       <c r="AD26" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AF26" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AG26" t="s">
         <v>107</v>
@@ -8487,13 +8487,13 @@
         <v>120</v>
       </c>
       <c r="AL26" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AM26" t="s">
         <v>233</v>
       </c>
       <c r="AO26" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AQ26" t="s">
         <v>164</v>
@@ -8502,10 +8502,10 @@
         <v>168</v>
       </c>
       <c r="AT26" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AU26" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AV26" t="s">
         <v>206</v>
@@ -8514,48 +8514,48 @@
         <v>209</v>
       </c>
       <c r="AX26" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
-    <row r="27" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B27" t="s">
         <v>242</v>
       </c>
       <c r="C27" t="s">
+        <v>344</v>
+      </c>
+      <c r="D27" t="s">
         <v>345</v>
-      </c>
-      <c r="D27" t="s">
-        <v>346</v>
       </c>
       <c r="E27">
         <v>2001</v>
       </c>
       <c r="F27" t="s">
+        <v>346</v>
+      </c>
+      <c r="G27" t="s">
         <v>347</v>
-      </c>
-      <c r="G27" t="s">
-        <v>348</v>
       </c>
       <c r="H27" t="s">
         <v>251</v>
       </c>
       <c r="I27" t="s">
+        <v>348</v>
+      </c>
+      <c r="J27" t="s">
         <v>349</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>350</v>
-      </c>
-      <c r="K27" t="s">
-        <v>351</v>
       </c>
       <c r="L27" t="s">
         <v>251</v>
       </c>
       <c r="M27" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="N27" t="s">
         <v>253</v>
@@ -8585,7 +8585,7 @@
         <v>72</v>
       </c>
       <c r="Z27" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AA27">
         <v>2</v>
@@ -8597,10 +8597,10 @@
         <v>1</v>
       </c>
       <c r="AD27" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AF27" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AG27" t="s">
         <v>107</v>
@@ -8612,7 +8612,7 @@
         <v>133</v>
       </c>
       <c r="AL27" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AM27" t="s">
         <v>232</v>
@@ -8621,7 +8621,7 @@
         <v>160</v>
       </c>
       <c r="AO27" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AQ27" t="s">
         <v>164</v>
@@ -8630,10 +8630,10 @@
         <v>168</v>
       </c>
       <c r="AT27" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AU27" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AV27" t="s">
         <v>199</v>
@@ -8642,48 +8642,48 @@
         <v>207</v>
       </c>
       <c r="AX27" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
-    <row r="28" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B28" t="s">
         <v>242</v>
       </c>
       <c r="C28" t="s">
+        <v>344</v>
+      </c>
+      <c r="D28" t="s">
         <v>345</v>
-      </c>
-      <c r="D28" t="s">
-        <v>346</v>
       </c>
       <c r="E28">
         <v>2001</v>
       </c>
       <c r="F28" t="s">
+        <v>346</v>
+      </c>
+      <c r="G28" t="s">
         <v>347</v>
-      </c>
-      <c r="G28" t="s">
-        <v>348</v>
       </c>
       <c r="H28" t="s">
         <v>251</v>
       </c>
       <c r="I28" t="s">
+        <v>348</v>
+      </c>
+      <c r="J28" t="s">
         <v>349</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>350</v>
-      </c>
-      <c r="K28" t="s">
-        <v>351</v>
       </c>
       <c r="L28" t="s">
         <v>251</v>
       </c>
       <c r="M28" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="N28" t="s">
         <v>253</v>
@@ -8713,7 +8713,7 @@
         <v>216</v>
       </c>
       <c r="Z28" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AA28">
         <v>2</v>
@@ -8725,13 +8725,13 @@
         <v>1</v>
       </c>
       <c r="AD28" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AE28" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="AF28" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AG28" t="s">
         <v>107</v>
@@ -8743,7 +8743,7 @@
         <v>133</v>
       </c>
       <c r="AL28" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AM28" t="s">
         <v>232</v>
@@ -8752,7 +8752,7 @@
         <v>160</v>
       </c>
       <c r="AO28" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AQ28" t="s">
         <v>164</v>
@@ -8761,10 +8761,10 @@
         <v>168</v>
       </c>
       <c r="AT28" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AU28" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="AV28" t="s">
         <v>200</v>
@@ -8773,48 +8773,48 @@
         <v>207</v>
       </c>
       <c r="AX28" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
-    <row r="29" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B29" t="s">
         <v>242</v>
       </c>
       <c r="C29" t="s">
+        <v>353</v>
+      </c>
+      <c r="D29" t="s">
         <v>354</v>
-      </c>
-      <c r="D29" t="s">
-        <v>355</v>
       </c>
       <c r="E29">
         <v>2000</v>
       </c>
       <c r="F29" t="s">
+        <v>355</v>
+      </c>
+      <c r="G29" t="s">
         <v>356</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
+        <v>300</v>
+      </c>
+      <c r="I29" t="s">
         <v>357</v>
       </c>
-      <c r="H29" t="s">
-        <v>301</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
+        <v>348</v>
+      </c>
+      <c r="K29" t="s">
         <v>358</v>
-      </c>
-      <c r="J29" t="s">
-        <v>349</v>
-      </c>
-      <c r="K29" t="s">
-        <v>359</v>
       </c>
       <c r="L29" t="s">
         <v>251</v>
       </c>
       <c r="M29" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N29" t="s">
         <v>253</v>
@@ -8847,7 +8847,7 @@
         <v>71</v>
       </c>
       <c r="Z29" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AA29">
         <v>2</v>
@@ -8859,7 +8859,7 @@
         <v>3</v>
       </c>
       <c r="AD29" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AF29">
         <v>4.4000000000000004</v>
@@ -8874,13 +8874,13 @@
         <v>140</v>
       </c>
       <c r="AL29" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AM29" t="s">
         <v>159</v>
       </c>
       <c r="AO29" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AQ29" t="s">
         <v>164</v>
@@ -8889,10 +8889,10 @@
         <v>168</v>
       </c>
       <c r="AT29" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AU29" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AV29" t="s">
         <v>199</v>
@@ -8901,48 +8901,48 @@
         <v>207</v>
       </c>
       <c r="AX29" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
-    <row r="30" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B30" t="s">
         <v>242</v>
       </c>
       <c r="C30" t="s">
+        <v>353</v>
+      </c>
+      <c r="D30" t="s">
         <v>354</v>
-      </c>
-      <c r="D30" t="s">
-        <v>355</v>
       </c>
       <c r="E30">
         <v>2000</v>
       </c>
       <c r="F30" t="s">
+        <v>355</v>
+      </c>
+      <c r="G30" t="s">
         <v>356</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
+        <v>300</v>
+      </c>
+      <c r="I30" t="s">
         <v>357</v>
       </c>
-      <c r="H30" t="s">
-        <v>301</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
+        <v>348</v>
+      </c>
+      <c r="K30" t="s">
         <v>358</v>
-      </c>
-      <c r="J30" t="s">
-        <v>349</v>
-      </c>
-      <c r="K30" t="s">
-        <v>359</v>
       </c>
       <c r="L30" t="s">
         <v>251</v>
       </c>
       <c r="M30" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N30" t="s">
         <v>253</v>
@@ -8975,7 +8975,7 @@
         <v>71</v>
       </c>
       <c r="Z30" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AA30">
         <v>2</v>
@@ -8987,7 +8987,7 @@
         <v>3</v>
       </c>
       <c r="AD30" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AF30">
         <v>4.4000000000000004</v>
@@ -9002,13 +9002,13 @@
         <v>144</v>
       </c>
       <c r="AL30" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AM30" t="s">
         <v>159</v>
       </c>
       <c r="AO30" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AQ30" t="s">
         <v>164</v>
@@ -9017,10 +9017,10 @@
         <v>168</v>
       </c>
       <c r="AT30" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AU30" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AV30" t="s">
         <v>199</v>
@@ -9029,57 +9029,57 @@
         <v>207</v>
       </c>
       <c r="AX30" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
-    <row r="31" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B31" t="s">
         <v>242</v>
       </c>
       <c r="C31" t="s">
+        <v>363</v>
+      </c>
+      <c r="D31" t="s">
         <v>364</v>
-      </c>
-      <c r="D31" t="s">
-        <v>365</v>
       </c>
       <c r="E31">
         <v>1998</v>
       </c>
       <c r="F31" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G31" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H31" t="s">
         <v>251</v>
       </c>
       <c r="I31" t="s">
+        <v>366</v>
+      </c>
+      <c r="J31" t="s">
         <v>367</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>368</v>
-      </c>
-      <c r="K31" t="s">
-        <v>369</v>
       </c>
       <c r="L31" t="s">
         <v>251</v>
       </c>
       <c r="M31" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="N31" t="s">
         <v>253</v>
       </c>
       <c r="O31" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="P31" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="Q31" t="s">
         <v>21</v>
@@ -9100,10 +9100,10 @@
         <v>113</v>
       </c>
       <c r="Y31" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="Z31" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AA31">
         <v>2</v>
@@ -9115,10 +9115,10 @@
         <v>3</v>
       </c>
       <c r="AD31" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AF31" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AG31" t="s">
         <v>107</v>
@@ -9127,13 +9127,13 @@
         <v>120</v>
       </c>
       <c r="AL31" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AM31" t="s">
         <v>233</v>
       </c>
       <c r="AO31" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AQ31" t="s">
         <v>164</v>
@@ -9142,10 +9142,10 @@
         <v>239</v>
       </c>
       <c r="AT31" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AU31" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="AV31" t="s">
         <v>206</v>
@@ -9154,57 +9154,57 @@
         <v>209</v>
       </c>
       <c r="AX31" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
-    <row r="32" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B32" t="s">
         <v>242</v>
       </c>
       <c r="C32" t="s">
+        <v>363</v>
+      </c>
+      <c r="D32" t="s">
         <v>364</v>
-      </c>
-      <c r="D32" t="s">
-        <v>365</v>
       </c>
       <c r="E32">
         <v>1998</v>
       </c>
       <c r="F32" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G32" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H32" t="s">
         <v>251</v>
       </c>
       <c r="I32" t="s">
+        <v>366</v>
+      </c>
+      <c r="J32" t="s">
         <v>367</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>368</v>
-      </c>
-      <c r="K32" t="s">
-        <v>369</v>
       </c>
       <c r="L32" t="s">
         <v>251</v>
       </c>
       <c r="M32" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="N32" t="s">
         <v>253</v>
       </c>
       <c r="O32" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="P32" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="Q32" t="s">
         <v>21</v>
@@ -9225,10 +9225,10 @@
         <v>113</v>
       </c>
       <c r="Y32" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="Z32" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AA32">
         <v>2</v>
@@ -9240,10 +9240,10 @@
         <v>3</v>
       </c>
       <c r="AD32" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AF32" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AG32" t="s">
         <v>107</v>
@@ -9252,13 +9252,13 @@
         <v>120</v>
       </c>
       <c r="AL32" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AM32" t="s">
         <v>233</v>
       </c>
       <c r="AO32" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AQ32" t="s">
         <v>164</v>
@@ -9270,10 +9270,10 @@
         <v>179</v>
       </c>
       <c r="AT32" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AU32" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="AV32" t="s">
         <v>206</v>
@@ -9282,48 +9282,48 @@
         <v>209</v>
       </c>
       <c r="AX32" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
-    <row r="33" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B33" t="s">
         <v>242</v>
       </c>
       <c r="C33" t="s">
+        <v>372</v>
+      </c>
+      <c r="D33" t="s">
         <v>373</v>
-      </c>
-      <c r="D33" t="s">
-        <v>374</v>
       </c>
       <c r="E33">
         <v>1997</v>
       </c>
       <c r="F33" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G33" t="s">
+        <v>374</v>
+      </c>
+      <c r="H33" t="s">
         <v>375</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>376</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>377</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>378</v>
-      </c>
-      <c r="K33" t="s">
-        <v>379</v>
       </c>
       <c r="L33" t="s">
         <v>251</v>
       </c>
       <c r="M33" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="N33" t="s">
         <v>253</v>
@@ -9332,7 +9332,7 @@
         <v>254</v>
       </c>
       <c r="P33" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Q33" t="s">
         <v>21</v>
@@ -9356,7 +9356,7 @@
         <v>216</v>
       </c>
       <c r="Z33" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AA33">
         <v>2</v>
@@ -9368,10 +9368,10 @@
         <v>3</v>
       </c>
       <c r="AD33" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="AF33" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AG33" t="s">
         <v>107</v>
@@ -9383,13 +9383,13 @@
         <v>130</v>
       </c>
       <c r="AL33" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AM33" t="s">
         <v>233</v>
       </c>
       <c r="AO33" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AQ33" t="s">
         <v>164</v>
@@ -9401,7 +9401,7 @@
         <v>176</v>
       </c>
       <c r="AU33" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AV33" t="s">
         <v>199</v>
@@ -9410,48 +9410,48 @@
         <v>208</v>
       </c>
       <c r="AX33" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
-    <row r="34" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B34" t="s">
         <v>242</v>
       </c>
       <c r="C34" t="s">
+        <v>372</v>
+      </c>
+      <c r="D34" t="s">
         <v>373</v>
-      </c>
-      <c r="D34" t="s">
-        <v>374</v>
       </c>
       <c r="E34">
         <v>1997</v>
       </c>
       <c r="F34" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G34" t="s">
+        <v>374</v>
+      </c>
+      <c r="H34" t="s">
         <v>375</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>376</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>377</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>378</v>
-      </c>
-      <c r="K34" t="s">
-        <v>379</v>
       </c>
       <c r="L34" t="s">
         <v>251</v>
       </c>
       <c r="M34" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="N34" t="s">
         <v>253</v>
@@ -9460,7 +9460,7 @@
         <v>254</v>
       </c>
       <c r="P34" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Q34" t="s">
         <v>21</v>
@@ -9484,7 +9484,7 @@
         <v>216</v>
       </c>
       <c r="Z34" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AA34">
         <v>2</v>
@@ -9496,10 +9496,10 @@
         <v>3</v>
       </c>
       <c r="AD34" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="AF34" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AG34" t="s">
         <v>107</v>
@@ -9511,13 +9511,13 @@
         <v>130</v>
       </c>
       <c r="AL34" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AM34" t="s">
         <v>233</v>
       </c>
       <c r="AO34" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AQ34" t="s">
         <v>164</v>
@@ -9529,7 +9529,7 @@
         <v>176</v>
       </c>
       <c r="AU34" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AV34" t="s">
         <v>200</v>
@@ -9538,48 +9538,48 @@
         <v>210</v>
       </c>
       <c r="AX34" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
-    <row r="35" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B35" t="s">
         <v>242</v>
       </c>
       <c r="C35" t="s">
+        <v>372</v>
+      </c>
+      <c r="D35" t="s">
         <v>373</v>
-      </c>
-      <c r="D35" t="s">
-        <v>374</v>
       </c>
       <c r="E35">
         <v>1997</v>
       </c>
       <c r="F35" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G35" t="s">
+        <v>374</v>
+      </c>
+      <c r="H35" t="s">
         <v>375</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>376</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>377</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
         <v>378</v>
-      </c>
-      <c r="K35" t="s">
-        <v>379</v>
       </c>
       <c r="L35" t="s">
         <v>251</v>
       </c>
       <c r="M35" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="N35" t="s">
         <v>253</v>
@@ -9588,7 +9588,7 @@
         <v>254</v>
       </c>
       <c r="P35" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Q35" t="s">
         <v>21</v>
@@ -9612,7 +9612,7 @@
         <v>216</v>
       </c>
       <c r="Z35" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AA35">
         <v>2</v>
@@ -9624,10 +9624,10 @@
         <v>3</v>
       </c>
       <c r="AD35" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="AF35" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AG35" t="s">
         <v>107</v>
@@ -9639,13 +9639,13 @@
         <v>130</v>
       </c>
       <c r="AL35" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AM35" t="s">
         <v>233</v>
       </c>
       <c r="AO35" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AQ35" t="s">
         <v>164</v>
@@ -9657,7 +9657,7 @@
         <v>176</v>
       </c>
       <c r="AU35" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AV35" t="s">
         <v>203</v>
@@ -9666,48 +9666,48 @@
         <v>209</v>
       </c>
       <c r="AX35" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
-    <row r="36" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B36" t="s">
         <v>242</v>
       </c>
       <c r="C36" t="s">
+        <v>381</v>
+      </c>
+      <c r="D36" t="s">
         <v>382</v>
-      </c>
-      <c r="D36" t="s">
-        <v>383</v>
       </c>
       <c r="E36">
         <v>2003</v>
       </c>
       <c r="F36" t="s">
+        <v>383</v>
+      </c>
+      <c r="G36" t="s">
         <v>384</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
+        <v>300</v>
+      </c>
+      <c r="I36" t="s">
         <v>385</v>
       </c>
-      <c r="H36" t="s">
-        <v>301</v>
-      </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>386</v>
       </c>
-      <c r="J36" t="s">
+      <c r="K36" t="s">
         <v>387</v>
-      </c>
-      <c r="K36" t="s">
-        <v>388</v>
       </c>
       <c r="L36" t="s">
         <v>251</v>
       </c>
       <c r="M36" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="N36" t="s">
         <v>253</v>
@@ -9737,10 +9737,10 @@
         <v>113</v>
       </c>
       <c r="Y36" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="Z36" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AA36">
         <v>2</v>
@@ -9752,10 +9752,10 @@
         <v>3</v>
       </c>
       <c r="AD36" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="AF36" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AG36" t="s">
         <v>107</v>
@@ -9767,7 +9767,7 @@
         <v>133</v>
       </c>
       <c r="AL36" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AM36" t="s">
         <v>232</v>
@@ -9776,7 +9776,7 @@
         <v>160</v>
       </c>
       <c r="AO36" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AQ36" t="s">
         <v>164</v>
@@ -9785,10 +9785,10 @@
         <v>168</v>
       </c>
       <c r="AT36" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AU36" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="AV36" t="s">
         <v>213</v>
@@ -9797,48 +9797,48 @@
         <v>209</v>
       </c>
       <c r="AX36" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
-    <row r="37" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B37" t="s">
         <v>242</v>
       </c>
       <c r="C37" t="s">
+        <v>381</v>
+      </c>
+      <c r="D37" t="s">
         <v>382</v>
-      </c>
-      <c r="D37" t="s">
-        <v>383</v>
       </c>
       <c r="E37">
         <v>2003</v>
       </c>
       <c r="F37" t="s">
+        <v>383</v>
+      </c>
+      <c r="G37" t="s">
         <v>384</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
+        <v>300</v>
+      </c>
+      <c r="I37" t="s">
         <v>385</v>
       </c>
-      <c r="H37" t="s">
-        <v>301</v>
-      </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>386</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
         <v>387</v>
-      </c>
-      <c r="K37" t="s">
-        <v>388</v>
       </c>
       <c r="L37" t="s">
         <v>251</v>
       </c>
       <c r="M37" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="N37" t="s">
         <v>253</v>
@@ -9868,10 +9868,10 @@
         <v>113</v>
       </c>
       <c r="Y37" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="Z37" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AA37">
         <v>2</v>
@@ -9883,10 +9883,10 @@
         <v>3</v>
       </c>
       <c r="AD37" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="AF37" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AG37" t="s">
         <v>107</v>
@@ -9898,7 +9898,7 @@
         <v>133</v>
       </c>
       <c r="AL37" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AM37" t="s">
         <v>232</v>
@@ -9907,7 +9907,7 @@
         <v>160</v>
       </c>
       <c r="AO37" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AQ37" t="s">
         <v>164</v>
@@ -9916,10 +9916,10 @@
         <v>168</v>
       </c>
       <c r="AT37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AU37" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AV37" t="s">
         <v>212</v>
@@ -9928,48 +9928,48 @@
         <v>209</v>
       </c>
       <c r="AX37" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
-    <row r="38" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B38" t="s">
         <v>242</v>
       </c>
       <c r="C38" t="s">
+        <v>381</v>
+      </c>
+      <c r="D38" t="s">
         <v>382</v>
-      </c>
-      <c r="D38" t="s">
-        <v>383</v>
       </c>
       <c r="E38">
         <v>2003</v>
       </c>
       <c r="F38" t="s">
+        <v>383</v>
+      </c>
+      <c r="G38" t="s">
         <v>384</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
+        <v>300</v>
+      </c>
+      <c r="I38" t="s">
         <v>385</v>
       </c>
-      <c r="H38" t="s">
-        <v>301</v>
-      </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>386</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
         <v>387</v>
-      </c>
-      <c r="K38" t="s">
-        <v>388</v>
       </c>
       <c r="L38" t="s">
         <v>251</v>
       </c>
       <c r="M38" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="N38" t="s">
         <v>253</v>
@@ -9999,10 +9999,10 @@
         <v>113</v>
       </c>
       <c r="Y38" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="Z38" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AA38">
         <v>2</v>
@@ -10014,10 +10014,10 @@
         <v>3</v>
       </c>
       <c r="AD38" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="AF38" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AG38" t="s">
         <v>108</v>
@@ -10029,7 +10029,7 @@
         <v>133</v>
       </c>
       <c r="AL38" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AM38" t="s">
         <v>232</v>
@@ -10038,7 +10038,7 @@
         <v>160</v>
       </c>
       <c r="AO38" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AQ38" t="s">
         <v>164</v>
@@ -10047,10 +10047,10 @@
         <v>168</v>
       </c>
       <c r="AT38" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AU38" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="AV38" t="s">
         <v>213</v>
@@ -10059,48 +10059,48 @@
         <v>209</v>
       </c>
       <c r="AX38" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
-    <row r="39" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B39" t="s">
         <v>242</v>
       </c>
       <c r="C39" t="s">
+        <v>381</v>
+      </c>
+      <c r="D39" t="s">
         <v>382</v>
-      </c>
-      <c r="D39" t="s">
-        <v>383</v>
       </c>
       <c r="E39">
         <v>2003</v>
       </c>
       <c r="F39" t="s">
+        <v>383</v>
+      </c>
+      <c r="G39" t="s">
         <v>384</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
+        <v>300</v>
+      </c>
+      <c r="I39" t="s">
         <v>385</v>
       </c>
-      <c r="H39" t="s">
-        <v>301</v>
-      </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>386</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
         <v>387</v>
-      </c>
-      <c r="K39" t="s">
-        <v>388</v>
       </c>
       <c r="L39" t="s">
         <v>251</v>
       </c>
       <c r="M39" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="N39" t="s">
         <v>253</v>
@@ -10130,10 +10130,10 @@
         <v>113</v>
       </c>
       <c r="Y39" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="Z39" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AA39">
         <v>2</v>
@@ -10145,10 +10145,10 @@
         <v>3</v>
       </c>
       <c r="AD39" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="AF39" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AG39" t="s">
         <v>108</v>
@@ -10160,7 +10160,7 @@
         <v>133</v>
       </c>
       <c r="AL39" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AM39" t="s">
         <v>232</v>
@@ -10169,7 +10169,7 @@
         <v>160</v>
       </c>
       <c r="AO39" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AQ39" t="s">
         <v>164</v>
@@ -10178,10 +10178,10 @@
         <v>168</v>
       </c>
       <c r="AT39" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AU39" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AV39" t="s">
         <v>212</v>
@@ -10190,54 +10190,54 @@
         <v>209</v>
       </c>
       <c r="AX39" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
-    <row r="40" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B40" t="s">
         <v>242</v>
       </c>
       <c r="C40" t="s">
+        <v>391</v>
+      </c>
+      <c r="D40" t="s">
         <v>392</v>
-      </c>
-      <c r="D40" t="s">
-        <v>393</v>
       </c>
       <c r="E40">
         <v>2009</v>
       </c>
       <c r="F40" t="s">
+        <v>308</v>
+      </c>
+      <c r="G40" t="s">
+        <v>393</v>
+      </c>
+      <c r="H40" t="s">
         <v>309</v>
       </c>
-      <c r="G40" t="s">
+      <c r="I40" t="s">
         <v>394</v>
       </c>
-      <c r="H40" t="s">
-        <v>310</v>
-      </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
         <v>395</v>
       </c>
-      <c r="J40" t="s">
+      <c r="K40" t="s">
         <v>396</v>
-      </c>
-      <c r="K40" t="s">
-        <v>397</v>
       </c>
       <c r="L40" t="s">
         <v>251</v>
       </c>
       <c r="M40" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="N40" t="s">
         <v>253</v>
       </c>
       <c r="O40" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="P40" t="s">
         <v>251</v>
@@ -10264,7 +10264,7 @@
         <v>215</v>
       </c>
       <c r="Z40" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AA40">
         <v>2</v>
@@ -10276,7 +10276,7 @@
         <v>3</v>
       </c>
       <c r="AD40" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AF40">
         <v>4.2</v>
@@ -10288,7 +10288,7 @@
         <v>220</v>
       </c>
       <c r="AL40" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AM40" t="s">
         <v>232</v>
@@ -10297,7 +10297,7 @@
         <v>162</v>
       </c>
       <c r="AO40" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AQ40" t="s">
         <v>164</v>
@@ -10306,63 +10306,63 @@
         <v>239</v>
       </c>
       <c r="AT40" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AU40" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AV40" t="s">
         <v>238</v>
       </c>
       <c r="AX40" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
-    <row r="41" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B41" t="s">
         <v>242</v>
       </c>
       <c r="C41" t="s">
+        <v>391</v>
+      </c>
+      <c r="D41" t="s">
         <v>392</v>
-      </c>
-      <c r="D41" t="s">
-        <v>393</v>
       </c>
       <c r="E41">
         <v>2009</v>
       </c>
       <c r="F41" t="s">
+        <v>308</v>
+      </c>
+      <c r="G41" t="s">
+        <v>393</v>
+      </c>
+      <c r="H41" t="s">
         <v>309</v>
       </c>
-      <c r="G41" t="s">
+      <c r="I41" t="s">
         <v>394</v>
       </c>
-      <c r="H41" t="s">
-        <v>310</v>
-      </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>395</v>
       </c>
-      <c r="J41" t="s">
+      <c r="K41" t="s">
         <v>396</v>
-      </c>
-      <c r="K41" t="s">
-        <v>397</v>
       </c>
       <c r="L41" t="s">
         <v>251</v>
       </c>
       <c r="M41" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="N41" t="s">
         <v>253</v>
       </c>
       <c r="O41" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="P41" t="s">
         <v>251</v>
@@ -10389,7 +10389,7 @@
         <v>215</v>
       </c>
       <c r="Z41" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AA41">
         <v>2</v>
@@ -10410,7 +10410,7 @@
         <v>117</v>
       </c>
       <c r="AL41" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AM41" t="s">
         <v>232</v>
@@ -10419,7 +10419,7 @@
         <v>162</v>
       </c>
       <c r="AO41" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AQ41" t="s">
         <v>164</v>
@@ -10428,63 +10428,63 @@
         <v>239</v>
       </c>
       <c r="AT41" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AU41" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AV41" t="s">
         <v>238</v>
       </c>
       <c r="AX41" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
-    <row r="42" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B42" t="s">
         <v>242</v>
       </c>
       <c r="C42" t="s">
+        <v>399</v>
+      </c>
+      <c r="D42" t="s">
         <v>400</v>
-      </c>
-      <c r="D42" t="s">
-        <v>401</v>
       </c>
       <c r="E42">
         <v>2006</v>
       </c>
       <c r="F42" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G42" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H42" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I42" t="s">
+        <v>401</v>
+      </c>
+      <c r="J42" t="s">
         <v>402</v>
       </c>
-      <c r="J42" t="s">
+      <c r="K42" t="s">
         <v>403</v>
-      </c>
-      <c r="K42" t="s">
-        <v>404</v>
       </c>
       <c r="L42" t="s">
         <v>251</v>
       </c>
       <c r="M42" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="N42" t="s">
         <v>253</v>
       </c>
       <c r="O42" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="P42" t="s">
         <v>251</v>
@@ -10511,7 +10511,7 @@
         <v>215</v>
       </c>
       <c r="Z42" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AA42">
         <v>2</v>
@@ -10523,10 +10523,10 @@
         <v>3</v>
       </c>
       <c r="AD42" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AF42" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AG42" t="s">
         <v>110</v>
@@ -10535,7 +10535,7 @@
         <v>118</v>
       </c>
       <c r="AL42" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AM42" t="s">
         <v>232</v>
@@ -10544,7 +10544,7 @@
         <v>160</v>
       </c>
       <c r="AO42" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AQ42" t="s">
         <v>164</v>
@@ -10553,7 +10553,7 @@
         <v>239</v>
       </c>
       <c r="AU42" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AV42" t="s">
         <v>238</v>
@@ -10562,54 +10562,54 @@
         <v>209</v>
       </c>
       <c r="AX42" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
-    <row r="43" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B43" t="s">
         <v>242</v>
       </c>
       <c r="C43" t="s">
+        <v>399</v>
+      </c>
+      <c r="D43" t="s">
         <v>400</v>
-      </c>
-      <c r="D43" t="s">
-        <v>401</v>
       </c>
       <c r="E43">
         <v>2006</v>
       </c>
       <c r="F43" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G43" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H43" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I43" t="s">
+        <v>401</v>
+      </c>
+      <c r="J43" t="s">
         <v>402</v>
       </c>
-      <c r="J43" t="s">
+      <c r="K43" t="s">
         <v>403</v>
-      </c>
-      <c r="K43" t="s">
-        <v>404</v>
       </c>
       <c r="L43" t="s">
         <v>251</v>
       </c>
       <c r="M43" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="N43" t="s">
         <v>253</v>
       </c>
       <c r="O43" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="P43" t="s">
         <v>251</v>
@@ -10636,7 +10636,7 @@
         <v>215</v>
       </c>
       <c r="Z43" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AA43">
         <v>2</v>
@@ -10648,10 +10648,10 @@
         <v>3</v>
       </c>
       <c r="AD43" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AF43" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AG43" t="s">
         <v>110</v>
@@ -10660,7 +10660,7 @@
         <v>118</v>
       </c>
       <c r="AL43" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AM43" t="s">
         <v>232</v>
@@ -10669,7 +10669,7 @@
         <v>160</v>
       </c>
       <c r="AO43" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AQ43" t="s">
         <v>164</v>
@@ -10678,7 +10678,7 @@
         <v>239</v>
       </c>
       <c r="AU43" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AV43" t="s">
         <v>199</v>
@@ -10687,27 +10687,27 @@
         <v>209</v>
       </c>
       <c r="AX43" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
-    <row r="44" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B44" t="s">
         <v>242</v>
       </c>
       <c r="C44" t="s">
+        <v>406</v>
+      </c>
+      <c r="D44" t="s">
         <v>407</v>
-      </c>
-      <c r="D44" t="s">
-        <v>408</v>
       </c>
       <c r="E44">
         <v>2003</v>
       </c>
       <c r="F44" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G44" t="s">
         <v>246</v>
@@ -10716,10 +10716,10 @@
         <v>247</v>
       </c>
       <c r="I44" t="s">
+        <v>409</v>
+      </c>
+      <c r="J44" t="s">
         <v>410</v>
-      </c>
-      <c r="J44" t="s">
-        <v>411</v>
       </c>
       <c r="K44" t="s">
         <v>251</v>
@@ -10728,7 +10728,7 @@
         <v>251</v>
       </c>
       <c r="M44" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="N44" t="s">
         <v>253</v>
@@ -10746,45 +10746,45 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B45" t="s">
         <v>242</v>
       </c>
       <c r="C45" t="s">
+        <v>413</v>
+      </c>
+      <c r="D45" t="s">
         <v>414</v>
-      </c>
-      <c r="D45" t="s">
-        <v>415</v>
       </c>
       <c r="E45">
         <v>2002</v>
       </c>
       <c r="F45" t="s">
+        <v>415</v>
+      </c>
+      <c r="G45" t="s">
         <v>416</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>417</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>418</v>
       </c>
-      <c r="I45" t="s">
+      <c r="J45" t="s">
         <v>419</v>
       </c>
-      <c r="J45" t="s">
+      <c r="K45" t="s">
         <v>420</v>
-      </c>
-      <c r="K45" t="s">
-        <v>421</v>
       </c>
       <c r="L45" t="s">
         <v>251</v>
       </c>
       <c r="M45" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N45" t="s">
         <v>253</v>
@@ -10793,7 +10793,7 @@
         <v>254</v>
       </c>
       <c r="P45" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="Q45" t="s">
         <v>21</v>
@@ -10802,45 +10802,45 @@
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B46" t="s">
         <v>242</v>
       </c>
       <c r="C46" t="s">
+        <v>423</v>
+      </c>
+      <c r="D46" t="s">
         <v>424</v>
-      </c>
-      <c r="D46" t="s">
-        <v>425</v>
       </c>
       <c r="E46">
         <v>2001</v>
       </c>
       <c r="F46" t="s">
+        <v>425</v>
+      </c>
+      <c r="G46" t="s">
+        <v>259</v>
+      </c>
+      <c r="H46" t="s">
         <v>426</v>
       </c>
-      <c r="G46" t="s">
-        <v>260</v>
-      </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>427</v>
       </c>
-      <c r="I46" t="s">
+      <c r="J46" t="s">
         <v>428</v>
       </c>
-      <c r="J46" t="s">
+      <c r="K46" t="s">
         <v>429</v>
-      </c>
-      <c r="K46" t="s">
-        <v>430</v>
       </c>
       <c r="L46" t="s">
         <v>251</v>
       </c>
       <c r="M46" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="N46" t="s">
         <v>253</v>
@@ -10858,45 +10858,45 @@
         <v>85</v>
       </c>
     </row>
-    <row r="47" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B47" t="s">
         <v>242</v>
       </c>
       <c r="C47" t="s">
+        <v>432</v>
+      </c>
+      <c r="D47" t="s">
         <v>433</v>
-      </c>
-      <c r="D47" t="s">
-        <v>434</v>
       </c>
       <c r="E47">
         <v>1997</v>
       </c>
       <c r="F47" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G47" t="s">
+        <v>434</v>
+      </c>
+      <c r="H47" t="s">
+        <v>360</v>
+      </c>
+      <c r="I47" t="s">
         <v>435</v>
       </c>
-      <c r="H47" t="s">
-        <v>361</v>
-      </c>
-      <c r="I47" t="s">
+      <c r="J47" t="s">
         <v>436</v>
       </c>
-      <c r="J47" t="s">
+      <c r="K47" t="s">
         <v>437</v>
-      </c>
-      <c r="K47" t="s">
-        <v>438</v>
       </c>
       <c r="L47" t="s">
         <v>251</v>
       </c>
       <c r="M47" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="N47" t="s">
         <v>253</v>
@@ -10914,48 +10914,48 @@
         <v>85</v>
       </c>
       <c r="AF47" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
-    <row r="48" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B48" t="s">
         <v>242</v>
       </c>
       <c r="C48" t="s">
+        <v>440</v>
+      </c>
+      <c r="D48" t="s">
         <v>441</v>
-      </c>
-      <c r="D48" t="s">
-        <v>442</v>
       </c>
       <c r="E48">
         <v>1996</v>
       </c>
       <c r="F48" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G48" t="s">
+        <v>442</v>
+      </c>
+      <c r="H48" t="s">
+        <v>375</v>
+      </c>
+      <c r="I48" t="s">
         <v>443</v>
       </c>
-      <c r="H48" t="s">
-        <v>376</v>
-      </c>
-      <c r="I48" t="s">
+      <c r="J48" t="s">
         <v>444</v>
       </c>
-      <c r="J48" t="s">
+      <c r="K48" t="s">
         <v>445</v>
-      </c>
-      <c r="K48" t="s">
-        <v>446</v>
       </c>
       <c r="L48" t="s">
         <v>251</v>
       </c>
       <c r="M48" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="N48" t="s">
         <v>253</v>
@@ -10964,7 +10964,7 @@
         <v>254</v>
       </c>
       <c r="P48" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Q48" t="s">
         <v>21</v>
@@ -10982,10 +10982,10 @@
         <v>113</v>
       </c>
       <c r="Y48" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="Z48" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AA48">
         <v>2</v>
@@ -10997,7 +10997,7 @@
         <v>3</v>
       </c>
       <c r="AD48" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AF48">
         <v>4.4000000000000004</v>
@@ -11009,13 +11009,13 @@
         <v>116</v>
       </c>
       <c r="AL48" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AM48" t="s">
         <v>159</v>
       </c>
       <c r="AO48" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AQ48" t="s">
         <v>164</v>
@@ -11024,7 +11024,7 @@
         <v>239</v>
       </c>
       <c r="AU48" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AV48" t="s">
         <v>203</v>
@@ -11033,48 +11033,48 @@
         <v>207</v>
       </c>
       <c r="AX48" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
-    <row r="49" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B49" t="s">
         <v>242</v>
       </c>
       <c r="C49" t="s">
+        <v>440</v>
+      </c>
+      <c r="D49" t="s">
         <v>441</v>
-      </c>
-      <c r="D49" t="s">
-        <v>442</v>
       </c>
       <c r="E49">
         <v>1996</v>
       </c>
       <c r="F49" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G49" t="s">
+        <v>442</v>
+      </c>
+      <c r="H49" t="s">
+        <v>375</v>
+      </c>
+      <c r="I49" t="s">
         <v>443</v>
       </c>
-      <c r="H49" t="s">
-        <v>376</v>
-      </c>
-      <c r="I49" t="s">
+      <c r="J49" t="s">
         <v>444</v>
       </c>
-      <c r="J49" t="s">
+      <c r="K49" t="s">
         <v>445</v>
-      </c>
-      <c r="K49" t="s">
-        <v>446</v>
       </c>
       <c r="L49" t="s">
         <v>251</v>
       </c>
       <c r="M49" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="N49" t="s">
         <v>253</v>
@@ -11083,7 +11083,7 @@
         <v>254</v>
       </c>
       <c r="P49" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Q49" t="s">
         <v>21</v>
@@ -11101,10 +11101,10 @@
         <v>113</v>
       </c>
       <c r="Y49" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="Z49" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AA49">
         <v>2</v>
@@ -11116,7 +11116,7 @@
         <v>3</v>
       </c>
       <c r="AD49" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AF49">
         <v>4.4000000000000004</v>
@@ -11128,13 +11128,13 @@
         <v>116</v>
       </c>
       <c r="AL49" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AM49" t="s">
         <v>159</v>
       </c>
       <c r="AO49" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AQ49" t="s">
         <v>164</v>
@@ -11143,7 +11143,7 @@
         <v>239</v>
       </c>
       <c r="AU49" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AV49" t="s">
         <v>201</v>
@@ -11152,48 +11152,48 @@
         <v>207</v>
       </c>
       <c r="AX49" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
-    <row r="50" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B50" t="s">
         <v>242</v>
       </c>
       <c r="C50" t="s">
+        <v>440</v>
+      </c>
+      <c r="D50" t="s">
         <v>441</v>
-      </c>
-      <c r="D50" t="s">
-        <v>442</v>
       </c>
       <c r="E50">
         <v>1996</v>
       </c>
       <c r="F50" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G50" t="s">
+        <v>442</v>
+      </c>
+      <c r="H50" t="s">
+        <v>375</v>
+      </c>
+      <c r="I50" t="s">
         <v>443</v>
       </c>
-      <c r="H50" t="s">
-        <v>376</v>
-      </c>
-      <c r="I50" t="s">
+      <c r="J50" t="s">
         <v>444</v>
       </c>
-      <c r="J50" t="s">
+      <c r="K50" t="s">
         <v>445</v>
-      </c>
-      <c r="K50" t="s">
-        <v>446</v>
       </c>
       <c r="L50" t="s">
         <v>251</v>
       </c>
       <c r="M50" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="N50" t="s">
         <v>253</v>
@@ -11202,7 +11202,7 @@
         <v>254</v>
       </c>
       <c r="P50" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Q50" t="s">
         <v>21</v>
@@ -11220,10 +11220,10 @@
         <v>113</v>
       </c>
       <c r="Y50" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="Z50" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AA50">
         <v>2</v>
@@ -11235,7 +11235,7 @@
         <v>3</v>
       </c>
       <c r="AD50" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AF50">
         <v>4.4000000000000004</v>
@@ -11247,13 +11247,13 @@
         <v>116</v>
       </c>
       <c r="AL50" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AM50" t="s">
         <v>159</v>
       </c>
       <c r="AO50" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AQ50" t="s">
         <v>164</v>
@@ -11262,7 +11262,7 @@
         <v>239</v>
       </c>
       <c r="AU50" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AV50" t="s">
         <v>201</v>
@@ -11271,48 +11271,48 @@
         <v>209</v>
       </c>
       <c r="AX50" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
-    <row r="51" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B51" t="s">
         <v>242</v>
       </c>
       <c r="C51" t="s">
+        <v>448</v>
+      </c>
+      <c r="D51" t="s">
         <v>449</v>
-      </c>
-      <c r="D51" t="s">
-        <v>450</v>
       </c>
       <c r="E51">
         <v>1972</v>
       </c>
       <c r="F51" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G51" t="s">
+        <v>450</v>
+      </c>
+      <c r="H51" t="s">
+        <v>291</v>
+      </c>
+      <c r="I51" t="s">
         <v>451</v>
       </c>
-      <c r="H51" t="s">
-        <v>292</v>
-      </c>
-      <c r="I51" t="s">
+      <c r="J51" t="s">
+        <v>347</v>
+      </c>
+      <c r="K51" t="s">
         <v>452</v>
-      </c>
-      <c r="J51" t="s">
-        <v>348</v>
-      </c>
-      <c r="K51" t="s">
-        <v>453</v>
       </c>
       <c r="L51" t="s">
         <v>251</v>
       </c>
       <c r="M51" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="N51" t="s">
         <v>253</v>
@@ -11345,7 +11345,7 @@
         <v>69</v>
       </c>
       <c r="Z51" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AA51">
         <v>2</v>
@@ -11357,10 +11357,10 @@
         <v>1</v>
       </c>
       <c r="AE51" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AF51" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AG51" t="s">
         <v>109</v>
@@ -11372,7 +11372,7 @@
         <v>147</v>
       </c>
       <c r="AL51" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AM51" t="s">
         <v>232</v>
@@ -11381,16 +11381,16 @@
         <v>160</v>
       </c>
       <c r="AO51" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AQ51" t="s">
         <v>164</v>
       </c>
       <c r="AT51" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AU51" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AV51" t="s">
         <v>199</v>
@@ -11399,48 +11399,48 @@
         <v>209</v>
       </c>
       <c r="AX51" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
-    <row r="52" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B52" t="s">
         <v>242</v>
       </c>
       <c r="C52" t="s">
+        <v>455</v>
+      </c>
+      <c r="D52" t="s">
         <v>456</v>
-      </c>
-      <c r="D52" t="s">
-        <v>457</v>
       </c>
       <c r="E52">
         <v>2011</v>
       </c>
       <c r="F52" t="s">
+        <v>457</v>
+      </c>
+      <c r="G52" t="s">
         <v>458</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
+        <v>300</v>
+      </c>
+      <c r="I52" t="s">
         <v>459</v>
       </c>
-      <c r="H52" t="s">
-        <v>301</v>
-      </c>
-      <c r="I52" t="s">
+      <c r="J52" t="s">
         <v>460</v>
       </c>
-      <c r="J52" t="s">
+      <c r="K52" t="s">
         <v>461</v>
-      </c>
-      <c r="K52" t="s">
-        <v>462</v>
       </c>
       <c r="L52" t="s">
         <v>251</v>
       </c>
       <c r="M52" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="N52" t="s">
         <v>253</v>
@@ -11449,7 +11449,7 @@
         <v>254</v>
       </c>
       <c r="P52" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="Q52" t="s">
         <v>22</v>
@@ -11473,10 +11473,10 @@
         <v>113</v>
       </c>
       <c r="Y52" t="s">
+        <v>576</v>
+      </c>
+      <c r="Z52" t="s">
         <v>577</v>
-      </c>
-      <c r="Z52" t="s">
-        <v>578</v>
       </c>
       <c r="AA52">
         <v>2</v>
@@ -11488,10 +11488,10 @@
         <v>3</v>
       </c>
       <c r="AD52" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AF52" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AG52" t="s">
         <v>107</v>
@@ -11506,7 +11506,7 @@
         <v>113</v>
       </c>
       <c r="AL52" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AM52" t="s">
         <v>232</v>
@@ -11515,7 +11515,7 @@
         <v>161</v>
       </c>
       <c r="AO52" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AQ52" t="s">
         <v>164</v>
@@ -11527,10 +11527,10 @@
         <v>176</v>
       </c>
       <c r="AT52" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AU52" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AV52" t="s">
         <v>213</v>
@@ -11539,7 +11539,7 @@
         <v>209</v>
       </c>
       <c r="AX52" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
   </sheetData>
@@ -11674,17 +11674,17 @@
       <selection activeCell="AP31" sqref="AP31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="19" max="19" width="32.1796875" customWidth="1"/>
-    <col min="23" max="23" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32.140625" customWidth="1"/>
+    <col min="23" max="23" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="25" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="25" customWidth="1"/>
-    <col min="32" max="32" width="14.54296875" customWidth="1"/>
-    <col min="33" max="33" width="26.453125" customWidth="1"/>
+    <col min="32" max="32" width="14.5703125" customWidth="1"/>
+    <col min="33" max="33" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>11</v>
       </c>
@@ -11749,7 +11749,7 @@
       <c r="AV1" s="8"/>
       <c r="AW1" s="8"/>
     </row>
-    <row r="2" spans="1:49" ht="87" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:49" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>68</v>
       </c>
@@ -11898,7 +11898,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
       <c r="Q3" t="s">
         <v>21</v>
       </c>
@@ -11955,7 +11955,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
       <c r="Q4" t="s">
         <v>22</v>
       </c>
@@ -12012,7 +12012,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="R5" t="s">
         <v>83</v>
       </c>
@@ -12068,7 +12068,7 @@
       </c>
       <c r="AW5" s="7"/>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:49" ht="30" x14ac:dyDescent="0.25">
       <c r="R6" t="s">
         <v>84</v>
       </c>
@@ -12113,7 +12113,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="R7" t="s">
         <v>85</v>
       </c>
@@ -12155,7 +12155,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="R8" t="s">
         <v>86</v>
       </c>
@@ -12193,7 +12193,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="R9" t="s">
         <v>87</v>
       </c>
@@ -12228,7 +12228,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="S10" t="s">
         <v>33</v>
       </c>
@@ -12260,7 +12260,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="S11" t="s">
         <v>32</v>
       </c>
@@ -12295,7 +12295,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="S12" t="s">
         <v>30</v>
       </c>
@@ -12327,7 +12327,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="S13" t="s">
         <v>79</v>
       </c>
@@ -12362,7 +12362,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="S14" t="s">
         <v>31</v>
       </c>
@@ -12391,7 +12391,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="S15" t="s">
         <v>35</v>
       </c>
@@ -12420,7 +12420,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="S16" t="s">
         <v>34</v>
       </c>
@@ -12440,7 +12440,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="34:47" x14ac:dyDescent="0.35">
+    <row r="17" spans="34:47" x14ac:dyDescent="0.25">
       <c r="AM17" t="s">
         <v>162</v>
       </c>
@@ -12448,22 +12448,22 @@
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="34:47" x14ac:dyDescent="0.35">
+    <row r="18" spans="34:47" x14ac:dyDescent="0.25">
       <c r="AP18" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="34:47" x14ac:dyDescent="0.35">
+    <row r="19" spans="34:47" x14ac:dyDescent="0.25">
       <c r="AP19" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="34:47" x14ac:dyDescent="0.35">
+    <row r="22" spans="34:47" x14ac:dyDescent="0.25">
       <c r="AH22" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="34:47" x14ac:dyDescent="0.35">
+    <row r="23" spans="34:47" x14ac:dyDescent="0.25">
       <c r="AH23" s="6" t="s">
         <v>115</v>
       </c>
@@ -12498,7 +12498,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="34:47" x14ac:dyDescent="0.35">
+    <row r="24" spans="34:47" x14ac:dyDescent="0.25">
       <c r="AH24" t="s">
         <v>129</v>
       </c>
@@ -12524,7 +12524,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="34:47" x14ac:dyDescent="0.35">
+    <row r="25" spans="34:47" x14ac:dyDescent="0.25">
       <c r="AH25" t="s">
         <v>137</v>
       </c>
@@ -12547,7 +12547,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="26" spans="34:47" x14ac:dyDescent="0.35">
+    <row r="26" spans="34:47" x14ac:dyDescent="0.25">
       <c r="AJ26" t="s">
         <v>144</v>
       </c>
@@ -12558,7 +12558,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="27" spans="34:47" x14ac:dyDescent="0.35">
+    <row r="27" spans="34:47" x14ac:dyDescent="0.25">
       <c r="AJ27" t="s">
         <v>147</v>
       </c>
@@ -12569,7 +12569,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="28" spans="34:47" x14ac:dyDescent="0.35">
+    <row r="28" spans="34:47" x14ac:dyDescent="0.25">
       <c r="AJ28" t="s">
         <v>149</v>
       </c>
@@ -12577,12 +12577,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="34:47" x14ac:dyDescent="0.35">
+    <row r="29" spans="34:47" x14ac:dyDescent="0.25">
       <c r="AP29" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="30" spans="34:47" x14ac:dyDescent="0.35">
+    <row r="30" spans="34:47" x14ac:dyDescent="0.25">
       <c r="AH30" s="5" t="s">
         <v>151</v>
       </c>
@@ -12605,7 +12605,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="31" spans="34:47" x14ac:dyDescent="0.35">
+    <row r="31" spans="34:47" x14ac:dyDescent="0.25">
       <c r="AH31" s="6" t="s">
         <v>129</v>
       </c>
@@ -12631,7 +12631,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="32" spans="34:47" x14ac:dyDescent="0.35">
+    <row r="32" spans="34:47" x14ac:dyDescent="0.25">
       <c r="AH32" t="s">
         <v>153</v>
       </c>
@@ -12657,7 +12657,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="33" spans="34:47" x14ac:dyDescent="0.35">
+    <row r="33" spans="34:47" x14ac:dyDescent="0.25">
       <c r="AH33" t="s">
         <v>155</v>
       </c>
@@ -12677,7 +12677,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="34" spans="34:47" x14ac:dyDescent="0.35">
+    <row r="34" spans="34:47" x14ac:dyDescent="0.25">
       <c r="AI34" t="s">
         <v>157</v>
       </c>
@@ -12691,7 +12691,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="35" spans="34:47" x14ac:dyDescent="0.35">
+    <row r="35" spans="34:47" x14ac:dyDescent="0.25">
       <c r="AI35" t="s">
         <v>113</v>
       </c>
@@ -12705,7 +12705,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="36" spans="34:47" x14ac:dyDescent="0.35">
+    <row r="36" spans="34:47" x14ac:dyDescent="0.25">
       <c r="AT36" t="s">
         <v>211</v>
       </c>
@@ -12713,10 +12713,10 @@
         <v>196</v>
       </c>
     </row>
-    <row r="37" spans="34:47" x14ac:dyDescent="0.35">
+    <row r="37" spans="34:47" x14ac:dyDescent="0.25">
       <c r="AL37" s="5"/>
     </row>
-    <row r="38" spans="34:47" x14ac:dyDescent="0.35">
+    <row r="38" spans="34:47" x14ac:dyDescent="0.25">
       <c r="AL38" s="6"/>
       <c r="AM38" s="6"/>
       <c r="AN38" s="6"/>
@@ -12744,38 +12744,38 @@
       <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.54296875" customWidth="1"/>
-    <col min="9" max="9" width="17.453125" customWidth="1"/>
-    <col min="10" max="10" width="14.54296875" customWidth="1"/>
-    <col min="13" max="13" width="14.453125" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" customWidth="1"/>
     <col min="15" max="15" width="25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.54296875" customWidth="1"/>
-    <col min="17" max="17" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.81640625" customWidth="1"/>
-    <col min="19" max="19" width="17.54296875" customWidth="1"/>
-    <col min="20" max="20" width="19.453125" customWidth="1"/>
-    <col min="21" max="21" width="17.54296875" customWidth="1"/>
-    <col min="22" max="22" width="18.54296875" customWidth="1"/>
-    <col min="25" max="25" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.5703125" customWidth="1"/>
+    <col min="17" max="17" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.85546875" customWidth="1"/>
+    <col min="19" max="19" width="17.5703125" customWidth="1"/>
+    <col min="20" max="20" width="19.42578125" customWidth="1"/>
+    <col min="21" max="21" width="17.5703125" customWidth="1"/>
+    <col min="22" max="22" width="18.5703125" customWidth="1"/>
+    <col min="25" max="25" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="15" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="28.54296875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.453125" customWidth="1"/>
-    <col min="29" max="29" width="15.453125" customWidth="1"/>
-    <col min="30" max="30" width="26.453125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.54296875" customWidth="1"/>
-    <col min="32" max="32" width="12.54296875" customWidth="1"/>
+    <col min="27" max="27" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" customWidth="1"/>
+    <col min="29" max="29" width="15.42578125" customWidth="1"/>
+    <col min="30" max="30" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.5703125" customWidth="1"/>
+    <col min="32" max="32" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>12</v>
       </c>
@@ -12821,7 +12821,7 @@
       <c r="AE1" s="11"/>
       <c r="AF1" s="11"/>
     </row>
-    <row r="2" spans="1:32" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>66</v>
       </c>
@@ -12919,7 +12919,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -12985,7 +12985,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -13036,7 +13036,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -13090,7 +13090,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>84</v>
       </c>
@@ -13132,7 +13132,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>85</v>
       </c>
@@ -13177,7 +13177,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -13215,7 +13215,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>87</v>
       </c>
@@ -13253,7 +13253,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>33</v>
       </c>
@@ -13288,7 +13288,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>32</v>
       </c>
@@ -13320,7 +13320,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>30</v>
       </c>
@@ -13352,7 +13352,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>79</v>
       </c>
@@ -13381,7 +13381,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>31</v>
       </c>
@@ -13404,7 +13404,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>35</v>
       </c>
@@ -13430,7 +13430,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>34</v>
       </c>
@@ -13447,7 +13447,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="17:27" x14ac:dyDescent="0.35">
+    <row r="17" spans="17:27" x14ac:dyDescent="0.25">
       <c r="Q17" t="s">
         <v>119</v>
       </c>
@@ -13458,7 +13458,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="17:27" x14ac:dyDescent="0.35">
+    <row r="18" spans="17:27" x14ac:dyDescent="0.25">
       <c r="Q18" t="s">
         <v>120</v>
       </c>
@@ -13472,7 +13472,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="19" spans="17:27" x14ac:dyDescent="0.35">
+    <row r="19" spans="17:27" x14ac:dyDescent="0.25">
       <c r="R19" t="s">
         <v>152</v>
       </c>
@@ -13486,7 +13486,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="17:27" x14ac:dyDescent="0.35">
+    <row r="20" spans="17:27" x14ac:dyDescent="0.25">
       <c r="S20" t="s">
         <v>156</v>
       </c>
@@ -13497,7 +13497,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="21" spans="17:27" x14ac:dyDescent="0.35">
+    <row r="21" spans="17:27" x14ac:dyDescent="0.25">
       <c r="S21" t="s">
         <v>228</v>
       </c>
@@ -13511,7 +13511,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="22" spans="17:27" x14ac:dyDescent="0.35">
+    <row r="22" spans="17:27" x14ac:dyDescent="0.25">
       <c r="S22" t="s">
         <v>113</v>
       </c>
@@ -13522,7 +13522,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="23" spans="17:27" x14ac:dyDescent="0.35">
+    <row r="23" spans="17:27" x14ac:dyDescent="0.25">
       <c r="Q23" t="s">
         <v>127</v>
       </c>
@@ -13533,7 +13533,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="17:27" x14ac:dyDescent="0.35">
+    <row r="24" spans="17:27" x14ac:dyDescent="0.25">
       <c r="R24" t="s">
         <v>141</v>
       </c>
@@ -13541,7 +13541,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="17:27" x14ac:dyDescent="0.35">
+    <row r="25" spans="17:27" x14ac:dyDescent="0.25">
       <c r="R25" t="s">
         <v>146</v>
       </c>
@@ -13549,7 +13549,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="26" spans="17:27" x14ac:dyDescent="0.35">
+    <row r="26" spans="17:27" x14ac:dyDescent="0.25">
       <c r="R26" t="s">
         <v>148</v>
       </c>
@@ -13557,7 +13557,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="17:27" x14ac:dyDescent="0.35">
+    <row r="27" spans="17:27" x14ac:dyDescent="0.25">
       <c r="R27" t="s">
         <v>150</v>
       </c>
@@ -13571,7 +13571,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="28" spans="17:27" x14ac:dyDescent="0.35">
+    <row r="28" spans="17:27" x14ac:dyDescent="0.25">
       <c r="Q28" t="s">
         <v>122</v>
       </c>
@@ -13582,7 +13582,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="29" spans="17:27" x14ac:dyDescent="0.35">
+    <row r="29" spans="17:27" x14ac:dyDescent="0.25">
       <c r="R29" t="s">
         <v>142</v>
       </c>
@@ -13593,7 +13593,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="30" spans="17:27" x14ac:dyDescent="0.35">
+    <row r="30" spans="17:27" x14ac:dyDescent="0.25">
       <c r="Q30" t="s">
         <v>123</v>
       </c>
@@ -13604,7 +13604,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="31" spans="17:27" x14ac:dyDescent="0.35">
+    <row r="31" spans="17:27" x14ac:dyDescent="0.25">
       <c r="R31" t="s">
         <v>143</v>
       </c>
@@ -13612,7 +13612,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="32" spans="17:27" x14ac:dyDescent="0.35">
+    <row r="32" spans="17:27" x14ac:dyDescent="0.25">
       <c r="Q32" t="s">
         <v>128</v>
       </c>
@@ -13620,12 +13620,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="33" spans="25:25" x14ac:dyDescent="0.35">
+    <row r="33" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y33" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="34" spans="25:25" x14ac:dyDescent="0.35">
+    <row r="34" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y34" t="s">
         <v>150</v>
       </c>
@@ -13645,6 +13645,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="125e2131eddd38cce17ebc9527d7a9d7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="553f2d8843fd2aa64b81f9e8c63a6619">
     <xsd:element name="properties">
@@ -13758,22 +13773,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD9F6DFA-3CE5-417E-90E8-A9FD71AA783B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13787,27 +13810,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>